--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -97,7 +97,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>itemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原力之瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复生命值至80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万物皆空，万事皆允</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许是某种神秘的灵气之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球之书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰弹之书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电之书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记载了火球术用法的古老书籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记载了闪电术用法的古老书籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记载了冰弹术用法的古老书籍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,12 +522,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -471,18 +574,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -510,8 +614,11 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -539,8 +646,11 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1100</v>
       </c>
@@ -568,8 +678,11 @@
       <c r="I3">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1101</v>
       </c>
@@ -597,8 +710,11 @@
       <c r="I4">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1200</v>
       </c>
@@ -626,8 +742,11 @@
       <c r="I5">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1201</v>
       </c>
@@ -655,8 +774,11 @@
       <c r="I6">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1300</v>
       </c>
@@ -684,8 +806,11 @@
       <c r="I7">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1301</v>
       </c>
@@ -713,8 +838,11 @@
       <c r="I8">
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1400</v>
       </c>
@@ -742,8 +870,11 @@
       <c r="I9">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1401</v>
       </c>
@@ -771,8 +902,11 @@
       <c r="I10">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1500</v>
       </c>
@@ -800,8 +934,11 @@
       <c r="I11">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1501</v>
       </c>
@@ -828,6 +965,9 @@
       </c>
       <c r="I12">
         <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -839,25 +979,146 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>201</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>202</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>110</v>
+      </c>
+      <c r="G5">
+        <v>203</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>101</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>106</v>
@@ -734,10 +734,10 @@
         <v>100</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>102</v>
@@ -766,10 +766,10 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>107</v>
@@ -798,10 +798,10 @@
         <v>90</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>103</v>
@@ -830,10 +830,10 @@
         <v>100</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>108</v>
@@ -862,10 +862,10 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>104</v>
@@ -894,10 +894,10 @@
         <v>105</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>109</v>
@@ -926,7 +926,7 @@
         <v>100</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -958,7 +958,7 @@
         <v>110</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>10</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -699,7 +699,7 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -786,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>120</v>
@@ -850,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>75</v>
@@ -914,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>80</v>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1051,7 +1051,7 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>70</v>
@@ -1077,7 +1077,7 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>90</v>
@@ -1103,7 +1103,7 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>80</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -981,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -302,6 +302,34 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -742,24 +770,35 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="A3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -771,10 +810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="A12:N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -880,374 +919,411 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>1000</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="5">
         <v>0</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>1100</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>100</v>
-      </c>
-      <c r="G4" s="1">
-        <v>150</v>
-      </c>
-      <c r="H4" s="1">
-        <v>150</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1101</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1102</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1103</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="3">
-        <v>120</v>
-      </c>
-      <c r="H5" s="3">
-        <v>120</v>
-      </c>
-      <c r="I5" s="3">
-        <v>7</v>
+      <c r="G5" s="1">
+        <v>150</v>
+      </c>
+      <c r="H5" s="1">
+        <v>150</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
       </c>
       <c r="J5" s="1">
-        <v>1201</v>
+        <v>1101</v>
       </c>
       <c r="K5" s="1">
-        <v>1202</v>
+        <v>1102</v>
       </c>
       <c r="L5" s="1">
-        <v>1203</v>
+        <v>1103</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1">
-        <v>90</v>
-      </c>
-      <c r="G6" s="1">
-        <v>90</v>
-      </c>
-      <c r="H6" s="1">
-        <v>90</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>120</v>
+      </c>
+      <c r="H6" s="3">
+        <v>120</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7</v>
       </c>
       <c r="J6" s="1">
-        <v>1301</v>
+        <v>1201</v>
       </c>
       <c r="K6" s="1">
-        <v>1302</v>
+        <v>1202</v>
       </c>
       <c r="L6" s="1">
-        <v>1303</v>
+        <v>1203</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G7" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I7" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1">
-        <v>1401</v>
+        <v>1301</v>
       </c>
       <c r="K7" s="1">
-        <v>1402</v>
+        <v>1302</v>
       </c>
       <c r="L7" s="1">
-        <v>1403</v>
+        <v>1303</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
-        <v>18</v>
-      </c>
       <c r="F8" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1">
-        <v>1501</v>
+        <v>1401</v>
       </c>
       <c r="K8" s="1">
-        <v>1502</v>
+        <v>1402</v>
       </c>
       <c r="L8" s="1">
-        <v>1503</v>
+        <v>1403</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1">
-        <v>1601</v>
+        <v>1501</v>
       </c>
       <c r="K9" s="1">
-        <v>1602</v>
+        <v>1502</v>
       </c>
       <c r="L9" s="1">
-        <v>1603</v>
+        <v>1503</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1701</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1702</v>
+        <v>20</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1601</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1602</v>
       </c>
       <c r="L10" s="1">
-        <v>1703</v>
+        <v>1603</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G11" s="1">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="H11" s="1">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="J11" s="1">
-        <v>1801</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1802</v>
+      <c r="J11" s="3">
+        <v>1701</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1702</v>
       </c>
       <c r="L11" s="1">
-        <v>1803</v>
+        <v>1703</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1">
+        <v>85</v>
+      </c>
+      <c r="H12" s="1">
+        <v>110</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1801</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1802</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1803</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
@@ -1283,15 +1359,6 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
@@ -1329,8 +1396,8 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1345,8 +1412,8 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1468,8 +1535,19 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1489,86 +1567,85 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
     </row>
     <row r="49" spans="10:13" x14ac:dyDescent="0.15">
       <c r="J49" s="1"/>
@@ -1659,6 +1736,12 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1669,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="A1:H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1734,111 +1817,138 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="A3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>2000</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>70</v>
-      </c>
-      <c r="E4">
-        <v>80</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>201</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>202</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>2003</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>80</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>90</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>110</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>203</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>weaponID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>basicATK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +78,6 @@
   </si>
   <si>
     <t>万物皆空，万事皆允</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -330,6 +318,18 @@
   </si>
   <si>
     <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,35 +749,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -796,15 +796,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -813,7 +814,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -833,134 +834,134 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="J1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -968,10 +969,10 @@
         <v>1000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -1012,10 +1013,10 @@
         <v>1100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1052,10 +1053,10 @@
         <v>1200</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
@@ -1092,10 +1093,10 @@
         <v>1300</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>9</v>
@@ -1132,10 +1133,10 @@
         <v>1400</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -1172,10 +1173,10 @@
         <v>1500</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
@@ -1212,10 +1213,10 @@
         <v>1600</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D10" s="1">
         <v>16</v>
@@ -1252,10 +1253,10 @@
         <v>1700</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
@@ -1292,10 +1293,10 @@
         <v>1800</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="1">
         <v>16</v>
@@ -1754,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1766,80 +1767,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1847,7 +1848,7 @@
         <v>2000</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -1865,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1873,7 +1874,7 @@
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1888,10 +1889,10 @@
         <v>100</v>
       </c>
       <c r="G5">
-        <v>201</v>
+        <v>1101</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1899,7 +1900,7 @@
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1914,10 +1915,10 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>202</v>
+        <v>1301</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1925,7 +1926,7 @@
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1940,10 +1941,10 @@
         <v>110</v>
       </c>
       <c r="G7">
-        <v>203</v>
+        <v>1501</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -16,15 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>basicATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill1ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,30 +86,6 @@
   </si>
   <si>
     <t>skillID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球之书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰弹之书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电之书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记载了火球术用法的古老书籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记载了闪电术用法的古老书籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记载了冰弹术用法的古老书籍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -269,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +298,82 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咩咩之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咩咩利爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咩咩的爪子，造成的伤害不可轻视。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更加锋利的咩咩之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咩咩的愤怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记载了灵气弹用法的古老书籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气之书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记载了阴气弹用法的古老书籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记载了阳气弹用法的古老书籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴气之书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳气之书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万魔噬魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夸父之怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵属性大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴属性大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳属性大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵属性，造成随机伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术打断值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,35 +793,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -785,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -796,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +858,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I1" sqref="I1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,134 +878,134 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -969,10 +1013,10 @@
         <v>1000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -1013,10 +1057,10 @@
         <v>1100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1053,10 +1097,10 @@
         <v>1200</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
@@ -1093,10 +1137,10 @@
         <v>1300</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>9</v>
@@ -1133,10 +1177,10 @@
         <v>1400</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -1173,10 +1217,10 @@
         <v>1500</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
@@ -1213,10 +1257,10 @@
         <v>1600</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1">
         <v>16</v>
@@ -1253,10 +1297,10 @@
         <v>1700</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
@@ -1293,10 +1337,10 @@
         <v>1800</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1">
         <v>16</v>
@@ -1329,16 +1373,82 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3002</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3003</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1">
+        <v>99</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3002</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3004</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
@@ -1753,110 +1863,130 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J5" sqref="J5:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="26.375" customWidth="1"/>
-    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="34.625" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4" s="8">
@@ -1865,87 +1995,248 @@
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
         <v>80</v>
       </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>1101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>90</v>
-      </c>
       <c r="E6">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
-        <v>1301</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
       </c>
       <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
         <v>80</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>90</v>
       </c>
-      <c r="F7">
-        <v>110</v>
-      </c>
-      <c r="G7">
-        <v>1501</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>4002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>255</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>4003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10">
+        <v>190</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>4004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11">
+        <v>220</v>
+      </c>
+      <c r="E11">
+        <v>250</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -122,10 +122,6 @@
   </si>
   <si>
     <t>武器暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器打断值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -241,18 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,7 +357,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法术打断值</t>
+    <t>武器击退值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术击退值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +783,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,18 +793,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -858,7 +858,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I14"/>
+      <selection activeCell="M1" sqref="M1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -866,9 +866,10 @@
     <col min="3" max="3" width="39.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="9.75" customWidth="1"/>
@@ -884,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>20</v>
@@ -902,27 +903,27 @@
         <v>24</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -946,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>1</v>
@@ -958,54 +959,54 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1060,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1097,10 +1098,10 @@
         <v>1200</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
@@ -1137,10 +1138,10 @@
         <v>1300</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>9</v>
@@ -1180,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -1217,10 +1218,10 @@
         <v>1500</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
@@ -1257,10 +1258,10 @@
         <v>1600</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>16</v>
@@ -1297,10 +1298,10 @@
         <v>1700</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
@@ -1337,10 +1338,10 @@
         <v>1800</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1">
         <v>16</v>
@@ -1377,10 +1378,10 @@
         <v>3001</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1417,10 +1418,10 @@
         <v>3002</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -1863,29 +1864,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="34.625" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
     <col min="11" max="11" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>20</v>
@@ -1893,25 +1898,31 @@
       <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="J1" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1926,54 +1937,66 @@
         <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -2004,16 +2027,22 @@
       <c r="J4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -2022,13 +2051,13 @@
         <v>25</v>
       </c>
       <c r="F5">
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>60</v>
-      </c>
-      <c r="G5">
-        <v>80</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2037,15 +2066,15 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2057,10 +2086,10 @@
         <v>100</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>100</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2069,15 +2098,15 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -2086,13 +2115,13 @@
         <v>20</v>
       </c>
       <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>80</v>
-      </c>
-      <c r="G7">
-        <v>90</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2101,15 +2130,15 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4001</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2121,10 +2150,10 @@
         <v>100</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>100</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2133,15 +2162,15 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4002</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -2150,13 +2179,13 @@
         <v>255</v>
       </c>
       <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>60</v>
-      </c>
-      <c r="G9">
-        <v>80</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2165,15 +2194,15 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4003</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>190</v>
@@ -2185,10 +2214,10 @@
         <v>100</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>100</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2197,15 +2226,15 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4004</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>220</v>
@@ -2214,13 +2243,13 @@
         <v>250</v>
       </c>
       <c r="F11">
+        <v>90</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>80</v>
-      </c>
-      <c r="G11">
-        <v>90</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2229,13 +2258,13 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I14" s="1"/>
     </row>
   </sheetData>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -25,14 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill2ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原力之瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回复生命值至80%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,62 +118,6 @@
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通的短剑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武士常用的刀。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柄很长的枪，不是很好用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士的标准武器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用起来有些吃力的大斧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能是人类能够拿起的最大武器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用的短弓，可以随身携带。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不属于这个时代的诡异武器。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,6 +306,371 @@
   </si>
   <si>
     <t>法术速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本是一种暗器，但是装备在手上也可以使用。这种看起来不起眼却能造成不相称破坏力的物件，不像是人人都能掌握的。</t>
+  </si>
+  <si>
+    <t>冰霜刺剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样子上只是年代久远、锈迹斑斑的刺剑，看上去没有什么像样的威力。然而平凡的外表下似乎有着一些奇异的力量？</t>
+  </si>
+  <si>
+    <t>唐刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰华丽的刀剑，锋利的刀锋能够切开坚硬的皮肤和护甲，给敌人放血。</t>
+  </si>
+  <si>
+    <t>备前长船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀身长得有些不像话，虽然这使得武器能够较容易命中敌人，但实在难以挥舞。据说如果让敌人看清了刀刃，此刀便会离主人而去。</t>
+  </si>
+  <si>
+    <t>传说中被诅咒的妖刀。献祭鲜血似乎能够让此刀更加锋利，却也因此更加渴求更多的鲜血。人类总是渴求更多，区区诅咒能让他们停下脚步吗？</t>
+  </si>
+  <si>
+    <t>赤影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖传石剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓元的爱剑。本是一把普通的双手剑，却寄托了对兽族的仇恨，经过反复锤炼而变得强力而坚硬。爱也好，恨也罢，感情在这个世界上总有其局限的，可能只是还没有意识到罢了。</t>
+  </si>
+  <si>
+    <t>真空之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知什么材质打造而成，剑刃薄到可以透光，甚至让人怀疑这把剑真的有实体吗？</t>
+  </si>
+  <si>
+    <t>湛卢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说曾为一名明君佩戴，终身不曾出鞘。在这乱世，只有保存一颗仁义之心者才可挥舞此剑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶之花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴柔的外表下却有着强大的攻击力，听说包括第一任在内的历任主人均离奇自杀而亡。常有人把邪恶和诱惑联系在一起，却不知是因为诱惑所以邪恶还是因为邪恶所以诱惑。</t>
+  </si>
+  <si>
+    <t>灵气之壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建营火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气之壶上限+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级强化石</t>
+  </si>
+  <si>
+    <t>中级强化石</t>
+  </si>
+  <si>
+    <t>高级强化石</t>
+  </si>
+  <si>
+    <t>特级强化石</t>
+  </si>
+  <si>
+    <t>终极强化石</t>
+  </si>
+  <si>
+    <t>灵力学教授的笔记</t>
+  </si>
+  <si>
+    <t>灵力学大师的笔记</t>
+  </si>
+  <si>
+    <t>不知何人的笔记</t>
+  </si>
+  <si>
+    <r>
+      <t>允许合成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LV.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法术</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>允许合成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LV.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法术</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>允许合成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LV.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法术</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>将武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>将武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂人之斧</t>
+  </si>
+  <si>
+    <t>盘古巨斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说是一个锻造到走火入魔的著名铁匠的最后一件作品，而他也在完成的同一天疯掉了，武器因此得名。人们经常赞许专注之人，却从来没有人理解过其中的痛苦。</t>
+  </si>
+  <si>
+    <t>古神开天辟地使用的道具，但被人质疑其真实性。但即便如此，也难以想象是如何被人类挥舞起来的。</t>
+  </si>
+  <si>
+    <t>双刃弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神祝融祝福过的弓，拥有将射出的箭附带火之力的能力。虽然是弓，两头却附有利刃，可以作为双刃剑使用。</t>
+  </si>
+  <si>
+    <t>狙击弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>势大力沉的重型弩炮。在与野兽的战斗中很少有人使用远程武器，因为一旦被敌人接近将造成不可挽回的后果。但如果能在远处就直接安全地干掉敌人，何乐而不为呢？</t>
+  </si>
+  <si>
+    <t>袖弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑在手臂上由机关射出的弩。虽然算不上什么正大光明的攻击，不过战争时没有人在意这些。</t>
+  </si>
+  <si>
+    <t>轰天巨锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>兽的猎人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳番</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的武器。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳番</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是人兽战争中最著名的勇者，一把巨锤使得野兽不能近身，以一敌多对他来说从来不是问题。可是在洪水退去之后，没有人再见过他。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣盾之枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与其说是枪，不如说是前面附带有超长枪尖的盾。在与兽漫长的抗争过程中有人发明了此物，想要证明比起进攻，防守才是与兽战斗中更重要的，却被嘲笑为胆小鬼，武器也随之失落。</t>
+  </si>
+  <si>
+    <t>策划之友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知从什么时空出现的物品，究竟有什么作用也无人知晓，如果有人想要拿来当作武器，可能是脑子出了问题吧。</t>
+  </si>
+  <si>
+    <t>传说是某著名杀手曾使用过的短剑。剑身短若匕首，使用的样子无论如何也算不上优雅。不过若是能够达到目的，这也不是太大的问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +678,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +722,35 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -452,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -476,6 +802,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -780,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -788,40 +1142,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -829,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -840,10 +1195,120 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>101</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>102</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>103</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -855,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -878,761 +1343,1001 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="57" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
+        <v>1100</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>90</v>
+      </c>
+      <c r="G5" s="13">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13">
+        <v>150</v>
+      </c>
+      <c r="I5" s="13">
+        <v>2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1101</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1102</v>
+      </c>
+      <c r="L5" s="13">
+        <v>1103</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
+        <v>1110</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13">
+        <v>110</v>
+      </c>
+      <c r="G6" s="13">
+        <v>16</v>
+      </c>
+      <c r="H6" s="13">
+        <v>160</v>
+      </c>
+      <c r="I6" s="13">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1101</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1102</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1104</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
+        <v>1120</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>100</v>
+      </c>
+      <c r="G7" s="13">
+        <v>15</v>
+      </c>
+      <c r="H7" s="13">
+        <v>180</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1102</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1105</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1106</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
+        <v>1200</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="13">
+        <v>6</v>
+      </c>
+      <c r="E8" s="13">
+        <v>10</v>
+      </c>
+      <c r="F8" s="13">
+        <v>80</v>
+      </c>
+      <c r="G8" s="13">
+        <v>12</v>
+      </c>
+      <c r="H8" s="13">
+        <v>120</v>
+      </c>
+      <c r="I8" s="13">
+        <v>7</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1201</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1202</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1203</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" ht="57" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>1210</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="13">
+        <v>13</v>
+      </c>
+      <c r="E9" s="13">
+        <v>17</v>
+      </c>
+      <c r="F9" s="13">
+        <v>90</v>
+      </c>
+      <c r="G9" s="13">
+        <v>9</v>
+      </c>
+      <c r="H9" s="13">
+        <v>30</v>
+      </c>
+      <c r="I9" s="13">
+        <v>7</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1201</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1204</v>
+      </c>
+      <c r="L9" s="13">
+        <v>1205</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" ht="57" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
+        <v>1220</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13">
+        <v>80</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>110</v>
+      </c>
+      <c r="I10" s="13">
+        <v>7</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1201</v>
+      </c>
+      <c r="K10" s="13">
+        <v>1206</v>
+      </c>
+      <c r="L10" s="13">
+        <v>1207</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
+        <v>1300</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="13">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13">
+        <v>80</v>
+      </c>
+      <c r="G11" s="13">
+        <v>10</v>
+      </c>
+      <c r="H11" s="13">
+        <v>100</v>
+      </c>
+      <c r="I11" s="13">
+        <v>10</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1301</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1302</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1303</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
+        <v>1310</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="13">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13">
+        <v>80</v>
+      </c>
+      <c r="G12" s="13">
+        <v>10</v>
+      </c>
+      <c r="H12" s="13">
+        <v>130</v>
+      </c>
+      <c r="I12" s="13">
+        <v>10</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1301</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1302</v>
+      </c>
+      <c r="L12" s="13">
+        <v>1304</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="13">
+        <v>1320</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13">
+        <v>8</v>
+      </c>
+      <c r="F13" s="13">
+        <v>60</v>
+      </c>
+      <c r="G13" s="13">
+        <v>8</v>
+      </c>
+      <c r="H13" s="13">
+        <v>80</v>
+      </c>
+      <c r="I13" s="13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1301</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1305</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1306</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" ht="57" x14ac:dyDescent="0.15">
+      <c r="A14" s="13">
+        <v>1400</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="13">
+        <v>15</v>
+      </c>
+      <c r="E14" s="13">
+        <v>25</v>
+      </c>
+      <c r="F14" s="13">
+        <v>60</v>
+      </c>
+      <c r="G14" s="13">
+        <v>10</v>
+      </c>
+      <c r="H14" s="13">
+        <v>80</v>
+      </c>
+      <c r="I14" s="13">
+        <v>14</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1401</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1402</v>
+      </c>
+      <c r="L14" s="13">
+        <v>1403</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" ht="57" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
+        <v>1410</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="13">
+        <v>18</v>
+      </c>
+      <c r="E15" s="13">
+        <v>32</v>
+      </c>
+      <c r="F15" s="13">
+        <v>90</v>
+      </c>
+      <c r="G15" s="13">
+        <v>11</v>
+      </c>
+      <c r="H15" s="13">
+        <v>110</v>
+      </c>
+      <c r="I15" s="13">
+        <v>12</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1401</v>
+      </c>
+      <c r="K15" s="13">
+        <v>1402</v>
+      </c>
+      <c r="L15" s="13">
+        <v>1404</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="13">
+        <v>1420</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="13">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E16" s="13">
+        <v>40</v>
+      </c>
+      <c r="F16" s="13">
+        <v>60</v>
+      </c>
+      <c r="G16" s="13">
+        <v>10</v>
+      </c>
+      <c r="H16" s="13">
+        <v>40</v>
+      </c>
+      <c r="I16" s="13">
+        <v>22</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1401</v>
+      </c>
+      <c r="K16" s="13">
+        <v>1402</v>
+      </c>
+      <c r="L16" s="13">
+        <v>1405</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="13">
+        <v>1500</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="13">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13">
+        <v>70</v>
+      </c>
+      <c r="G17" s="13">
+        <v>11</v>
+      </c>
+      <c r="H17" s="13">
+        <v>80</v>
+      </c>
+      <c r="I17" s="13">
+        <v>7</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1501</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1503</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1504</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" ht="57" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
+        <v>1510</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="13">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E18" s="13">
+        <v>30</v>
+      </c>
+      <c r="F18" s="13">
+        <v>100</v>
+      </c>
+      <c r="G18" s="13">
+        <v>13</v>
+      </c>
+      <c r="H18" s="13">
+        <v>60</v>
+      </c>
+      <c r="I18" s="13">
+        <v>12</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1501</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1502</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1505</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
+        <v>1520</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>6</v>
+      </c>
+      <c r="F19" s="13">
+        <v>90</v>
+      </c>
+      <c r="G19" s="13">
+        <v>15</v>
+      </c>
+      <c r="H19" s="13">
+        <v>110</v>
+      </c>
+      <c r="I19" s="13">
+        <v>3</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1501</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1502</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1506</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" ht="57" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
+        <v>1600</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>30</v>
+      </c>
+      <c r="F20" s="13">
+        <v>40</v>
+      </c>
+      <c r="G20" s="13">
+        <v>10</v>
+      </c>
+      <c r="H20" s="13">
+        <v>75</v>
+      </c>
+      <c r="I20" s="13">
+        <v>13</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1601</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1602</v>
+      </c>
+      <c r="L20" s="13">
+        <v>1603</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
+        <v>1610</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="13">
+        <v>6</v>
+      </c>
+      <c r="E21" s="13">
+        <v>10</v>
+      </c>
+      <c r="F21" s="13">
+        <v>60</v>
+      </c>
+      <c r="G21" s="13">
+        <v>10</v>
+      </c>
+      <c r="H21" s="13">
+        <v>80</v>
+      </c>
+      <c r="I21" s="13">
+        <v>15</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1604</v>
+      </c>
+      <c r="K21" s="13">
+        <v>1605</v>
+      </c>
+      <c r="L21" s="13">
+        <v>1606</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="13">
+        <v>1620</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>100</v>
+      </c>
+      <c r="G22" s="13">
+        <v>10</v>
+      </c>
+      <c r="H22" s="13">
+        <v>100</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>1607</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1608</v>
+      </c>
+      <c r="L22" s="13">
+        <v>1609</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="13">
+        <v>3001</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13">
         <v>25</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="F23" s="13">
+        <v>80</v>
+      </c>
+      <c r="G23" s="13">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>1100</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="H23" s="13">
         <v>100</v>
       </c>
-      <c r="G5" s="1">
-        <v>150</v>
-      </c>
-      <c r="H5" s="1">
-        <v>150</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1101</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1102</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1103</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>1200</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="I23" s="13">
         <v>10</v>
       </c>
-      <c r="F6" s="3">
+      <c r="J23" s="13">
+        <v>3001</v>
+      </c>
+      <c r="K23" s="13">
+        <v>3002</v>
+      </c>
+      <c r="L23" s="13">
+        <v>3003</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
+        <v>3002</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="13">
+        <v>25</v>
+      </c>
+      <c r="E24" s="13">
+        <v>99</v>
+      </c>
+      <c r="F24" s="13">
+        <v>80</v>
+      </c>
+      <c r="G24" s="13">
+        <v>10</v>
+      </c>
+      <c r="H24" s="13">
         <v>100</v>
       </c>
-      <c r="G6" s="3">
-        <v>120</v>
-      </c>
-      <c r="H6" s="3">
-        <v>120</v>
-      </c>
-      <c r="I6" s="3">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1201</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1202</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1203</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1">
-        <v>90</v>
-      </c>
-      <c r="G7" s="1">
-        <v>90</v>
-      </c>
-      <c r="H7" s="1">
-        <v>90</v>
-      </c>
-      <c r="I7" s="1">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1301</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1302</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1303</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>1400</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100</v>
-      </c>
-      <c r="G8" s="1">
-        <v>100</v>
-      </c>
-      <c r="H8" s="1">
-        <v>100</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="I24" s="13">
         <v>10</v>
       </c>
-      <c r="J8" s="1">
-        <v>1401</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1402</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1403</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>1500</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1">
-        <v>80</v>
-      </c>
-      <c r="G9" s="1">
-        <v>100</v>
-      </c>
-      <c r="H9" s="1">
-        <v>75</v>
-      </c>
-      <c r="I9" s="1">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1501</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1502</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1503</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>1600</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1">
-        <v>75</v>
-      </c>
-      <c r="G10" s="1">
-        <v>100</v>
-      </c>
-      <c r="H10" s="1">
-        <v>65</v>
-      </c>
-      <c r="I10" s="1">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1601</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1602</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1603</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>1700</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
-        <v>110</v>
-      </c>
-      <c r="G11" s="1">
-        <v>110</v>
-      </c>
-      <c r="H11" s="1">
-        <v>80</v>
-      </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1701</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1702</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1703</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>1800</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1">
-        <v>16</v>
-      </c>
-      <c r="E12" s="1">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1">
-        <v>85</v>
-      </c>
-      <c r="G12" s="1">
-        <v>85</v>
-      </c>
-      <c r="H12" s="1">
-        <v>110</v>
-      </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1801</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1802</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1803</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="J24" s="13">
         <v>3001</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1">
-        <v>100</v>
-      </c>
-      <c r="G13" s="1">
-        <v>100</v>
-      </c>
-      <c r="H13" s="1">
-        <v>100</v>
-      </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3001</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="K24" s="13">
         <v>3002</v>
       </c>
-      <c r="L13" s="1">
-        <v>3003</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>3002</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="1">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1">
-        <v>99</v>
-      </c>
-      <c r="F14" s="1">
-        <v>100</v>
-      </c>
-      <c r="G14" s="1">
-        <v>100</v>
-      </c>
-      <c r="H14" s="1">
-        <v>100</v>
-      </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3001</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3002</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="L24" s="13">
         <v>3004</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
@@ -1647,8 +2352,8 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
@@ -1663,197 +2368,397 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="10:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M84" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1866,7 +2771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1884,116 +2789,116 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -2001,10 +2906,10 @@
         <v>2000</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -2039,10 +2944,10 @@
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -2071,10 +2976,10 @@
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2103,10 +3008,10 @@
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -2135,10 +3040,10 @@
         <v>4001</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2167,10 +3072,10 @@
         <v>4002</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -2199,10 +3104,10 @@
         <v>4003</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>190</v>
@@ -2231,10 +3136,10 @@
         <v>4004</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>220</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -673,11 +673,34 @@
     <t>传说是某著名杀手曾使用过的短剑。剑身短若匕首，使用的样子无论如何也算不上优雅。不过若是能够达到目的，这也不是太大的问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>吸水提卢枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此枪锋利无比，至刚至强；枪头有孔，刺入人体可吸血，进浸入水中可吸水，因故得名吸水提卢枪。</t>
+  </si>
+  <si>
+    <t>玄龟之壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄龟的背壳，坚硬无比，撞过来的时候十分强力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一只九条尾巴，四只耳朵，眼睛长在背上的羊，它全身都是武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猼訑的全身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -778,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -830,6 +853,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -848,7 +874,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1322,12 +1348,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="39.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
@@ -2318,24 +2345,63 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="13">
+        <v>3005</v>
+      </c>
+      <c r="K25" s="13">
+        <v>3006</v>
+      </c>
+      <c r="L25" s="13">
+        <v>3007</v>
+      </c>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" s="13">
+        <v>3008</v>
+      </c>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+    <row r="27" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="13">
+        <v>3009</v>
+      </c>
+      <c r="K27" s="13">
+        <v>3010</v>
+      </c>
+      <c r="L27" s="13">
+        <v>3011</v>
+      </c>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
     </row>
@@ -2771,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -313,13 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本是一种暗器，但是装备在手上也可以使用。这种看起来不起眼却能造成不相称破坏力的物件，不像是人人都能掌握的。</t>
-  </si>
-  <si>
     <t>冰霜刺剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,13 +320,6 @@
     <t>样子上只是年代久远、锈迹斑斑的刺剑，看上去没有什么像样的威力。然而平凡的外表下似乎有着一些奇异的力量？</t>
   </si>
   <si>
-    <t>唐刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装饰华丽的刀剑，锋利的刀锋能够切开坚硬的皮肤和护甲，给敌人放血。</t>
-  </si>
-  <si>
     <t>备前长船</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,13 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>祖传石剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麓元的爱剑。本是一把普通的双手剑，却寄托了对兽族的仇恨，经过反复锤炼而变得强力而坚硬。爱也好，恨也罢，感情在这个世界上总有其局限的，可能只是还没有意识到罢了。</t>
-  </si>
-  <si>
     <t>真空之刃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,9 +351,6 @@
   <si>
     <t>恶之花</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴柔的外表下却有着强大的攻击力，听说包括第一任在内的历任主人均离奇自杀而亡。常有人把邪恶和诱惑联系在一起，却不知是因为诱惑所以邪恶还是因为邪恶所以诱惑。</t>
   </si>
   <si>
     <t>灵气之壶</t>
@@ -570,9 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狂人之斧</t>
-  </si>
-  <si>
     <t>盘古巨斧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -608,61 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>兽的猎人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阳番</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的武器。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阳番</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是人兽战争中最著名的勇者，一把巨锤使得野兽不能近身，以一敌多对他来说从来不是问题。可是在洪水退去之后，没有人再见过他。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣盾之枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与其说是枪，不如说是前面附带有超长枪尖的盾。在与兽漫长的抗争过程中有人发明了此物，想要证明比起进攻，防守才是与兽战斗中更重要的，却被嘲笑为胆小鬼，武器也随之失落。</t>
-  </si>
-  <si>
     <t>策划之友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,13 +612,52 @@
   </si>
   <si>
     <t>猼訑的全身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁钩爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附有铁钩的爪，本是一种暗器，但是装备在手上也可以使用。这种看起来不起眼却能造成不相称破坏力的物件，不像是人人都能掌握的。</t>
+  </si>
+  <si>
+    <t>日罡·月煞</t>
+  </si>
+  <si>
+    <t>装饰华丽的一对双刀，锋利的刀锋能够切开坚硬的皮肤和护甲，给敌人放血。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓元的石剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓元的爱剑。本是一把普通的双手剑，却寄托了对兽族的仇恨，经过反复锤炼而变得强力而坚硬。爱也好，恨也罢，感情在这个世界上总有其局限，可能只是还没有意识到罢了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通身鲜红的镰刀。阴柔的外表下却有着强大的攻击力，听说包括第一任在内的历任主人均离奇自杀而亡。常有人把邪恶和诱惑联系在一起，却不知是因为诱惑所以邪恶还是因为邪恶所以诱惑。</t>
+  </si>
+  <si>
+    <t>狂人之锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽的猎人阳汎的武器。阳汎是人兽战争中最著名的勇者，他不使用武器，而是直接挥舞一头巨兽的牙齿，竟使得野兽不能近身。洪水退去之后，阳汎却莫名消失了，没有人再见过他。</t>
+  </si>
+  <si>
+    <t>四周附有环状尖刺的盾。在与兽漫长的抗争过程中有人发明了此物，想要证明比起进攻，防守才是与兽战斗中更重要的，却被嘲笑为胆小鬼，武器也随之失落。</t>
+  </si>
+  <si>
+    <t>圣盾之环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -801,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -850,9 +807,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -874,7 +828,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1221,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1232,10 +1186,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1243,10 +1197,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1254,10 +1208,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1265,10 +1219,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1276,10 +1230,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1287,10 +1241,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1298,10 +1252,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1309,10 +1263,10 @@
         <v>101</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1320,10 +1274,10 @@
         <v>102</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1331,10 +1285,10 @@
         <v>103</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1348,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1553,13 +1507,13 @@
         <v>73</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D5" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="13">
         <v>90</v>
@@ -1590,16 +1544,16 @@
         <v>1110</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>75</v>
+        <v>125</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="D6" s="13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" s="13">
         <v>110</v>
@@ -1630,16 +1584,16 @@
         <v>1120</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="13">
         <v>100</v>
@@ -1670,16 +1624,16 @@
         <v>1200</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="D8" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E8" s="13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F8" s="13">
         <v>80</v>
@@ -1710,16 +1664,16 @@
         <v>1210</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="13">
         <v>90</v>
@@ -1750,16 +1704,16 @@
         <v>1220</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
       </c>
       <c r="E10" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="13">
         <v>80</v>
@@ -1790,16 +1744,16 @@
         <v>1300</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D11" s="13">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E11" s="13">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F11" s="13">
         <v>80</v>
@@ -1830,16 +1784,16 @@
         <v>1310</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D12" s="13">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E12" s="13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F12" s="13">
         <v>80</v>
@@ -1870,16 +1824,16 @@
         <v>1320</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D13" s="13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13" s="13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F13" s="13">
         <v>60</v>
@@ -1905,21 +1859,21 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:14" ht="57" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>1400</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="D14" s="13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E14" s="13">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F14" s="13">
         <v>60</v>
@@ -1950,10 +1904,10 @@
         <v>1410</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D15" s="13">
         <v>18</v>
@@ -1990,10 +1944,10 @@
         <v>1420</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D16" s="13">
         <v>28</v>
@@ -2030,16 +1984,16 @@
         <v>1500</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D17" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E17" s="13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F17" s="13">
         <v>70</v>
@@ -2070,10 +2024,10 @@
         <v>1510</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D18" s="13">
         <v>20</v>
@@ -2110,16 +2064,16 @@
         <v>1520</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E19" s="13">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F19" s="13">
         <v>90</v>
@@ -2145,15 +2099,15 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:14" ht="57" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>1600</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D20" s="13">
         <v>0</v>
@@ -2185,21 +2139,21 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="57" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>1610</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="D21" s="13">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E21" s="13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F21" s="13">
         <v>60</v>
@@ -2230,10 +2184,10 @@
         <v>1620</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D22" s="13">
         <v>0</v>
@@ -2350,10 +2304,10 @@
         <v>3003</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>131</v>
+        <v>119</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="J25" s="13">
         <v>3005</v>
@@ -2372,10 +2326,10 @@
         <v>3004</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="J26" s="13">
         <v>3008</v>
@@ -2388,10 +2342,10 @@
         <v>3005</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>134</v>
+        <v>124</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="J27" s="13">
         <v>3009</v>
@@ -2837,7 +2791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -653,12 +653,36 @@
     <t>圣盾之环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>红光第一个法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红光第二个法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龟缩之术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵的注视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将身体缩入壳中，可以回复体力，并且防御力大增</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“被幽灵注视着，不自觉地全身酥麻，绵软无力”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +755,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -758,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -810,6 +840,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -828,7 +861,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1302,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2789,16 +2822,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
@@ -3184,13 +3217,57 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>4005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
       <c r="I12" s="1"/>
+      <c r="J12">
+        <v>4005</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>4006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J13">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>4007</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="I14" s="1"/>
+      <c r="J14">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>4008</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15">
+        <v>4008</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="149">
   <si>
     <t>name</t>
   </si>
@@ -131,22 +131,6 @@
   <si>
     <t>特殊技</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效出现率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffPercentage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物品ID</t>
@@ -671,18 +655,61 @@
   </si>
   <si>
     <t>将身体缩入壳中，可以回复体力，并且防御力大增</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>“被幽灵注视着，不自觉地全身酥麻，绵软无力”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffTurns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff出现率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效出现率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffPercent</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,32 +741,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -757,6 +762,28 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -788,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -805,43 +832,40 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,7 +885,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1153,175 +1177,175 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
       <c r="A13">
         <v>101</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
       <c r="A14">
         <v>102</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
       <c r="A15">
         <v>103</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>98</v>
+      <c r="B15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1333,16 +1357,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="8" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -1351,1051 +1375,1198 @@
     <col min="9" max="9" width="11.625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
     <col min="13" max="13" width="9.375" customWidth="1"/>
     <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="27">
+      <c r="A2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="A4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="40.5">
+      <c r="A5" s="15">
+        <v>1100</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="15">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15">
+        <v>90</v>
+      </c>
+      <c r="G5" s="15">
+        <v>15</v>
+      </c>
+      <c r="H5" s="15">
+        <v>150</v>
+      </c>
+      <c r="I5" s="15">
+        <v>2</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1101</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1102</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1103</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="43.5" customHeight="1">
+      <c r="A6" s="15">
+        <v>1110</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="15">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="15">
+        <v>110</v>
+      </c>
+      <c r="G6" s="15">
+        <v>16</v>
+      </c>
+      <c r="H6" s="15">
+        <v>160</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1101</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1102</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1104</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" ht="40.5">
+      <c r="A7" s="15">
+        <v>1120</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15">
+        <v>100</v>
+      </c>
+      <c r="G7" s="15">
+        <v>15</v>
+      </c>
+      <c r="H7" s="15">
+        <v>180</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1102</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1105</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1106</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" ht="27">
+      <c r="A8" s="15">
+        <v>1200</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="15">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15">
+        <v>16</v>
+      </c>
+      <c r="F8" s="15">
+        <v>80</v>
+      </c>
+      <c r="G8" s="15">
+        <v>12</v>
+      </c>
+      <c r="H8" s="15">
+        <v>120</v>
+      </c>
+      <c r="I8" s="15">
+        <v>7</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1201</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1202</v>
+      </c>
+      <c r="L8" s="15">
+        <v>1203</v>
+      </c>
+      <c r="M8" s="15">
+        <v>2</v>
+      </c>
+      <c r="N8" s="15">
+        <v>10</v>
+      </c>
+      <c r="O8" s="17">
+        <v>5</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:17" ht="40.5">
+      <c r="A9" s="15">
+        <v>1210</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="15">
+        <v>15</v>
+      </c>
+      <c r="E9" s="15">
+        <v>19</v>
+      </c>
+      <c r="F9" s="15">
+        <v>90</v>
+      </c>
+      <c r="G9" s="15">
+        <v>9</v>
+      </c>
+      <c r="H9" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="I9" s="15">
+        <v>7</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1201</v>
+      </c>
+      <c r="K9" s="15">
+        <v>1204</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1205</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="1:17" ht="54">
+      <c r="A10" s="15">
+        <v>1220</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15">
+        <v>80</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>110</v>
+      </c>
+      <c r="I10" s="15">
+        <v>7</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1201</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1206</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1207</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" ht="54">
+      <c r="A11" s="15">
+        <v>1300</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="15">
+        <v>18</v>
+      </c>
+      <c r="E11" s="15">
+        <v>22</v>
+      </c>
+      <c r="F11" s="15">
+        <v>80</v>
+      </c>
+      <c r="G11" s="15">
+        <v>10</v>
+      </c>
+      <c r="H11" s="15">
+        <v>100</v>
+      </c>
+      <c r="I11" s="15">
+        <v>10</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1301</v>
+      </c>
+      <c r="K11" s="15">
+        <v>1302</v>
+      </c>
+      <c r="L11" s="15">
+        <v>1303</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="27">
+      <c r="A12" s="15">
+        <v>1310</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="15">
+        <v>16</v>
+      </c>
+      <c r="E12" s="15">
+        <v>20</v>
+      </c>
+      <c r="F12" s="15">
+        <v>80</v>
+      </c>
+      <c r="G12" s="15">
+        <v>10</v>
+      </c>
+      <c r="H12" s="15">
+        <v>130</v>
+      </c>
+      <c r="I12" s="15">
+        <v>10</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1301</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1302</v>
+      </c>
+      <c r="L12" s="15">
+        <v>1304</v>
+      </c>
+      <c r="M12" s="15">
+        <v>3</v>
+      </c>
+      <c r="N12" s="15">
+        <v>10</v>
+      </c>
+      <c r="O12" s="17">
+        <v>3</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="13" spans="1:17" ht="40.5">
+      <c r="A13" s="15">
+        <v>1320</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="15">
+        <v>15</v>
+      </c>
+      <c r="E13" s="15">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15">
+        <v>60</v>
+      </c>
+      <c r="G13" s="15">
+        <v>8</v>
+      </c>
+      <c r="H13" s="15">
+        <v>80</v>
+      </c>
+      <c r="I13" s="15">
+        <v>8</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1301</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1305</v>
+      </c>
+      <c r="L13" s="15">
+        <v>1306</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="1:17" ht="67.5">
+      <c r="A14" s="15">
+        <v>1400</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="15">
+        <v>25</v>
+      </c>
+      <c r="E14" s="15">
+        <v>35</v>
+      </c>
+      <c r="F14" s="15">
+        <v>60</v>
+      </c>
+      <c r="G14" s="15">
+        <v>10</v>
+      </c>
+      <c r="H14" s="15">
+        <v>80</v>
+      </c>
+      <c r="I14" s="15">
+        <v>14</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1401</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1402</v>
+      </c>
+      <c r="L14" s="15">
+        <v>1403</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" ht="54">
+      <c r="A15" s="15">
+        <v>1410</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="15">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15">
+        <v>32</v>
+      </c>
+      <c r="F15" s="15">
+        <v>90</v>
+      </c>
+      <c r="G15" s="15">
+        <v>11</v>
+      </c>
+      <c r="H15" s="15">
+        <v>110</v>
+      </c>
+      <c r="I15" s="15">
+        <v>12</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1401</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1402</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1404</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:17" ht="40.5">
+      <c r="A16" s="15">
+        <v>1420</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="15">
+        <v>28</v>
+      </c>
+      <c r="E16" s="15">
+        <v>40</v>
+      </c>
+      <c r="F16" s="15">
+        <v>60</v>
+      </c>
+      <c r="G16" s="15">
+        <v>10</v>
+      </c>
+      <c r="H16" s="15">
+        <v>40</v>
+      </c>
+      <c r="I16" s="15">
+        <v>22</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1401</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1402</v>
+      </c>
+      <c r="L16" s="15">
+        <v>1405</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="1:17" ht="40.5">
+      <c r="A17" s="15">
+        <v>1500</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="15">
+        <v>15</v>
+      </c>
+      <c r="E17" s="15">
+        <v>25</v>
+      </c>
+      <c r="F17" s="15">
+        <v>70</v>
+      </c>
+      <c r="G17" s="15">
+        <v>11</v>
+      </c>
+      <c r="H17" s="15">
+        <v>80</v>
+      </c>
+      <c r="I17" s="15">
+        <v>7</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1501</v>
+      </c>
+      <c r="K17" s="15">
+        <v>1503</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1504</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:17" ht="54">
+      <c r="A18" s="15">
+        <v>1510</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="15">
+        <v>20</v>
+      </c>
+      <c r="E18" s="15">
+        <v>30</v>
+      </c>
+      <c r="F18" s="15">
+        <v>100</v>
+      </c>
+      <c r="G18" s="15">
+        <v>13</v>
+      </c>
+      <c r="H18" s="15">
+        <v>60</v>
+      </c>
+      <c r="I18" s="15">
+        <v>12</v>
+      </c>
+      <c r="J18" s="15">
+        <v>1501</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1502</v>
+      </c>
+      <c r="L18" s="15">
+        <v>1505</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="1:17" ht="40.5">
+      <c r="A19" s="15">
+        <v>1520</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="15">
+        <v>6</v>
+      </c>
+      <c r="E19" s="15">
+        <v>23</v>
+      </c>
+      <c r="F19" s="15">
+        <v>90</v>
+      </c>
+      <c r="G19" s="15">
+        <v>15</v>
+      </c>
+      <c r="H19" s="15">
+        <v>110</v>
+      </c>
+      <c r="I19" s="15">
+        <v>3</v>
+      </c>
+      <c r="J19" s="15">
+        <v>1501</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1502</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1506</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" ht="54">
+      <c r="A20" s="15">
+        <v>1600</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>30</v>
+      </c>
+      <c r="F20" s="15">
+        <v>40</v>
+      </c>
+      <c r="G20" s="15">
+        <v>10</v>
+      </c>
+      <c r="H20" s="15">
+        <v>75</v>
+      </c>
+      <c r="I20" s="15">
+        <v>13</v>
+      </c>
+      <c r="J20" s="15">
+        <v>1601</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1602</v>
+      </c>
+      <c r="L20" s="15">
+        <v>1603</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="1:17" ht="54">
+      <c r="A21" s="15">
+        <v>1610</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="15">
+        <v>16</v>
+      </c>
+      <c r="E21" s="15">
+        <v>20</v>
+      </c>
+      <c r="F21" s="15">
+        <v>60</v>
+      </c>
+      <c r="G21" s="15">
+        <v>10</v>
+      </c>
+      <c r="H21" s="15">
+        <v>80</v>
+      </c>
+      <c r="I21" s="15">
+        <v>15</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1604</v>
+      </c>
+      <c r="K21" s="15">
+        <v>1605</v>
+      </c>
+      <c r="L21" s="15">
+        <v>1606</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" spans="1:17" ht="40.5">
+      <c r="A22" s="15">
+        <v>1620</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>100</v>
+      </c>
+      <c r="G22" s="15">
+        <v>10</v>
+      </c>
+      <c r="H22" s="15">
+        <v>100</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1607</v>
+      </c>
+      <c r="K22" s="15">
+        <v>1608</v>
+      </c>
+      <c r="L22" s="15">
+        <v>1609</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="15">
+        <v>3001</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="D23" s="15">
         <v>1</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="57" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
-        <v>1100</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="E23" s="15">
+        <v>25</v>
+      </c>
+      <c r="F23" s="15">
+        <v>80</v>
+      </c>
+      <c r="G23" s="15">
+        <v>10</v>
+      </c>
+      <c r="H23" s="15">
+        <v>100</v>
+      </c>
+      <c r="I23" s="15">
+        <v>10</v>
+      </c>
+      <c r="J23" s="15">
+        <v>3001</v>
+      </c>
+      <c r="K23" s="15">
+        <v>3002</v>
+      </c>
+      <c r="L23" s="15">
+        <v>3003</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="15">
+        <v>3002</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="15">
+        <v>25</v>
+      </c>
+      <c r="E24" s="15">
+        <v>99</v>
+      </c>
+      <c r="F24" s="15">
+        <v>80</v>
+      </c>
+      <c r="G24" s="15">
+        <v>10</v>
+      </c>
+      <c r="H24" s="15">
+        <v>100</v>
+      </c>
+      <c r="I24" s="15">
+        <v>10</v>
+      </c>
+      <c r="J24" s="15">
+        <v>3001</v>
+      </c>
+      <c r="K24" s="15">
+        <v>3002</v>
+      </c>
+      <c r="L24" s="15">
+        <v>3004</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="1:17" ht="40.5">
+      <c r="A25" s="17">
+        <v>3003</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="15">
+        <v>3005</v>
+      </c>
+      <c r="K25" s="15">
+        <v>3006</v>
+      </c>
+      <c r="L25" s="15">
+        <v>3007</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:17" ht="27">
+      <c r="A26" s="17">
+        <v>3004</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="13">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13">
-        <v>8</v>
-      </c>
-      <c r="F5" s="13">
-        <v>90</v>
-      </c>
-      <c r="G5" s="13">
-        <v>15</v>
-      </c>
-      <c r="H5" s="13">
-        <v>150</v>
-      </c>
-      <c r="I5" s="13">
-        <v>2</v>
-      </c>
-      <c r="J5" s="13">
-        <v>1101</v>
-      </c>
-      <c r="K5" s="13">
-        <v>1102</v>
-      </c>
-      <c r="L5" s="13">
-        <v>1103</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
-        <v>1110</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="13">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13">
-        <v>10</v>
-      </c>
-      <c r="F6" s="13">
-        <v>110</v>
-      </c>
-      <c r="G6" s="13">
-        <v>16</v>
-      </c>
-      <c r="H6" s="13">
-        <v>160</v>
-      </c>
-      <c r="I6" s="13">
-        <v>2</v>
-      </c>
-      <c r="J6" s="13">
-        <v>1101</v>
-      </c>
-      <c r="K6" s="13">
-        <v>1102</v>
-      </c>
-      <c r="L6" s="13">
-        <v>1104</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>1120</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13">
-        <v>4</v>
-      </c>
-      <c r="F7" s="13">
-        <v>100</v>
-      </c>
-      <c r="G7" s="13">
-        <v>15</v>
-      </c>
-      <c r="H7" s="13">
-        <v>180</v>
-      </c>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
-      <c r="J7" s="13">
-        <v>1102</v>
-      </c>
-      <c r="K7" s="13">
-        <v>1105</v>
-      </c>
-      <c r="L7" s="13">
-        <v>1106</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>1200</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="13">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13">
-        <v>16</v>
-      </c>
-      <c r="F8" s="13">
-        <v>80</v>
-      </c>
-      <c r="G8" s="13">
-        <v>12</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="15">
+        <v>3008</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="1:17" ht="27">
+      <c r="A27" s="17">
+        <v>3005</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="13">
-        <v>7</v>
-      </c>
-      <c r="J8" s="13">
-        <v>1201</v>
-      </c>
-      <c r="K8" s="13">
-        <v>1202</v>
-      </c>
-      <c r="L8" s="13">
-        <v>1203</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" ht="57" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>1210</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="13">
-        <v>15</v>
-      </c>
-      <c r="E9" s="13">
-        <v>19</v>
-      </c>
-      <c r="F9" s="13">
-        <v>90</v>
-      </c>
-      <c r="G9" s="13">
-        <v>9</v>
-      </c>
-      <c r="H9" s="13">
-        <v>30</v>
-      </c>
-      <c r="I9" s="13">
-        <v>7</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1201</v>
-      </c>
-      <c r="K9" s="13">
-        <v>1204</v>
-      </c>
-      <c r="L9" s="13">
-        <v>1205</v>
-      </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" ht="57" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>1220</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>10</v>
-      </c>
-      <c r="F10" s="13">
-        <v>80</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>110</v>
-      </c>
-      <c r="I10" s="13">
-        <v>7</v>
-      </c>
-      <c r="J10" s="13">
-        <v>1201</v>
-      </c>
-      <c r="K10" s="13">
-        <v>1206</v>
-      </c>
-      <c r="L10" s="13">
-        <v>1207</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>1300</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="13">
-        <v>18</v>
-      </c>
-      <c r="E11" s="13">
-        <v>22</v>
-      </c>
-      <c r="F11" s="13">
-        <v>80</v>
-      </c>
-      <c r="G11" s="13">
-        <v>10</v>
-      </c>
-      <c r="H11" s="13">
-        <v>100</v>
-      </c>
-      <c r="I11" s="13">
-        <v>10</v>
-      </c>
-      <c r="J11" s="13">
-        <v>1301</v>
-      </c>
-      <c r="K11" s="13">
-        <v>1302</v>
-      </c>
-      <c r="L11" s="13">
-        <v>1303</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>1310</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="13">
-        <v>16</v>
-      </c>
-      <c r="E12" s="13">
-        <v>20</v>
-      </c>
-      <c r="F12" s="13">
-        <v>80</v>
-      </c>
-      <c r="G12" s="13">
-        <v>10</v>
-      </c>
-      <c r="H12" s="13">
-        <v>130</v>
-      </c>
-      <c r="I12" s="13">
-        <v>10</v>
-      </c>
-      <c r="J12" s="13">
-        <v>1301</v>
-      </c>
-      <c r="K12" s="13">
-        <v>1302</v>
-      </c>
-      <c r="L12" s="13">
-        <v>1304</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>1320</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="13">
-        <v>15</v>
-      </c>
-      <c r="E13" s="13">
-        <v>15</v>
-      </c>
-      <c r="F13" s="13">
-        <v>60</v>
-      </c>
-      <c r="G13" s="13">
-        <v>8</v>
-      </c>
-      <c r="H13" s="13">
-        <v>80</v>
-      </c>
-      <c r="I13" s="13">
-        <v>8</v>
-      </c>
-      <c r="J13" s="13">
-        <v>1301</v>
-      </c>
-      <c r="K13" s="13">
-        <v>1305</v>
-      </c>
-      <c r="L13" s="13">
-        <v>1306</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>1400</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="13">
-        <v>25</v>
-      </c>
-      <c r="E14" s="13">
-        <v>35</v>
-      </c>
-      <c r="F14" s="13">
-        <v>60</v>
-      </c>
-      <c r="G14" s="13">
-        <v>10</v>
-      </c>
-      <c r="H14" s="13">
-        <v>80</v>
-      </c>
-      <c r="I14" s="13">
-        <v>14</v>
-      </c>
-      <c r="J14" s="13">
-        <v>1401</v>
-      </c>
-      <c r="K14" s="13">
-        <v>1402</v>
-      </c>
-      <c r="L14" s="13">
-        <v>1403</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" ht="57" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>1410</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="13">
-        <v>18</v>
-      </c>
-      <c r="E15" s="13">
-        <v>32</v>
-      </c>
-      <c r="F15" s="13">
-        <v>90</v>
-      </c>
-      <c r="G15" s="13">
-        <v>11</v>
-      </c>
-      <c r="H15" s="13">
-        <v>110</v>
-      </c>
-      <c r="I15" s="13">
-        <v>12</v>
-      </c>
-      <c r="J15" s="13">
-        <v>1401</v>
-      </c>
-      <c r="K15" s="13">
-        <v>1402</v>
-      </c>
-      <c r="L15" s="13">
-        <v>1404</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>1420</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="13">
-        <v>28</v>
-      </c>
-      <c r="E16" s="13">
-        <v>40</v>
-      </c>
-      <c r="F16" s="13">
-        <v>60</v>
-      </c>
-      <c r="G16" s="13">
-        <v>10</v>
-      </c>
-      <c r="H16" s="13">
-        <v>40</v>
-      </c>
-      <c r="I16" s="13">
-        <v>22</v>
-      </c>
-      <c r="J16" s="13">
-        <v>1401</v>
-      </c>
-      <c r="K16" s="13">
-        <v>1402</v>
-      </c>
-      <c r="L16" s="13">
-        <v>1405</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>1500</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="13">
-        <v>15</v>
-      </c>
-      <c r="E17" s="13">
-        <v>25</v>
-      </c>
-      <c r="F17" s="13">
-        <v>70</v>
-      </c>
-      <c r="G17" s="13">
-        <v>11</v>
-      </c>
-      <c r="H17" s="13">
-        <v>80</v>
-      </c>
-      <c r="I17" s="13">
-        <v>7</v>
-      </c>
-      <c r="J17" s="13">
-        <v>1501</v>
-      </c>
-      <c r="K17" s="13">
-        <v>1503</v>
-      </c>
-      <c r="L17" s="13">
-        <v>1504</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" ht="57" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>1510</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="13">
-        <v>20</v>
-      </c>
-      <c r="E18" s="13">
-        <v>30</v>
-      </c>
-      <c r="F18" s="13">
-        <v>100</v>
-      </c>
-      <c r="G18" s="13">
-        <v>13</v>
-      </c>
-      <c r="H18" s="13">
-        <v>60</v>
-      </c>
-      <c r="I18" s="13">
-        <v>12</v>
-      </c>
-      <c r="J18" s="13">
-        <v>1501</v>
-      </c>
-      <c r="K18" s="13">
-        <v>1502</v>
-      </c>
-      <c r="L18" s="13">
-        <v>1505</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>1520</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="13">
-        <v>6</v>
-      </c>
-      <c r="E19" s="13">
-        <v>23</v>
-      </c>
-      <c r="F19" s="13">
-        <v>90</v>
-      </c>
-      <c r="G19" s="13">
-        <v>15</v>
-      </c>
-      <c r="H19" s="13">
-        <v>110</v>
-      </c>
-      <c r="I19" s="13">
-        <v>3</v>
-      </c>
-      <c r="J19" s="13">
-        <v>1501</v>
-      </c>
-      <c r="K19" s="13">
-        <v>1502</v>
-      </c>
-      <c r="L19" s="13">
-        <v>1506</v>
-      </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
-        <v>1600</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="13">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13">
-        <v>30</v>
-      </c>
-      <c r="F20" s="13">
-        <v>40</v>
-      </c>
-      <c r="G20" s="13">
-        <v>10</v>
-      </c>
-      <c r="H20" s="13">
-        <v>75</v>
-      </c>
-      <c r="I20" s="13">
-        <v>13</v>
-      </c>
-      <c r="J20" s="13">
-        <v>1601</v>
-      </c>
-      <c r="K20" s="13">
-        <v>1602</v>
-      </c>
-      <c r="L20" s="13">
-        <v>1603</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" ht="57" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
-        <v>1610</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="13">
-        <v>16</v>
-      </c>
-      <c r="E21" s="13">
-        <v>20</v>
-      </c>
-      <c r="F21" s="13">
-        <v>60</v>
-      </c>
-      <c r="G21" s="13">
-        <v>10</v>
-      </c>
-      <c r="H21" s="13">
-        <v>80</v>
-      </c>
-      <c r="I21" s="13">
-        <v>15</v>
-      </c>
-      <c r="J21" s="13">
-        <v>1604</v>
-      </c>
-      <c r="K21" s="13">
-        <v>1605</v>
-      </c>
-      <c r="L21" s="13">
-        <v>1606</v>
-      </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
-        <v>1620</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="13">
-        <v>0</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
-        <v>100</v>
-      </c>
-      <c r="G22" s="13">
-        <v>10</v>
-      </c>
-      <c r="H22" s="13">
-        <v>100</v>
-      </c>
-      <c r="I22" s="13">
-        <v>0</v>
-      </c>
-      <c r="J22" s="13">
-        <v>1607</v>
-      </c>
-      <c r="K22" s="13">
-        <v>1608</v>
-      </c>
-      <c r="L22" s="13">
-        <v>1609</v>
-      </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="13">
-        <v>3001</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="E23" s="13">
-        <v>25</v>
-      </c>
-      <c r="F23" s="13">
-        <v>80</v>
-      </c>
-      <c r="G23" s="13">
-        <v>10</v>
-      </c>
-      <c r="H23" s="13">
-        <v>100</v>
-      </c>
-      <c r="I23" s="13">
-        <v>10</v>
-      </c>
-      <c r="J23" s="13">
-        <v>3001</v>
-      </c>
-      <c r="K23" s="13">
-        <v>3002</v>
-      </c>
-      <c r="L23" s="13">
-        <v>3003</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
-        <v>3002</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="13">
-        <v>25</v>
-      </c>
-      <c r="E24" s="13">
-        <v>99</v>
-      </c>
-      <c r="F24" s="13">
-        <v>80</v>
-      </c>
-      <c r="G24" s="13">
-        <v>10</v>
-      </c>
-      <c r="H24" s="13">
-        <v>100</v>
-      </c>
-      <c r="I24" s="13">
-        <v>10</v>
-      </c>
-      <c r="J24" s="13">
-        <v>3001</v>
-      </c>
-      <c r="K24" s="13">
-        <v>3002</v>
-      </c>
-      <c r="L24" s="13">
-        <v>3004</v>
-      </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>3003</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C27" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="13">
-        <v>3005</v>
-      </c>
-      <c r="K25" s="13">
-        <v>3006</v>
-      </c>
-      <c r="L25" s="13">
-        <v>3007</v>
-      </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>3004</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" s="13">
-        <v>3008</v>
-      </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>3005</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="15">
         <v>3009</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="15">
         <v>3010</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="15">
         <v>3011</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2405,13 +2576,12 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2421,13 +2591,12 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2437,13 +2606,13 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2453,13 +2622,12 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2469,13 +2637,12 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2485,13 +2652,12 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2501,13 +2667,12 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2520,10 +2685,9 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2536,10 +2700,9 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2552,10 +2715,9 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2568,10 +2730,9 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2584,233 +2745,233 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14">
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14">
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14">
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14">
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14">
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14">
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="10:12">
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="10:12">
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="10:12">
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="10:12">
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="10:12">
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="10:12">
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="10:12">
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="10:12">
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="10:12">
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="10:12">
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="10:12">
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="10:12">
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="10:12">
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="10:12">
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="10:12">
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="10:12">
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="10:13">
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="10:13">
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="67" spans="10:13">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="68" spans="10:13">
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="69" spans="10:13">
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="10:13">
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="10:13">
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="10:13">
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="10:13">
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="10:13">
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="10:13">
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="76" spans="10:13">
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="10:13">
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="78" spans="10:13">
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="10:13">
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="80" spans="10:13">
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="81" spans="13:13">
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="82" spans="13:13">
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="83" spans="13:13">
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="84" spans="13:13">
       <c r="M84" s="1"/>
     </row>
   </sheetData>
@@ -2822,13 +2983,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
@@ -2836,19 +2997,17 @@
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="8.875" customWidth="1"/>
-    <col min="12" max="12" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>39</v>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -2857,35 +3016,29 @@
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2894,74 +3047,62 @@
       <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>41</v>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7">
         <v>2000</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5">
@@ -2970,37 +3111,31 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -3024,15 +3159,15 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3056,15 +3191,15 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -3088,15 +3223,15 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>4001</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3120,15 +3255,15 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>4002</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -3152,15 +3287,15 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>4003</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>190</v>
@@ -3184,15 +3319,15 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>4004</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>220</v>
@@ -3216,54 +3351,54 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>4005</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12">
         <v>4005</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>4006</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13">
         <v>4006</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="14.25">
       <c r="A14">
         <v>4007</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>140</v>
+        <v>134</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14">
         <v>4007</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="14.25">
       <c r="A15">
         <v>4008</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="J15">
         <v>4008</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9825" activeTab="2"/>
+    <workbookView windowWidth="22935" windowHeight="9825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446">
   <si>
     <t>物品ID</t>
   </si>
@@ -379,30 +379,348 @@
     <t>传说是某著名杀手曾使用过的短剑。剑身短若匕首，使用的样子无论如何也算不上优雅。不过若是能够达到目的，这也不是太大的问题。</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>鱼肠+1</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>鱼肠+2</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>鱼肠+3</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>鱼肠+4</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>鱼肠+5</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>黑铁钩爪</t>
   </si>
   <si>
     <t>附有铁钩的爪，本是一种暗器，但是装备在手上也可以使用。这种看起来不起眼却能造成不相称破坏力的物件，不像是人人都能掌握的。</t>
   </si>
   <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>黑铁钩爪+1</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>黑铁钩爪+2</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>黑铁钩爪+3</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>黑铁钩爪+4</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>黑铁钩爪+5</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>冰霜刺剑</t>
   </si>
   <si>
     <t>样子上只是年代久远、锈迹斑斑的刺剑，看上去没有什么像样的威力。然而平凡的外表下似乎有着一些奇异的力量？</t>
   </si>
   <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>冰霜刺剑+1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>冰霜刺剑+2</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>冰霜刺剑+3</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>冰霜刺剑+4</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>冰霜刺剑+5</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
     <t>日罡·月煞</t>
   </si>
   <si>
     <t>装饰华丽的一对双刀，锋利的刀锋能够切开坚硬的皮肤和护甲，给敌人放血。</t>
   </si>
   <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>日罡·月煞+1</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>日罡·月煞+2</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>日罡·月煞+3</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>日罡·月煞+4</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>日罡·月煞+5</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>备前长船</t>
   </si>
   <si>
     <t>刀身长得有些不像话，虽然这使得武器能够较容易命中敌人，但实在难以挥舞。据说如果让敌人看清了刀刃，此刀便会离主人而去。</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>备前长船+1</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>备前长船+2</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>备前长船+3</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
+    <t>备前长船+4</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>备前长船+5</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>赤影</t>
   </si>
   <si>
@@ -421,58 +739,475 @@
     <t>不知什么材质打造而成，剑刃薄到可以透光，甚至让人怀疑这把剑真的有实体吗？</t>
   </si>
   <si>
+    <t>1311</t>
+  </si>
+  <si>
+    <t>真空之刃+1</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>真空之刃+2</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>真空之刃+3</t>
+  </si>
+  <si>
+    <t>1314</t>
+  </si>
+  <si>
+    <t>真空之刃+4</t>
+  </si>
+  <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>真空之刃+5</t>
+  </si>
+  <si>
     <t>湛卢</t>
   </si>
   <si>
     <t>传说曾为一名明君佩戴，终身不曾出鞘。在这乱世，只有保存一颗仁义之心者才可挥舞此剑。</t>
   </si>
   <si>
+    <t>1321</t>
+  </si>
+  <si>
+    <t>湛卢+1</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>1322</t>
+  </si>
+  <si>
+    <t>湛卢+2</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>湛卢+3</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>1324</t>
+  </si>
+  <si>
+    <t>湛卢+4</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>湛卢+5</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>恶之花</t>
   </si>
   <si>
     <t>通身鲜红的镰刀。阴柔的外表下却有着强大的攻击力，听说包括第一任在内的历任主人均离奇自杀而亡。常有人把邪恶和诱惑联系在一起，却不知是因为诱惑所以邪恶还是因为邪恶所以诱惑。</t>
   </si>
   <si>
+    <t>1401</t>
+  </si>
+  <si>
+    <t>恶之花+1</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>恶之花+2</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>恶之花+3</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>1404</t>
+  </si>
+  <si>
+    <t>恶之花+4</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>1405</t>
+  </si>
+  <si>
+    <t>恶之花+5</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>狂人之锤</t>
   </si>
   <si>
     <t>传说是一个锻造到走火入魔的著名铁匠的最后一件作品，而他也在完成的同一天疯掉了，武器因此得名。人们经常赞许专注之人，却从来没有人理解过其中的痛苦。</t>
   </si>
   <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>狂人之锤+1</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>狂人之锤+2</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>狂人之锤+3</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>狂人之锤+4</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>狂人之锤+5</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>盘古巨斧</t>
   </si>
   <si>
     <t>古神开天辟地使用的道具，但被人质疑其真实性。但即便如此，也难以想象是如何被人类挥舞起来的。</t>
   </si>
   <si>
+    <t>1421</t>
+  </si>
+  <si>
+    <t>盘古巨斧+1</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1422</t>
+  </si>
+  <si>
+    <t>盘古巨斧+2</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>盘古巨斧+3</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>1424</t>
+  </si>
+  <si>
+    <t>盘古巨斧+4</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>盘古巨斧+5</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
     <t>双刃弓</t>
   </si>
   <si>
     <t>火神祝融祝福过的弓，拥有将射出的箭附带火之力的能力。虽然是弓，两头却附有利刃，可以作为双刃剑使用。</t>
   </si>
   <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>双刃弓+1</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>双刃弓+2</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>1503</t>
+  </si>
+  <si>
+    <t>双刃弓+3</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>1504</t>
+  </si>
+  <si>
+    <t>双刃弓+4</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>双刃弓+5</t>
+  </si>
+  <si>
     <t>狙击弩</t>
   </si>
   <si>
     <t>势大力沉的重型弩炮。在与野兽的战斗中很少有人使用远程武器，因为一旦被敌人接近将造成不可挽回的后果。但如果能在远处就直接安全地干掉敌人，何乐而不为呢？</t>
   </si>
   <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>狙击弩+1</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>狙击弩+2</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>狙击弩+3</t>
+  </si>
+  <si>
+    <t>1514</t>
+  </si>
+  <si>
+    <t>狙击弩+4</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>狙击弩+5</t>
+  </si>
+  <si>
     <t>袖弩</t>
   </si>
   <si>
     <t>绑在手臂上由机关射出的弩。虽然算不上什么正大光明的攻击，不过战争时没有人在意这些。</t>
   </si>
   <si>
-    <t>轰天巨锤</t>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>袖弩+1</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>袖弩+2</t>
+  </si>
+  <si>
+    <t>1523</t>
+  </si>
+  <si>
+    <t>袖弩+3</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>袖弩+4</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>袖弩+5</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>巨兽之牙</t>
   </si>
   <si>
     <t>兽的猎人阳汎的武器。阳汎是人兽战争中最著名的勇者，他不使用武器，而是直接挥舞一头巨兽的牙齿，竟使得野兽不能近身。洪水退去之后，阳汎却莫名消失了，没有人再见过他。</t>
   </si>
   <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>巨兽之牙+1</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>巨兽之牙+2</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>巨兽之牙+3</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>巨兽之牙+4</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>巨兽之牙+5</t>
+  </si>
+  <si>
     <t>圣盾之环</t>
   </si>
   <si>
     <t>四周附有环状尖刺的盾。在与兽漫长的抗争过程中有人发明了此物，想要证明比起进攻，防守才是与兽战斗中更重要的，却被嘲笑为胆小鬼，武器也随之失落。</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>圣盾之环+1</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>圣盾之环+2</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>圣盾之环+3</t>
+  </si>
+  <si>
+    <t>1614</t>
+  </si>
+  <si>
+    <t>圣盾之环+4</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>圣盾之环+5</t>
   </si>
   <si>
     <t>策划之友</t>
@@ -789,12 +1524,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,13 +1558,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -842,14 +1584,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,9 +1599,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -879,7 +1621,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,44 +1683,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,16 +1719,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,67 +1754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,13 +1772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,13 +1790,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,37 +1922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,25 +1934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,33 +1945,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1248,17 +1963,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1280,11 +1989,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,16 +2034,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1321,137 +2063,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1488,39 +2230,45 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1938,7 +2686,7 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1949,7 +2697,7 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1957,10 +2705,10 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1968,10 +2716,10 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1979,10 +2727,10 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1990,10 +2738,10 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="28" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2001,10 +2749,10 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2012,10 +2760,10 @@
       <c r="A13">
         <v>101</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2023,10 +2771,10 @@
       <c r="A14">
         <v>102</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2034,10 +2782,10 @@
       <c r="A15">
         <v>103</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2051,15 +2799,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="39.375" style="15" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
@@ -2114,10 +2862,10 @@
       <c r="L1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>45</v>
       </c>
       <c r="O1" s="16" t="s">
@@ -2126,7 +2874,7 @@
       <c r="P1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2167,10 +2915,10 @@
       <c r="L2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>59</v>
       </c>
       <c r="O2" s="16" t="s">
@@ -2273,10 +3021,10 @@
       <c r="L4" s="16">
         <v>0</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="23">
         <v>0</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="23">
         <v>0</v>
       </c>
       <c r="O4" s="16">
@@ -2289,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:17">
+    <row r="5" spans="1:17">
       <c r="A5" s="18">
         <v>1100</v>
       </c>
@@ -2302,14 +3050,14 @@
       <c r="D5" s="18">
         <v>6</v>
       </c>
-      <c r="E5" s="18">
-        <v>8</v>
+      <c r="E5" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="F5" s="18">
         <v>90</v>
       </c>
-      <c r="G5" s="18">
-        <v>15</v>
+      <c r="G5" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="H5" s="18">
         <v>150</v>
@@ -2328,38 +3076,38 @@
       </c>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21">
+      <c r="O5" s="22"/>
+      <c r="P5" s="22">
         <v>2</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="43.5" customHeight="1" spans="1:17">
-      <c r="A6" s="18">
-        <v>1110</v>
+    <row r="6" spans="1:17">
+      <c r="A6" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="18">
-        <v>8</v>
-      </c>
-      <c r="E6" s="18">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="F6" s="18">
-        <v>110</v>
-      </c>
-      <c r="G6" s="18">
-        <v>16</v>
+        <v>90</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="H6" s="18">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I6" s="18">
         <v>2</v>
@@ -2371,1321 +3119,4930 @@
         <v>1102</v>
       </c>
       <c r="L6" s="18">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" ht="40.5" spans="1:17">
-      <c r="A7" s="18">
-        <v>1120</v>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="18">
+        <v>76</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="18">
+        <v>90</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="18">
+        <v>150</v>
+      </c>
+      <c r="I7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="18">
-        <v>4</v>
-      </c>
-      <c r="F7" s="18">
-        <v>100</v>
-      </c>
-      <c r="G7" s="18">
-        <v>15</v>
-      </c>
-      <c r="H7" s="18">
-        <v>180</v>
-      </c>
-      <c r="I7" s="18">
-        <v>1</v>
-      </c>
       <c r="J7" s="18">
+        <v>1101</v>
+      </c>
+      <c r="K7" s="18">
         <v>1102</v>
       </c>
-      <c r="K7" s="18">
-        <v>1105</v>
-      </c>
       <c r="L7" s="18">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" ht="27" spans="1:17">
-      <c r="A8" s="18">
-        <v>1200</v>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="18">
-        <v>12</v>
-      </c>
-      <c r="E8" s="18">
-        <v>16</v>
+        <v>81</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="F8" s="18">
-        <v>80</v>
-      </c>
-      <c r="G8" s="18">
-        <v>12</v>
+        <v>90</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="H8" s="18">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I8" s="18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J8" s="18">
-        <v>1201</v>
+        <v>1101</v>
       </c>
       <c r="K8" s="18">
-        <v>1202</v>
+        <v>1102</v>
       </c>
       <c r="L8" s="18">
-        <v>1203</v>
-      </c>
-      <c r="M8" s="18">
-        <v>2</v>
-      </c>
-      <c r="N8" s="18">
-        <v>10</v>
-      </c>
-      <c r="O8" s="21">
-        <v>5</v>
-      </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" ht="40.5" spans="1:17">
-      <c r="A9" s="18">
-        <v>1210</v>
+        <v>1103</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="18">
-        <v>15</v>
-      </c>
-      <c r="E9" s="18">
-        <v>19</v>
+        <v>87</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="F9" s="18">
         <v>90</v>
       </c>
-      <c r="G9" s="18">
-        <v>9</v>
+      <c r="G9" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="H9" s="18">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I9" s="18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J9" s="18">
-        <v>1201</v>
+        <v>1101</v>
       </c>
       <c r="K9" s="18">
-        <v>1204</v>
+        <v>1102</v>
       </c>
       <c r="L9" s="18">
-        <v>1205</v>
+        <v>1103</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" ht="54" spans="1:17">
-      <c r="A10" s="18">
-        <v>1220</v>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="F10" s="18">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G10" s="18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10" s="18">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="I10" s="18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J10" s="18">
-        <v>1201</v>
+        <v>1101</v>
       </c>
       <c r="K10" s="18">
-        <v>1206</v>
+        <v>1102</v>
       </c>
       <c r="L10" s="18">
-        <v>1207</v>
+        <v>1103</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" ht="54" spans="1:17">
-      <c r="A11" s="18">
-        <v>1300</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="18">
-        <v>18</v>
-      </c>
-      <c r="E11" s="18">
-        <v>22</v>
-      </c>
-      <c r="F11" s="18">
-        <v>80</v>
-      </c>
-      <c r="G11" s="18">
-        <v>10</v>
-      </c>
-      <c r="H11" s="18">
-        <v>100</v>
-      </c>
-      <c r="I11" s="18">
-        <v>10</v>
-      </c>
-      <c r="J11" s="18">
-        <v>1301</v>
-      </c>
-      <c r="K11" s="18">
-        <v>1302</v>
-      </c>
-      <c r="L11" s="18">
-        <v>1303</v>
-      </c>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:17">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="21">
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:17">
+      <c r="A12" s="18">
+        <v>1110</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="18">
+        <v>10</v>
+      </c>
+      <c r="F12" s="18">
+        <v>110</v>
+      </c>
+      <c r="G12" s="18">
+        <v>16</v>
+      </c>
+      <c r="H12" s="18">
+        <v>160</v>
+      </c>
+      <c r="I12" s="18">
+        <v>2</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1101</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1102</v>
+      </c>
+      <c r="L12" s="18">
+        <v>1104</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:17">
+      <c r="A13" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" ht="27" spans="1:17">
-      <c r="A12" s="18">
-        <v>1310</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="18">
+      <c r="C13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="18">
+        <v>110</v>
+      </c>
+      <c r="G13" s="18">
         <v>16</v>
       </c>
-      <c r="E12" s="18">
-        <v>20</v>
-      </c>
-      <c r="F12" s="18">
-        <v>80</v>
-      </c>
-      <c r="G12" s="18">
-        <v>10</v>
-      </c>
-      <c r="H12" s="18">
-        <v>130</v>
-      </c>
-      <c r="I12" s="18">
-        <v>10</v>
-      </c>
-      <c r="J12" s="18">
-        <v>1301</v>
-      </c>
-      <c r="K12" s="18">
-        <v>1302</v>
-      </c>
-      <c r="L12" s="18">
-        <v>1304</v>
-      </c>
-      <c r="M12" s="18">
-        <v>3</v>
-      </c>
-      <c r="N12" s="18">
-        <v>10</v>
-      </c>
-      <c r="O12" s="21">
-        <v>3</v>
-      </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" ht="40.5" spans="1:17">
-      <c r="A13" s="18">
-        <v>1320</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="18">
-        <v>15</v>
-      </c>
-      <c r="E13" s="18">
-        <v>15</v>
-      </c>
-      <c r="F13" s="18">
-        <v>60</v>
-      </c>
-      <c r="G13" s="18">
-        <v>8</v>
-      </c>
       <c r="H13" s="18">
-        <v>80</v>
-      </c>
-      <c r="I13" s="18">
-        <v>8</v>
+        <v>160</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="J13" s="18">
-        <v>1301</v>
+        <v>1101</v>
       </c>
       <c r="K13" s="18">
-        <v>1305</v>
+        <v>1102</v>
       </c>
       <c r="L13" s="18">
-        <v>1306</v>
+        <v>1104</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" ht="67.5" spans="1:17">
-      <c r="A14" s="18">
-        <v>1400</v>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:17">
+      <c r="A14" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="18">
-        <v>25</v>
-      </c>
-      <c r="E14" s="18">
-        <v>35</v>
+        <v>102</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="F14" s="18">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G14" s="18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H14" s="18">
-        <v>80</v>
-      </c>
-      <c r="I14" s="18">
-        <v>14</v>
+        <v>160</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="J14" s="18">
-        <v>1401</v>
+        <v>1101</v>
       </c>
       <c r="K14" s="18">
-        <v>1402</v>
+        <v>1102</v>
       </c>
       <c r="L14" s="18">
-        <v>1403</v>
+        <v>1104</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="15" ht="54" spans="1:17">
-      <c r="A15" s="18">
-        <v>1410</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>84</v>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:17">
+      <c r="A15" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="18">
-        <v>18</v>
-      </c>
-      <c r="E15" s="18">
-        <v>32</v>
+        <v>98</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="F15" s="18">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G15" s="18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" s="18">
-        <v>110</v>
-      </c>
-      <c r="I15" s="18">
-        <v>12</v>
+        <v>160</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="J15" s="18">
-        <v>1401</v>
+        <v>1101</v>
       </c>
       <c r="K15" s="18">
-        <v>1402</v>
+        <v>1102</v>
       </c>
       <c r="L15" s="18">
-        <v>1404</v>
+        <v>1104</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-    </row>
-    <row r="16" ht="40.5" spans="1:17">
-      <c r="A16" s="18">
-        <v>1420</v>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:17">
+      <c r="A16" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="18">
-        <v>28</v>
-      </c>
-      <c r="E16" s="18">
-        <v>40</v>
+        <v>98</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="F16" s="18">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G16" s="18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H16" s="18">
-        <v>40</v>
-      </c>
-      <c r="I16" s="18">
-        <v>22</v>
+        <v>160</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="J16" s="18">
-        <v>1401</v>
+        <v>1101</v>
       </c>
       <c r="K16" s="18">
-        <v>1402</v>
+        <v>1102</v>
       </c>
       <c r="L16" s="18">
-        <v>1405</v>
+        <v>1104</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-    </row>
-    <row r="17" ht="40.5" spans="1:17">
-      <c r="A17" s="18">
-        <v>1500</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="18">
-        <v>15</v>
-      </c>
-      <c r="E17" s="18">
-        <v>25</v>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:17">
+      <c r="A17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="F17" s="18">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G17" s="18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H17" s="18">
-        <v>80</v>
-      </c>
-      <c r="I17" s="18">
-        <v>7</v>
+        <v>160</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="J17" s="18">
-        <v>1501</v>
+        <v>1101</v>
       </c>
       <c r="K17" s="18">
-        <v>1503</v>
+        <v>1102</v>
       </c>
       <c r="L17" s="18">
-        <v>1504</v>
+        <v>1104</v>
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-    </row>
-    <row r="18" ht="54" spans="1:17">
-      <c r="A18" s="18">
-        <v>1510</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="18">
-        <v>20</v>
-      </c>
-      <c r="E18" s="18">
-        <v>30</v>
-      </c>
-      <c r="F18" s="18">
-        <v>100</v>
-      </c>
-      <c r="G18" s="18">
-        <v>13</v>
-      </c>
-      <c r="H18" s="18">
-        <v>60</v>
-      </c>
-      <c r="I18" s="18">
-        <v>12</v>
-      </c>
-      <c r="J18" s="18">
-        <v>1501</v>
-      </c>
-      <c r="K18" s="18">
-        <v>1502</v>
-      </c>
-      <c r="L18" s="18">
-        <v>1505</v>
-      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:17">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" ht="40.5" spans="1:17">
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="18">
-        <v>1520</v>
+        <v>1120</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="18">
-        <v>6</v>
-      </c>
-      <c r="E19" s="18">
-        <v>23</v>
+        <v>116</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="F19" s="18">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G19" s="18">
         <v>15</v>
       </c>
-      <c r="H19" s="18">
-        <v>110</v>
+      <c r="H19" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="I19" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" s="18">
-        <v>1501</v>
+        <v>1102</v>
       </c>
       <c r="K19" s="18">
-        <v>1502</v>
+        <v>1105</v>
       </c>
       <c r="L19" s="18">
-        <v>1506</v>
+        <v>1106</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-    </row>
-    <row r="20" ht="54" spans="1:17">
-      <c r="A20" s="18">
-        <v>1600</v>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>30</v>
+        <v>116</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="F20" s="18">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G20" s="18">
-        <v>10</v>
-      </c>
-      <c r="H20" s="18">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="I20" s="18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J20" s="18">
-        <v>1601</v>
+        <v>1102</v>
       </c>
       <c r="K20" s="18">
-        <v>1602</v>
+        <v>1105</v>
       </c>
       <c r="L20" s="18">
-        <v>1603</v>
+        <v>1106</v>
       </c>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-    </row>
-    <row r="21" ht="54" spans="1:17">
-      <c r="A21" s="18">
-        <v>1610</v>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="18">
-        <v>16</v>
-      </c>
-      <c r="E21" s="18">
-        <v>20</v>
+        <v>116</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="F21" s="18">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G21" s="18">
-        <v>10</v>
-      </c>
-      <c r="H21" s="18">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="I21" s="18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J21" s="18">
-        <v>1604</v>
+        <v>1102</v>
       </c>
       <c r="K21" s="18">
-        <v>1605</v>
+        <v>1105</v>
       </c>
       <c r="L21" s="18">
-        <v>1606</v>
+        <v>1106</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="22" ht="40.5" spans="1:17">
-      <c r="A22" s="18">
-        <v>1620</v>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="F22" s="18">
         <v>100</v>
       </c>
       <c r="G22" s="18">
-        <v>10</v>
-      </c>
-      <c r="H22" s="18">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="I22" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="18">
-        <v>1607</v>
+        <v>1102</v>
       </c>
       <c r="K22" s="18">
-        <v>1608</v>
+        <v>1105</v>
       </c>
       <c r="L22" s="18">
-        <v>1609</v>
+        <v>1106</v>
       </c>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="A23" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="18">
+        <v>100</v>
+      </c>
+      <c r="G23" s="18">
+        <v>15</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1102</v>
+      </c>
+      <c r="K23" s="18">
+        <v>1105</v>
+      </c>
+      <c r="L23" s="18">
+        <v>1106</v>
+      </c>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="18">
-        <v>3001</v>
+      <c r="A24" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="18">
         <v>100</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="18">
+      <c r="G24" s="18">
+        <v>15</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="18">
         <v>1</v>
       </c>
-      <c r="E24" s="18">
-        <v>25</v>
-      </c>
-      <c r="F24" s="18">
-        <v>80</v>
-      </c>
-      <c r="G24" s="18">
-        <v>10</v>
-      </c>
-      <c r="H24" s="18">
-        <v>100</v>
-      </c>
-      <c r="I24" s="18">
-        <v>10</v>
-      </c>
       <c r="J24" s="18">
-        <v>3001</v>
+        <v>1102</v>
       </c>
       <c r="K24" s="18">
-        <v>3002</v>
+        <v>1105</v>
       </c>
       <c r="L24" s="18">
-        <v>3003</v>
+        <v>1106</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="18">
-        <v>3002</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="18">
-        <v>25</v>
-      </c>
-      <c r="E25" s="18">
-        <v>99</v>
-      </c>
-      <c r="F25" s="18">
-        <v>80</v>
-      </c>
-      <c r="G25" s="18">
-        <v>10</v>
-      </c>
-      <c r="H25" s="18">
-        <v>100</v>
-      </c>
-      <c r="I25" s="18">
-        <v>10</v>
-      </c>
-      <c r="J25" s="18">
-        <v>3001</v>
-      </c>
-      <c r="K25" s="18">
-        <v>3002</v>
-      </c>
-      <c r="L25" s="18">
-        <v>3004</v>
-      </c>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-    </row>
-    <row r="26" ht="40.5" spans="1:17">
-      <c r="A26" s="21">
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="18">
+        <v>12</v>
+      </c>
+      <c r="E26" s="18">
+        <v>16</v>
+      </c>
+      <c r="F26" s="18">
+        <v>80</v>
+      </c>
+      <c r="G26" s="18">
+        <v>12</v>
+      </c>
+      <c r="H26" s="18">
+        <v>120</v>
+      </c>
+      <c r="I26" s="18">
+        <v>7</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1202</v>
+      </c>
+      <c r="L26" s="18">
+        <v>1203</v>
+      </c>
+      <c r="M26" s="18">
+        <v>2</v>
+      </c>
+      <c r="N26" s="18">
+        <v>10</v>
+      </c>
+      <c r="O26" s="22">
+        <v>5</v>
+      </c>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="18">
+        <v>80</v>
+      </c>
+      <c r="G27" s="18">
+        <v>12</v>
+      </c>
+      <c r="H27" s="18">
+        <v>120</v>
+      </c>
+      <c r="I27" s="18">
+        <v>7</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1202</v>
+      </c>
+      <c r="L27" s="18">
+        <v>1203</v>
+      </c>
+      <c r="M27" s="18">
+        <v>2</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="22">
+        <v>5</v>
+      </c>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:17">
+      <c r="A28" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="18">
+        <v>80</v>
+      </c>
+      <c r="G28" s="18">
+        <v>12</v>
+      </c>
+      <c r="H28" s="18">
+        <v>120</v>
+      </c>
+      <c r="I28" s="18">
+        <v>7</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1202</v>
+      </c>
+      <c r="L28" s="18">
+        <v>1203</v>
+      </c>
+      <c r="M28" s="18">
+        <v>2</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28" s="22">
+        <v>5</v>
+      </c>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:17">
+      <c r="A29" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="18">
+        <v>80</v>
+      </c>
+      <c r="G29" s="18">
+        <v>12</v>
+      </c>
+      <c r="H29" s="18">
+        <v>120</v>
+      </c>
+      <c r="I29" s="18">
+        <v>7</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1202</v>
+      </c>
+      <c r="L29" s="18">
+        <v>1203</v>
+      </c>
+      <c r="M29" s="18">
+        <v>2</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="O29" s="22">
+        <v>5</v>
+      </c>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:17">
+      <c r="A30" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="18">
+        <v>80</v>
+      </c>
+      <c r="G30" s="18">
+        <v>12</v>
+      </c>
+      <c r="H30" s="18">
+        <v>120</v>
+      </c>
+      <c r="I30" s="18">
+        <v>7</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K30" s="18">
+        <v>1202</v>
+      </c>
+      <c r="L30" s="18">
+        <v>1203</v>
+      </c>
+      <c r="M30" s="18">
+        <v>2</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" s="22">
+        <v>5</v>
+      </c>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:17">
+      <c r="A31" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="18">
+        <v>80</v>
+      </c>
+      <c r="G31" s="18">
+        <v>12</v>
+      </c>
+      <c r="H31" s="18">
+        <v>120</v>
+      </c>
+      <c r="I31" s="18">
+        <v>7</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K31" s="18">
+        <v>1202</v>
+      </c>
+      <c r="L31" s="18">
+        <v>1203</v>
+      </c>
+      <c r="M31" s="18">
+        <v>2</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O31" s="22">
+        <v>5</v>
+      </c>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="18">
+        <v>1210</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="18">
+        <v>15</v>
+      </c>
+      <c r="E33" s="18">
+        <v>19</v>
+      </c>
+      <c r="F33" s="18">
+        <v>90</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="18">
+        <v>30</v>
+      </c>
+      <c r="I33" s="18">
+        <v>7</v>
+      </c>
+      <c r="J33" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K33" s="18">
+        <v>1204</v>
+      </c>
+      <c r="L33" s="18">
+        <v>1205</v>
+      </c>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="18">
+        <v>30</v>
+      </c>
+      <c r="I34" s="18">
+        <v>7</v>
+      </c>
+      <c r="J34" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K34" s="18">
+        <v>1204</v>
+      </c>
+      <c r="L34" s="18">
+        <v>1205</v>
+      </c>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="18">
+        <v>30</v>
+      </c>
+      <c r="I35" s="18">
+        <v>7</v>
+      </c>
+      <c r="J35" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K35" s="18">
+        <v>1204</v>
+      </c>
+      <c r="L35" s="18">
+        <v>1205</v>
+      </c>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="18">
+        <v>30</v>
+      </c>
+      <c r="I36" s="18">
+        <v>7</v>
+      </c>
+      <c r="J36" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K36" s="18">
+        <v>1204</v>
+      </c>
+      <c r="L36" s="18">
+        <v>1205</v>
+      </c>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="18">
+        <v>30</v>
+      </c>
+      <c r="I37" s="18">
+        <v>7</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K37" s="18">
+        <v>1204</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1205</v>
+      </c>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="18">
+        <v>30</v>
+      </c>
+      <c r="I38" s="18">
+        <v>7</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K38" s="18">
+        <v>1204</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1205</v>
+      </c>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="18">
+        <v>1220</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="18">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18">
+        <v>10</v>
+      </c>
+      <c r="F40" s="18">
+        <v>80</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <v>110</v>
+      </c>
+      <c r="I40" s="18">
+        <v>7</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1201</v>
+      </c>
+      <c r="K40" s="18">
+        <v>1206</v>
+      </c>
+      <c r="L40" s="18">
+        <v>1207</v>
+      </c>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="18">
+        <v>1300</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="18">
+        <v>18</v>
+      </c>
+      <c r="E41" s="18">
+        <v>22</v>
+      </c>
+      <c r="F41" s="18">
+        <v>80</v>
+      </c>
+      <c r="G41" s="18">
+        <v>10</v>
+      </c>
+      <c r="H41" s="18">
+        <v>100</v>
+      </c>
+      <c r="I41" s="18">
+        <v>10</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K41" s="18">
+        <v>1302</v>
+      </c>
+      <c r="L41" s="18">
+        <v>1303</v>
+      </c>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="18">
+        <v>1310</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="18">
+        <v>16</v>
+      </c>
+      <c r="E43" s="18">
+        <v>20</v>
+      </c>
+      <c r="F43" s="18">
+        <v>80</v>
+      </c>
+      <c r="G43" s="18">
+        <v>10</v>
+      </c>
+      <c r="H43" s="18">
+        <v>130</v>
+      </c>
+      <c r="I43" s="18">
+        <v>10</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1302</v>
+      </c>
+      <c r="L43" s="18">
+        <v>1304</v>
+      </c>
+      <c r="M43" s="18">
+        <v>3</v>
+      </c>
+      <c r="N43" s="18">
+        <v>10</v>
+      </c>
+      <c r="O43" s="22">
+        <v>3</v>
+      </c>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="18">
+        <v>20</v>
+      </c>
+      <c r="F44" s="18">
+        <v>80</v>
+      </c>
+      <c r="G44" s="18">
+        <v>10</v>
+      </c>
+      <c r="H44" s="18">
+        <v>130</v>
+      </c>
+      <c r="I44" s="18">
+        <v>10</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1302</v>
+      </c>
+      <c r="L44" s="18">
+        <v>1304</v>
+      </c>
+      <c r="M44" s="18">
+        <v>3</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="O44" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="18">
+        <v>20</v>
+      </c>
+      <c r="F45" s="18">
+        <v>80</v>
+      </c>
+      <c r="G45" s="18">
+        <v>10</v>
+      </c>
+      <c r="H45" s="18">
+        <v>130</v>
+      </c>
+      <c r="I45" s="18">
+        <v>10</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1302</v>
+      </c>
+      <c r="L45" s="18">
+        <v>1304</v>
+      </c>
+      <c r="M45" s="18">
+        <v>3</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="O45" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="18">
+        <v>20</v>
+      </c>
+      <c r="F46" s="18">
+        <v>80</v>
+      </c>
+      <c r="G46" s="18">
+        <v>10</v>
+      </c>
+      <c r="H46" s="18">
+        <v>130</v>
+      </c>
+      <c r="I46" s="18">
+        <v>10</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1302</v>
+      </c>
+      <c r="L46" s="18">
+        <v>1304</v>
+      </c>
+      <c r="M46" s="18">
+        <v>3</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="O46" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="18">
+        <v>20</v>
+      </c>
+      <c r="F47" s="18">
+        <v>80</v>
+      </c>
+      <c r="G47" s="18">
+        <v>10</v>
+      </c>
+      <c r="H47" s="18">
+        <v>130</v>
+      </c>
+      <c r="I47" s="18">
+        <v>10</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1302</v>
+      </c>
+      <c r="L47" s="18">
+        <v>1304</v>
+      </c>
+      <c r="M47" s="18">
+        <v>3</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O47" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="18">
+        <v>80</v>
+      </c>
+      <c r="G48" s="18">
+        <v>10</v>
+      </c>
+      <c r="H48" s="18">
+        <v>130</v>
+      </c>
+      <c r="I48" s="18">
+        <v>10</v>
+      </c>
+      <c r="J48" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K48" s="18">
+        <v>1302</v>
+      </c>
+      <c r="L48" s="18">
+        <v>1304</v>
+      </c>
+      <c r="M48" s="18">
+        <v>3</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O48" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="18">
+        <v>1320</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="18">
+        <v>15</v>
+      </c>
+      <c r="E50" s="18">
+        <v>15</v>
+      </c>
+      <c r="F50" s="18">
+        <v>60</v>
+      </c>
+      <c r="G50" s="18">
+        <v>8</v>
+      </c>
+      <c r="H50" s="18">
+        <v>80</v>
+      </c>
+      <c r="I50" s="18">
+        <v>8</v>
+      </c>
+      <c r="J50" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K50" s="18">
+        <v>1305</v>
+      </c>
+      <c r="L50" s="18">
+        <v>1306</v>
+      </c>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K51" s="18">
+        <v>1305</v>
+      </c>
+      <c r="L51" s="18">
+        <v>1306</v>
+      </c>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K52" s="18">
+        <v>1305</v>
+      </c>
+      <c r="L52" s="18">
+        <v>1306</v>
+      </c>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J53" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K53" s="18">
+        <v>1305</v>
+      </c>
+      <c r="L53" s="18">
+        <v>1306</v>
+      </c>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J54" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K54" s="18">
+        <v>1305</v>
+      </c>
+      <c r="L54" s="18">
+        <v>1306</v>
+      </c>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J55" s="18">
+        <v>1301</v>
+      </c>
+      <c r="K55" s="18">
+        <v>1305</v>
+      </c>
+      <c r="L55" s="18">
+        <v>1306</v>
+      </c>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="18">
+        <v>1400</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="18">
+        <v>25</v>
+      </c>
+      <c r="E57" s="18">
+        <v>35</v>
+      </c>
+      <c r="F57" s="18">
+        <v>60</v>
+      </c>
+      <c r="G57" s="18">
+        <v>10</v>
+      </c>
+      <c r="H57" s="18">
+        <v>80</v>
+      </c>
+      <c r="I57" s="18">
+        <v>14</v>
+      </c>
+      <c r="J57" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K57" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L57" s="18">
+        <v>1403</v>
+      </c>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G58" s="18">
+        <v>10</v>
+      </c>
+      <c r="H58" s="18">
+        <v>80</v>
+      </c>
+      <c r="I58" s="18">
+        <v>14</v>
+      </c>
+      <c r="J58" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K58" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L58" s="18">
+        <v>1403</v>
+      </c>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" s="18">
+        <v>10</v>
+      </c>
+      <c r="H59" s="18">
+        <v>80</v>
+      </c>
+      <c r="I59" s="18">
+        <v>14</v>
+      </c>
+      <c r="J59" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K59" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L59" s="18">
+        <v>1403</v>
+      </c>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="18">
+        <v>10</v>
+      </c>
+      <c r="H60" s="18">
+        <v>80</v>
+      </c>
+      <c r="I60" s="18">
+        <v>14</v>
+      </c>
+      <c r="J60" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K60" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L60" s="18">
+        <v>1403</v>
+      </c>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" s="18">
+        <v>10</v>
+      </c>
+      <c r="H61" s="18">
+        <v>80</v>
+      </c>
+      <c r="I61" s="18">
+        <v>14</v>
+      </c>
+      <c r="J61" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K61" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L61" s="18">
+        <v>1403</v>
+      </c>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G62" s="18">
+        <v>10</v>
+      </c>
+      <c r="H62" s="18">
+        <v>80</v>
+      </c>
+      <c r="I62" s="18">
+        <v>14</v>
+      </c>
+      <c r="J62" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K62" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L62" s="18">
+        <v>1403</v>
+      </c>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="18">
+        <v>1410</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="18">
+        <v>18</v>
+      </c>
+      <c r="E64" s="18">
+        <v>32</v>
+      </c>
+      <c r="F64" s="18">
+        <v>90</v>
+      </c>
+      <c r="G64" s="18">
+        <v>11</v>
+      </c>
+      <c r="H64" s="18">
+        <v>110</v>
+      </c>
+      <c r="I64" s="18">
+        <v>12</v>
+      </c>
+      <c r="J64" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K64" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L64" s="18">
+        <v>1404</v>
+      </c>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="18">
+        <v>90</v>
+      </c>
+      <c r="G65" s="18">
+        <v>11</v>
+      </c>
+      <c r="H65" s="18">
+        <v>110</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J65" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K65" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L65" s="18">
+        <v>1404</v>
+      </c>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" s="18">
+        <v>90</v>
+      </c>
+      <c r="G66" s="18">
+        <v>11</v>
+      </c>
+      <c r="H66" s="18">
+        <v>110</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="J66" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K66" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L66" s="18">
+        <v>1404</v>
+      </c>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67" s="18">
+        <v>90</v>
+      </c>
+      <c r="G67" s="18">
+        <v>11</v>
+      </c>
+      <c r="H67" s="18">
+        <v>110</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J67" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K67" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L67" s="18">
+        <v>1404</v>
+      </c>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="18">
+        <v>90</v>
+      </c>
+      <c r="G68" s="18">
+        <v>11</v>
+      </c>
+      <c r="H68" s="18">
+        <v>110</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J68" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K68" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L68" s="18">
+        <v>1404</v>
+      </c>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F69" s="18">
+        <v>90</v>
+      </c>
+      <c r="G69" s="18">
+        <v>11</v>
+      </c>
+      <c r="H69" s="18">
+        <v>110</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J69" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K69" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L69" s="18">
+        <v>1404</v>
+      </c>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="18"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="18">
+        <v>1420</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D71" s="18">
+        <v>28</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="18">
+        <v>60</v>
+      </c>
+      <c r="G71" s="18">
+        <v>10</v>
+      </c>
+      <c r="H71" s="18">
+        <v>40</v>
+      </c>
+      <c r="I71" s="18">
+        <v>22</v>
+      </c>
+      <c r="J71" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K71" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L71" s="18">
+        <v>1405</v>
+      </c>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F72" s="18">
+        <v>60</v>
+      </c>
+      <c r="G72" s="18">
+        <v>10</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I72" s="18">
+        <v>22</v>
+      </c>
+      <c r="J72" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K72" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L72" s="18">
+        <v>1405</v>
+      </c>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="18">
+        <v>60</v>
+      </c>
+      <c r="G73" s="18">
+        <v>10</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I73" s="18">
+        <v>22</v>
+      </c>
+      <c r="J73" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K73" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L73" s="18">
+        <v>1405</v>
+      </c>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="18">
+        <v>60</v>
+      </c>
+      <c r="G74" s="18">
+        <v>10</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I74" s="18">
+        <v>22</v>
+      </c>
+      <c r="J74" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K74" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L74" s="18">
+        <v>1405</v>
+      </c>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" s="18">
+        <v>60</v>
+      </c>
+      <c r="G75" s="18">
+        <v>10</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="I75" s="18">
+        <v>22</v>
+      </c>
+      <c r="J75" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K75" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L75" s="18">
+        <v>1405</v>
+      </c>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" s="18">
+        <v>60</v>
+      </c>
+      <c r="G76" s="18">
+        <v>10</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I76" s="18">
+        <v>22</v>
+      </c>
+      <c r="J76" s="18">
+        <v>1401</v>
+      </c>
+      <c r="K76" s="18">
+        <v>1402</v>
+      </c>
+      <c r="L76" s="18">
+        <v>1405</v>
+      </c>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="18">
+        <v>1500</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" s="18">
+        <v>15</v>
+      </c>
+      <c r="E78" s="18">
+        <v>25</v>
+      </c>
+      <c r="F78" s="18">
+        <v>70</v>
+      </c>
+      <c r="G78" s="18">
+        <v>11</v>
+      </c>
+      <c r="H78" s="18">
+        <v>80</v>
+      </c>
+      <c r="I78" s="18">
+        <v>7</v>
+      </c>
+      <c r="J78" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K78" s="18">
+        <v>1503</v>
+      </c>
+      <c r="L78" s="18">
+        <v>1504</v>
+      </c>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G79" s="18">
+        <v>11</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="I79" s="18">
+        <v>7</v>
+      </c>
+      <c r="J79" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K79" s="18">
+        <v>1503</v>
+      </c>
+      <c r="L79" s="18">
+        <v>1504</v>
+      </c>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="G80" s="18">
+        <v>11</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="I80" s="18">
+        <v>7</v>
+      </c>
+      <c r="J80" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K80" s="18">
+        <v>1503</v>
+      </c>
+      <c r="L80" s="18">
+        <v>1504</v>
+      </c>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="I81" s="18">
+        <v>7</v>
+      </c>
+      <c r="J81" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K81" s="18">
+        <v>1503</v>
+      </c>
+      <c r="L81" s="18">
+        <v>1504</v>
+      </c>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I82" s="18">
+        <v>7</v>
+      </c>
+      <c r="J82" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K82" s="18">
+        <v>1503</v>
+      </c>
+      <c r="L82" s="18">
+        <v>1504</v>
+      </c>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="18">
+        <v>7</v>
+      </c>
+      <c r="J83" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K83" s="18">
+        <v>1503</v>
+      </c>
+      <c r="L83" s="18">
+        <v>1504</v>
+      </c>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="18"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="18">
+        <v>1510</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D85" s="18">
+        <v>20</v>
+      </c>
+      <c r="E85" s="18">
+        <v>30</v>
+      </c>
+      <c r="F85" s="18">
+        <v>100</v>
+      </c>
+      <c r="G85" s="18">
+        <v>13</v>
+      </c>
+      <c r="H85" s="18">
+        <v>60</v>
+      </c>
+      <c r="I85" s="18">
+        <v>12</v>
+      </c>
+      <c r="J85" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K85" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L85" s="18">
+        <v>1505</v>
+      </c>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
+      <c r="Q85" s="22"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="18">
+        <v>100</v>
+      </c>
+      <c r="G86" s="18">
+        <v>13</v>
+      </c>
+      <c r="H86" s="18">
+        <v>60</v>
+      </c>
+      <c r="I86" s="18">
+        <v>12</v>
+      </c>
+      <c r="J86" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K86" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L86" s="18">
+        <v>1505</v>
+      </c>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
+      <c r="Q86" s="22"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="18">
+        <v>100</v>
+      </c>
+      <c r="G87" s="18">
+        <v>13</v>
+      </c>
+      <c r="H87" s="18">
+        <v>60</v>
+      </c>
+      <c r="I87" s="18">
+        <v>12</v>
+      </c>
+      <c r="J87" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K87" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L87" s="18">
+        <v>1505</v>
+      </c>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F88" s="18">
+        <v>100</v>
+      </c>
+      <c r="G88" s="18">
+        <v>13</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I88" s="18">
+        <v>12</v>
+      </c>
+      <c r="J88" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K88" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L88" s="18">
+        <v>1505</v>
+      </c>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F89" s="18">
+        <v>100</v>
+      </c>
+      <c r="G89" s="18">
+        <v>13</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I89" s="18">
+        <v>12</v>
+      </c>
+      <c r="J89" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K89" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L89" s="18">
+        <v>1505</v>
+      </c>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" s="18">
+        <v>100</v>
+      </c>
+      <c r="G90" s="18">
+        <v>13</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I90" s="18">
+        <v>12</v>
+      </c>
+      <c r="J90" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K90" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L90" s="18">
+        <v>1505</v>
+      </c>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="18">
+        <v>1520</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="18">
+        <v>23</v>
+      </c>
+      <c r="F92" s="18">
+        <v>90</v>
+      </c>
+      <c r="G92" s="18">
+        <v>15</v>
+      </c>
+      <c r="H92" s="18">
+        <v>110</v>
+      </c>
+      <c r="I92" s="18">
+        <v>3</v>
+      </c>
+      <c r="J92" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K92" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L92" s="18">
+        <v>1506</v>
+      </c>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="F93" s="18">
+        <v>90</v>
+      </c>
+      <c r="G93" s="18">
+        <v>15</v>
+      </c>
+      <c r="H93" s="18">
+        <v>110</v>
+      </c>
+      <c r="I93" s="18">
+        <v>3</v>
+      </c>
+      <c r="J93" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K93" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L93" s="18">
+        <v>1506</v>
+      </c>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="22"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94" s="18">
+        <v>90</v>
+      </c>
+      <c r="G94" s="18">
+        <v>15</v>
+      </c>
+      <c r="H94" s="18">
+        <v>110</v>
+      </c>
+      <c r="I94" s="18">
+        <v>3</v>
+      </c>
+      <c r="J94" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K94" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L94" s="18">
+        <v>1506</v>
+      </c>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="22"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G95" s="18">
+        <v>15</v>
+      </c>
+      <c r="H95" s="18">
+        <v>110</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J95" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K95" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L95" s="18">
+        <v>1506</v>
+      </c>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="22"/>
+      <c r="Q95" s="22"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G96" s="18">
+        <v>15</v>
+      </c>
+      <c r="H96" s="18">
+        <v>110</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J96" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K96" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L96" s="18">
+        <v>1506</v>
+      </c>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="22"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G97" s="18">
+        <v>15</v>
+      </c>
+      <c r="H97" s="18">
+        <v>110</v>
+      </c>
+      <c r="I97" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J97" s="18">
+        <v>1501</v>
+      </c>
+      <c r="K97" s="18">
+        <v>1502</v>
+      </c>
+      <c r="L97" s="18">
+        <v>1506</v>
+      </c>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="22"/>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22"/>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="18">
+        <v>1600</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E99" s="18">
+        <v>30</v>
+      </c>
+      <c r="F99" s="18">
+        <v>40</v>
+      </c>
+      <c r="G99" s="18">
+        <v>10</v>
+      </c>
+      <c r="H99" s="18">
+        <v>75</v>
+      </c>
+      <c r="I99" s="18">
+        <v>13</v>
+      </c>
+      <c r="J99" s="18">
+        <v>1601</v>
+      </c>
+      <c r="K99" s="18">
+        <v>1602</v>
+      </c>
+      <c r="L99" s="18">
+        <v>1603</v>
+      </c>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G100" s="18">
+        <v>10</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I100" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J100" s="18">
+        <v>1601</v>
+      </c>
+      <c r="K100" s="18">
+        <v>1602</v>
+      </c>
+      <c r="L100" s="18">
+        <v>1603</v>
+      </c>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G101" s="18">
+        <v>10</v>
+      </c>
+      <c r="H101" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J101" s="18">
+        <v>1601</v>
+      </c>
+      <c r="K101" s="18">
+        <v>1602</v>
+      </c>
+      <c r="L101" s="18">
+        <v>1603</v>
+      </c>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="22"/>
+      <c r="Q101" s="22"/>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G102" s="18">
+        <v>10</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="J102" s="18">
+        <v>1601</v>
+      </c>
+      <c r="K102" s="18">
+        <v>1602</v>
+      </c>
+      <c r="L102" s="18">
+        <v>1603</v>
+      </c>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="22"/>
+      <c r="Q102" s="22"/>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G103" s="18">
+        <v>10</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="I103" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="J103" s="18">
+        <v>1601</v>
+      </c>
+      <c r="K103" s="18">
+        <v>1602</v>
+      </c>
+      <c r="L103" s="18">
+        <v>1603</v>
+      </c>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G104" s="18">
+        <v>10</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="J104" s="18">
+        <v>1601</v>
+      </c>
+      <c r="K104" s="18">
+        <v>1602</v>
+      </c>
+      <c r="L104" s="18">
+        <v>1603</v>
+      </c>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="22"/>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22"/>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="18">
+        <v>1610</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D106" s="18">
+        <v>16</v>
+      </c>
+      <c r="E106" s="18">
+        <v>20</v>
+      </c>
+      <c r="F106" s="18">
+        <v>60</v>
+      </c>
+      <c r="G106" s="18">
+        <v>10</v>
+      </c>
+      <c r="H106" s="18">
+        <v>80</v>
+      </c>
+      <c r="I106" s="18">
+        <v>15</v>
+      </c>
+      <c r="J106" s="18">
+        <v>1604</v>
+      </c>
+      <c r="K106" s="18">
+        <v>1605</v>
+      </c>
+      <c r="L106" s="18">
+        <v>1606</v>
+      </c>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="22"/>
+      <c r="Q106" s="22"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F107" s="18">
+        <v>60</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H107" s="18">
+        <v>80</v>
+      </c>
+      <c r="I107" s="18">
+        <v>15</v>
+      </c>
+      <c r="J107" s="18">
+        <v>1604</v>
+      </c>
+      <c r="K107" s="18">
+        <v>1605</v>
+      </c>
+      <c r="L107" s="18">
+        <v>1606</v>
+      </c>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="22"/>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108" s="18">
+        <v>60</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H108" s="18">
+        <v>80</v>
+      </c>
+      <c r="I108" s="18">
+        <v>15</v>
+      </c>
+      <c r="J108" s="18">
+        <v>1604</v>
+      </c>
+      <c r="K108" s="18">
+        <v>1605</v>
+      </c>
+      <c r="L108" s="18">
+        <v>1606</v>
+      </c>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F109" s="18">
+        <v>60</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="H109" s="18">
+        <v>80</v>
+      </c>
+      <c r="I109" s="18">
+        <v>15</v>
+      </c>
+      <c r="J109" s="18">
+        <v>1604</v>
+      </c>
+      <c r="K109" s="18">
+        <v>1605</v>
+      </c>
+      <c r="L109" s="18">
+        <v>1606</v>
+      </c>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="22"/>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F110" s="18">
+        <v>60</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H110" s="18">
+        <v>80</v>
+      </c>
+      <c r="I110" s="18">
+        <v>15</v>
+      </c>
+      <c r="J110" s="18">
+        <v>1604</v>
+      </c>
+      <c r="K110" s="18">
+        <v>1605</v>
+      </c>
+      <c r="L110" s="18">
+        <v>1606</v>
+      </c>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F111" s="18">
+        <v>60</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H111" s="18">
+        <v>80</v>
+      </c>
+      <c r="I111" s="18">
+        <v>15</v>
+      </c>
+      <c r="J111" s="18">
+        <v>1604</v>
+      </c>
+      <c r="K111" s="18">
+        <v>1605</v>
+      </c>
+      <c r="L111" s="18">
+        <v>1606</v>
+      </c>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="22"/>
+      <c r="Q112" s="22"/>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="18">
+        <v>1620</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" s="18">
+        <v>0</v>
+      </c>
+      <c r="E113" s="18">
+        <v>0</v>
+      </c>
+      <c r="F113" s="18">
+        <v>100</v>
+      </c>
+      <c r="G113" s="18">
+        <v>10</v>
+      </c>
+      <c r="H113" s="18">
+        <v>100</v>
+      </c>
+      <c r="I113" s="18">
+        <v>0</v>
+      </c>
+      <c r="J113" s="18">
+        <v>1607</v>
+      </c>
+      <c r="K113" s="18">
+        <v>1608</v>
+      </c>
+      <c r="L113" s="18">
+        <v>1609</v>
+      </c>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="22"/>
+      <c r="Q114" s="22"/>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="18">
+        <v>3001</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D115" s="18">
+        <v>1</v>
+      </c>
+      <c r="E115" s="18">
+        <v>25</v>
+      </c>
+      <c r="F115" s="18">
+        <v>80</v>
+      </c>
+      <c r="G115" s="18">
+        <v>10</v>
+      </c>
+      <c r="H115" s="18">
+        <v>100</v>
+      </c>
+      <c r="I115" s="18">
+        <v>10</v>
+      </c>
+      <c r="J115" s="18">
+        <v>3001</v>
+      </c>
+      <c r="K115" s="18">
+        <v>3002</v>
+      </c>
+      <c r="L115" s="18">
         <v>3003</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="18">
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="18">
+        <v>3002</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D116" s="18">
+        <v>25</v>
+      </c>
+      <c r="E116" s="18">
+        <v>99</v>
+      </c>
+      <c r="F116" s="18">
+        <v>80</v>
+      </c>
+      <c r="G116" s="18">
+        <v>10</v>
+      </c>
+      <c r="H116" s="18">
+        <v>100</v>
+      </c>
+      <c r="I116" s="18">
+        <v>10</v>
+      </c>
+      <c r="J116" s="18">
+        <v>3001</v>
+      </c>
+      <c r="K116" s="18">
+        <v>3002</v>
+      </c>
+      <c r="L116" s="18">
+        <v>3004</v>
+      </c>
+      <c r="M116" s="18"/>
+      <c r="N116" s="18"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="22"/>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="22">
+        <v>3003</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="18">
         <v>3005</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K117" s="18">
         <v>3006</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L117" s="18">
         <v>3007</v>
       </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-    </row>
-    <row r="27" ht="27" spans="1:17">
-      <c r="A27" s="21">
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="22"/>
+      <c r="P117" s="22"/>
+      <c r="Q117" s="22"/>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="22">
         <v>3004</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="18">
+      <c r="B118" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="18">
         <v>3008</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-    </row>
-    <row r="28" ht="27" spans="1:17">
-      <c r="A28" s="21">
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="22"/>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="22">
         <v>3005</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="18">
+      <c r="B119" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="18">
         <v>3009</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K119" s="18">
         <v>3010</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L119" s="18">
         <v>3011</v>
       </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="14"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-    </row>
-    <row r="41" spans="10:14">
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-    </row>
-    <row r="42" spans="10:14">
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-    </row>
-    <row r="43" spans="10:14">
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-    </row>
-    <row r="44" spans="10:14">
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-    </row>
-    <row r="45" spans="10:14">
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-    </row>
-    <row r="46" spans="10:14">
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-    </row>
-    <row r="47" spans="10:14">
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-    </row>
-    <row r="48" spans="10:14">
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-    </row>
-    <row r="49" spans="10:14">
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-    </row>
-    <row r="50" spans="10:12">
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-    </row>
-    <row r="51" spans="10:12">
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="10:12">
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-    </row>
-    <row r="53" spans="10:12">
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-    </row>
-    <row r="54" spans="10:12">
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="10:12">
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="10:12">
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-    </row>
-    <row r="57" spans="10:12">
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="10:12">
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="10:12">
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-    </row>
-    <row r="60" spans="10:12">
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-    </row>
-    <row r="61" spans="10:12">
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-    </row>
-    <row r="62" spans="10:12">
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-    </row>
-    <row r="63" spans="10:12">
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-    </row>
-    <row r="64" spans="10:12">
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-    </row>
-    <row r="65" spans="10:12">
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-    </row>
-    <row r="66" spans="10:12">
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-    </row>
-    <row r="67" spans="10:12">
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-    </row>
-    <row r="68" spans="10:12">
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-    </row>
-    <row r="69" spans="10:12">
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-    </row>
-    <row r="70" spans="10:13">
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-    </row>
-    <row r="71" spans="10:13">
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-    </row>
-    <row r="72" spans="10:13">
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-    </row>
-    <row r="73" spans="10:13">
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-    </row>
-    <row r="74" spans="10:13">
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-    </row>
-    <row r="75" spans="10:13">
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-    </row>
-    <row r="76" spans="13:13">
-      <c r="M76" s="14"/>
-    </row>
-    <row r="77" spans="13:13">
-      <c r="M77" s="14"/>
-    </row>
-    <row r="78" spans="13:13">
-      <c r="M78" s="14"/>
-    </row>
-    <row r="79" spans="13:13">
-      <c r="M79" s="14"/>
-    </row>
-    <row r="80" spans="13:13">
-      <c r="M80" s="14"/>
-    </row>
-    <row r="81" spans="13:13">
-      <c r="M81" s="14"/>
-    </row>
-    <row r="82" spans="13:13">
-      <c r="M82" s="14"/>
-    </row>
-    <row r="83" spans="13:13">
-      <c r="M83" s="14"/>
-    </row>
-    <row r="84" spans="13:13">
-      <c r="M84" s="14"/>
-    </row>
-    <row r="85" spans="13:13">
-      <c r="M85" s="14"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="26"/>
+      <c r="N120" s="26"/>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="26"/>
+      <c r="N121" s="26"/>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="26"/>
+      <c r="N122" s="26"/>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="14"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="26"/>
+      <c r="N123" s="26"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="26"/>
+      <c r="N124" s="26"/>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="26"/>
+      <c r="N125" s="26"/>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14"/>
+      <c r="L126" s="14"/>
+      <c r="M126" s="26"/>
+      <c r="N126" s="26"/>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="27"/>
+      <c r="N127" s="27"/>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="27"/>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="27"/>
+      <c r="N129" s="27"/>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="27"/>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="27"/>
+      <c r="N131" s="27"/>
+    </row>
+    <row r="132" spans="10:14">
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+    </row>
+    <row r="133" spans="10:14">
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="27"/>
+    </row>
+    <row r="134" spans="10:14">
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="27"/>
+    </row>
+    <row r="135" spans="10:14">
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="27"/>
+    </row>
+    <row r="136" spans="10:14">
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="27"/>
+      <c r="N136" s="27"/>
+    </row>
+    <row r="137" spans="10:14">
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="27"/>
+      <c r="N137" s="27"/>
+    </row>
+    <row r="138" spans="10:14">
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="27"/>
+      <c r="N138" s="27"/>
+    </row>
+    <row r="139" spans="10:14">
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="27"/>
+      <c r="N139" s="27"/>
+    </row>
+    <row r="140" spans="10:14">
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="27"/>
+      <c r="N140" s="27"/>
+    </row>
+    <row r="141" spans="10:12">
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+    </row>
+    <row r="142" spans="10:12">
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="14"/>
+    </row>
+    <row r="143" spans="10:12">
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+    </row>
+    <row r="144" spans="10:12">
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="14"/>
+    </row>
+    <row r="145" spans="10:12">
+      <c r="J145" s="14"/>
+      <c r="K145" s="14"/>
+      <c r="L145" s="14"/>
+    </row>
+    <row r="146" spans="10:12">
+      <c r="J146" s="14"/>
+      <c r="K146" s="14"/>
+      <c r="L146" s="14"/>
+    </row>
+    <row r="147" spans="10:12">
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
+    </row>
+    <row r="148" spans="10:12">
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+    </row>
+    <row r="149" spans="10:12">
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="14"/>
+    </row>
+    <row r="150" spans="10:12">
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+    </row>
+    <row r="151" spans="10:12">
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+    </row>
+    <row r="152" spans="10:12">
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="14"/>
+    </row>
+    <row r="153" spans="10:12">
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="14"/>
+    </row>
+    <row r="154" spans="10:12">
+      <c r="J154" s="14"/>
+      <c r="K154" s="14"/>
+      <c r="L154" s="14"/>
+    </row>
+    <row r="155" spans="10:12">
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="14"/>
+    </row>
+    <row r="156" spans="10:12">
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+      <c r="L156" s="14"/>
+    </row>
+    <row r="157" spans="10:12">
+      <c r="J157" s="14"/>
+      <c r="K157" s="14"/>
+      <c r="L157" s="14"/>
+    </row>
+    <row r="158" spans="10:12">
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+      <c r="L158" s="14"/>
+    </row>
+    <row r="159" spans="10:12">
+      <c r="J159" s="14"/>
+      <c r="K159" s="14"/>
+      <c r="L159" s="14"/>
+    </row>
+    <row r="160" spans="10:12">
+      <c r="J160" s="14"/>
+      <c r="K160" s="14"/>
+      <c r="L160" s="14"/>
+    </row>
+    <row r="161" spans="10:13">
+      <c r="J161" s="14"/>
+      <c r="K161" s="14"/>
+      <c r="L161" s="14"/>
+      <c r="M161" s="14"/>
+    </row>
+    <row r="162" spans="10:13">
+      <c r="J162" s="14"/>
+      <c r="K162" s="14"/>
+      <c r="L162" s="14"/>
+      <c r="M162" s="14"/>
+    </row>
+    <row r="163" spans="10:13">
+      <c r="J163" s="14"/>
+      <c r="K163" s="14"/>
+      <c r="L163" s="14"/>
+      <c r="M163" s="14"/>
+    </row>
+    <row r="164" spans="10:13">
+      <c r="J164" s="14"/>
+      <c r="K164" s="14"/>
+      <c r="L164" s="14"/>
+      <c r="M164" s="14"/>
+    </row>
+    <row r="165" spans="10:13">
+      <c r="J165" s="14"/>
+      <c r="K165" s="14"/>
+      <c r="L165" s="14"/>
+      <c r="M165" s="14"/>
+    </row>
+    <row r="166" spans="10:13">
+      <c r="J166" s="14"/>
+      <c r="K166" s="14"/>
+      <c r="L166" s="14"/>
+      <c r="M166" s="14"/>
+    </row>
+    <row r="167" spans="13:13">
+      <c r="M167" s="14"/>
+    </row>
+    <row r="168" spans="13:13">
+      <c r="M168" s="14"/>
+    </row>
+    <row r="169" spans="13:13">
+      <c r="M169" s="14"/>
+    </row>
+    <row r="170" spans="13:13">
+      <c r="M170" s="14"/>
+    </row>
+    <row r="171" spans="13:13">
+      <c r="M171" s="14"/>
+    </row>
+    <row r="172" spans="13:13">
+      <c r="M172" s="14"/>
+    </row>
+    <row r="173" spans="13:13">
+      <c r="M173" s="14"/>
+    </row>
+    <row r="174" spans="13:13">
+      <c r="M174" s="14"/>
+    </row>
+    <row r="175" spans="13:13">
+      <c r="M175" s="14"/>
+    </row>
+    <row r="176" spans="13:13">
+      <c r="M176" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3699,8 +8056,8 @@
   <sheetPr/>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3715,10 +8072,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>356</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>34</v>
@@ -3730,19 +8087,19 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>357</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>114</v>
+        <v>359</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>115</v>
+        <v>360</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>116</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3774,7 +8131,7 @@
         <v>54</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>117</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3817,7 +8174,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>363</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -3846,10 +8203,10 @@
         <v>2010</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>119</v>
+        <v>364</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>120</v>
+        <v>365</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -3878,10 +8235,10 @@
         <v>2110</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>121</v>
+        <v>366</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>122</v>
+        <v>367</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -3910,10 +8267,10 @@
         <v>2210</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>123</v>
+        <v>368</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>124</v>
+        <v>369</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -3946,10 +8303,10 @@
         <v>2020</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>126</v>
+        <v>371</v>
       </c>
       <c r="D9">
         <v>66</v>
@@ -3978,10 +8335,10 @@
         <v>2021</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>127</v>
+        <v>372</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>128</v>
+        <v>373</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -4010,10 +8367,10 @@
         <v>2022</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>129</v>
+        <v>374</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4042,10 +8399,10 @@
         <v>2023</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>131</v>
+        <v>376</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>132</v>
+        <v>377</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4074,10 +8431,10 @@
         <v>2120</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>133</v>
+        <v>378</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="D13">
         <v>35</v>
@@ -4106,10 +8463,10 @@
         <v>2121</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>135</v>
+        <v>380</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>381</v>
       </c>
       <c r="D14">
         <v>25</v>
@@ -4138,10 +8495,10 @@
         <v>2122</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>137</v>
+        <v>382</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>138</v>
+        <v>383</v>
       </c>
       <c r="D15">
         <v>55</v>
@@ -4170,10 +8527,10 @@
         <v>2123</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>139</v>
+        <v>384</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>140</v>
+        <v>385</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4202,10 +8559,10 @@
         <v>2220</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>141</v>
+        <v>386</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>387</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -4234,10 +8591,10 @@
         <v>2221</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>389</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -4266,10 +8623,10 @@
         <v>2222</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>145</v>
+        <v>390</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>146</v>
+        <v>391</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4298,10 +8655,10 @@
         <v>2223</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>147</v>
+        <v>392</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>148</v>
+        <v>393</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4333,10 +8690,10 @@
         <v>2030</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>149</v>
+        <v>394</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>395</v>
       </c>
       <c r="J22">
         <v>2006</v>
@@ -4347,10 +8704,10 @@
         <v>2031</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>151</v>
+        <v>396</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>397</v>
       </c>
       <c r="J23">
         <v>2007</v>
@@ -4361,10 +8718,10 @@
         <v>2032</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>153</v>
+        <v>398</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>154</v>
+        <v>399</v>
       </c>
       <c r="J24">
         <v>2008</v>
@@ -4375,10 +8732,10 @@
         <v>2033</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>156</v>
+        <v>401</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -4395,10 +8752,10 @@
         <v>2034</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>157</v>
+        <v>402</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>158</v>
+        <v>403</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -4415,10 +8772,10 @@
         <v>2130</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>159</v>
+        <v>404</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>160</v>
+        <v>405</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -4435,10 +8792,10 @@
         <v>2131</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>161</v>
+        <v>406</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>162</v>
+        <v>407</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -4455,10 +8812,10 @@
         <v>2132</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>163</v>
+        <v>408</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>164</v>
+        <v>409</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -4475,10 +8832,10 @@
         <v>2133</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>165</v>
+        <v>410</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>166</v>
+        <v>411</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -4495,10 +8852,10 @@
         <v>2134</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>167</v>
+        <v>412</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>168</v>
+        <v>413</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -4515,10 +8872,10 @@
         <v>2230</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>169</v>
+        <v>414</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>170</v>
+        <v>415</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -4535,10 +8892,10 @@
         <v>2231</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>171</v>
+        <v>416</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>172</v>
+        <v>417</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -4555,10 +8912,10 @@
         <v>2232</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>173</v>
+        <v>418</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>174</v>
+        <v>419</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -4575,10 +8932,10 @@
         <v>2233</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>175</v>
+        <v>420</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>176</v>
+        <v>421</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -4595,10 +8952,10 @@
         <v>2234</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>177</v>
+        <v>422</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>178</v>
+        <v>423</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -4627,10 +8984,10 @@
         <v>2040</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>179</v>
+        <v>424</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>180</v>
+        <v>425</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -4647,10 +9004,10 @@
         <v>2041</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>182</v>
+        <v>427</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -4667,10 +9024,10 @@
         <v>2042</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>183</v>
+        <v>428</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>184</v>
+        <v>429</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -4687,10 +9044,10 @@
         <v>2140</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>185</v>
+        <v>430</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>186</v>
+        <v>431</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -4707,10 +9064,10 @@
         <v>2141</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>187</v>
+        <v>432</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -4727,10 +9084,10 @@
         <v>2240</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>189</v>
+        <v>434</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>190</v>
+        <v>435</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -4747,10 +9104,10 @@
         <v>2241</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>191</v>
+        <v>436</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>192</v>
+        <v>437</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -4779,10 +9136,10 @@
         <v>4001</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>438</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>194</v>
+        <v>439</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4811,7 +9168,7 @@
         <v>4005</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>440</v>
       </c>
       <c r="I47" s="14"/>
       <c r="J47">
@@ -4823,7 +9180,7 @@
         <v>4006</v>
       </c>
       <c r="B48" t="s">
-        <v>196</v>
+        <v>441</v>
       </c>
       <c r="I48" s="14"/>
       <c r="J48">
@@ -4835,10 +9192,10 @@
         <v>4007</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
+        <v>442</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>198</v>
+        <v>443</v>
       </c>
       <c r="I49" s="14"/>
       <c r="J49">
@@ -4850,10 +9207,10 @@
         <v>4008</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>444</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>200</v>
+        <v>445</v>
       </c>
       <c r="J50">
         <v>4008</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447">
   <si>
     <t>物品ID</t>
   </si>
@@ -1204,6 +1204,9 @@
     <t>圣盾之环+4</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>1615</t>
   </si>
   <si>
@@ -1525,9 +1528,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1590,26 +1593,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1634,8 +1622,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1649,24 +1661,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1688,6 +1693,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1695,33 +1716,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1754,25 +1757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,6 +1781,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1802,7 +1835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,13 +1853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,25 +1871,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,13 +1901,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,49 +1937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,26 +1951,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1987,20 +1981,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2020,21 +2011,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2045,16 +2021,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2063,16 +2066,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2081,115 +2084,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2801,8 +2804,8 @@
   <sheetPr/>
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4224,7 +4227,7 @@
       <c r="F33" s="18">
         <v>90</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="21" t="s">
         <v>160</v>
       </c>
       <c r="H33" s="18">
@@ -5120,7 +5123,7 @@
       <c r="Q54" s="22"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="18" t="s">
         <v>209</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -7176,8 +7179,8 @@
       <c r="D107" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E107" s="18" t="s">
-        <v>133</v>
+      <c r="E107" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="F107" s="18">
         <v>60</v>
@@ -7188,8 +7191,8 @@
       <c r="H107" s="18">
         <v>80</v>
       </c>
-      <c r="I107" s="18">
-        <v>15</v>
+      <c r="I107" s="21" t="s">
+        <v>244</v>
       </c>
       <c r="J107" s="18">
         <v>1604</v>
@@ -7216,11 +7219,11 @@
       <c r="C108" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="D108" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E108" s="18" t="s">
-        <v>94</v>
+      <c r="D108" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="F108" s="18">
         <v>60</v>
@@ -7231,8 +7234,8 @@
       <c r="H108" s="18">
         <v>80</v>
       </c>
-      <c r="I108" s="18">
-        <v>15</v>
+      <c r="I108" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="J108" s="18">
         <v>1604</v>
@@ -7259,11 +7262,11 @@
       <c r="C109" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="D109" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E109" s="18" t="s">
-        <v>225</v>
+      <c r="D109" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="F109" s="18">
         <v>60</v>
@@ -7274,8 +7277,8 @@
       <c r="H109" s="18">
         <v>80</v>
       </c>
-      <c r="I109" s="18">
-        <v>15</v>
+      <c r="I109" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="J109" s="18">
         <v>1604</v>
@@ -7302,11 +7305,11 @@
       <c r="C110" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>157</v>
+      <c r="D110" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="F110" s="18">
         <v>60</v>
@@ -7317,8 +7320,8 @@
       <c r="H110" s="18">
         <v>80</v>
       </c>
-      <c r="I110" s="18">
-        <v>15</v>
+      <c r="I110" s="21" t="s">
+        <v>341</v>
       </c>
       <c r="J110" s="18">
         <v>1604</v>
@@ -7337,19 +7340,19 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="D111" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E111" s="18" t="s">
-        <v>294</v>
+      <c r="D111" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="F111" s="18">
         <v>60</v>
@@ -7360,8 +7363,8 @@
       <c r="H111" s="18">
         <v>80</v>
       </c>
-      <c r="I111" s="18">
-        <v>15</v>
+      <c r="I111" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="J111" s="18">
         <v>1604</v>
@@ -7402,10 +7405,10 @@
         <v>1620</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D113" s="18">
         <v>0</v>
@@ -7464,10 +7467,10 @@
         <v>3001</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D115" s="18">
         <v>1</v>
@@ -7507,10 +7510,10 @@
         <v>3002</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D116" s="18">
         <v>25</v>
@@ -7550,10 +7553,10 @@
         <v>3003</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D117" s="22"/>
       <c r="E117" s="22"/>
@@ -7581,10 +7584,10 @@
         <v>3004</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D118" s="22"/>
       <c r="E118" s="22"/>
@@ -7608,10 +7611,10 @@
         <v>3005</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D119" s="22"/>
       <c r="E119" s="22"/>
@@ -8072,10 +8075,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>34</v>
@@ -8087,19 +8090,19 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8131,7 +8134,7 @@
         <v>54</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8174,7 +8177,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -8203,10 +8206,10 @@
         <v>2010</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -8235,10 +8238,10 @@
         <v>2110</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -8267,10 +8270,10 @@
         <v>2210</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -8303,10 +8306,10 @@
         <v>2020</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D9">
         <v>66</v>
@@ -8335,10 +8338,10 @@
         <v>2021</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -8367,10 +8370,10 @@
         <v>2022</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -8399,10 +8402,10 @@
         <v>2023</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -8431,10 +8434,10 @@
         <v>2120</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D13">
         <v>35</v>
@@ -8463,10 +8466,10 @@
         <v>2121</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D14">
         <v>25</v>
@@ -8495,10 +8498,10 @@
         <v>2122</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D15">
         <v>55</v>
@@ -8527,10 +8530,10 @@
         <v>2123</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -8559,10 +8562,10 @@
         <v>2220</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -8591,10 +8594,10 @@
         <v>2221</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -8623,10 +8626,10 @@
         <v>2222</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -8655,10 +8658,10 @@
         <v>2223</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -8690,10 +8693,10 @@
         <v>2030</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J22">
         <v>2006</v>
@@ -8704,10 +8707,10 @@
         <v>2031</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J23">
         <v>2007</v>
@@ -8718,10 +8721,10 @@
         <v>2032</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J24">
         <v>2008</v>
@@ -8732,10 +8735,10 @@
         <v>2033</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -8752,10 +8755,10 @@
         <v>2034</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -8772,10 +8775,10 @@
         <v>2130</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -8792,10 +8795,10 @@
         <v>2131</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -8812,10 +8815,10 @@
         <v>2132</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -8832,10 +8835,10 @@
         <v>2133</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -8852,10 +8855,10 @@
         <v>2134</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -8872,10 +8875,10 @@
         <v>2230</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -8892,10 +8895,10 @@
         <v>2231</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -8912,10 +8915,10 @@
         <v>2232</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -8932,10 +8935,10 @@
         <v>2233</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -8952,10 +8955,10 @@
         <v>2234</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -8984,10 +8987,10 @@
         <v>2040</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -9004,10 +9007,10 @@
         <v>2041</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -9024,10 +9027,10 @@
         <v>2042</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -9044,10 +9047,10 @@
         <v>2140</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -9064,10 +9067,10 @@
         <v>2141</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -9084,10 +9087,10 @@
         <v>2240</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -9104,10 +9107,10 @@
         <v>2241</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -9136,10 +9139,10 @@
         <v>4001</v>
       </c>
       <c r="B46" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -9168,7 +9171,7 @@
         <v>4005</v>
       </c>
       <c r="B47" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I47" s="14"/>
       <c r="J47">
@@ -9180,7 +9183,7 @@
         <v>4006</v>
       </c>
       <c r="B48" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I48" s="14"/>
       <c r="J48">
@@ -9192,10 +9195,10 @@
         <v>4007</v>
       </c>
       <c r="B49" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I49" s="14"/>
       <c r="J49">
@@ -9207,10 +9210,10 @@
         <v>4008</v>
       </c>
       <c r="B50" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J50">
         <v>4008</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -1369,7 +1369,7 @@
     <t>终极灵气箭之书</t>
   </si>
   <si>
-    <t>记载着法术【终极灵气箭】的古书。阳炎术是最基础的阳属性法术，利用了世间的阳气之力。</t>
+    <t>记载着法术【终极灵气箭】的卷轴。这是将灵气箭这一基础法术修炼到极致的成果。</t>
   </si>
   <si>
     <t>强力灵气弹之书</t>
@@ -1381,7 +1381,7 @@
     <t>灵气共鸣之书</t>
   </si>
   <si>
-    <t>记载着法术【灵气共鸣】的古书。释放大量灵气对敌方造成伤害，虽然对灵力强的人很有效，但总有杀敌一千自损八百的感觉。</t>
+    <t>记载着法术【灵气共鸣】的卷轴。将内在的灵气循环打破并释放，对敌方造成伤害，虽然对灵力强的人很有效，但总有杀敌一千自损八百的感觉。</t>
   </si>
   <si>
     <t>狂化灵气乱射之书</t>
@@ -1399,7 +1399,7 @@
     <t>终极冰封术之书</t>
   </si>
   <si>
-    <t>记载着法术【终极冰封术】的古书。最强的冰封术可以同时对所有人产生伤害。</t>
+    <t>记载着法术【终极冰封术】的古书。阴属性法术修炼到一定境界的达人可以掌握的招式。</t>
   </si>
   <si>
     <t>暗之原力之书</t>
@@ -1429,7 +1429,7 @@
     <t>终极阳炎术之书</t>
   </si>
   <si>
-    <t>记载着法术【终极阳炎术】的古书。最强的阳炎术可以同时对所有人产生伤害。</t>
+    <t>记载着法术【终极阳炎术】的古书。阳属性法术修炼到一定境界的达人可以掌握的招式。</t>
   </si>
   <si>
     <t>光之原力之书</t>
@@ -1527,10 +1527,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1587,14 +1587,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1615,6 +1615,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1622,8 +1630,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1645,6 +1662,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1661,14 +1715,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1678,53 +1724,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1757,7 +1757,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,7 +1793,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,13 +1823,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,43 +1853,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,19 +1883,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,67 +1937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1976,6 +1976,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1992,24 +2007,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2025,11 +2027,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2054,10 +2054,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2066,137 +2066,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2221,17 +2221,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2252,9 +2257,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2692,7 +2694,7 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2703,7 +2705,7 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2711,10 +2713,10 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2722,10 +2724,10 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2733,10 +2735,10 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2744,10 +2746,10 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2755,10 +2757,10 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2766,10 +2768,10 @@
       <c r="A13">
         <v>101</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2777,10 +2779,10 @@
       <c r="A14">
         <v>102</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2788,10 +2790,10 @@
       <c r="A15">
         <v>103</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2807,14 +2809,14 @@
   <sheetPr/>
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="19" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -2832,5223 +2834,5223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:17">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:17">
-      <c r="A4" s="17">
+      <c r="A4" s="20">
         <v>1000</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="20">
         <v>0</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="20">
         <v>0</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="20">
         <v>0</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <v>0</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <v>0</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="20">
         <v>0</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="20">
         <v>0</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="20">
         <v>0</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="26">
         <v>0</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="26">
         <v>0</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <v>0</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="20">
         <v>0</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="19">
+      <c r="A5" s="22">
         <v>1100</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="22">
         <v>6</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="22">
         <v>90</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="22">
         <v>150</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="22">
         <v>2</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="22">
         <v>1101</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="22">
         <v>1102</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="22">
         <v>1103</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23">
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25">
         <v>2</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="22">
         <v>90</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="22">
         <v>150</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="22">
         <v>2</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="22">
         <v>1101</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="22">
         <v>1102</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="22">
         <v>1103</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="22">
         <v>90</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="22">
         <v>150</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="22">
         <v>2</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="22">
         <v>1101</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="22">
         <v>1102</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="22">
         <v>1103</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="22">
         <v>90</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="22">
         <v>150</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="22">
         <v>2</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="22">
         <v>1101</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="22">
         <v>1102</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="22">
         <v>1103</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23" t="s">
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="Q8" s="23" t="s">
+      <c r="Q8" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="22">
         <v>90</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="22">
         <v>150</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="22">
         <v>2</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="22">
         <v>1101</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="22">
         <v>1102</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="22">
         <v>1103</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23" t="s">
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="25" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="22">
         <v>90</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="22">
         <v>15</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="22">
         <v>150</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="22">
         <v>2</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="22">
         <v>1101</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="22">
         <v>1102</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="22">
         <v>1103</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23" t="s">
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:17">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
     </row>
     <row r="12" customFormat="1" spans="1:17">
-      <c r="A12" s="19">
+      <c r="A12" s="22">
         <v>1110</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="22">
         <v>10</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="22">
         <v>110</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="22">
         <v>16</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="22">
         <v>160</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="22">
         <v>2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="22">
         <v>1101</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="22">
         <v>1102</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="22">
         <v>1104</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" customFormat="1" spans="1:17">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="22">
         <v>110</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="22">
         <v>16</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="22">
         <v>160</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="22">
         <v>1101</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="22">
         <v>1102</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="22">
         <v>1104</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
     </row>
     <row r="14" customFormat="1" spans="1:17">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="22">
         <v>110</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="22">
         <v>16</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="22">
         <v>160</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="22">
         <v>1101</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="22">
         <v>1102</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="22">
         <v>1104</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="15" customFormat="1" spans="1:17">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="22">
         <v>110</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="22">
         <v>16</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="22">
         <v>160</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="22">
         <v>1101</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="22">
         <v>1102</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="22">
         <v>1104</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
     </row>
     <row r="16" customFormat="1" spans="1:17">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="22">
         <v>110</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="22">
         <v>16</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="22">
         <v>160</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="22">
         <v>1101</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="22">
         <v>1102</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="22">
         <v>1104</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" customFormat="1" spans="1:17">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="22">
         <v>110</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="22">
         <v>16</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="22">
         <v>160</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="22">
         <v>1101</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="22">
         <v>1102</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="22">
         <v>1104</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
     </row>
     <row r="18" customFormat="1" spans="1:17">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="19">
+      <c r="A19" s="22">
         <v>1120</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="22">
         <v>15</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="22">
         <v>1</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="22">
         <v>1102</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="22">
         <v>1105</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="22">
         <v>1106</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="22">
         <v>100</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="22">
         <v>15</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="22">
         <v>1</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="22">
         <v>1102</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="22">
         <v>1105</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="22">
         <v>1106</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="22">
         <v>100</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="22">
         <v>15</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="22">
         <v>1</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="22">
         <v>1102</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="22">
         <v>1105</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="22">
         <v>1106</v>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="22">
         <v>100</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="22">
         <v>15</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="22">
         <v>1</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="22">
         <v>1102</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="22">
         <v>1105</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="22">
         <v>1106</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="22">
         <v>100</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="22">
         <v>15</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="22">
         <v>1</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="22">
         <v>1102</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="22">
         <v>1105</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="22">
         <v>1106</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="22">
         <v>100</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="22">
         <v>15</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="22">
         <v>1</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="22">
         <v>1102</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="22">
         <v>1105</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="22">
         <v>1106</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="22">
         <v>12</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="22">
         <v>16</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="22">
         <v>80</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="22">
         <v>12</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="22">
         <v>120</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="22">
         <v>7</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="22">
         <v>1201</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="22">
         <v>1202</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="22">
         <v>1203</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="22">
         <v>2</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="22">
         <v>10</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="25">
         <v>5</v>
       </c>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="22">
         <v>80</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="22">
         <v>12</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="22">
         <v>120</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="22">
         <v>7</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="22">
         <v>1201</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="22">
         <v>1202</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="22">
         <v>1203</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="22">
         <v>2</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="25">
         <v>5</v>
       </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
     </row>
     <row r="28" customFormat="1" spans="1:17">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="22">
         <v>80</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="22">
         <v>12</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="22">
         <v>120</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="22">
         <v>7</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="22">
         <v>1201</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="22">
         <v>1202</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="22">
         <v>1203</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="22">
         <v>2</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="O28" s="23">
+      <c r="O28" s="25">
         <v>5</v>
       </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
     </row>
     <row r="29" customFormat="1" spans="1:17">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="22">
         <v>80</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="22">
         <v>12</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="22">
         <v>120</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="22">
         <v>7</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="22">
         <v>1201</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="22">
         <v>1202</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="22">
         <v>1203</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="22">
         <v>2</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="25">
         <v>5</v>
       </c>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
     </row>
     <row r="30" customFormat="1" spans="1:17">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="22">
         <v>80</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="22">
         <v>12</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="22">
         <v>120</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="22">
         <v>7</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="22">
         <v>1201</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="22">
         <v>1202</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="22">
         <v>1203</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="22">
         <v>2</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="O30" s="23">
+      <c r="O30" s="25">
         <v>5</v>
       </c>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
     </row>
     <row r="31" customFormat="1" spans="1:17">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="22">
         <v>80</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="22">
         <v>12</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="22">
         <v>120</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="22">
         <v>7</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="22">
         <v>1201</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="22">
         <v>1202</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="22">
         <v>1203</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="22">
         <v>2</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="23">
+      <c r="O31" s="25">
         <v>5</v>
       </c>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="19">
+      <c r="A33" s="22">
         <v>1210</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="22">
         <v>15</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="22">
         <v>19</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="22">
         <v>90</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="22">
         <v>30</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="22">
         <v>7</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="22">
         <v>1201</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="22">
         <v>1204</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="22">
         <v>1205</v>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="22">
         <v>30</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="22">
         <v>7</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="22">
         <v>1201</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="22">
         <v>1204</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="22">
         <v>1205</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="22">
         <v>30</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="22">
         <v>7</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="22">
         <v>1201</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="22">
         <v>1204</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="22">
         <v>1205</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="22">
         <v>30</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="22">
         <v>7</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="22">
         <v>1201</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="22">
         <v>1204</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="22">
         <v>1205</v>
       </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="22">
         <v>30</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="22">
         <v>7</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="22">
         <v>1201</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="22">
         <v>1204</v>
       </c>
-      <c r="L37" s="19">
+      <c r="L37" s="22">
         <v>1205</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="22">
         <v>30</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="22">
         <v>7</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="22">
         <v>1201</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="22">
         <v>1204</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L38" s="22">
         <v>1205</v>
       </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="19">
+      <c r="A40" s="22">
         <v>1220</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="22">
         <v>1</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="22">
         <v>10</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="22">
         <v>80</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="22">
         <v>0</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="22">
         <v>110</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="22">
         <v>7</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="22">
         <v>1201</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="22">
         <v>1206</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="22">
         <v>1207</v>
       </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="19">
+      <c r="A41" s="22">
         <v>1300</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="22">
         <v>18</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="22">
         <v>22</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="22">
         <v>80</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="22">
         <v>10</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="22">
         <v>100</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="22">
         <v>10</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="22">
         <v>1301</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="22">
         <v>1302</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="22">
         <v>1303</v>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23">
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25">
         <v>7</v>
       </c>
-      <c r="Q41" s="23">
+      <c r="Q41" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="19">
+      <c r="A43" s="22">
         <v>1310</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="22">
         <v>16</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="22">
         <v>20</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="22">
         <v>80</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="22">
         <v>10</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="22">
         <v>130</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="22">
         <v>10</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="22">
         <v>1301</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K43" s="22">
         <v>1302</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="22">
         <v>1304</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M43" s="22">
         <v>3</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N43" s="22">
         <v>10</v>
       </c>
-      <c r="O43" s="23">
+      <c r="O43" s="25">
         <v>3</v>
       </c>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="22" t="s">
         <v>145</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="22">
         <v>80</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="22">
         <v>10</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="22">
         <v>130</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="22">
         <v>10</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="22">
         <v>1301</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="22">
         <v>1302</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="22">
         <v>1304</v>
       </c>
-      <c r="M44" s="19">
+      <c r="M44" s="22">
         <v>3</v>
       </c>
-      <c r="N44" s="19" t="s">
+      <c r="N44" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O44" s="23" t="s">
+      <c r="O44" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="22">
         <v>80</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="22">
         <v>10</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="22">
         <v>130</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="22">
         <v>10</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J45" s="22">
         <v>1301</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="22">
         <v>1302</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="22">
         <v>1304</v>
       </c>
-      <c r="M45" s="19">
+      <c r="M45" s="22">
         <v>3</v>
       </c>
-      <c r="N45" s="19" t="s">
+      <c r="N45" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="O45" s="23" t="s">
+      <c r="O45" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="22" t="s">
         <v>151</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="22">
         <v>80</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="22">
         <v>10</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="22">
         <v>130</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="22">
         <v>10</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="22">
         <v>1301</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="22">
         <v>1302</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="22">
         <v>1304</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M46" s="22">
         <v>3</v>
       </c>
-      <c r="N46" s="19" t="s">
+      <c r="N46" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="O46" s="23" t="s">
+      <c r="O46" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="22" t="s">
         <v>154</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="22">
         <v>80</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="22">
         <v>10</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="22">
         <v>130</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="22">
         <v>10</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="22">
         <v>1301</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K47" s="22">
         <v>1302</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="22">
         <v>1304</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M47" s="22">
         <v>3</v>
       </c>
-      <c r="N47" s="19" t="s">
+      <c r="N47" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="O47" s="23" t="s">
+      <c r="O47" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="22">
         <v>80</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="22">
         <v>10</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="22">
         <v>130</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="22">
         <v>10</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="22">
         <v>1301</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="22">
         <v>1302</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="22">
         <v>1304</v>
       </c>
-      <c r="M48" s="19">
+      <c r="M48" s="22">
         <v>3</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="N48" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="O48" s="23" t="s">
+      <c r="O48" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="19">
+      <c r="A50" s="22">
         <v>1320</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="22">
         <v>15</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="22">
         <v>15</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="22">
         <v>60</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="22">
         <v>8</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="22">
         <v>80</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="22">
         <v>8</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="22">
         <v>1301</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="22">
         <v>1305</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="22">
         <v>1306</v>
       </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I51" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J51" s="22">
         <v>1301</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K51" s="22">
         <v>1305</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="22">
         <v>1306</v>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="I52" s="19" t="s">
+      <c r="I52" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J52" s="22">
         <v>1301</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K52" s="22">
         <v>1305</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L52" s="22">
         <v>1306</v>
       </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I53" s="19" t="s">
+      <c r="I53" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="22">
         <v>1301</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="22">
         <v>1305</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="22">
         <v>1306</v>
       </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I54" s="19" t="s">
+      <c r="I54" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="22">
         <v>1301</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K54" s="22">
         <v>1305</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="22">
         <v>1306</v>
       </c>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="I55" s="19" t="s">
+      <c r="I55" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="22">
         <v>1301</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K55" s="22">
         <v>1305</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L55" s="22">
         <v>1306</v>
       </c>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="19">
+      <c r="A57" s="22">
         <v>1400</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="22">
         <v>25</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="22">
         <v>35</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="22">
         <v>60</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="22">
         <v>10</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H57" s="22">
         <v>80</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="22">
         <v>14</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J57" s="22">
         <v>1401</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K57" s="22">
         <v>1402</v>
       </c>
-      <c r="L57" s="19">
+      <c r="L57" s="22">
         <v>1403</v>
       </c>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="22">
         <v>10</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H58" s="22">
         <v>80</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="22">
         <v>14</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J58" s="22">
         <v>1401</v>
       </c>
-      <c r="K58" s="19">
+      <c r="K58" s="22">
         <v>1402</v>
       </c>
-      <c r="L58" s="19">
+      <c r="L58" s="22">
         <v>1403</v>
       </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="22">
         <v>10</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H59" s="22">
         <v>80</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="22">
         <v>14</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="22">
         <v>1401</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K59" s="22">
         <v>1402</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L59" s="22">
         <v>1403</v>
       </c>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="22">
         <v>10</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H60" s="22">
         <v>80</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="22">
         <v>14</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J60" s="22">
         <v>1401</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K60" s="22">
         <v>1402</v>
       </c>
-      <c r="L60" s="19">
+      <c r="L60" s="22">
         <v>1403</v>
       </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="22">
         <v>10</v>
       </c>
-      <c r="H61" s="19">
+      <c r="H61" s="22">
         <v>80</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="22">
         <v>14</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J61" s="22">
         <v>1401</v>
       </c>
-      <c r="K61" s="19">
+      <c r="K61" s="22">
         <v>1402</v>
       </c>
-      <c r="L61" s="19">
+      <c r="L61" s="22">
         <v>1403</v>
       </c>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="19" t="s">
+      <c r="F62" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62" s="22">
         <v>10</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H62" s="22">
         <v>80</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I62" s="22">
         <v>14</v>
       </c>
-      <c r="J62" s="19">
+      <c r="J62" s="22">
         <v>1401</v>
       </c>
-      <c r="K62" s="19">
+      <c r="K62" s="22">
         <v>1402</v>
       </c>
-      <c r="L62" s="19">
+      <c r="L62" s="22">
         <v>1403</v>
       </c>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="19">
+      <c r="A64" s="22">
         <v>1410</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="22">
         <v>18</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="22">
         <v>32</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F64" s="22">
         <v>90</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G64" s="22">
         <v>11</v>
       </c>
-      <c r="H64" s="19">
+      <c r="H64" s="22">
         <v>110</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I64" s="22">
         <v>12</v>
       </c>
-      <c r="J64" s="19">
+      <c r="J64" s="22">
         <v>1401</v>
       </c>
-      <c r="K64" s="19">
+      <c r="K64" s="22">
         <v>1402</v>
       </c>
-      <c r="L64" s="19">
+      <c r="L64" s="22">
         <v>1404</v>
       </c>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="22">
         <v>90</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G65" s="22">
         <v>11</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H65" s="22">
         <v>110</v>
       </c>
-      <c r="I65" s="19" t="s">
+      <c r="I65" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J65" s="19">
+      <c r="J65" s="22">
         <v>1401</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K65" s="22">
         <v>1402</v>
       </c>
-      <c r="L65" s="19">
+      <c r="L65" s="22">
         <v>1404</v>
       </c>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="23"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66" s="22">
         <v>90</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G66" s="22">
         <v>11</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H66" s="22">
         <v>110</v>
       </c>
-      <c r="I66" s="19" t="s">
+      <c r="I66" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="J66" s="19">
+      <c r="J66" s="22">
         <v>1401</v>
       </c>
-      <c r="K66" s="19">
+      <c r="K66" s="22">
         <v>1402</v>
       </c>
-      <c r="L66" s="19">
+      <c r="L66" s="22">
         <v>1404</v>
       </c>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="22">
         <v>90</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G67" s="22">
         <v>11</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H67" s="22">
         <v>110</v>
       </c>
-      <c r="I67" s="19" t="s">
+      <c r="I67" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J67" s="19">
+      <c r="J67" s="22">
         <v>1401</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K67" s="22">
         <v>1402</v>
       </c>
-      <c r="L67" s="19">
+      <c r="L67" s="22">
         <v>1404</v>
       </c>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="22">
         <v>90</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G68" s="22">
         <v>11</v>
       </c>
-      <c r="H68" s="19">
+      <c r="H68" s="22">
         <v>110</v>
       </c>
-      <c r="I68" s="19" t="s">
+      <c r="I68" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="J68" s="19">
+      <c r="J68" s="22">
         <v>1401</v>
       </c>
-      <c r="K68" s="19">
+      <c r="K68" s="22">
         <v>1402</v>
       </c>
-      <c r="L68" s="19">
+      <c r="L68" s="22">
         <v>1404</v>
       </c>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="23"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="22">
         <v>90</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69" s="22">
         <v>11</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H69" s="22">
         <v>110</v>
       </c>
-      <c r="I69" s="19" t="s">
+      <c r="I69" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="J69" s="19">
+      <c r="J69" s="22">
         <v>1401</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K69" s="22">
         <v>1402</v>
       </c>
-      <c r="L69" s="19">
+      <c r="L69" s="22">
         <v>1404</v>
       </c>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="19"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="23"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="19">
+      <c r="A71" s="22">
         <v>1420</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="22">
         <v>28</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="22">
         <v>60</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G71" s="22">
         <v>10</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H71" s="22">
         <v>40</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I71" s="22">
         <v>22</v>
       </c>
-      <c r="J71" s="19">
+      <c r="J71" s="22">
         <v>1401</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K71" s="22">
         <v>1402</v>
       </c>
-      <c r="L71" s="19">
+      <c r="L71" s="22">
         <v>1405</v>
       </c>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F72" s="22">
         <v>60</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G72" s="22">
         <v>10</v>
       </c>
-      <c r="H72" s="19" t="s">
+      <c r="H72" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I72" s="22">
         <v>22</v>
       </c>
-      <c r="J72" s="19">
+      <c r="J72" s="22">
         <v>1401</v>
       </c>
-      <c r="K72" s="19">
+      <c r="K72" s="22">
         <v>1402</v>
       </c>
-      <c r="L72" s="19">
+      <c r="L72" s="22">
         <v>1405</v>
       </c>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="23"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F73" s="22">
         <v>60</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G73" s="22">
         <v>10</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I73" s="19">
+      <c r="I73" s="22">
         <v>22</v>
       </c>
-      <c r="J73" s="19">
+      <c r="J73" s="22">
         <v>1401</v>
       </c>
-      <c r="K73" s="19">
+      <c r="K73" s="22">
         <v>1402</v>
       </c>
-      <c r="L73" s="19">
+      <c r="L73" s="22">
         <v>1405</v>
       </c>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="23"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="22">
         <v>60</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G74" s="22">
         <v>10</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H74" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="22">
         <v>22</v>
       </c>
-      <c r="J74" s="19">
+      <c r="J74" s="22">
         <v>1401</v>
       </c>
-      <c r="K74" s="19">
+      <c r="K74" s="22">
         <v>1402</v>
       </c>
-      <c r="L74" s="19">
+      <c r="L74" s="22">
         <v>1405</v>
       </c>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="22">
         <v>60</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G75" s="22">
         <v>10</v>
       </c>
-      <c r="H75" s="19" t="s">
+      <c r="H75" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I75" s="22">
         <v>22</v>
       </c>
-      <c r="J75" s="19">
+      <c r="J75" s="22">
         <v>1401</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K75" s="22">
         <v>1402</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L75" s="22">
         <v>1405</v>
       </c>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="22">
         <v>60</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G76" s="22">
         <v>10</v>
       </c>
-      <c r="H76" s="19" t="s">
+      <c r="H76" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I76" s="22">
         <v>22</v>
       </c>
-      <c r="J76" s="19">
+      <c r="J76" s="22">
         <v>1401</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K76" s="22">
         <v>1402</v>
       </c>
-      <c r="L76" s="19">
+      <c r="L76" s="22">
         <v>1405</v>
       </c>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="19">
+      <c r="A78" s="22">
         <v>1500</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="22">
         <v>15</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="22">
         <v>25</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="22">
         <v>70</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G78" s="22">
         <v>11</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H78" s="22">
         <v>80</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="22">
         <v>7</v>
       </c>
-      <c r="J78" s="19">
+      <c r="J78" s="22">
         <v>1501</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K78" s="22">
         <v>1503</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L78" s="22">
         <v>1504</v>
       </c>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="F79" s="19" t="s">
+      <c r="F79" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G79" s="22">
         <v>11</v>
       </c>
-      <c r="H79" s="19" t="s">
+      <c r="H79" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I79" s="22">
         <v>7</v>
       </c>
-      <c r="J79" s="19">
+      <c r="J79" s="22">
         <v>1501</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K79" s="22">
         <v>1503</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L79" s="22">
         <v>1504</v>
       </c>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="23"/>
-      <c r="Q79" s="23"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="F80" s="19" t="s">
+      <c r="F80" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G80" s="22">
         <v>11</v>
       </c>
-      <c r="H80" s="19" t="s">
+      <c r="H80" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I80" s="22">
         <v>7</v>
       </c>
-      <c r="J80" s="19">
+      <c r="J80" s="22">
         <v>1501</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K80" s="22">
         <v>1503</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L80" s="22">
         <v>1504</v>
       </c>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F81" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="H81" s="19" t="s">
+      <c r="H81" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I81" s="22">
         <v>7</v>
       </c>
-      <c r="J81" s="19">
+      <c r="J81" s="22">
         <v>1501</v>
       </c>
-      <c r="K81" s="19">
+      <c r="K81" s="22">
         <v>1503</v>
       </c>
-      <c r="L81" s="19">
+      <c r="L81" s="22">
         <v>1504</v>
       </c>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="23"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="23"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
     </row>
     <row r="82" spans="1:17">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="F82" s="19" t="s">
+      <c r="F82" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="G82" s="19" t="s">
+      <c r="G82" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="H82" s="19" t="s">
+      <c r="H82" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I82" s="22">
         <v>7</v>
       </c>
-      <c r="J82" s="19">
+      <c r="J82" s="22">
         <v>1501</v>
       </c>
-      <c r="K82" s="19">
+      <c r="K82" s="22">
         <v>1503</v>
       </c>
-      <c r="L82" s="19">
+      <c r="L82" s="22">
         <v>1504</v>
       </c>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="23"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="23"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
     </row>
     <row r="83" spans="1:17">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="F83" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G83" s="19" t="s">
+      <c r="G83" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="H83" s="19" t="s">
+      <c r="H83" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I83" s="22">
         <v>7</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J83" s="22">
         <v>1501</v>
       </c>
-      <c r="K83" s="19">
+      <c r="K83" s="22">
         <v>1503</v>
       </c>
-      <c r="L83" s="19">
+      <c r="L83" s="22">
         <v>1504</v>
       </c>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="23"/>
-      <c r="P83" s="23"/>
-      <c r="Q83" s="23"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="19"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="19">
+      <c r="A85" s="22">
         <v>1510</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="22">
         <v>20</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E85" s="22">
         <v>30</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="22">
         <v>100</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G85" s="22">
         <v>13</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H85" s="22">
         <v>60</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I85" s="22">
         <v>12</v>
       </c>
-      <c r="J85" s="19">
+      <c r="J85" s="22">
         <v>1501</v>
       </c>
-      <c r="K85" s="19">
+      <c r="K85" s="22">
         <v>1502</v>
       </c>
-      <c r="L85" s="19">
+      <c r="L85" s="22">
         <v>1505</v>
       </c>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="22">
         <v>100</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G86" s="22">
         <v>13</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H86" s="22">
         <v>60</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I86" s="22">
         <v>12</v>
       </c>
-      <c r="J86" s="19">
+      <c r="J86" s="22">
         <v>1501</v>
       </c>
-      <c r="K86" s="19">
+      <c r="K86" s="22">
         <v>1502</v>
       </c>
-      <c r="L86" s="19">
+      <c r="L86" s="22">
         <v>1505</v>
       </c>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="23"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F87" s="22">
         <v>100</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G87" s="22">
         <v>13</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H87" s="22">
         <v>60</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I87" s="22">
         <v>12</v>
       </c>
-      <c r="J87" s="19">
+      <c r="J87" s="22">
         <v>1501</v>
       </c>
-      <c r="K87" s="19">
+      <c r="K87" s="22">
         <v>1502</v>
       </c>
-      <c r="L87" s="19">
+      <c r="L87" s="22">
         <v>1505</v>
       </c>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="23"/>
-      <c r="P87" s="23"/>
-      <c r="Q87" s="23"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
     </row>
     <row r="88" spans="1:17">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F88" s="22">
         <v>100</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G88" s="22">
         <v>13</v>
       </c>
-      <c r="H88" s="19" t="s">
+      <c r="H88" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I88" s="22">
         <v>12</v>
       </c>
-      <c r="J88" s="19">
+      <c r="J88" s="22">
         <v>1501</v>
       </c>
-      <c r="K88" s="19">
+      <c r="K88" s="22">
         <v>1502</v>
       </c>
-      <c r="L88" s="19">
+      <c r="L88" s="22">
         <v>1505</v>
       </c>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="23"/>
-      <c r="P88" s="23"/>
-      <c r="Q88" s="23"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
     </row>
     <row r="89" spans="1:17">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="22">
         <v>100</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G89" s="22">
         <v>13</v>
       </c>
-      <c r="H89" s="19" t="s">
+      <c r="H89" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I89" s="19">
+      <c r="I89" s="22">
         <v>12</v>
       </c>
-      <c r="J89" s="19">
+      <c r="J89" s="22">
         <v>1501</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K89" s="22">
         <v>1502</v>
       </c>
-      <c r="L89" s="19">
+      <c r="L89" s="22">
         <v>1505</v>
       </c>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="23"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
     </row>
     <row r="90" spans="1:17">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F90" s="22">
         <v>100</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G90" s="22">
         <v>13</v>
       </c>
-      <c r="H90" s="19" t="s">
+      <c r="H90" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I90" s="22">
         <v>12</v>
       </c>
-      <c r="J90" s="19">
+      <c r="J90" s="22">
         <v>1501</v>
       </c>
-      <c r="K90" s="19">
+      <c r="K90" s="22">
         <v>1502</v>
       </c>
-      <c r="L90" s="19">
+      <c r="L90" s="22">
         <v>1505</v>
       </c>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="23"/>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="23"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="23"/>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="23"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="19">
+      <c r="A92" s="22">
         <v>1520</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E92" s="22">
         <v>23</v>
       </c>
-      <c r="F92" s="19">
+      <c r="F92" s="22">
         <v>90</v>
       </c>
-      <c r="G92" s="19">
+      <c r="G92" s="22">
         <v>15</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H92" s="22">
         <v>110</v>
       </c>
-      <c r="I92" s="19">
+      <c r="I92" s="22">
         <v>3</v>
       </c>
-      <c r="J92" s="19">
+      <c r="J92" s="22">
         <v>1501</v>
       </c>
-      <c r="K92" s="19">
+      <c r="K92" s="22">
         <v>1502</v>
       </c>
-      <c r="L92" s="19">
+      <c r="L92" s="22">
         <v>1506</v>
       </c>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="23"/>
-      <c r="P92" s="23"/>
-      <c r="Q92" s="23"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F93" s="22">
         <v>90</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G93" s="22">
         <v>15</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H93" s="22">
         <v>110</v>
       </c>
-      <c r="I93" s="19">
+      <c r="I93" s="22">
         <v>3</v>
       </c>
-      <c r="J93" s="19">
+      <c r="J93" s="22">
         <v>1501</v>
       </c>
-      <c r="K93" s="19">
+      <c r="K93" s="22">
         <v>1502</v>
       </c>
-      <c r="L93" s="19">
+      <c r="L93" s="22">
         <v>1506</v>
       </c>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="23"/>
-      <c r="P93" s="23"/>
-      <c r="Q93" s="23"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F94" s="22">
         <v>90</v>
       </c>
-      <c r="G94" s="19">
+      <c r="G94" s="22">
         <v>15</v>
       </c>
-      <c r="H94" s="19">
+      <c r="H94" s="22">
         <v>110</v>
       </c>
-      <c r="I94" s="19">
+      <c r="I94" s="22">
         <v>3</v>
       </c>
-      <c r="J94" s="19">
+      <c r="J94" s="22">
         <v>1501</v>
       </c>
-      <c r="K94" s="19">
+      <c r="K94" s="22">
         <v>1502</v>
       </c>
-      <c r="L94" s="19">
+      <c r="L94" s="22">
         <v>1506</v>
       </c>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="23"/>
-      <c r="P94" s="23"/>
-      <c r="Q94" s="23"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="F95" s="19" t="s">
+      <c r="F95" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G95" s="22">
         <v>15</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H95" s="22">
         <v>110</v>
       </c>
-      <c r="I95" s="19" t="s">
+      <c r="I95" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="J95" s="19">
+      <c r="J95" s="22">
         <v>1501</v>
       </c>
-      <c r="K95" s="19">
+      <c r="K95" s="22">
         <v>1502</v>
       </c>
-      <c r="L95" s="19">
+      <c r="L95" s="22">
         <v>1506</v>
       </c>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="23"/>
-      <c r="Q95" s="23"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="25"/>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="F96" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G96" s="19">
+      <c r="G96" s="22">
         <v>15</v>
       </c>
-      <c r="H96" s="19">
+      <c r="H96" s="22">
         <v>110</v>
       </c>
-      <c r="I96" s="19" t="s">
+      <c r="I96" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="J96" s="19">
+      <c r="J96" s="22">
         <v>1501</v>
       </c>
-      <c r="K96" s="19">
+      <c r="K96" s="22">
         <v>1502</v>
       </c>
-      <c r="L96" s="19">
+      <c r="L96" s="22">
         <v>1506</v>
       </c>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
-      <c r="O96" s="23"/>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="23"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="F97" s="19" t="s">
+      <c r="F97" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G97" s="19">
+      <c r="G97" s="22">
         <v>15</v>
       </c>
-      <c r="H97" s="19">
+      <c r="H97" s="22">
         <v>110</v>
       </c>
-      <c r="I97" s="19" t="s">
+      <c r="I97" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="J97" s="19">
+      <c r="J97" s="22">
         <v>1501</v>
       </c>
-      <c r="K97" s="19">
+      <c r="K97" s="22">
         <v>1502</v>
       </c>
-      <c r="L97" s="19">
+      <c r="L97" s="22">
         <v>1506</v>
       </c>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="23"/>
-      <c r="P97" s="23"/>
-      <c r="Q97" s="23"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="23"/>
-      <c r="P98" s="23"/>
-      <c r="Q98" s="23"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="25"/>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="19">
+      <c r="A99" s="22">
         <v>1600</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E99" s="19">
+      <c r="E99" s="22">
         <v>30</v>
       </c>
-      <c r="F99" s="19">
+      <c r="F99" s="22">
         <v>40</v>
       </c>
-      <c r="G99" s="19">
+      <c r="G99" s="22">
         <v>10</v>
       </c>
-      <c r="H99" s="19">
+      <c r="H99" s="22">
         <v>75</v>
       </c>
-      <c r="I99" s="19">
+      <c r="I99" s="22">
         <v>13</v>
       </c>
-      <c r="J99" s="19">
+      <c r="J99" s="22">
         <v>1601</v>
       </c>
-      <c r="K99" s="19">
+      <c r="K99" s="22">
         <v>1602</v>
       </c>
-      <c r="L99" s="19">
+      <c r="L99" s="22">
         <v>1603</v>
       </c>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="23"/>
-      <c r="P99" s="23"/>
-      <c r="Q99" s="23"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="25"/>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F100" s="19" t="s">
+      <c r="F100" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G100" s="19">
+      <c r="G100" s="22">
         <v>10</v>
       </c>
-      <c r="H100" s="19" t="s">
+      <c r="H100" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="I100" s="19" t="s">
+      <c r="I100" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J100" s="19">
+      <c r="J100" s="22">
         <v>1601</v>
       </c>
-      <c r="K100" s="19">
+      <c r="K100" s="22">
         <v>1602</v>
       </c>
-      <c r="L100" s="19">
+      <c r="L100" s="22">
         <v>1603</v>
       </c>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19"/>
-      <c r="O100" s="23"/>
-      <c r="P100" s="23"/>
-      <c r="Q100" s="23"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="25"/>
     </row>
     <row r="101" spans="1:17">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G101" s="19">
+      <c r="G101" s="22">
         <v>10</v>
       </c>
-      <c r="H101" s="19" t="s">
+      <c r="H101" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="I101" s="19" t="s">
+      <c r="I101" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="J101" s="19">
+      <c r="J101" s="22">
         <v>1601</v>
       </c>
-      <c r="K101" s="19">
+      <c r="K101" s="22">
         <v>1602</v>
       </c>
-      <c r="L101" s="19">
+      <c r="L101" s="22">
         <v>1603</v>
       </c>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="23"/>
-      <c r="P101" s="23"/>
-      <c r="Q101" s="23"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="25"/>
     </row>
     <row r="102" spans="1:17">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F102" s="19" t="s">
+      <c r="F102" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="G102" s="19">
+      <c r="G102" s="22">
         <v>10</v>
       </c>
-      <c r="H102" s="19" t="s">
+      <c r="H102" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="I102" s="19" t="s">
+      <c r="I102" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="J102" s="19">
+      <c r="J102" s="22">
         <v>1601</v>
       </c>
-      <c r="K102" s="19">
+      <c r="K102" s="22">
         <v>1602</v>
       </c>
-      <c r="L102" s="19">
+      <c r="L102" s="22">
         <v>1603</v>
       </c>
-      <c r="M102" s="19"/>
-      <c r="N102" s="19"/>
-      <c r="O102" s="23"/>
-      <c r="P102" s="23"/>
-      <c r="Q102" s="23"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
     </row>
     <row r="103" spans="1:17">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="F103" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="G103" s="19">
+      <c r="G103" s="22">
         <v>10</v>
       </c>
-      <c r="H103" s="19" t="s">
+      <c r="H103" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="I103" s="19" t="s">
+      <c r="I103" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="J103" s="19">
+      <c r="J103" s="22">
         <v>1601</v>
       </c>
-      <c r="K103" s="19">
+      <c r="K103" s="22">
         <v>1602</v>
       </c>
-      <c r="L103" s="19">
+      <c r="L103" s="22">
         <v>1603</v>
       </c>
-      <c r="M103" s="19"/>
-      <c r="N103" s="19"/>
-      <c r="O103" s="23"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="23"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
     </row>
     <row r="104" spans="1:17">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E104" s="19" t="s">
+      <c r="E104" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F104" s="19" t="s">
+      <c r="F104" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="G104" s="19">
+      <c r="G104" s="22">
         <v>10</v>
       </c>
-      <c r="H104" s="19" t="s">
+      <c r="H104" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I104" s="19" t="s">
+      <c r="I104" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="J104" s="19">
+      <c r="J104" s="22">
         <v>1601</v>
       </c>
-      <c r="K104" s="19">
+      <c r="K104" s="22">
         <v>1602</v>
       </c>
-      <c r="L104" s="19">
+      <c r="L104" s="22">
         <v>1603</v>
       </c>
-      <c r="M104" s="19"/>
-      <c r="N104" s="19"/>
-      <c r="O104" s="23"/>
-      <c r="P104" s="23"/>
-      <c r="Q104" s="23"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="25"/>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="19"/>
-      <c r="O105" s="23"/>
-      <c r="P105" s="23"/>
-      <c r="Q105" s="23"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="25"/>
+      <c r="Q105" s="25"/>
     </row>
     <row r="106" spans="1:17">
-      <c r="A106" s="19">
+      <c r="A106" s="22">
         <v>1610</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="22">
         <v>16</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="22">
         <v>20</v>
       </c>
-      <c r="F106" s="19">
+      <c r="F106" s="22">
         <v>60</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106" s="22">
         <v>10</v>
       </c>
-      <c r="H106" s="19">
+      <c r="H106" s="22">
         <v>80</v>
       </c>
-      <c r="I106" s="19">
+      <c r="I106" s="22">
         <v>15</v>
       </c>
-      <c r="J106" s="19">
+      <c r="J106" s="22">
         <v>1604</v>
       </c>
-      <c r="K106" s="19">
+      <c r="K106" s="22">
         <v>1605</v>
       </c>
-      <c r="L106" s="19">
+      <c r="L106" s="22">
         <v>1606</v>
       </c>
-      <c r="M106" s="19"/>
-      <c r="N106" s="19"/>
-      <c r="O106" s="23"/>
-      <c r="P106" s="23"/>
-      <c r="Q106" s="23"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="25"/>
     </row>
     <row r="107" spans="1:17">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D107" s="19" t="s">
+      <c r="D107" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E107" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F107" s="19">
+      <c r="F107" s="22">
         <v>60</v>
       </c>
-      <c r="G107" s="19" t="s">
+      <c r="G107" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H107" s="19">
+      <c r="H107" s="22">
         <v>80</v>
       </c>
-      <c r="I107" s="19" t="s">
+      <c r="I107" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="J107" s="19">
+      <c r="J107" s="22">
         <v>1604</v>
       </c>
-      <c r="K107" s="19">
+      <c r="K107" s="22">
         <v>1605</v>
       </c>
-      <c r="L107" s="19">
+      <c r="L107" s="22">
         <v>1606</v>
       </c>
-      <c r="M107" s="19"/>
-      <c r="N107" s="19"/>
-      <c r="O107" s="23"/>
-      <c r="P107" s="23"/>
-      <c r="Q107" s="23"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="25"/>
+      <c r="Q107" s="25"/>
     </row>
     <row r="108" spans="1:17">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D108" s="19" t="s">
+      <c r="D108" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E108" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F108" s="19">
+      <c r="F108" s="22">
         <v>60</v>
       </c>
-      <c r="G108" s="19" t="s">
+      <c r="G108" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H108" s="19">
+      <c r="H108" s="22">
         <v>80</v>
       </c>
-      <c r="I108" s="19" t="s">
+      <c r="I108" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J108" s="19">
+      <c r="J108" s="22">
         <v>1604</v>
       </c>
-      <c r="K108" s="19">
+      <c r="K108" s="22">
         <v>1605</v>
       </c>
-      <c r="L108" s="19">
+      <c r="L108" s="22">
         <v>1606</v>
       </c>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19"/>
-      <c r="O108" s="23"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="23"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
     </row>
     <row r="109" spans="1:17">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D109" s="19" t="s">
+      <c r="D109" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F109" s="19">
+      <c r="F109" s="22">
         <v>60</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G109" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="H109" s="19">
+      <c r="H109" s="22">
         <v>80</v>
       </c>
-      <c r="I109" s="19" t="s">
+      <c r="I109" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="J109" s="19">
+      <c r="J109" s="22">
         <v>1604</v>
       </c>
-      <c r="K109" s="19">
+      <c r="K109" s="22">
         <v>1605</v>
       </c>
-      <c r="L109" s="19">
+      <c r="L109" s="22">
         <v>1606</v>
       </c>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="23"/>
-      <c r="P109" s="23"/>
-      <c r="Q109" s="23"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
     </row>
     <row r="110" spans="1:17">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="B110" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D110" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="E110" s="19" t="s">
+      <c r="E110" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="F110" s="19">
+      <c r="F110" s="22">
         <v>60</v>
       </c>
-      <c r="G110" s="19" t="s">
+      <c r="G110" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H110" s="19">
+      <c r="H110" s="22">
         <v>80</v>
       </c>
-      <c r="I110" s="19" t="s">
+      <c r="I110" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="J110" s="19">
+      <c r="J110" s="22">
         <v>1604</v>
       </c>
-      <c r="K110" s="19">
+      <c r="K110" s="22">
         <v>1605</v>
       </c>
-      <c r="L110" s="19">
+      <c r="L110" s="22">
         <v>1606</v>
       </c>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="23"/>
-      <c r="P110" s="23"/>
-      <c r="Q110" s="23"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D111" s="19" t="s">
+      <c r="D111" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="E111" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="F111" s="19">
+      <c r="F111" s="22">
         <v>60</v>
       </c>
-      <c r="G111" s="19" t="s">
+      <c r="G111" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="H111" s="19">
+      <c r="H111" s="22">
         <v>80</v>
       </c>
-      <c r="I111" s="19" t="s">
+      <c r="I111" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="J111" s="19">
+      <c r="J111" s="22">
         <v>1604</v>
       </c>
-      <c r="K111" s="19">
+      <c r="K111" s="22">
         <v>1605</v>
       </c>
-      <c r="L111" s="19">
+      <c r="L111" s="22">
         <v>1606</v>
       </c>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="23"/>
-      <c r="P111" s="23"/>
-      <c r="Q111" s="23"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="25"/>
     </row>
     <row r="112" spans="1:17">
-      <c r="A112" s="19"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19"/>
-      <c r="O112" s="23"/>
-      <c r="P112" s="23"/>
-      <c r="Q112" s="23"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="25"/>
     </row>
     <row r="113" spans="1:17">
-      <c r="A113" s="19">
+      <c r="A113" s="22">
         <v>1620</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="22">
         <v>0</v>
       </c>
-      <c r="E113" s="19">
+      <c r="E113" s="22">
         <v>0</v>
       </c>
-      <c r="F113" s="19">
+      <c r="F113" s="22">
         <v>100</v>
       </c>
-      <c r="G113" s="19">
+      <c r="G113" s="22">
         <v>10</v>
       </c>
-      <c r="H113" s="19">
+      <c r="H113" s="22">
         <v>100</v>
       </c>
-      <c r="I113" s="19">
+      <c r="I113" s="22">
         <v>0</v>
       </c>
-      <c r="J113" s="19">
+      <c r="J113" s="22">
         <v>1607</v>
       </c>
-      <c r="K113" s="19">
+      <c r="K113" s="22">
         <v>1608</v>
       </c>
-      <c r="L113" s="19">
+      <c r="L113" s="22">
         <v>1609</v>
       </c>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19"/>
-      <c r="O113" s="23"/>
-      <c r="P113" s="23"/>
-      <c r="Q113" s="23"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="25"/>
+      <c r="P113" s="25"/>
+      <c r="Q113" s="25"/>
     </row>
     <row r="114" spans="1:17">
-      <c r="A114" s="19"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19"/>
-      <c r="O114" s="23"/>
-      <c r="P114" s="23"/>
-      <c r="Q114" s="23"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+      <c r="Q114" s="25"/>
     </row>
     <row r="115" spans="1:17">
-      <c r="A115" s="19">
+      <c r="A115" s="22">
         <v>3001</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="D115" s="19">
+      <c r="D115" s="22">
         <v>1</v>
       </c>
-      <c r="E115" s="19">
+      <c r="E115" s="22">
         <v>25</v>
       </c>
-      <c r="F115" s="19">
+      <c r="F115" s="22">
         <v>80</v>
       </c>
-      <c r="G115" s="19">
+      <c r="G115" s="22">
         <v>10</v>
       </c>
-      <c r="H115" s="19">
+      <c r="H115" s="22">
         <v>100</v>
       </c>
-      <c r="I115" s="19">
+      <c r="I115" s="22">
         <v>10</v>
       </c>
-      <c r="J115" s="19">
+      <c r="J115" s="22">
         <v>3001</v>
       </c>
-      <c r="K115" s="19">
+      <c r="K115" s="22">
         <v>3002</v>
       </c>
-      <c r="L115" s="19">
+      <c r="L115" s="22">
         <v>3003</v>
       </c>
-      <c r="M115" s="19"/>
-      <c r="N115" s="19"/>
-      <c r="O115" s="23"/>
-      <c r="P115" s="23"/>
-      <c r="Q115" s="23"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+      <c r="Q115" s="25"/>
     </row>
     <row r="116" spans="1:17">
-      <c r="A116" s="19">
+      <c r="A116" s="22">
         <v>3002</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="B116" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D116" s="22">
         <v>25</v>
       </c>
-      <c r="E116" s="19">
+      <c r="E116" s="22">
         <v>99</v>
       </c>
-      <c r="F116" s="19">
+      <c r="F116" s="22">
         <v>80</v>
       </c>
-      <c r="G116" s="19">
+      <c r="G116" s="22">
         <v>10</v>
       </c>
-      <c r="H116" s="19">
+      <c r="H116" s="22">
         <v>100</v>
       </c>
-      <c r="I116" s="19">
+      <c r="I116" s="22">
         <v>10</v>
       </c>
-      <c r="J116" s="19">
+      <c r="J116" s="22">
         <v>3001</v>
       </c>
-      <c r="K116" s="19">
+      <c r="K116" s="22">
         <v>3002</v>
       </c>
-      <c r="L116" s="19">
+      <c r="L116" s="22">
         <v>3004</v>
       </c>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19"/>
-      <c r="O116" s="23"/>
-      <c r="P116" s="23"/>
-      <c r="Q116" s="23"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="25"/>
     </row>
     <row r="117" spans="1:17">
-      <c r="A117" s="23">
+      <c r="A117" s="25">
         <v>3003</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="23"/>
-      <c r="I117" s="23"/>
-      <c r="J117" s="19">
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="22">
         <v>3005</v>
       </c>
-      <c r="K117" s="19">
+      <c r="K117" s="22">
         <v>3006</v>
       </c>
-      <c r="L117" s="19">
+      <c r="L117" s="22">
         <v>3007</v>
       </c>
-      <c r="M117" s="19"/>
-      <c r="N117" s="19"/>
-      <c r="O117" s="23"/>
-      <c r="P117" s="23"/>
-      <c r="Q117" s="23"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="25"/>
+      <c r="P117" s="25"/>
+      <c r="Q117" s="25"/>
     </row>
     <row r="118" spans="1:17">
-      <c r="A118" s="23">
+      <c r="A118" s="25">
         <v>3004</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="19">
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="22">
         <v>3008</v>
       </c>
-      <c r="K118" s="23"/>
-      <c r="L118" s="23"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19"/>
-      <c r="O118" s="23"/>
-      <c r="P118" s="23"/>
-      <c r="Q118" s="23"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="25"/>
+      <c r="P118" s="25"/>
+      <c r="Q118" s="25"/>
     </row>
     <row r="119" spans="1:17">
-      <c r="A119" s="23">
+      <c r="A119" s="25">
         <v>3005</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="B119" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="19">
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="22">
         <v>3009</v>
       </c>
-      <c r="K119" s="19">
+      <c r="K119" s="22">
         <v>3010</v>
       </c>
-      <c r="L119" s="19">
+      <c r="L119" s="22">
         <v>3011</v>
       </c>
-      <c r="M119" s="19"/>
-      <c r="N119" s="19"/>
-      <c r="O119" s="23"/>
-      <c r="P119" s="23"/>
-      <c r="Q119" s="23"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="25"/>
+      <c r="P119" s="25"/>
+      <c r="Q119" s="25"/>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="27"/>
-      <c r="N120" s="27"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="15"/>
-      <c r="B121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="27"/>
-      <c r="N121" s="27"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="29"/>
+      <c r="N121" s="29"/>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="27"/>
-      <c r="N122" s="27"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="29"/>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="15"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="27"/>
-      <c r="N123" s="27"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="29"/>
+      <c r="N123" s="29"/>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-      <c r="M124" s="27"/>
-      <c r="N124" s="27"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="29"/>
+      <c r="N124" s="29"/>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="27"/>
-      <c r="N125" s="27"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="29"/>
+      <c r="N125" s="29"/>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="27"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="29"/>
+      <c r="N126" s="29"/>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="28"/>
-      <c r="N127" s="28"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="30"/>
+      <c r="N127" s="30"/>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
-      <c r="M128" s="28"/>
-      <c r="N128" s="28"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="30"/>
+      <c r="N128" s="30"/>
     </row>
     <row r="129" spans="1:14">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="28"/>
-      <c r="N129" s="28"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="30"/>
+      <c r="N129" s="30"/>
     </row>
     <row r="130" spans="1:14">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="28"/>
-      <c r="N130" s="28"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="30"/>
+      <c r="N130" s="30"/>
     </row>
     <row r="131" spans="1:14">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-      <c r="M131" s="28"/>
-      <c r="N131" s="28"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="30"/>
+      <c r="N131" s="30"/>
     </row>
     <row r="132" spans="10:14">
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
-      <c r="M132" s="28"/>
-      <c r="N132" s="28"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="30"/>
+      <c r="N132" s="30"/>
     </row>
     <row r="133" spans="10:14">
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="28"/>
-      <c r="N133" s="28"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="30"/>
+      <c r="N133" s="30"/>
     </row>
     <row r="134" spans="10:14">
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="28"/>
-      <c r="N134" s="28"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="30"/>
+      <c r="N134" s="30"/>
     </row>
     <row r="135" spans="10:14">
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
-      <c r="M135" s="28"/>
-      <c r="N135" s="28"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="30"/>
+      <c r="N135" s="30"/>
     </row>
     <row r="136" spans="10:14">
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="28"/>
-      <c r="N136" s="28"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="30"/>
+      <c r="N136" s="30"/>
     </row>
     <row r="137" spans="10:14">
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="28"/>
-      <c r="N137" s="28"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="30"/>
+      <c r="N137" s="30"/>
     </row>
     <row r="138" spans="10:14">
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="28"/>
-      <c r="N138" s="28"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="30"/>
+      <c r="N138" s="30"/>
     </row>
     <row r="139" spans="10:14">
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
-      <c r="M139" s="28"/>
-      <c r="N139" s="28"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="30"/>
+      <c r="N139" s="30"/>
     </row>
     <row r="140" spans="10:14">
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
-      <c r="M140" s="28"/>
-      <c r="N140" s="28"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="30"/>
+      <c r="N140" s="30"/>
     </row>
     <row r="141" spans="10:12">
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
     </row>
     <row r="142" spans="10:12">
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="15"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
     </row>
     <row r="143" spans="10:12">
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
     </row>
     <row r="144" spans="10:12">
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
     </row>
     <row r="145" spans="10:12">
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
     </row>
     <row r="146" spans="10:12">
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
     </row>
     <row r="147" spans="10:12">
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
     </row>
     <row r="148" spans="10:12">
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
     </row>
     <row r="149" spans="10:12">
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
     </row>
     <row r="150" spans="10:12">
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
     </row>
     <row r="151" spans="10:12">
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="15"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
     </row>
     <row r="152" spans="10:12">
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
     </row>
     <row r="153" spans="10:12">
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
     </row>
     <row r="154" spans="10:12">
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="15"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
     </row>
     <row r="155" spans="10:12">
-      <c r="J155" s="15"/>
-      <c r="K155" s="15"/>
-      <c r="L155" s="15"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="18"/>
     </row>
     <row r="156" spans="10:12">
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="15"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="18"/>
     </row>
     <row r="157" spans="10:12">
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="L157" s="15"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="18"/>
     </row>
     <row r="158" spans="10:12">
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
     </row>
     <row r="159" spans="10:12">
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="15"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18"/>
     </row>
     <row r="160" spans="10:12">
-      <c r="J160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="15"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="18"/>
     </row>
     <row r="161" spans="10:13">
-      <c r="J161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="15"/>
-      <c r="M161" s="15"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18"/>
+      <c r="M161" s="18"/>
     </row>
     <row r="162" spans="10:13">
-      <c r="J162" s="15"/>
-      <c r="K162" s="15"/>
-      <c r="L162" s="15"/>
-      <c r="M162" s="15"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="18"/>
     </row>
     <row r="163" spans="10:13">
-      <c r="J163" s="15"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="15"/>
-      <c r="M163" s="15"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="18"/>
+      <c r="M163" s="18"/>
     </row>
     <row r="164" spans="10:13">
-      <c r="J164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="15"/>
-      <c r="M164" s="15"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="18"/>
+      <c r="M164" s="18"/>
     </row>
     <row r="165" spans="10:13">
-      <c r="J165" s="15"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="15"/>
-      <c r="M165" s="15"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="18"/>
+      <c r="M165" s="18"/>
     </row>
     <row r="166" spans="10:13">
-      <c r="J166" s="15"/>
-      <c r="K166" s="15"/>
-      <c r="L166" s="15"/>
-      <c r="M166" s="15"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="18"/>
+      <c r="L166" s="18"/>
+      <c r="M166" s="18"/>
     </row>
     <row r="167" spans="13:13">
-      <c r="M167" s="15"/>
+      <c r="M167" s="18"/>
     </row>
     <row r="168" spans="13:13">
-      <c r="M168" s="15"/>
+      <c r="M168" s="18"/>
     </row>
     <row r="169" spans="13:13">
-      <c r="M169" s="15"/>
+      <c r="M169" s="18"/>
     </row>
     <row r="170" spans="13:13">
-      <c r="M170" s="15"/>
+      <c r="M170" s="18"/>
     </row>
     <row r="171" spans="13:13">
-      <c r="M171" s="15"/>
+      <c r="M171" s="18"/>
     </row>
     <row r="172" spans="13:13">
-      <c r="M172" s="15"/>
+      <c r="M172" s="18"/>
     </row>
     <row r="173" spans="13:13">
-      <c r="M173" s="15"/>
+      <c r="M173" s="18"/>
     </row>
     <row r="174" spans="13:13">
-      <c r="M174" s="15"/>
+      <c r="M174" s="18"/>
     </row>
     <row r="175" spans="13:13">
-      <c r="M175" s="15"/>
+      <c r="M175" s="18"/>
     </row>
     <row r="176" spans="13:13">
-      <c r="M176" s="15"/>
+      <c r="M176" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8062,8 +8064,8 @@
   <sheetPr/>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8275,7 +8277,7 @@
       <c r="B7" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>370</v>
       </c>
       <c r="D7">
@@ -8311,11 +8313,11 @@
       <c r="B9" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>372</v>
       </c>
       <c r="D9">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>99</v>
@@ -8343,7 +8345,7 @@
       <c r="B10" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>374</v>
       </c>
       <c r="D10">
@@ -8375,7 +8377,7 @@
       <c r="B11" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>376</v>
       </c>
       <c r="D11">
@@ -8407,7 +8409,7 @@
       <c r="B12" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>378</v>
       </c>
       <c r="D12">
@@ -8439,7 +8441,7 @@
       <c r="B13" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>380</v>
       </c>
       <c r="D13">
@@ -8471,7 +8473,7 @@
       <c r="B14" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>382</v>
       </c>
       <c r="D14">
@@ -8503,7 +8505,7 @@
       <c r="B15" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>384</v>
       </c>
       <c r="D15">
@@ -8535,7 +8537,7 @@
       <c r="B16" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>386</v>
       </c>
       <c r="D16">
@@ -8567,7 +8569,7 @@
       <c r="B17" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>388</v>
       </c>
       <c r="D17">
@@ -8599,7 +8601,7 @@
       <c r="B18" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>390</v>
       </c>
       <c r="D18">
@@ -8631,7 +8633,7 @@
       <c r="B19" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>392</v>
       </c>
       <c r="D19">
@@ -8663,7 +8665,7 @@
       <c r="B20" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>394</v>
       </c>
       <c r="D20">
@@ -8698,8 +8700,26 @@
       <c r="B22" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>396</v>
+      </c>
+      <c r="D22">
+        <v>120</v>
+      </c>
+      <c r="E22">
+        <v>175</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>60</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
       </c>
       <c r="J22">
         <v>2006</v>
@@ -8712,8 +8732,26 @@
       <c r="B23" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>398</v>
+      </c>
+      <c r="D23" s="10">
+        <v>90</v>
+      </c>
+      <c r="E23" s="10">
+        <v>140</v>
+      </c>
+      <c r="F23" s="10">
+        <v>70</v>
+      </c>
+      <c r="G23" s="10">
+        <v>6</v>
+      </c>
+      <c r="H23" s="10">
+        <v>50</v>
+      </c>
+      <c r="I23" s="10">
+        <v>6</v>
       </c>
       <c r="J23">
         <v>2007</v>
@@ -8726,8 +8764,26 @@
       <c r="B24" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>400</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2008</v>
@@ -8743,12 +8799,24 @@
       <c r="C25" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="D25" s="11">
+        <v>128</v>
+      </c>
+      <c r="E25" s="11">
+        <v>255</v>
+      </c>
+      <c r="F25" s="11">
+        <v>50</v>
+      </c>
+      <c r="G25" s="11">
+        <v>25</v>
+      </c>
+      <c r="H25" s="11">
+        <v>150</v>
+      </c>
+      <c r="I25" s="11">
+        <v>10</v>
+      </c>
       <c r="J25" s="11">
         <v>2009</v>
       </c>
@@ -8760,15 +8828,27 @@
       <c r="B26" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>100</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>20</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
       <c r="J26" s="11">
         <v>2010</v>
       </c>
@@ -8780,15 +8860,27 @@
       <c r="B27" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="D27" s="11">
+        <v>87</v>
+      </c>
+      <c r="E27" s="11">
+        <v>124</v>
+      </c>
+      <c r="F27" s="11">
+        <v>105</v>
+      </c>
+      <c r="G27" s="11">
+        <v>9</v>
+      </c>
+      <c r="H27" s="11">
+        <v>105</v>
+      </c>
+      <c r="I27" s="11">
+        <v>8</v>
+      </c>
       <c r="J27" s="11">
         <v>2106</v>
       </c>
@@ -8800,15 +8892,27 @@
       <c r="B28" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="D28" s="11">
+        <v>119</v>
+      </c>
+      <c r="E28" s="11">
+        <v>156</v>
+      </c>
+      <c r="F28" s="11">
+        <v>85</v>
+      </c>
+      <c r="G28" s="11">
+        <v>22</v>
+      </c>
+      <c r="H28" s="11">
+        <v>75</v>
+      </c>
+      <c r="I28" s="11">
+        <v>15</v>
+      </c>
       <c r="J28" s="11">
         <v>2107</v>
       </c>
@@ -8820,15 +8924,27 @@
       <c r="B29" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>100</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>20</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
       <c r="J29" s="11">
         <v>2108</v>
       </c>
@@ -8840,15 +8956,27 @@
       <c r="B30" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>100</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>100</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
       <c r="J30" s="11">
         <v>2109</v>
       </c>
@@ -8860,15 +8988,27 @@
       <c r="B31" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>80</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>80</v>
+      </c>
+      <c r="I31" s="17">
+        <v>180</v>
+      </c>
       <c r="J31" s="11">
         <v>2110</v>
       </c>
@@ -8880,15 +9020,27 @@
       <c r="B32" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="D32" s="11">
+        <v>99</v>
+      </c>
+      <c r="E32" s="11">
+        <v>138</v>
+      </c>
+      <c r="F32" s="11">
+        <v>95</v>
+      </c>
+      <c r="G32" s="11">
+        <v>12</v>
+      </c>
+      <c r="H32" s="11">
+        <v>95</v>
+      </c>
+      <c r="I32" s="11">
+        <v>12</v>
+      </c>
       <c r="J32" s="11">
         <v>2206</v>
       </c>
@@ -8900,15 +9052,27 @@
       <c r="B33" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="D33" s="11">
+        <v>147</v>
+      </c>
+      <c r="E33" s="11">
+        <v>169</v>
+      </c>
+      <c r="F33" s="11">
+        <v>75</v>
+      </c>
+      <c r="G33" s="11">
+        <v>28</v>
+      </c>
+      <c r="H33" s="11">
+        <v>65</v>
+      </c>
+      <c r="I33" s="11">
+        <v>19</v>
+      </c>
       <c r="J33" s="11">
         <v>2207</v>
       </c>
@@ -8920,15 +9084,27 @@
       <c r="B34" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>100</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>20</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
       <c r="J34" s="11">
         <v>2208</v>
       </c>
@@ -8940,15 +9116,27 @@
       <c r="B35" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="D35" s="11">
+        <v>255</v>
+      </c>
+      <c r="E35" s="11">
+        <v>255</v>
+      </c>
+      <c r="F35" s="11">
+        <v>66</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>200</v>
+      </c>
+      <c r="I35" s="11">
+        <v>12</v>
+      </c>
       <c r="J35" s="11">
         <v>2209</v>
       </c>
@@ -8960,15 +9148,27 @@
       <c r="B36" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>100</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>100</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
       <c r="J36" s="11">
         <v>2210</v>
       </c>
@@ -8976,7 +9176,7 @@
     <row r="37" spans="1:10">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -8992,7 +9192,7 @@
       <c r="B38" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D38" s="11"/>
@@ -9012,7 +9212,7 @@
       <c r="B39" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="15" t="s">
         <v>428</v>
       </c>
       <c r="D39" s="11"/>
@@ -9032,7 +9232,7 @@
       <c r="B40" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="15" t="s">
         <v>430</v>
       </c>
       <c r="D40" s="11"/>
@@ -9052,7 +9252,7 @@
       <c r="B41" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="15" t="s">
         <v>432</v>
       </c>
       <c r="D41" s="11"/>
@@ -9072,7 +9272,7 @@
       <c r="B42" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="15" t="s">
         <v>434</v>
       </c>
       <c r="D42" s="11"/>
@@ -9092,7 +9292,7 @@
       <c r="B43" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="15" t="s">
         <v>436</v>
       </c>
       <c r="D43" s="11"/>
@@ -9112,7 +9312,7 @@
       <c r="B44" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="15" t="s">
         <v>438</v>
       </c>
       <c r="D44" s="11"/>
@@ -9128,7 +9328,7 @@
     <row r="45" spans="1:10">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -9144,7 +9344,7 @@
       <c r="B46" t="s">
         <v>439</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="13" t="s">
         <v>440</v>
       </c>
       <c r="D46">
@@ -9176,7 +9376,7 @@
       <c r="B47" t="s">
         <v>441</v>
       </c>
-      <c r="I47" s="15"/>
+      <c r="I47" s="18"/>
       <c r="J47">
         <v>4005</v>
       </c>
@@ -9188,7 +9388,7 @@
       <c r="B48" t="s">
         <v>442</v>
       </c>
-      <c r="I48" s="15"/>
+      <c r="I48" s="18"/>
       <c r="J48">
         <v>4006</v>
       </c>
@@ -9200,10 +9400,10 @@
       <c r="B49" t="s">
         <v>443</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="I49" s="15"/>
+      <c r="I49" s="18"/>
       <c r="J49">
         <v>4007</v>
       </c>
@@ -9215,7 +9415,7 @@
       <c r="B50" t="s">
         <v>445</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="16" t="s">
         <v>446</v>
       </c>
       <c r="J50">

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -1459,43 +1459,87 @@
     <t>灵噬之印</t>
   </si>
   <si>
-    <t>掌握了秘术【灵噬】的标识。</t>
+    <t>掌握了秘术【灵噬】的标识。这一秘术是灵气大师[吉安]毕生的研究成果，威力无穷。</t>
   </si>
   <si>
     <t>灵爆之印</t>
   </si>
   <si>
-    <t>掌握了秘术【灵爆】的标识。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>掌握了秘术【灵爆】的标识。这一秘术是灵气大师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尔尼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毕生的研究成果，威力无穷。</t>
+    </r>
   </si>
   <si>
     <t>灵力解放之印</t>
   </si>
   <si>
-    <t>掌握了秘术【灵力解放】的标识。</t>
-  </si>
-  <si>
-    <t>万魔散魂之印</t>
-  </si>
-  <si>
-    <t>掌握了秘术【万魔散魂】的标识。</t>
+    <t>掌握了秘术【灵力解放】的标识。这是组织私下研制的秘术，能够激发人体潜能更好地利用灵力，但据说几次实验纷纷以失败告终。</t>
+  </si>
+  <si>
+    <t>黑暗洪流之印</t>
+  </si>
+  <si>
+    <t>掌握了秘术【黑暗洪流】的标识。将黑暗之力从阴间召唤而来的秘术，其中混合着诅咒，或是更加非人之物。</t>
   </si>
   <si>
     <t>暗月影之印</t>
   </si>
   <si>
-    <t>掌握了秘术【暗月影】的标识。</t>
-  </si>
-  <si>
-    <t>夸父之怒之印</t>
-  </si>
-  <si>
-    <t>掌握了秘术【夸父之怒】的标识。</t>
-  </si>
-  <si>
-    <t>阳光盾之印</t>
-  </si>
-  <si>
-    <t>掌握了秘术【阳光盾】的标识。</t>
+    <t>掌握了秘术【暗月魔影】的标识。用影的力量变出分身跟随自己攻击，极为耗费元神。</t>
+  </si>
+  <si>
+    <t>太阳风暴之印</t>
+  </si>
+  <si>
+    <t>掌握了秘术【太阳风暴】的标识。如太阳近在眼前般的火焰风暴几乎可以吞噬一切，这就是神怒吗。</t>
+  </si>
+  <si>
+    <t>光辉灵盾之印</t>
+  </si>
+  <si>
+    <t>掌握了秘术【光辉灵盾】的标识。用光的力量创造一个护盾，能够吸收伤害并返还给对手。</t>
   </si>
   <si>
     <t>咩咩的愤怒</t>
@@ -1527,12 +1571,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1587,14 +1631,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1623,111 +1774,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1757,169 +1813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,6 +1841,162 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1951,10 +2007,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1990,28 +2087,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2024,40 +2104,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2066,137 +2122,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2221,22 +2277,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2694,7 +2747,7 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2705,7 +2758,7 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2713,10 +2766,10 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2724,10 +2777,10 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2735,10 +2788,10 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2746,10 +2799,10 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2757,10 +2810,10 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2768,10 +2821,10 @@
       <c r="A13">
         <v>101</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2779,10 +2832,10 @@
       <c r="A14">
         <v>102</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2790,10 +2843,10 @@
       <c r="A15">
         <v>103</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2816,7 +2869,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="18" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -2834,5223 +2887,5223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:17">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:17">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>1000</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>0</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>0</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>0</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>0</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>0</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>0</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="19">
         <v>0</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <v>0</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>0</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <v>0</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <v>0</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="19">
         <v>0</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="19">
         <v>0</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>1100</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>6</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>90</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>150</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <v>2</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>1101</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>1102</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="21">
         <v>1103</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24">
         <v>2</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>90</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>150</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>2</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>1101</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>1102</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="21">
         <v>1103</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25" t="s">
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>90</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>150</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <v>2</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>1101</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>1102</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="21">
         <v>1103</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25" t="s">
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>90</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>150</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="21">
         <v>2</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>1101</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>1102</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="21">
         <v>1103</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>90</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>150</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <v>2</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>1101</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>1102</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="21">
         <v>1103</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25" t="s">
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>90</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>15</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <v>150</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="21">
         <v>2</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <v>1101</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>1102</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="21">
         <v>1103</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25" t="s">
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:17">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
     </row>
     <row r="12" customFormat="1" spans="1:17">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>1110</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>10</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>110</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>16</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>160</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <v>2</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>1101</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>1102</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="21">
         <v>1104</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
     </row>
     <row r="13" customFormat="1" spans="1:17">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>110</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>16</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <v>160</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="21">
         <v>1101</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <v>1102</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="21">
         <v>1104</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
     </row>
     <row r="14" customFormat="1" spans="1:17">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>110</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>16</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <v>160</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <v>1101</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>1102</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="21">
         <v>1104</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
     </row>
     <row r="15" customFormat="1" spans="1:17">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>110</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>16</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <v>160</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="21">
         <v>1101</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>1102</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="21">
         <v>1104</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
     </row>
     <row r="16" customFormat="1" spans="1:17">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>110</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <v>16</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="21">
         <v>160</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <v>1101</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>1102</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="21">
         <v>1104</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
     </row>
     <row r="17" customFormat="1" spans="1:17">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>110</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <v>16</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <v>160</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <v>1101</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>1102</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="21">
         <v>1104</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
     </row>
     <row r="18" customFormat="1" spans="1:17">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>1120</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <v>100</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <v>15</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="21">
         <v>1</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="21">
         <v>1102</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>1105</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="21">
         <v>1106</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <v>100</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <v>15</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="21">
         <v>1</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <v>1102</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>1105</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="21">
         <v>1106</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <v>100</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <v>15</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="21">
         <v>1</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <v>1102</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>1105</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="21">
         <v>1106</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <v>100</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>15</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="21">
         <v>1</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <v>1102</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>1105</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="21">
         <v>1106</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <v>100</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <v>15</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="21">
         <v>1</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="21">
         <v>1102</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>1105</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="21">
         <v>1106</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>100</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <v>15</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <v>1</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>1102</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>1105</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="21">
         <v>1106</v>
       </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>12</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <v>16</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="21">
         <v>80</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <v>12</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="21">
         <v>120</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="21">
         <v>7</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="21">
         <v>1201</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>1202</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="21">
         <v>1203</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <v>2</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="21">
         <v>10</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="24">
         <v>5</v>
       </c>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>80</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <v>12</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="21">
         <v>120</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="21">
         <v>7</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <v>1201</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>1202</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="21">
         <v>1203</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="21">
         <v>2</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="24">
         <v>5</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
     </row>
     <row r="28" customFormat="1" spans="1:17">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <v>80</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>12</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="21">
         <v>120</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <v>7</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>1201</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>1202</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="21">
         <v>1203</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="21">
         <v>2</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="24">
         <v>5</v>
       </c>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
     </row>
     <row r="29" customFormat="1" spans="1:17">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>80</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <v>12</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="21">
         <v>120</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <v>7</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="21">
         <v>1201</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>1202</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="21">
         <v>1203</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="21">
         <v>2</v>
       </c>
-      <c r="N29" s="22" t="s">
+      <c r="N29" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="O29" s="25">
+      <c r="O29" s="24">
         <v>5</v>
       </c>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
     </row>
     <row r="30" customFormat="1" spans="1:17">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <v>80</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <v>12</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="21">
         <v>120</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <v>7</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>1201</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>1202</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="21">
         <v>1203</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="21">
         <v>2</v>
       </c>
-      <c r="N30" s="22" t="s">
+      <c r="N30" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="24">
         <v>5</v>
       </c>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
     </row>
     <row r="31" customFormat="1" spans="1:17">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <v>80</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>12</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="21">
         <v>120</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="21">
         <v>7</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>1201</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>1202</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="21">
         <v>1203</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="21">
         <v>2</v>
       </c>
-      <c r="N31" s="22" t="s">
+      <c r="N31" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="25">
+      <c r="O31" s="24">
         <v>5</v>
       </c>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="22">
+      <c r="A33" s="21">
         <v>1210</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>15</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="21">
         <v>19</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="21">
         <v>90</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="21">
         <v>30</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="21">
         <v>7</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="21">
         <v>1201</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>1204</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="21">
         <v>1205</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="21">
         <v>30</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="21">
         <v>7</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="21">
         <v>1201</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <v>1204</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="21">
         <v>1205</v>
       </c>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="21">
         <v>30</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="21">
         <v>7</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="21">
         <v>1201</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>1204</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="21">
         <v>1205</v>
       </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="21">
         <v>30</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="21">
         <v>7</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="21">
         <v>1201</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>1204</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="21">
         <v>1205</v>
       </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="21">
         <v>30</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="21">
         <v>7</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="21">
         <v>1201</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>1204</v>
       </c>
-      <c r="L37" s="22">
+      <c r="L37" s="21">
         <v>1205</v>
       </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="21">
         <v>30</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="21">
         <v>7</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="21">
         <v>1201</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>1204</v>
       </c>
-      <c r="L38" s="22">
+      <c r="L38" s="21">
         <v>1205</v>
       </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="22">
+      <c r="A40" s="21">
         <v>1220</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>1</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="21">
         <v>10</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="21">
         <v>80</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="21">
         <v>0</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="21">
         <v>110</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="21">
         <v>7</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="21">
         <v>1201</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>1206</v>
       </c>
-      <c r="L40" s="22">
+      <c r="L40" s="21">
         <v>1207</v>
       </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="22">
+      <c r="A41" s="21">
         <v>1300</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>18</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="21">
         <v>22</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="21">
         <v>80</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="21">
         <v>10</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="21">
         <v>100</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="21">
         <v>10</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="21">
         <v>1301</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>1302</v>
       </c>
-      <c r="L41" s="22">
+      <c r="L41" s="21">
         <v>1303</v>
       </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25">
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24">
         <v>7</v>
       </c>
-      <c r="Q41" s="25">
+      <c r="Q41" s="24">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="22">
+      <c r="A43" s="21">
         <v>1310</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>16</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="21">
         <v>20</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="21">
         <v>80</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="21">
         <v>10</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="21">
         <v>130</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="21">
         <v>10</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="21">
         <v>1301</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="21">
         <v>1302</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="21">
         <v>1304</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M43" s="21">
         <v>3</v>
       </c>
-      <c r="N43" s="22">
+      <c r="N43" s="21">
         <v>10</v>
       </c>
-      <c r="O43" s="25">
+      <c r="O43" s="24">
         <v>3</v>
       </c>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="21">
         <v>80</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="21">
         <v>10</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="21">
         <v>130</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="21">
         <v>10</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="21">
         <v>1301</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="21">
         <v>1302</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L44" s="21">
         <v>1304</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="21">
         <v>3</v>
       </c>
-      <c r="N44" s="22" t="s">
+      <c r="N44" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O44" s="25" t="s">
+      <c r="O44" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="21">
         <v>80</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="21">
         <v>10</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="21">
         <v>130</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="21">
         <v>10</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="21">
         <v>1301</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="21">
         <v>1302</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L45" s="21">
         <v>1304</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="21">
         <v>3</v>
       </c>
-      <c r="N45" s="22" t="s">
+      <c r="N45" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="O45" s="25" t="s">
+      <c r="O45" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="21">
         <v>80</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="21">
         <v>10</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="21">
         <v>130</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="21">
         <v>10</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="21">
         <v>1301</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46" s="21">
         <v>1302</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L46" s="21">
         <v>1304</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="21">
         <v>3</v>
       </c>
-      <c r="N46" s="22" t="s">
+      <c r="N46" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="O46" s="25" t="s">
+      <c r="O46" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="21">
         <v>80</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="21">
         <v>10</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="21">
         <v>130</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="21">
         <v>10</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="21">
         <v>1301</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K47" s="21">
         <v>1302</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L47" s="21">
         <v>1304</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="21">
         <v>3</v>
       </c>
-      <c r="N47" s="22" t="s">
+      <c r="N47" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="O47" s="25" t="s">
+      <c r="O47" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="21">
         <v>80</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="21">
         <v>10</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="21">
         <v>130</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="21">
         <v>10</v>
       </c>
-      <c r="J48" s="22">
+      <c r="J48" s="21">
         <v>1301</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="21">
         <v>1302</v>
       </c>
-      <c r="L48" s="22">
+      <c r="L48" s="21">
         <v>1304</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="21">
         <v>3</v>
       </c>
-      <c r="N48" s="22" t="s">
+      <c r="N48" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="O48" s="25" t="s">
+      <c r="O48" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="22">
+      <c r="A50" s="21">
         <v>1320</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <v>15</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="21">
         <v>15</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="21">
         <v>60</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="21">
         <v>8</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="21">
         <v>80</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="21">
         <v>8</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="21">
         <v>1301</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <v>1305</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50" s="21">
         <v>1306</v>
       </c>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I51" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="21">
         <v>1301</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="21">
         <v>1305</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L51" s="21">
         <v>1306</v>
       </c>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="I52" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="21">
         <v>1301</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="21">
         <v>1305</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L52" s="21">
         <v>1306</v>
       </c>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I53" s="22" t="s">
+      <c r="I53" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="21">
         <v>1301</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="21">
         <v>1305</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="21">
         <v>1306</v>
       </c>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H54" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I54" s="22" t="s">
+      <c r="I54" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="21">
         <v>1301</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K54" s="21">
         <v>1305</v>
       </c>
-      <c r="L54" s="22">
+      <c r="L54" s="21">
         <v>1306</v>
       </c>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H55" s="22" t="s">
+      <c r="H55" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="I55" s="22" t="s">
+      <c r="I55" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="21">
         <v>1301</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="21">
         <v>1305</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L55" s="21">
         <v>1306</v>
       </c>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="22">
+      <c r="A57" s="21">
         <v>1400</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="21">
         <v>25</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="21">
         <v>35</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="21">
         <v>60</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G57" s="21">
         <v>10</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="21">
         <v>80</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="21">
         <v>14</v>
       </c>
-      <c r="J57" s="22">
+      <c r="J57" s="21">
         <v>1401</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="21">
         <v>1402</v>
       </c>
-      <c r="L57" s="22">
+      <c r="L57" s="21">
         <v>1403</v>
       </c>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="21">
         <v>10</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="21">
         <v>80</v>
       </c>
-      <c r="I58" s="22">
+      <c r="I58" s="21">
         <v>14</v>
       </c>
-      <c r="J58" s="22">
+      <c r="J58" s="21">
         <v>1401</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="21">
         <v>1402</v>
       </c>
-      <c r="L58" s="22">
+      <c r="L58" s="21">
         <v>1403</v>
       </c>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="21">
         <v>10</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="21">
         <v>80</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="21">
         <v>14</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="21">
         <v>1401</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="21">
         <v>1402</v>
       </c>
-      <c r="L59" s="22">
+      <c r="L59" s="21">
         <v>1403</v>
       </c>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G60" s="21">
         <v>10</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="21">
         <v>80</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="21">
         <v>14</v>
       </c>
-      <c r="J60" s="22">
+      <c r="J60" s="21">
         <v>1401</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="21">
         <v>1402</v>
       </c>
-      <c r="L60" s="22">
+      <c r="L60" s="21">
         <v>1403</v>
       </c>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G61" s="22">
+      <c r="G61" s="21">
         <v>10</v>
       </c>
-      <c r="H61" s="22">
+      <c r="H61" s="21">
         <v>80</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="21">
         <v>14</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J61" s="21">
         <v>1401</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="21">
         <v>1402</v>
       </c>
-      <c r="L61" s="22">
+      <c r="L61" s="21">
         <v>1403</v>
       </c>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="G62" s="22">
+      <c r="G62" s="21">
         <v>10</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="21">
         <v>80</v>
       </c>
-      <c r="I62" s="22">
+      <c r="I62" s="21">
         <v>14</v>
       </c>
-      <c r="J62" s="22">
+      <c r="J62" s="21">
         <v>1401</v>
       </c>
-      <c r="K62" s="22">
+      <c r="K62" s="21">
         <v>1402</v>
       </c>
-      <c r="L62" s="22">
+      <c r="L62" s="21">
         <v>1403</v>
       </c>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="22">
+      <c r="A64" s="21">
         <v>1410</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="21">
         <v>18</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E64" s="21">
         <v>32</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="21">
         <v>90</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G64" s="21">
         <v>11</v>
       </c>
-      <c r="H64" s="22">
+      <c r="H64" s="21">
         <v>110</v>
       </c>
-      <c r="I64" s="22">
+      <c r="I64" s="21">
         <v>12</v>
       </c>
-      <c r="J64" s="22">
+      <c r="J64" s="21">
         <v>1401</v>
       </c>
-      <c r="K64" s="22">
+      <c r="K64" s="21">
         <v>1402</v>
       </c>
-      <c r="L64" s="22">
+      <c r="L64" s="21">
         <v>1404</v>
       </c>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="25"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="21">
         <v>90</v>
       </c>
-      <c r="G65" s="22">
+      <c r="G65" s="21">
         <v>11</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="21">
         <v>110</v>
       </c>
-      <c r="I65" s="22" t="s">
+      <c r="I65" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="J65" s="22">
+      <c r="J65" s="21">
         <v>1401</v>
       </c>
-      <c r="K65" s="22">
+      <c r="K65" s="21">
         <v>1402</v>
       </c>
-      <c r="L65" s="22">
+      <c r="L65" s="21">
         <v>1404</v>
       </c>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="21">
         <v>90</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G66" s="21">
         <v>11</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H66" s="21">
         <v>110</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="I66" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="J66" s="22">
+      <c r="J66" s="21">
         <v>1401</v>
       </c>
-      <c r="K66" s="22">
+      <c r="K66" s="21">
         <v>1402</v>
       </c>
-      <c r="L66" s="22">
+      <c r="L66" s="21">
         <v>1404</v>
       </c>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="21">
         <v>90</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G67" s="21">
         <v>11</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H67" s="21">
         <v>110</v>
       </c>
-      <c r="I67" s="22" t="s">
+      <c r="I67" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="J67" s="22">
+      <c r="J67" s="21">
         <v>1401</v>
       </c>
-      <c r="K67" s="22">
+      <c r="K67" s="21">
         <v>1402</v>
       </c>
-      <c r="L67" s="22">
+      <c r="L67" s="21">
         <v>1404</v>
       </c>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="21">
         <v>90</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="21">
         <v>11</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H68" s="21">
         <v>110</v>
       </c>
-      <c r="I68" s="22" t="s">
+      <c r="I68" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J68" s="22">
+      <c r="J68" s="21">
         <v>1401</v>
       </c>
-      <c r="K68" s="22">
+      <c r="K68" s="21">
         <v>1402</v>
       </c>
-      <c r="L68" s="22">
+      <c r="L68" s="21">
         <v>1404</v>
       </c>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="21">
         <v>90</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G69" s="21">
         <v>11</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H69" s="21">
         <v>110</v>
       </c>
-      <c r="I69" s="22" t="s">
+      <c r="I69" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J69" s="21">
         <v>1401</v>
       </c>
-      <c r="K69" s="22">
+      <c r="K69" s="21">
         <v>1402</v>
       </c>
-      <c r="L69" s="22">
+      <c r="L69" s="21">
         <v>1404</v>
       </c>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="25"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="22">
+      <c r="A71" s="21">
         <v>1420</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="21">
         <v>28</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="21">
         <v>60</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G71" s="21">
         <v>10</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H71" s="21">
         <v>40</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I71" s="21">
         <v>22</v>
       </c>
-      <c r="J71" s="22">
+      <c r="J71" s="21">
         <v>1401</v>
       </c>
-      <c r="K71" s="22">
+      <c r="K71" s="21">
         <v>1402</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L71" s="21">
         <v>1405</v>
       </c>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="25"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="21">
         <v>60</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="21">
         <v>10</v>
       </c>
-      <c r="H72" s="22" t="s">
+      <c r="H72" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I72" s="21">
         <v>22</v>
       </c>
-      <c r="J72" s="22">
+      <c r="J72" s="21">
         <v>1401</v>
       </c>
-      <c r="K72" s="22">
+      <c r="K72" s="21">
         <v>1402</v>
       </c>
-      <c r="L72" s="22">
+      <c r="L72" s="21">
         <v>1405</v>
       </c>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="25"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="21">
         <v>60</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G73" s="21">
         <v>10</v>
       </c>
-      <c r="H73" s="22" t="s">
+      <c r="H73" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I73" s="22">
+      <c r="I73" s="21">
         <v>22</v>
       </c>
-      <c r="J73" s="22">
+      <c r="J73" s="21">
         <v>1401</v>
       </c>
-      <c r="K73" s="22">
+      <c r="K73" s="21">
         <v>1402</v>
       </c>
-      <c r="L73" s="22">
+      <c r="L73" s="21">
         <v>1405</v>
       </c>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="21">
         <v>60</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="21">
         <v>10</v>
       </c>
-      <c r="H74" s="22" t="s">
+      <c r="H74" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I74" s="22">
+      <c r="I74" s="21">
         <v>22</v>
       </c>
-      <c r="J74" s="22">
+      <c r="J74" s="21">
         <v>1401</v>
       </c>
-      <c r="K74" s="22">
+      <c r="K74" s="21">
         <v>1402</v>
       </c>
-      <c r="L74" s="22">
+      <c r="L74" s="21">
         <v>1405</v>
       </c>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="21">
         <v>60</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G75" s="21">
         <v>10</v>
       </c>
-      <c r="H75" s="22" t="s">
+      <c r="H75" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I75" s="22">
+      <c r="I75" s="21">
         <v>22</v>
       </c>
-      <c r="J75" s="22">
+      <c r="J75" s="21">
         <v>1401</v>
       </c>
-      <c r="K75" s="22">
+      <c r="K75" s="21">
         <v>1402</v>
       </c>
-      <c r="L75" s="22">
+      <c r="L75" s="21">
         <v>1405</v>
       </c>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="21">
         <v>60</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="21">
         <v>10</v>
       </c>
-      <c r="H76" s="22" t="s">
+      <c r="H76" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I76" s="21">
         <v>22</v>
       </c>
-      <c r="J76" s="22">
+      <c r="J76" s="21">
         <v>1401</v>
       </c>
-      <c r="K76" s="22">
+      <c r="K76" s="21">
         <v>1402</v>
       </c>
-      <c r="L76" s="22">
+      <c r="L76" s="21">
         <v>1405</v>
       </c>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="25"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="22">
+      <c r="A78" s="21">
         <v>1500</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="21">
         <v>15</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E78" s="21">
         <v>25</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="21">
         <v>70</v>
       </c>
-      <c r="G78" s="22">
+      <c r="G78" s="21">
         <v>11</v>
       </c>
-      <c r="H78" s="22">
+      <c r="H78" s="21">
         <v>80</v>
       </c>
-      <c r="I78" s="22">
+      <c r="I78" s="21">
         <v>7</v>
       </c>
-      <c r="J78" s="22">
+      <c r="J78" s="21">
         <v>1501</v>
       </c>
-      <c r="K78" s="22">
+      <c r="K78" s="21">
         <v>1503</v>
       </c>
-      <c r="L78" s="22">
+      <c r="L78" s="21">
         <v>1504</v>
       </c>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G79" s="21">
         <v>11</v>
       </c>
-      <c r="H79" s="22" t="s">
+      <c r="H79" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="I79" s="22">
+      <c r="I79" s="21">
         <v>7</v>
       </c>
-      <c r="J79" s="22">
+      <c r="J79" s="21">
         <v>1501</v>
       </c>
-      <c r="K79" s="22">
+      <c r="K79" s="21">
         <v>1503</v>
       </c>
-      <c r="L79" s="22">
+      <c r="L79" s="21">
         <v>1504</v>
       </c>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G80" s="21">
         <v>11</v>
       </c>
-      <c r="H80" s="22" t="s">
+      <c r="H80" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="I80" s="22">
+      <c r="I80" s="21">
         <v>7</v>
       </c>
-      <c r="J80" s="22">
+      <c r="J80" s="21">
         <v>1501</v>
       </c>
-      <c r="K80" s="22">
+      <c r="K80" s="21">
         <v>1503</v>
       </c>
-      <c r="L80" s="22">
+      <c r="L80" s="21">
         <v>1504</v>
       </c>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
-      <c r="Q80" s="25"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="F81" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G81" s="22" t="s">
+      <c r="G81" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H81" s="22" t="s">
+      <c r="H81" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I81" s="21">
         <v>7</v>
       </c>
-      <c r="J81" s="22">
+      <c r="J81" s="21">
         <v>1501</v>
       </c>
-      <c r="K81" s="22">
+      <c r="K81" s="21">
         <v>1503</v>
       </c>
-      <c r="L81" s="22">
+      <c r="L81" s="21">
         <v>1504</v>
       </c>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
     </row>
     <row r="82" spans="1:17">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="F82" s="22" t="s">
+      <c r="F82" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="G82" s="22" t="s">
+      <c r="G82" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H82" s="22" t="s">
+      <c r="H82" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I82" s="22">
+      <c r="I82" s="21">
         <v>7</v>
       </c>
-      <c r="J82" s="22">
+      <c r="J82" s="21">
         <v>1501</v>
       </c>
-      <c r="K82" s="22">
+      <c r="K82" s="21">
         <v>1503</v>
       </c>
-      <c r="L82" s="22">
+      <c r="L82" s="21">
         <v>1504</v>
       </c>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="25"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
     </row>
     <row r="83" spans="1:17">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G83" s="22" t="s">
+      <c r="G83" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H83" s="22" t="s">
+      <c r="H83" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="22">
+      <c r="I83" s="21">
         <v>7</v>
       </c>
-      <c r="J83" s="22">
+      <c r="J83" s="21">
         <v>1501</v>
       </c>
-      <c r="K83" s="22">
+      <c r="K83" s="21">
         <v>1503</v>
       </c>
-      <c r="L83" s="22">
+      <c r="L83" s="21">
         <v>1504</v>
       </c>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="25"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="22"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="22">
+      <c r="A85" s="21">
         <v>1510</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="21">
         <v>20</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E85" s="21">
         <v>30</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F85" s="21">
         <v>100</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G85" s="21">
         <v>13</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H85" s="21">
         <v>60</v>
       </c>
-      <c r="I85" s="22">
+      <c r="I85" s="21">
         <v>12</v>
       </c>
-      <c r="J85" s="22">
+      <c r="J85" s="21">
         <v>1501</v>
       </c>
-      <c r="K85" s="22">
+      <c r="K85" s="21">
         <v>1502</v>
       </c>
-      <c r="L85" s="22">
+      <c r="L85" s="21">
         <v>1505</v>
       </c>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F86" s="21">
         <v>100</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="21">
         <v>13</v>
       </c>
-      <c r="H86" s="22">
+      <c r="H86" s="21">
         <v>60</v>
       </c>
-      <c r="I86" s="22">
+      <c r="I86" s="21">
         <v>12</v>
       </c>
-      <c r="J86" s="22">
+      <c r="J86" s="21">
         <v>1501</v>
       </c>
-      <c r="K86" s="22">
+      <c r="K86" s="21">
         <v>1502</v>
       </c>
-      <c r="L86" s="22">
+      <c r="L86" s="21">
         <v>1505</v>
       </c>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="21">
         <v>100</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="21">
         <v>13</v>
       </c>
-      <c r="H87" s="22">
+      <c r="H87" s="21">
         <v>60</v>
       </c>
-      <c r="I87" s="22">
+      <c r="I87" s="21">
         <v>12</v>
       </c>
-      <c r="J87" s="22">
+      <c r="J87" s="21">
         <v>1501</v>
       </c>
-      <c r="K87" s="22">
+      <c r="K87" s="21">
         <v>1502</v>
       </c>
-      <c r="L87" s="22">
+      <c r="L87" s="21">
         <v>1505</v>
       </c>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
     </row>
     <row r="88" spans="1:17">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F88" s="21">
         <v>100</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G88" s="21">
         <v>13</v>
       </c>
-      <c r="H88" s="22" t="s">
+      <c r="H88" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I88" s="22">
+      <c r="I88" s="21">
         <v>12</v>
       </c>
-      <c r="J88" s="22">
+      <c r="J88" s="21">
         <v>1501</v>
       </c>
-      <c r="K88" s="22">
+      <c r="K88" s="21">
         <v>1502</v>
       </c>
-      <c r="L88" s="22">
+      <c r="L88" s="21">
         <v>1505</v>
       </c>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
     </row>
     <row r="89" spans="1:17">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F89" s="21">
         <v>100</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="21">
         <v>13</v>
       </c>
-      <c r="H89" s="22" t="s">
+      <c r="H89" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I89" s="22">
+      <c r="I89" s="21">
         <v>12</v>
       </c>
-      <c r="J89" s="22">
+      <c r="J89" s="21">
         <v>1501</v>
       </c>
-      <c r="K89" s="22">
+      <c r="K89" s="21">
         <v>1502</v>
       </c>
-      <c r="L89" s="22">
+      <c r="L89" s="21">
         <v>1505</v>
       </c>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="25"/>
-      <c r="Q89" s="25"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
     </row>
     <row r="90" spans="1:17">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F90" s="21">
         <v>100</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G90" s="21">
         <v>13</v>
       </c>
-      <c r="H90" s="22" t="s">
+      <c r="H90" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I90" s="22">
+      <c r="I90" s="21">
         <v>12</v>
       </c>
-      <c r="J90" s="22">
+      <c r="J90" s="21">
         <v>1501</v>
       </c>
-      <c r="K90" s="22">
+      <c r="K90" s="21">
         <v>1502</v>
       </c>
-      <c r="L90" s="22">
+      <c r="L90" s="21">
         <v>1505</v>
       </c>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="25"/>
-      <c r="Q90" s="25"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="25"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="22">
+      <c r="A92" s="21">
         <v>1520</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E92" s="21">
         <v>23</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F92" s="21">
         <v>90</v>
       </c>
-      <c r="G92" s="22">
+      <c r="G92" s="21">
         <v>15</v>
       </c>
-      <c r="H92" s="22">
+      <c r="H92" s="21">
         <v>110</v>
       </c>
-      <c r="I92" s="22">
+      <c r="I92" s="21">
         <v>3</v>
       </c>
-      <c r="J92" s="22">
+      <c r="J92" s="21">
         <v>1501</v>
       </c>
-      <c r="K92" s="22">
+      <c r="K92" s="21">
         <v>1502</v>
       </c>
-      <c r="L92" s="22">
+      <c r="L92" s="21">
         <v>1506</v>
       </c>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="25"/>
-      <c r="Q92" s="25"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="24"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D93" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="21">
         <v>90</v>
       </c>
-      <c r="G93" s="22">
+      <c r="G93" s="21">
         <v>15</v>
       </c>
-      <c r="H93" s="22">
+      <c r="H93" s="21">
         <v>110</v>
       </c>
-      <c r="I93" s="22">
+      <c r="I93" s="21">
         <v>3</v>
       </c>
-      <c r="J93" s="22">
+      <c r="J93" s="21">
         <v>1501</v>
       </c>
-      <c r="K93" s="22">
+      <c r="K93" s="21">
         <v>1502</v>
       </c>
-      <c r="L93" s="22">
+      <c r="L93" s="21">
         <v>1506</v>
       </c>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="25"/>
-      <c r="P93" s="25"/>
-      <c r="Q93" s="25"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="D94" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F94" s="21">
         <v>90</v>
       </c>
-      <c r="G94" s="22">
+      <c r="G94" s="21">
         <v>15</v>
       </c>
-      <c r="H94" s="22">
+      <c r="H94" s="21">
         <v>110</v>
       </c>
-      <c r="I94" s="22">
+      <c r="I94" s="21">
         <v>3</v>
       </c>
-      <c r="J94" s="22">
+      <c r="J94" s="21">
         <v>1501</v>
       </c>
-      <c r="K94" s="22">
+      <c r="K94" s="21">
         <v>1502</v>
       </c>
-      <c r="L94" s="22">
+      <c r="L94" s="21">
         <v>1506</v>
       </c>
-      <c r="M94" s="22"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="25"/>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="25"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E95" s="22" t="s">
+      <c r="E95" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="F95" s="22" t="s">
+      <c r="F95" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G95" s="22">
+      <c r="G95" s="21">
         <v>15</v>
       </c>
-      <c r="H95" s="22">
+      <c r="H95" s="21">
         <v>110</v>
       </c>
-      <c r="I95" s="22" t="s">
+      <c r="I95" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J95" s="22">
+      <c r="J95" s="21">
         <v>1501</v>
       </c>
-      <c r="K95" s="22">
+      <c r="K95" s="21">
         <v>1502</v>
       </c>
-      <c r="L95" s="22">
+      <c r="L95" s="21">
         <v>1506</v>
       </c>
-      <c r="M95" s="22"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="25"/>
-      <c r="P95" s="25"/>
-      <c r="Q95" s="25"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="E96" s="22" t="s">
+      <c r="E96" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F96" s="22" t="s">
+      <c r="F96" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G96" s="22">
+      <c r="G96" s="21">
         <v>15</v>
       </c>
-      <c r="H96" s="22">
+      <c r="H96" s="21">
         <v>110</v>
       </c>
-      <c r="I96" s="22" t="s">
+      <c r="I96" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J96" s="22">
+      <c r="J96" s="21">
         <v>1501</v>
       </c>
-      <c r="K96" s="22">
+      <c r="K96" s="21">
         <v>1502</v>
       </c>
-      <c r="L96" s="22">
+      <c r="L96" s="21">
         <v>1506</v>
       </c>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="25"/>
-      <c r="P96" s="25"/>
-      <c r="Q96" s="25"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G97" s="22">
+      <c r="G97" s="21">
         <v>15</v>
       </c>
-      <c r="H97" s="22">
+      <c r="H97" s="21">
         <v>110</v>
       </c>
-      <c r="I97" s="22" t="s">
+      <c r="I97" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J97" s="22">
+      <c r="J97" s="21">
         <v>1501</v>
       </c>
-      <c r="K97" s="22">
+      <c r="K97" s="21">
         <v>1502</v>
       </c>
-      <c r="L97" s="22">
+      <c r="L97" s="21">
         <v>1506</v>
       </c>
-      <c r="M97" s="22"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="25"/>
-      <c r="P97" s="25"/>
-      <c r="Q97" s="25"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="22"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="25"/>
-      <c r="P98" s="25"/>
-      <c r="Q98" s="25"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="24"/>
+      <c r="Q98" s="24"/>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="22">
+      <c r="A99" s="21">
         <v>1600</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E99" s="22">
+      <c r="E99" s="21">
         <v>30</v>
       </c>
-      <c r="F99" s="22">
+      <c r="F99" s="21">
         <v>40</v>
       </c>
-      <c r="G99" s="22">
+      <c r="G99" s="21">
         <v>10</v>
       </c>
-      <c r="H99" s="22">
+      <c r="H99" s="21">
         <v>75</v>
       </c>
-      <c r="I99" s="22">
+      <c r="I99" s="21">
         <v>13</v>
       </c>
-      <c r="J99" s="22">
+      <c r="J99" s="21">
         <v>1601</v>
       </c>
-      <c r="K99" s="22">
+      <c r="K99" s="21">
         <v>1602</v>
       </c>
-      <c r="L99" s="22">
+      <c r="L99" s="21">
         <v>1603</v>
       </c>
-      <c r="M99" s="22"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="25"/>
-      <c r="P99" s="25"/>
-      <c r="Q99" s="25"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="24"/>
+      <c r="Q99" s="24"/>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C100" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="D100" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="F100" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G100" s="22">
+      <c r="G100" s="21">
         <v>10</v>
       </c>
-      <c r="H100" s="22" t="s">
+      <c r="H100" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="I100" s="22" t="s">
+      <c r="I100" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="J100" s="22">
+      <c r="J100" s="21">
         <v>1601</v>
       </c>
-      <c r="K100" s="22">
+      <c r="K100" s="21">
         <v>1602</v>
       </c>
-      <c r="L100" s="22">
+      <c r="L100" s="21">
         <v>1603</v>
       </c>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="25"/>
-      <c r="P100" s="25"/>
-      <c r="Q100" s="25"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
     </row>
     <row r="101" spans="1:17">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E101" s="22" t="s">
+      <c r="E101" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F101" s="22" t="s">
+      <c r="F101" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G101" s="22">
+      <c r="G101" s="21">
         <v>10</v>
       </c>
-      <c r="H101" s="22" t="s">
+      <c r="H101" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="I101" s="22" t="s">
+      <c r="I101" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="J101" s="22">
+      <c r="J101" s="21">
         <v>1601</v>
       </c>
-      <c r="K101" s="22">
+      <c r="K101" s="21">
         <v>1602</v>
       </c>
-      <c r="L101" s="22">
+      <c r="L101" s="21">
         <v>1603</v>
       </c>
-      <c r="M101" s="22"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="25"/>
-      <c r="P101" s="25"/>
-      <c r="Q101" s="25"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
     </row>
     <row r="102" spans="1:17">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="C102" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="D102" s="22" t="s">
+      <c r="D102" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E102" s="22" t="s">
+      <c r="E102" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F102" s="22" t="s">
+      <c r="F102" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G102" s="22">
+      <c r="G102" s="21">
         <v>10</v>
       </c>
-      <c r="H102" s="22" t="s">
+      <c r="H102" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="I102" s="22" t="s">
+      <c r="I102" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="J102" s="22">
+      <c r="J102" s="21">
         <v>1601</v>
       </c>
-      <c r="K102" s="22">
+      <c r="K102" s="21">
         <v>1602</v>
       </c>
-      <c r="L102" s="22">
+      <c r="L102" s="21">
         <v>1603</v>
       </c>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="25"/>
-      <c r="P102" s="25"/>
-      <c r="Q102" s="25"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
     </row>
     <row r="103" spans="1:17">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C103" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="D103" s="22" t="s">
+      <c r="D103" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E103" s="22" t="s">
+      <c r="E103" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F103" s="22" t="s">
+      <c r="F103" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="G103" s="22">
+      <c r="G103" s="21">
         <v>10</v>
       </c>
-      <c r="H103" s="22" t="s">
+      <c r="H103" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="I103" s="22" t="s">
+      <c r="I103" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="J103" s="22">
+      <c r="J103" s="21">
         <v>1601</v>
       </c>
-      <c r="K103" s="22">
+      <c r="K103" s="21">
         <v>1602</v>
       </c>
-      <c r="L103" s="22">
+      <c r="L103" s="21">
         <v>1603</v>
       </c>
-      <c r="M103" s="22"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="25"/>
-      <c r="P103" s="25"/>
-      <c r="Q103" s="25"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
     </row>
     <row r="104" spans="1:17">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C104" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="D104" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E104" s="22" t="s">
+      <c r="E104" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F104" s="22" t="s">
+      <c r="F104" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="G104" s="22">
+      <c r="G104" s="21">
         <v>10</v>
       </c>
-      <c r="H104" s="22" t="s">
+      <c r="H104" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I104" s="22" t="s">
+      <c r="I104" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="J104" s="22">
+      <c r="J104" s="21">
         <v>1601</v>
       </c>
-      <c r="K104" s="22">
+      <c r="K104" s="21">
         <v>1602</v>
       </c>
-      <c r="L104" s="22">
+      <c r="L104" s="21">
         <v>1603</v>
       </c>
-      <c r="M104" s="22"/>
-      <c r="N104" s="22"/>
-      <c r="O104" s="25"/>
-      <c r="P104" s="25"/>
-      <c r="Q104" s="25"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="24"/>
+      <c r="Q104" s="24"/>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="22"/>
-      <c r="M105" s="22"/>
-      <c r="N105" s="22"/>
-      <c r="O105" s="25"/>
-      <c r="P105" s="25"/>
-      <c r="Q105" s="25"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="24"/>
+      <c r="P105" s="24"/>
+      <c r="Q105" s="24"/>
     </row>
     <row r="106" spans="1:17">
-      <c r="A106" s="22">
+      <c r="A106" s="21">
         <v>1610</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C106" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="D106" s="22">
+      <c r="D106" s="21">
         <v>16</v>
       </c>
-      <c r="E106" s="22">
+      <c r="E106" s="21">
         <v>20</v>
       </c>
-      <c r="F106" s="22">
+      <c r="F106" s="21">
         <v>60</v>
       </c>
-      <c r="G106" s="22">
+      <c r="G106" s="21">
         <v>10</v>
       </c>
-      <c r="H106" s="22">
+      <c r="H106" s="21">
         <v>80</v>
       </c>
-      <c r="I106" s="22">
+      <c r="I106" s="21">
         <v>15</v>
       </c>
-      <c r="J106" s="22">
+      <c r="J106" s="21">
         <v>1604</v>
       </c>
-      <c r="K106" s="22">
+      <c r="K106" s="21">
         <v>1605</v>
       </c>
-      <c r="L106" s="22">
+      <c r="L106" s="21">
         <v>1606</v>
       </c>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="25"/>
-      <c r="P106" s="25"/>
-      <c r="Q106" s="25"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="24"/>
+      <c r="P106" s="24"/>
+      <c r="Q106" s="24"/>
     </row>
     <row r="107" spans="1:17">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D107" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="E107" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F107" s="22">
+      <c r="F107" s="21">
         <v>60</v>
       </c>
-      <c r="G107" s="22" t="s">
+      <c r="G107" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H107" s="22">
+      <c r="H107" s="21">
         <v>80</v>
       </c>
-      <c r="I107" s="22" t="s">
+      <c r="I107" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J107" s="22">
+      <c r="J107" s="21">
         <v>1604</v>
       </c>
-      <c r="K107" s="22">
+      <c r="K107" s="21">
         <v>1605</v>
       </c>
-      <c r="L107" s="22">
+      <c r="L107" s="21">
         <v>1606</v>
       </c>
-      <c r="M107" s="22"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="25"/>
-      <c r="P107" s="25"/>
-      <c r="Q107" s="25"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="24"/>
+      <c r="Q107" s="24"/>
     </row>
     <row r="108" spans="1:17">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="D108" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E108" s="22" t="s">
+      <c r="E108" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F108" s="22">
+      <c r="F108" s="21">
         <v>60</v>
       </c>
-      <c r="G108" s="22" t="s">
+      <c r="G108" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H108" s="22">
+      <c r="H108" s="21">
         <v>80</v>
       </c>
-      <c r="I108" s="22" t="s">
+      <c r="I108" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="J108" s="22">
+      <c r="J108" s="21">
         <v>1604</v>
       </c>
-      <c r="K108" s="22">
+      <c r="K108" s="21">
         <v>1605</v>
       </c>
-      <c r="L108" s="22">
+      <c r="L108" s="21">
         <v>1606</v>
       </c>
-      <c r="M108" s="22"/>
-      <c r="N108" s="22"/>
-      <c r="O108" s="25"/>
-      <c r="P108" s="25"/>
-      <c r="Q108" s="25"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="24"/>
+      <c r="P108" s="24"/>
+      <c r="Q108" s="24"/>
     </row>
     <row r="109" spans="1:17">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="D109" s="22" t="s">
+      <c r="D109" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E109" s="22" t="s">
+      <c r="E109" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F109" s="22">
+      <c r="F109" s="21">
         <v>60</v>
       </c>
-      <c r="G109" s="22" t="s">
+      <c r="G109" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="H109" s="22">
+      <c r="H109" s="21">
         <v>80</v>
       </c>
-      <c r="I109" s="22" t="s">
+      <c r="I109" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="J109" s="22">
+      <c r="J109" s="21">
         <v>1604</v>
       </c>
-      <c r="K109" s="22">
+      <c r="K109" s="21">
         <v>1605</v>
       </c>
-      <c r="L109" s="22">
+      <c r="L109" s="21">
         <v>1606</v>
       </c>
-      <c r="M109" s="22"/>
-      <c r="N109" s="22"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="25"/>
-      <c r="Q109" s="25"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
     </row>
     <row r="110" spans="1:17">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C110" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="D110" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E110" s="22" t="s">
+      <c r="E110" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="F110" s="22">
+      <c r="F110" s="21">
         <v>60</v>
       </c>
-      <c r="G110" s="22" t="s">
+      <c r="G110" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H110" s="22">
+      <c r="H110" s="21">
         <v>80</v>
       </c>
-      <c r="I110" s="22" t="s">
+      <c r="I110" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="J110" s="22">
+      <c r="J110" s="21">
         <v>1604</v>
       </c>
-      <c r="K110" s="22">
+      <c r="K110" s="21">
         <v>1605</v>
       </c>
-      <c r="L110" s="22">
+      <c r="L110" s="21">
         <v>1606</v>
       </c>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="25"/>
-      <c r="P110" s="25"/>
-      <c r="Q110" s="25"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="24"/>
+      <c r="Q110" s="24"/>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="C111" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="D111" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E111" s="22" t="s">
+      <c r="E111" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F111" s="22">
+      <c r="F111" s="21">
         <v>60</v>
       </c>
-      <c r="G111" s="22" t="s">
+      <c r="G111" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H111" s="22">
+      <c r="H111" s="21">
         <v>80</v>
       </c>
-      <c r="I111" s="22" t="s">
+      <c r="I111" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J111" s="22">
+      <c r="J111" s="21">
         <v>1604</v>
       </c>
-      <c r="K111" s="22">
+      <c r="K111" s="21">
         <v>1605</v>
       </c>
-      <c r="L111" s="22">
+      <c r="L111" s="21">
         <v>1606</v>
       </c>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="25"/>
-      <c r="P111" s="25"/>
-      <c r="Q111" s="25"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="24"/>
+      <c r="Q111" s="24"/>
     </row>
     <row r="112" spans="1:17">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="22"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="22"/>
-      <c r="O112" s="25"/>
-      <c r="P112" s="25"/>
-      <c r="Q112" s="25"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="24"/>
+      <c r="P112" s="24"/>
+      <c r="Q112" s="24"/>
     </row>
     <row r="113" spans="1:17">
-      <c r="A113" s="22">
+      <c r="A113" s="21">
         <v>1620</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="D113" s="22">
+      <c r="D113" s="21">
         <v>0</v>
       </c>
-      <c r="E113" s="22">
+      <c r="E113" s="21">
         <v>0</v>
       </c>
-      <c r="F113" s="22">
+      <c r="F113" s="21">
         <v>100</v>
       </c>
-      <c r="G113" s="22">
+      <c r="G113" s="21">
         <v>10</v>
       </c>
-      <c r="H113" s="22">
+      <c r="H113" s="21">
         <v>100</v>
       </c>
-      <c r="I113" s="22">
+      <c r="I113" s="21">
         <v>0</v>
       </c>
-      <c r="J113" s="22">
+      <c r="J113" s="21">
         <v>1607</v>
       </c>
-      <c r="K113" s="22">
+      <c r="K113" s="21">
         <v>1608</v>
       </c>
-      <c r="L113" s="22">
+      <c r="L113" s="21">
         <v>1609</v>
       </c>
-      <c r="M113" s="22"/>
-      <c r="N113" s="22"/>
-      <c r="O113" s="25"/>
-      <c r="P113" s="25"/>
-      <c r="Q113" s="25"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="24"/>
+      <c r="Q113" s="24"/>
     </row>
     <row r="114" spans="1:17">
-      <c r="A114" s="22"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
-      <c r="K114" s="22"/>
-      <c r="L114" s="22"/>
-      <c r="M114" s="22"/>
-      <c r="N114" s="22"/>
-      <c r="O114" s="25"/>
-      <c r="P114" s="25"/>
-      <c r="Q114" s="25"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="21"/>
+      <c r="O114" s="24"/>
+      <c r="P114" s="24"/>
+      <c r="Q114" s="24"/>
     </row>
     <row r="115" spans="1:17">
-      <c r="A115" s="22">
+      <c r="A115" s="21">
         <v>3001</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="D115" s="22">
+      <c r="D115" s="21">
         <v>1</v>
       </c>
-      <c r="E115" s="22">
+      <c r="E115" s="21">
         <v>25</v>
       </c>
-      <c r="F115" s="22">
+      <c r="F115" s="21">
         <v>80</v>
       </c>
-      <c r="G115" s="22">
+      <c r="G115" s="21">
         <v>10</v>
       </c>
-      <c r="H115" s="22">
+      <c r="H115" s="21">
         <v>100</v>
       </c>
-      <c r="I115" s="22">
+      <c r="I115" s="21">
         <v>10</v>
       </c>
-      <c r="J115" s="22">
+      <c r="J115" s="21">
         <v>3001</v>
       </c>
-      <c r="K115" s="22">
+      <c r="K115" s="21">
         <v>3002</v>
       </c>
-      <c r="L115" s="22">
+      <c r="L115" s="21">
         <v>3003</v>
       </c>
-      <c r="M115" s="22"/>
-      <c r="N115" s="22"/>
-      <c r="O115" s="25"/>
-      <c r="P115" s="25"/>
-      <c r="Q115" s="25"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+      <c r="O115" s="24"/>
+      <c r="P115" s="24"/>
+      <c r="Q115" s="24"/>
     </row>
     <row r="116" spans="1:17">
-      <c r="A116" s="22">
+      <c r="A116" s="21">
         <v>3002</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="D116" s="22">
+      <c r="D116" s="21">
         <v>25</v>
       </c>
-      <c r="E116" s="22">
+      <c r="E116" s="21">
         <v>99</v>
       </c>
-      <c r="F116" s="22">
+      <c r="F116" s="21">
         <v>80</v>
       </c>
-      <c r="G116" s="22">
+      <c r="G116" s="21">
         <v>10</v>
       </c>
-      <c r="H116" s="22">
+      <c r="H116" s="21">
         <v>100</v>
       </c>
-      <c r="I116" s="22">
+      <c r="I116" s="21">
         <v>10</v>
       </c>
-      <c r="J116" s="22">
+      <c r="J116" s="21">
         <v>3001</v>
       </c>
-      <c r="K116" s="22">
+      <c r="K116" s="21">
         <v>3002</v>
       </c>
-      <c r="L116" s="22">
+      <c r="L116" s="21">
         <v>3004</v>
       </c>
-      <c r="M116" s="22"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="25"/>
-      <c r="P116" s="25"/>
-      <c r="Q116" s="25"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="24"/>
+      <c r="P116" s="24"/>
+      <c r="Q116" s="24"/>
     </row>
     <row r="117" spans="1:17">
-      <c r="A117" s="25">
+      <c r="A117" s="24">
         <v>3003</v>
       </c>
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="22">
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="21">
         <v>3005</v>
       </c>
-      <c r="K117" s="22">
+      <c r="K117" s="21">
         <v>3006</v>
       </c>
-      <c r="L117" s="22">
+      <c r="L117" s="21">
         <v>3007</v>
       </c>
-      <c r="M117" s="22"/>
-      <c r="N117" s="22"/>
-      <c r="O117" s="25"/>
-      <c r="P117" s="25"/>
-      <c r="Q117" s="25"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="24"/>
+      <c r="P117" s="24"/>
+      <c r="Q117" s="24"/>
     </row>
     <row r="118" spans="1:17">
-      <c r="A118" s="25">
+      <c r="A118" s="24">
         <v>3004</v>
       </c>
-      <c r="B118" s="25" t="s">
+      <c r="B118" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="22">
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="21">
         <v>3008</v>
       </c>
-      <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="22"/>
-      <c r="O118" s="25"/>
-      <c r="P118" s="25"/>
-      <c r="Q118" s="25"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="24"/>
+      <c r="Q118" s="24"/>
     </row>
     <row r="119" spans="1:17">
-      <c r="A119" s="25">
+      <c r="A119" s="24">
         <v>3005</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="22">
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="21">
         <v>3009</v>
       </c>
-      <c r="K119" s="22">
+      <c r="K119" s="21">
         <v>3010</v>
       </c>
-      <c r="L119" s="22">
+      <c r="L119" s="21">
         <v>3011</v>
       </c>
-      <c r="M119" s="22"/>
-      <c r="N119" s="22"/>
-      <c r="O119" s="25"/>
-      <c r="P119" s="25"/>
-      <c r="Q119" s="25"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+      <c r="O119" s="24"/>
+      <c r="P119" s="24"/>
+      <c r="Q119" s="24"/>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="29"/>
-      <c r="N120" s="29"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="28"/>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="18"/>
-      <c r="B121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="29"/>
-      <c r="N121" s="29"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="28"/>
+      <c r="N121" s="28"/>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="29"/>
-      <c r="N122" s="29"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="28"/>
+      <c r="N122" s="28"/>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="18"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="29"/>
-      <c r="N123" s="29"/>
+      <c r="A123" s="17"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="28"/>
+      <c r="N123" s="28"/>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="18"/>
-      <c r="B124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="29"/>
-      <c r="N124" s="29"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="28"/>
+      <c r="N124" s="28"/>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="29"/>
-      <c r="N125" s="29"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="28"/>
+      <c r="N125" s="28"/>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="18"/>
-      <c r="B126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="29"/>
-      <c r="N126" s="29"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="28"/>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="30"/>
-      <c r="N127" s="30"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="29"/>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="18"/>
-      <c r="B128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
-      <c r="J128" s="18"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="30"/>
-      <c r="N128" s="30"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="29"/>
+      <c r="N128" s="29"/>
     </row>
     <row r="129" spans="1:14">
-      <c r="A129" s="18"/>
-      <c r="B129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="18"/>
-      <c r="M129" s="30"/>
-      <c r="N129" s="30"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="29"/>
     </row>
     <row r="130" spans="1:14">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="30"/>
-      <c r="N130" s="30"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="29"/>
     </row>
     <row r="131" spans="1:14">
-      <c r="A131" s="18"/>
-      <c r="B131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="30"/>
-      <c r="N131" s="30"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="29"/>
+      <c r="N131" s="29"/>
     </row>
     <row r="132" spans="10:14">
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="30"/>
-      <c r="N132" s="30"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="29"/>
     </row>
     <row r="133" spans="10:14">
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="30"/>
-      <c r="N133" s="30"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="29"/>
+      <c r="N133" s="29"/>
     </row>
     <row r="134" spans="10:14">
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="30"/>
-      <c r="N134" s="30"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="29"/>
+      <c r="N134" s="29"/>
     </row>
     <row r="135" spans="10:14">
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="30"/>
-      <c r="N135" s="30"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="29"/>
+      <c r="N135" s="29"/>
     </row>
     <row r="136" spans="10:14">
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="30"/>
-      <c r="N136" s="30"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
+      <c r="M136" s="29"/>
+      <c r="N136" s="29"/>
     </row>
     <row r="137" spans="10:14">
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="30"/>
-      <c r="N137" s="30"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="29"/>
+      <c r="N137" s="29"/>
     </row>
     <row r="138" spans="10:14">
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="30"/>
-      <c r="N138" s="30"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
     </row>
     <row r="139" spans="10:14">
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="30"/>
-      <c r="N139" s="30"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="29"/>
+      <c r="N139" s="29"/>
     </row>
     <row r="140" spans="10:14">
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="30"/>
-      <c r="N140" s="30"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="29"/>
+      <c r="N140" s="29"/>
     </row>
     <row r="141" spans="10:12">
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
     </row>
     <row r="142" spans="10:12">
-      <c r="J142" s="18"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
     </row>
     <row r="143" spans="10:12">
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
     </row>
     <row r="144" spans="10:12">
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
     </row>
     <row r="145" spans="10:12">
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
     </row>
     <row r="146" spans="10:12">
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
     </row>
     <row r="147" spans="10:12">
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
     </row>
     <row r="148" spans="10:12">
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
     </row>
     <row r="149" spans="10:12">
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
     </row>
     <row r="150" spans="10:12">
-      <c r="J150" s="18"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
     </row>
     <row r="151" spans="10:12">
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
     </row>
     <row r="152" spans="10:12">
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
     </row>
     <row r="153" spans="10:12">
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="17"/>
+      <c r="L153" s="17"/>
     </row>
     <row r="154" spans="10:12">
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
     </row>
     <row r="155" spans="10:12">
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
     </row>
     <row r="156" spans="10:12">
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="18"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
     </row>
     <row r="157" spans="10:12">
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="18"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
     </row>
     <row r="158" spans="10:12">
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
     </row>
     <row r="159" spans="10:12">
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
     </row>
     <row r="160" spans="10:12">
-      <c r="J160" s="18"/>
-      <c r="K160" s="18"/>
-      <c r="L160" s="18"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
     </row>
     <row r="161" spans="10:13">
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="18"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="17"/>
     </row>
     <row r="162" spans="10:13">
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="18"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="17"/>
     </row>
     <row r="163" spans="10:13">
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="18"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="17"/>
     </row>
     <row r="164" spans="10:13">
-      <c r="J164" s="18"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="18"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17"/>
     </row>
     <row r="165" spans="10:13">
-      <c r="J165" s="18"/>
-      <c r="K165" s="18"/>
-      <c r="L165" s="18"/>
-      <c r="M165" s="18"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+      <c r="M165" s="17"/>
     </row>
     <row r="166" spans="10:13">
-      <c r="J166" s="18"/>
-      <c r="K166" s="18"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="18"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+      <c r="M166" s="17"/>
     </row>
     <row r="167" spans="13:13">
-      <c r="M167" s="18"/>
+      <c r="M167" s="17"/>
     </row>
     <row r="168" spans="13:13">
-      <c r="M168" s="18"/>
+      <c r="M168" s="17"/>
     </row>
     <row r="169" spans="13:13">
-      <c r="M169" s="18"/>
+      <c r="M169" s="17"/>
     </row>
     <row r="170" spans="13:13">
-      <c r="M170" s="18"/>
+      <c r="M170" s="17"/>
     </row>
     <row r="171" spans="13:13">
-      <c r="M171" s="18"/>
+      <c r="M171" s="17"/>
     </row>
     <row r="172" spans="13:13">
-      <c r="M172" s="18"/>
+      <c r="M172" s="17"/>
     </row>
     <row r="173" spans="13:13">
-      <c r="M173" s="18"/>
+      <c r="M173" s="17"/>
     </row>
     <row r="174" spans="13:13">
-      <c r="M174" s="18"/>
+      <c r="M174" s="17"/>
     </row>
     <row r="175" spans="13:13">
-      <c r="M175" s="18"/>
+      <c r="M175" s="17"/>
     </row>
     <row r="176" spans="13:13">
-      <c r="M176" s="18"/>
+      <c r="M176" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8064,8 +8117,8 @@
   <sheetPr/>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8735,22 +8788,22 @@
       <c r="C23" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23">
         <v>90</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23">
         <v>140</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23">
         <v>70</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23">
         <v>50</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23">
         <v>6</v>
       </c>
       <c r="J23">
@@ -8790,552 +8843,636 @@
       </c>
     </row>
     <row r="25" ht="40.5" spans="1:10">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>2033</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D25" s="11">
-        <v>128</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D25" s="10">
+        <v>100</v>
+      </c>
+      <c r="E25" s="10">
+        <v>250</v>
+      </c>
+      <c r="F25" s="10">
+        <v>50</v>
+      </c>
+      <c r="G25" s="10">
+        <v>25</v>
+      </c>
+      <c r="H25" s="10">
+        <v>150</v>
+      </c>
+      <c r="I25" s="10">
+        <v>10</v>
+      </c>
+      <c r="J25" s="10">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="26" ht="40.5" spans="1:10">
+      <c r="A26" s="10">
+        <v>2034</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>100</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>20</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:10">
+      <c r="A27" s="10">
+        <v>2130</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D27" s="10">
+        <v>87</v>
+      </c>
+      <c r="E27" s="10">
+        <v>124</v>
+      </c>
+      <c r="F27" s="10">
+        <v>105</v>
+      </c>
+      <c r="G27" s="10">
+        <v>9</v>
+      </c>
+      <c r="H27" s="10">
+        <v>105</v>
+      </c>
+      <c r="I27" s="10">
+        <v>8</v>
+      </c>
+      <c r="J27" s="10">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:10">
+      <c r="A28" s="10">
+        <v>2131</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D28" s="10">
+        <v>119</v>
+      </c>
+      <c r="E28" s="10">
+        <v>156</v>
+      </c>
+      <c r="F28" s="10">
+        <v>85</v>
+      </c>
+      <c r="G28" s="10">
+        <v>22</v>
+      </c>
+      <c r="H28" s="10">
+        <v>75</v>
+      </c>
+      <c r="I28" s="10">
+        <v>15</v>
+      </c>
+      <c r="J28" s="10">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" spans="1:10">
+      <c r="A29" s="10">
+        <v>2132</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>100</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>20</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="1:10">
+      <c r="A30" s="10">
+        <v>2133</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>100</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>100</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="1:10">
+      <c r="A31" s="10">
+        <v>2134</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>80</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>80</v>
+      </c>
+      <c r="I31" s="10">
+        <v>180</v>
+      </c>
+      <c r="J31" s="10">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:10">
+      <c r="A32" s="10">
+        <v>2230</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="D32" s="10">
+        <v>99</v>
+      </c>
+      <c r="E32" s="10">
+        <v>138</v>
+      </c>
+      <c r="F32" s="10">
+        <v>95</v>
+      </c>
+      <c r="G32" s="10">
+        <v>12</v>
+      </c>
+      <c r="H32" s="10">
+        <v>95</v>
+      </c>
+      <c r="I32" s="10">
+        <v>12</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:10">
+      <c r="A33" s="10">
+        <v>2231</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D33" s="10">
+        <v>147</v>
+      </c>
+      <c r="E33" s="10">
+        <v>169</v>
+      </c>
+      <c r="F33" s="10">
+        <v>75</v>
+      </c>
+      <c r="G33" s="10">
+        <v>28</v>
+      </c>
+      <c r="H33" s="10">
+        <v>65</v>
+      </c>
+      <c r="I33" s="10">
+        <v>19</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="1:10">
+      <c r="A34" s="10">
+        <v>2232</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>100</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>20</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:10">
+      <c r="A35" s="10">
+        <v>2233</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D35" s="10">
         <v>255</v>
       </c>
-      <c r="F25" s="11">
+      <c r="E35" s="10">
+        <v>255</v>
+      </c>
+      <c r="F35" s="10">
+        <v>66</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>200</v>
+      </c>
+      <c r="I35" s="10">
+        <v>12</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="36" ht="40.5" spans="1:10">
+      <c r="A36" s="10">
+        <v>2234</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>100</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>100</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" ht="27" spans="1:10">
+      <c r="A38" s="10">
+        <v>2040</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="D38" s="10">
+        <v>200</v>
+      </c>
+      <c r="E38" s="10">
+        <v>255</v>
+      </c>
+      <c r="F38" s="10">
+        <v>90</v>
+      </c>
+      <c r="G38" s="10">
+        <v>10</v>
+      </c>
+      <c r="H38" s="10">
         <v>50</v>
       </c>
-      <c r="G25" s="11">
-        <v>25</v>
-      </c>
-      <c r="H25" s="11">
+      <c r="I38" s="10">
+        <v>20</v>
+      </c>
+      <c r="J38" s="10">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" ht="31.5" spans="1:10">
+      <c r="A39" s="10">
+        <v>2041</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D39" s="10">
         <v>150</v>
       </c>
-      <c r="I25" s="11">
+      <c r="E39" s="10">
+        <v>192</v>
+      </c>
+      <c r="F39" s="10">
+        <v>80</v>
+      </c>
+      <c r="G39" s="10">
         <v>10</v>
       </c>
-      <c r="J25" s="11">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="26" ht="40.5" spans="1:10">
-      <c r="A26" s="11">
-        <v>2034</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="H39" s="10">
+        <v>50</v>
+      </c>
+      <c r="I39" s="10">
+        <v>10</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="40" ht="40.5" spans="1:10">
+      <c r="A40" s="10">
+        <v>2042</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D40" s="10">
         <v>0</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E40" s="10">
         <v>0</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F40" s="10">
         <v>100</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G40" s="10">
         <v>0</v>
       </c>
-      <c r="H26" s="11">
-        <v>20</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="H40" s="10">
+        <v>33</v>
+      </c>
+      <c r="I40" s="10">
         <v>0</v>
       </c>
-      <c r="J26" s="11">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:10">
-      <c r="A27" s="11">
-        <v>2130</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="D27" s="11">
-        <v>87</v>
-      </c>
-      <c r="E27" s="11">
-        <v>124</v>
-      </c>
-      <c r="F27" s="11">
-        <v>105</v>
-      </c>
-      <c r="G27" s="11">
-        <v>9</v>
-      </c>
-      <c r="H27" s="11">
-        <v>105</v>
-      </c>
-      <c r="I27" s="11">
-        <v>8</v>
-      </c>
-      <c r="J27" s="11">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="28" ht="27" spans="1:10">
-      <c r="A28" s="11">
-        <v>2131</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="D28" s="11">
-        <v>119</v>
-      </c>
-      <c r="E28" s="11">
-        <v>156</v>
-      </c>
-      <c r="F28" s="11">
-        <v>85</v>
-      </c>
-      <c r="G28" s="11">
-        <v>22</v>
-      </c>
-      <c r="H28" s="11">
+      <c r="J40" s="10">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" spans="1:10">
+      <c r="A41" s="10">
+        <v>2140</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D41" s="10">
+        <v>142</v>
+      </c>
+      <c r="E41" s="10">
+        <v>197</v>
+      </c>
+      <c r="F41" s="10">
+        <v>110</v>
+      </c>
+      <c r="G41" s="10">
+        <v>2</v>
+      </c>
+      <c r="H41" s="10">
         <v>75</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I41" s="10">
         <v>15</v>
       </c>
-      <c r="J28" s="11">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" spans="1:10">
-      <c r="A29" s="11">
-        <v>2132</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="J41" s="10">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:10">
+      <c r="A42" s="10">
+        <v>2141</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D42" s="15">
         <v>0</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E42" s="15">
         <v>0</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F42" s="15">
         <v>100</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G42" s="15">
         <v>0</v>
       </c>
-      <c r="H29" s="11">
-        <v>20</v>
-      </c>
-      <c r="I29" s="11">
+      <c r="H42" s="15">
+        <v>2000</v>
+      </c>
+      <c r="I42" s="15">
         <v>0</v>
       </c>
-      <c r="J29" s="11">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="30" ht="40.5" spans="1:10">
-      <c r="A30" s="11">
-        <v>2133</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>100</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <v>100</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="31" ht="40.5" spans="1:10">
-      <c r="A31" s="11">
-        <v>2134</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11">
-        <v>80</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <v>80</v>
-      </c>
-      <c r="I31" s="17">
-        <v>180</v>
-      </c>
-      <c r="J31" s="11">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="32" ht="27" spans="1:10">
-      <c r="A32" s="11">
-        <v>2230</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="D32" s="11">
-        <v>99</v>
-      </c>
-      <c r="E32" s="11">
-        <v>138</v>
-      </c>
-      <c r="F32" s="11">
-        <v>95</v>
-      </c>
-      <c r="G32" s="11">
-        <v>12</v>
-      </c>
-      <c r="H32" s="11">
-        <v>95</v>
-      </c>
-      <c r="I32" s="11">
-        <v>12</v>
-      </c>
-      <c r="J32" s="11">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="33" ht="27" spans="1:10">
-      <c r="A33" s="11">
-        <v>2231</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="D33" s="11">
-        <v>147</v>
-      </c>
-      <c r="E33" s="11">
-        <v>169</v>
-      </c>
-      <c r="F33" s="11">
-        <v>75</v>
-      </c>
-      <c r="G33" s="11">
-        <v>28</v>
-      </c>
-      <c r="H33" s="11">
-        <v>65</v>
-      </c>
-      <c r="I33" s="11">
-        <v>19</v>
-      </c>
-      <c r="J33" s="11">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="34" ht="40.5" spans="1:10">
-      <c r="A34" s="11">
-        <v>2232</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
-        <v>100</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <v>20</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:10">
-      <c r="A35" s="11">
-        <v>2233</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="D35" s="11">
-        <v>255</v>
-      </c>
-      <c r="E35" s="11">
-        <v>255</v>
-      </c>
-      <c r="F35" s="11">
-        <v>66</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <v>200</v>
-      </c>
-      <c r="I35" s="11">
-        <v>12</v>
-      </c>
-      <c r="J35" s="11">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="36" ht="40.5" spans="1:10">
-      <c r="A36" s="11">
-        <v>2234</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>100</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
-        <v>100</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="11">
-        <v>2040</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="11">
-        <v>2041</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="11">
-        <v>2042</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="11">
-        <v>2140</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="11">
-        <v>2141</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11">
+      <c r="J42" s="10">
         <v>2112</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="11">
+    <row r="43" ht="27" spans="1:10">
+      <c r="A43" s="10">
         <v>2240</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11">
+      <c r="D43" s="10">
+        <v>176</v>
+      </c>
+      <c r="E43" s="10">
+        <v>224</v>
+      </c>
+      <c r="F43" s="10">
+        <v>75</v>
+      </c>
+      <c r="G43" s="10">
+        <v>16</v>
+      </c>
+      <c r="H43" s="10">
+        <v>50</v>
+      </c>
+      <c r="I43" s="10">
+        <v>38</v>
+      </c>
+      <c r="J43" s="10">
         <v>2211</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="11">
+    <row r="44" ht="27" spans="1:10">
+      <c r="A44" s="10">
         <v>2241</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11">
+      <c r="D44" s="15">
+        <v>0</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15">
+        <v>100</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
+        <v>33</v>
+      </c>
+      <c r="I44" s="15">
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
         <v>2212</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
@@ -9344,7 +9481,7 @@
       <c r="B46" t="s">
         <v>439</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="9" t="s">
         <v>440</v>
       </c>
       <c r="D46">
@@ -9376,7 +9513,7 @@
       <c r="B47" t="s">
         <v>441</v>
       </c>
-      <c r="I47" s="18"/>
+      <c r="I47" s="17"/>
       <c r="J47">
         <v>4005</v>
       </c>
@@ -9388,7 +9525,7 @@
       <c r="B48" t="s">
         <v>442</v>
       </c>
-      <c r="I48" s="18"/>
+      <c r="I48" s="17"/>
       <c r="J48">
         <v>4006</v>
       </c>
@@ -9403,7 +9540,7 @@
       <c r="C49" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="I49" s="18"/>
+      <c r="I49" s="17"/>
       <c r="J49">
         <v>4007</v>
       </c>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChineseRoguelikeGame\Documents\ExcelData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9825" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="450">
   <si>
     <t>物品ID</t>
   </si>
@@ -83,7 +88,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+1</t>
     </r>
@@ -106,7 +111,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+2</t>
     </r>
@@ -129,7 +134,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+3</t>
     </r>
@@ -152,7 +157,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+4</t>
     </r>
@@ -175,7 +180,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+5</t>
     </r>
@@ -198,7 +203,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>LV.2</t>
     </r>
@@ -230,7 +235,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>LV.3</t>
     </r>
@@ -262,7 +267,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>LV.4</t>
     </r>
@@ -1479,7 +1484,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>[</t>
     </r>
@@ -1497,7 +1502,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>]</t>
     </r>
@@ -1565,18 +1570,38 @@
   <si>
     <t>“被幽灵注视着，不自觉地全身酥麻，绵软无力”</t>
   </si>
+  <si>
+    <t>法术消耗</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LOAT</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1630,154 +1655,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1795,10 +1676,32 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1811,194 +1714,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2006,253 +1723,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2286,7 +1761,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2330,58 +1805,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2428,7 +1869,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2463,7 +1904,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2671,15 +2112,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -2762,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2773,7 +2213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2784,7 +2224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:3">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2795,7 +2235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2806,7 +2246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2817,7 +2257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13">
         <v>101</v>
       </c>
@@ -2828,7 +2268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14">
         <v>102</v>
       </c>
@@ -2839,7 +2279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15">
         <v>103</v>
       </c>
@@ -2851,15 +2291,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q176"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -2939,7 +2378,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:17">
+    <row r="2" spans="1:17" ht="27">
       <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
@@ -3045,7 +2484,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:17">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="19">
         <v>1000</v>
       </c>
@@ -3380,7 +2819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:17">
+    <row r="11" spans="1:17">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
@@ -3399,7 +2838,7 @@
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
     </row>
-    <row r="12" customFormat="1" spans="1:17">
+    <row r="12" spans="1:17">
       <c r="A12" s="21">
         <v>1110</v>
       </c>
@@ -3442,7 +2881,7 @@
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
     </row>
-    <row r="13" customFormat="1" spans="1:17">
+    <row r="13" spans="1:17">
       <c r="A13" s="21" t="s">
         <v>99</v>
       </c>
@@ -3485,7 +2924,7 @@
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
     </row>
-    <row r="14" customFormat="1" spans="1:17">
+    <row r="14" spans="1:17">
       <c r="A14" s="21" t="s">
         <v>101</v>
       </c>
@@ -3528,7 +2967,7 @@
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
     </row>
-    <row r="15" customFormat="1" spans="1:17">
+    <row r="15" spans="1:17">
       <c r="A15" s="21" t="s">
         <v>104</v>
       </c>
@@ -3571,7 +3010,7 @@
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
     </row>
-    <row r="16" customFormat="1" spans="1:17">
+    <row r="16" spans="1:17">
       <c r="A16" s="21" t="s">
         <v>107</v>
       </c>
@@ -3614,7 +3053,7 @@
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
     </row>
-    <row r="17" customFormat="1" spans="1:17">
+    <row r="17" spans="1:17">
       <c r="A17" s="21" t="s">
         <v>111</v>
       </c>
@@ -3657,7 +3096,7 @@
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
     </row>
-    <row r="18" customFormat="1" spans="1:17">
+    <row r="18" spans="1:17">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -4051,7 +3490,7 @@
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
     </row>
-    <row r="28" customFormat="1" spans="1:17">
+    <row r="28" spans="1:17">
       <c r="A28" s="21" t="s">
         <v>146</v>
       </c>
@@ -4100,7 +3539,7 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
     </row>
-    <row r="29" customFormat="1" spans="1:17">
+    <row r="29" spans="1:17">
       <c r="A29" s="21" t="s">
         <v>148</v>
       </c>
@@ -4149,7 +3588,7 @@
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
     </row>
-    <row r="30" customFormat="1" spans="1:17">
+    <row r="30" spans="1:17">
       <c r="A30" s="21" t="s">
         <v>152</v>
       </c>
@@ -4198,7 +3637,7 @@
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
     </row>
-    <row r="31" customFormat="1" spans="1:17">
+    <row r="31" spans="1:17">
       <c r="A31" s="21" t="s">
         <v>155</v>
       </c>
@@ -7695,7 +7134,7 @@
       <c r="P119" s="24"/>
       <c r="Q119" s="24"/>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:17">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="D120" s="17"/>
@@ -7710,7 +7149,7 @@
       <c r="M120" s="28"/>
       <c r="N120" s="28"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:17">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="D121" s="17"/>
@@ -7725,7 +7164,7 @@
       <c r="M121" s="28"/>
       <c r="N121" s="28"/>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:17">
       <c r="A122" s="17"/>
       <c r="B122" s="17"/>
       <c r="D122" s="17"/>
@@ -7740,7 +7179,7 @@
       <c r="M122" s="28"/>
       <c r="N122" s="28"/>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:17">
       <c r="A123" s="17"/>
       <c r="B123" s="26"/>
       <c r="C123" s="27"/>
@@ -7756,7 +7195,7 @@
       <c r="M123" s="28"/>
       <c r="N123" s="28"/>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:17">
       <c r="A124" s="17"/>
       <c r="B124" s="17"/>
       <c r="D124" s="17"/>
@@ -7771,7 +7210,7 @@
       <c r="M124" s="28"/>
       <c r="N124" s="28"/>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:17">
       <c r="A125" s="17"/>
       <c r="B125" s="17"/>
       <c r="D125" s="17"/>
@@ -7786,7 +7225,7 @@
       <c r="M125" s="28"/>
       <c r="N125" s="28"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:17">
       <c r="A126" s="17"/>
       <c r="B126" s="17"/>
       <c r="D126" s="17"/>
@@ -7801,7 +7240,7 @@
       <c r="M126" s="28"/>
       <c r="N126" s="28"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:17">
       <c r="A127" s="17"/>
       <c r="B127" s="17"/>
       <c r="D127" s="17"/>
@@ -7816,7 +7255,7 @@
       <c r="M127" s="29"/>
       <c r="N127" s="29"/>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:17">
       <c r="A128" s="17"/>
       <c r="B128" s="17"/>
       <c r="D128" s="17"/>
@@ -7876,85 +7315,85 @@
       <c r="M131" s="29"/>
       <c r="N131" s="29"/>
     </row>
-    <row r="132" spans="10:14">
+    <row r="132" spans="1:14">
       <c r="J132" s="17"/>
       <c r="K132" s="17"/>
       <c r="L132" s="17"/>
       <c r="M132" s="29"/>
       <c r="N132" s="29"/>
     </row>
-    <row r="133" spans="10:14">
+    <row r="133" spans="1:14">
       <c r="J133" s="17"/>
       <c r="K133" s="17"/>
       <c r="L133" s="17"/>
       <c r="M133" s="29"/>
       <c r="N133" s="29"/>
     </row>
-    <row r="134" spans="10:14">
+    <row r="134" spans="1:14">
       <c r="J134" s="17"/>
       <c r="K134" s="17"/>
       <c r="L134" s="17"/>
       <c r="M134" s="29"/>
       <c r="N134" s="29"/>
     </row>
-    <row r="135" spans="10:14">
+    <row r="135" spans="1:14">
       <c r="J135" s="17"/>
       <c r="K135" s="17"/>
       <c r="L135" s="17"/>
       <c r="M135" s="29"/>
       <c r="N135" s="29"/>
     </row>
-    <row r="136" spans="10:14">
+    <row r="136" spans="1:14">
       <c r="J136" s="17"/>
       <c r="K136" s="17"/>
       <c r="L136" s="17"/>
       <c r="M136" s="29"/>
       <c r="N136" s="29"/>
     </row>
-    <row r="137" spans="10:14">
+    <row r="137" spans="1:14">
       <c r="J137" s="17"/>
       <c r="K137" s="17"/>
       <c r="L137" s="17"/>
       <c r="M137" s="29"/>
       <c r="N137" s="29"/>
     </row>
-    <row r="138" spans="10:14">
+    <row r="138" spans="1:14">
       <c r="J138" s="17"/>
       <c r="K138" s="17"/>
       <c r="L138" s="17"/>
       <c r="M138" s="29"/>
       <c r="N138" s="29"/>
     </row>
-    <row r="139" spans="10:14">
+    <row r="139" spans="1:14">
       <c r="J139" s="17"/>
       <c r="K139" s="17"/>
       <c r="L139" s="17"/>
       <c r="M139" s="29"/>
       <c r="N139" s="29"/>
     </row>
-    <row r="140" spans="10:14">
+    <row r="140" spans="1:14">
       <c r="J140" s="17"/>
       <c r="K140" s="17"/>
       <c r="L140" s="17"/>
       <c r="M140" s="29"/>
       <c r="N140" s="29"/>
     </row>
-    <row r="141" spans="10:12">
+    <row r="141" spans="1:14">
       <c r="J141" s="17"/>
       <c r="K141" s="17"/>
       <c r="L141" s="17"/>
     </row>
-    <row r="142" spans="10:12">
+    <row r="142" spans="1:14">
       <c r="J142" s="17"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17"/>
     </row>
-    <row r="143" spans="10:12">
+    <row r="143" spans="1:14">
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17"/>
     </row>
-    <row r="144" spans="10:12">
+    <row r="144" spans="1:14">
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
       <c r="L144" s="17"/>
@@ -8075,63 +7514,66 @@
       <c r="L166" s="17"/>
       <c r="M166" s="17"/>
     </row>
-    <row r="167" spans="13:13">
+    <row r="167" spans="10:13">
       <c r="M167" s="17"/>
     </row>
-    <row r="168" spans="13:13">
+    <row r="168" spans="10:13">
       <c r="M168" s="17"/>
     </row>
-    <row r="169" spans="13:13">
+    <row r="169" spans="10:13">
       <c r="M169" s="17"/>
     </row>
-    <row r="170" spans="13:13">
+    <row r="170" spans="10:13">
       <c r="M170" s="17"/>
     </row>
-    <row r="171" spans="13:13">
+    <row r="171" spans="10:13">
       <c r="M171" s="17"/>
     </row>
-    <row r="172" spans="13:13">
+    <row r="172" spans="10:13">
       <c r="M172" s="17"/>
     </row>
-    <row r="173" spans="13:13">
+    <row r="173" spans="10:13">
       <c r="M173" s="17"/>
     </row>
-    <row r="174" spans="13:13">
+    <row r="174" spans="10:13">
       <c r="M174" s="17"/>
     </row>
-    <row r="175" spans="13:13">
+    <row r="175" spans="10:13">
       <c r="M175" s="17"/>
     </row>
-    <row r="176" spans="13:13">
+    <row r="176" spans="10:13">
       <c r="M176" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="45" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>356</v>
       </c>
@@ -8159,11 +7601,14 @@
       <c r="I1" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -8192,10 +7637,13 @@
         <v>54</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -8223,11 +7671,14 @@
       <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>2000</v>
       </c>
@@ -8258,8 +7709,11 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" ht="27" spans="1:10">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -8288,10 +7742,13 @@
         <v>10</v>
       </c>
       <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
         <v>2001</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:10">
+    <row r="6" spans="1:11" ht="27">
       <c r="A6">
         <v>2110</v>
       </c>
@@ -8320,10 +7777,13 @@
         <v>8</v>
       </c>
       <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
         <v>2101</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:10">
+    <row r="7" spans="1:11" ht="27">
       <c r="A7">
         <v>2210</v>
       </c>
@@ -8352,14 +7812,17 @@
         <v>12</v>
       </c>
       <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
         <v>2201</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:11">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" ht="27" spans="1:10">
+    <row r="9" spans="1:11" ht="27">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
@@ -8387,11 +7850,14 @@
       <c r="I9">
         <v>10</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="32">
+        <v>30</v>
+      </c>
+      <c r="K9">
         <v>2002</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:10">
+    <row r="10" spans="1:11" ht="27">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -8419,11 +7885,14 @@
       <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="32">
+        <v>50</v>
+      </c>
+      <c r="K10">
         <v>2003</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:10">
+    <row r="11" spans="1:11" ht="27">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -8451,11 +7920,14 @@
       <c r="I11">
         <v>10</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="32">
+        <v>70</v>
+      </c>
+      <c r="K11">
         <v>2004</v>
       </c>
     </row>
-    <row r="12" ht="27" spans="1:10">
+    <row r="12" spans="1:11" ht="27">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -8483,11 +7955,14 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
         <v>2005</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:10">
+    <row r="13" spans="1:11" ht="27">
       <c r="A13">
         <v>2120</v>
       </c>
@@ -8515,11 +7990,14 @@
       <c r="I13">
         <v>8</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="32">
+        <v>24</v>
+      </c>
+      <c r="K13">
         <v>2102</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:10">
+    <row r="14" spans="1:11" ht="27">
       <c r="A14">
         <v>2121</v>
       </c>
@@ -8547,11 +8025,14 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="32">
+        <v>36</v>
+      </c>
+      <c r="K14">
         <v>2103</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:10">
+    <row r="15" spans="1:11" ht="27">
       <c r="A15">
         <v>2122</v>
       </c>
@@ -8579,11 +8060,14 @@
       <c r="I15">
         <v>20</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="32">
+        <v>48</v>
+      </c>
+      <c r="K15">
         <v>2104</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:10">
+    <row r="16" spans="1:11" ht="27">
       <c r="A16">
         <v>2123</v>
       </c>
@@ -8611,11 +8095,14 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="32">
+        <v>20</v>
+      </c>
+      <c r="K16">
         <v>2105</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:10">
+    <row r="17" spans="1:11" ht="27">
       <c r="A17">
         <v>2220</v>
       </c>
@@ -8643,11 +8130,14 @@
       <c r="I17">
         <v>12</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="32">
+        <v>25</v>
+      </c>
+      <c r="K17">
         <v>2202</v>
       </c>
     </row>
-    <row r="18" ht="27" spans="1:10">
+    <row r="18" spans="1:11" ht="27">
       <c r="A18">
         <v>2221</v>
       </c>
@@ -8675,11 +8165,14 @@
       <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="32">
+        <v>36</v>
+      </c>
+      <c r="K18">
         <v>2203</v>
       </c>
     </row>
-    <row r="19" ht="40.5" spans="1:10">
+    <row r="19" spans="1:11" ht="40.5">
       <c r="A19">
         <v>2222</v>
       </c>
@@ -8707,11 +8200,14 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="32">
+        <v>24</v>
+      </c>
+      <c r="K19">
         <v>2204</v>
       </c>
     </row>
-    <row r="20" ht="40.5" spans="1:10">
+    <row r="20" spans="1:11" ht="40.5">
       <c r="A20">
         <v>2223</v>
       </c>
@@ -8739,14 +8235,18 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="32">
+        <v>50</v>
+      </c>
+      <c r="K20">
         <v>2205</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:11">
       <c r="B21" s="8"/>
-    </row>
-    <row r="22" ht="27" spans="1:10">
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" ht="27">
       <c r="A22" s="1">
         <v>2030</v>
       </c>
@@ -8774,11 +8274,14 @@
       <c r="I22">
         <v>10</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="32">
+        <v>100</v>
+      </c>
+      <c r="K22">
         <v>2006</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:10">
+    <row r="23" spans="1:11" ht="27">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -8806,11 +8309,14 @@
       <c r="I23">
         <v>6</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="32">
+        <v>120</v>
+      </c>
+      <c r="K23">
         <v>2007</v>
       </c>
     </row>
-    <row r="24" ht="40.5" spans="1:10">
+    <row r="24" spans="1:11" ht="40.5">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -8838,11 +8344,14 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="32">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>2008</v>
       </c>
     </row>
-    <row r="25" ht="40.5" spans="1:10">
+    <row r="25" spans="1:11" ht="40.5">
       <c r="A25" s="10">
         <v>2033</v>
       </c>
@@ -8870,11 +8379,14 @@
       <c r="I25" s="10">
         <v>10</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="32">
+        <v>200</v>
+      </c>
+      <c r="K25" s="10">
         <v>2009</v>
       </c>
     </row>
-    <row r="26" ht="40.5" spans="1:10">
+    <row r="26" spans="1:11" ht="40.5">
       <c r="A26" s="10">
         <v>2034</v>
       </c>
@@ -8902,11 +8414,14 @@
       <c r="I26" s="10">
         <v>0</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="K26" s="10">
         <v>2010</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:10">
+    <row r="27" spans="1:11" ht="27">
       <c r="A27" s="10">
         <v>2130</v>
       </c>
@@ -8934,11 +8449,14 @@
       <c r="I27" s="10">
         <v>8</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="32">
+        <v>120</v>
+      </c>
+      <c r="K27" s="10">
         <v>2106</v>
       </c>
     </row>
-    <row r="28" ht="27" spans="1:10">
+    <row r="28" spans="1:11" ht="27">
       <c r="A28" s="10">
         <v>2131</v>
       </c>
@@ -8966,11 +8484,14 @@
       <c r="I28" s="10">
         <v>15</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="32">
+        <v>80</v>
+      </c>
+      <c r="K28" s="10">
         <v>2107</v>
       </c>
     </row>
-    <row r="29" ht="40.5" spans="1:10">
+    <row r="29" spans="1:11" ht="40.5">
       <c r="A29" s="10">
         <v>2132</v>
       </c>
@@ -8998,11 +8519,14 @@
       <c r="I29" s="10">
         <v>0</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="K29" s="10">
         <v>2108</v>
       </c>
     </row>
-    <row r="30" ht="40.5" spans="1:10">
+    <row r="30" spans="1:11" ht="40.5">
       <c r="A30" s="10">
         <v>2133</v>
       </c>
@@ -9030,11 +8554,14 @@
       <c r="I30" s="10">
         <v>0</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="32">
+        <v>88</v>
+      </c>
+      <c r="K30" s="10">
         <v>2109</v>
       </c>
     </row>
-    <row r="31" ht="40.5" spans="1:10">
+    <row r="31" spans="1:11" ht="40.5">
       <c r="A31" s="10">
         <v>2134</v>
       </c>
@@ -9062,11 +8589,14 @@
       <c r="I31" s="10">
         <v>180</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="32">
+        <v>66</v>
+      </c>
+      <c r="K31" s="10">
         <v>2110</v>
       </c>
     </row>
-    <row r="32" ht="27" spans="1:10">
+    <row r="32" spans="1:11" ht="27">
       <c r="A32" s="10">
         <v>2230</v>
       </c>
@@ -9094,11 +8624,14 @@
       <c r="I32" s="10">
         <v>12</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="32">
+        <v>120</v>
+      </c>
+      <c r="K32" s="10">
         <v>2206</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:10">
+    <row r="33" spans="1:11" ht="27">
       <c r="A33" s="10">
         <v>2231</v>
       </c>
@@ -9126,11 +8659,14 @@
       <c r="I33" s="10">
         <v>19</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="32">
+        <v>90</v>
+      </c>
+      <c r="K33" s="10">
         <v>2207</v>
       </c>
     </row>
-    <row r="34" ht="40.5" spans="1:10">
+    <row r="34" spans="1:11" ht="40.5">
       <c r="A34" s="10">
         <v>2232</v>
       </c>
@@ -9158,11 +8694,14 @@
       <c r="I34" s="10">
         <v>0</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="K34" s="10">
         <v>2208</v>
       </c>
     </row>
-    <row r="35" ht="27" spans="1:10">
+    <row r="35" spans="1:11" ht="27">
       <c r="A35" s="10">
         <v>2233</v>
       </c>
@@ -9190,11 +8729,14 @@
       <c r="I35" s="10">
         <v>12</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="32">
+        <v>150</v>
+      </c>
+      <c r="K35" s="10">
         <v>2209</v>
       </c>
     </row>
-    <row r="36" ht="40.5" spans="1:10">
+    <row r="36" spans="1:11" ht="40.5">
       <c r="A36" s="10">
         <v>2234</v>
       </c>
@@ -9222,11 +8764,14 @@
       <c r="I36" s="10">
         <v>0</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="32">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10">
         <v>2210</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="13"/>
@@ -9236,9 +8781,10 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" ht="27" spans="1:10">
+      <c r="J37" s="32"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="1:11" ht="27">
       <c r="A38" s="10">
         <v>2040</v>
       </c>
@@ -9266,11 +8812,14 @@
       <c r="I38" s="10">
         <v>20</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="32">
+        <v>150</v>
+      </c>
+      <c r="K38" s="10">
         <v>2011</v>
       </c>
     </row>
-    <row r="39" ht="31.5" spans="1:10">
+    <row r="39" spans="1:11" ht="31.5">
       <c r="A39" s="10">
         <v>2041</v>
       </c>
@@ -9298,11 +8847,14 @@
       <c r="I39" s="10">
         <v>10</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="32">
+        <v>180</v>
+      </c>
+      <c r="K39" s="10">
         <v>2012</v>
       </c>
     </row>
-    <row r="40" ht="40.5" spans="1:10">
+    <row r="40" spans="1:11" ht="40.5">
       <c r="A40" s="10">
         <v>2042</v>
       </c>
@@ -9330,11 +8882,14 @@
       <c r="I40" s="10">
         <v>0</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="32">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10">
         <v>2013</v>
       </c>
     </row>
-    <row r="41" ht="40.5" spans="1:10">
+    <row r="41" spans="1:11" ht="40.5">
       <c r="A41" s="10">
         <v>2140</v>
       </c>
@@ -9362,11 +8917,14 @@
       <c r="I41" s="10">
         <v>15</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="32">
+        <v>125</v>
+      </c>
+      <c r="K41" s="10">
         <v>2111</v>
       </c>
     </row>
-    <row r="42" ht="27" spans="1:10">
+    <row r="42" spans="1:11" ht="27">
       <c r="A42" s="10">
         <v>2141</v>
       </c>
@@ -9394,11 +8952,14 @@
       <c r="I42" s="15">
         <v>0</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="10">
         <v>2112</v>
       </c>
     </row>
-    <row r="43" ht="27" spans="1:10">
+    <row r="43" spans="1:11" ht="27">
       <c r="A43" s="10">
         <v>2240</v>
       </c>
@@ -9426,11 +8987,14 @@
       <c r="I43" s="10">
         <v>38</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="32">
+        <v>133</v>
+      </c>
+      <c r="K43" s="10">
         <v>2211</v>
       </c>
     </row>
-    <row r="44" ht="27" spans="1:10">
+    <row r="44" spans="1:11" ht="27">
       <c r="A44" s="10">
         <v>2241</v>
       </c>
@@ -9458,11 +9022,14 @@
       <c r="I44" s="15">
         <v>0</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="10">
         <v>2212</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="13"/>
@@ -9473,8 +9040,9 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>4001</v>
       </c>
@@ -9502,11 +9070,11 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>4001</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>4005</v>
       </c>
@@ -9514,11 +9082,12 @@
         <v>441</v>
       </c>
       <c r="I47" s="17"/>
-      <c r="J47">
+      <c r="J47" s="17"/>
+      <c r="K47">
         <v>4005</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>4006</v>
       </c>
@@ -9526,11 +9095,12 @@
         <v>442</v>
       </c>
       <c r="I48" s="17"/>
-      <c r="J48">
+      <c r="J48" s="17"/>
+      <c r="K48">
         <v>4006</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:10">
+    <row r="49" spans="1:11" ht="14.25">
       <c r="A49">
         <v>4007</v>
       </c>
@@ -9541,11 +9111,12 @@
         <v>444</v>
       </c>
       <c r="I49" s="17"/>
-      <c r="J49">
+      <c r="J49" s="17"/>
+      <c r="K49">
         <v>4007</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:10">
+    <row r="50" spans="1:11" ht="14.25">
       <c r="A50">
         <v>4008</v>
       </c>
@@ -9555,13 +9126,13 @@
       <c r="C50" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>4008</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -2301,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7555,8 +7555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7742,7 +7742,7 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>2001</v>
@@ -7777,7 +7777,7 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>2101</v>
@@ -7812,7 +7812,7 @@
         <v>12</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K7">
         <v>2201</v>
@@ -7851,7 +7851,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="32">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>2002</v>
@@ -7886,7 +7886,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="32">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K10">
         <v>2003</v>
@@ -7921,7 +7921,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="32">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>2004</v>
@@ -7991,7 +7991,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="32">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K13">
         <v>2102</v>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="32">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K14">
         <v>2103</v>
@@ -8061,7 +8061,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="32">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K15">
         <v>2104</v>
@@ -8131,7 +8131,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="32">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K17">
         <v>2202</v>
@@ -8166,7 +8166,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="32">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K18">
         <v>2203</v>
@@ -8275,7 +8275,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="32">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K22">
         <v>2006</v>
@@ -8310,7 +8310,7 @@
         <v>6</v>
       </c>
       <c r="J23" s="32">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K23">
         <v>2007</v>
@@ -8351,7 +8351,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="40.5">
+    <row r="25" spans="1:11" ht="27">
       <c r="A25" s="10">
         <v>2033</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>8</v>
       </c>
       <c r="J27" s="32">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="K27" s="10">
         <v>2106</v>
@@ -8526,7 +8526,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="40.5">
+    <row r="30" spans="1:11" ht="27">
       <c r="A30" s="10">
         <v>2133</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="32">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="K30" s="10">
         <v>2109</v>
@@ -8590,7 +8590,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="32">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="K31" s="10">
         <v>2110</v>
@@ -8625,7 +8625,7 @@
         <v>12</v>
       </c>
       <c r="J32" s="32">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="K32" s="10">
         <v>2206</v>
@@ -8660,7 +8660,7 @@
         <v>19</v>
       </c>
       <c r="J33" s="32">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K33" s="10">
         <v>2207</v>
@@ -8730,7 +8730,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="32">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K35" s="10">
         <v>2209</v>
@@ -8819,7 +8819,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="31.5">
+    <row r="39" spans="1:11" ht="30">
       <c r="A39" s="10">
         <v>2041</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="40.5">
+    <row r="41" spans="1:11" ht="27">
       <c r="A41" s="10">
         <v>2140</v>
       </c>
@@ -9053,10 +9053,10 @@
         <v>440</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="F46">
         <v>100</v>
@@ -9069,6 +9069,9 @@
       </c>
       <c r="I46">
         <v>0</v>
+      </c>
+      <c r="J46" s="10">
+        <v>5</v>
       </c>
       <c r="K46">
         <v>4001</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="Weapon" sheetId="2" r:id="rId2"/>
     <sheet name="Magic" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="453">
   <si>
     <t>物品ID</t>
   </si>
@@ -79,6 +79,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>将武器强化至</t>
@@ -102,6 +103,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>将武器强化至</t>
@@ -125,6 +127,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>将武器强化至</t>
@@ -148,6 +151,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>将武器强化至</t>
@@ -171,6 +175,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>将武器强化至</t>
@@ -194,6 +199,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>允许合成</t>
@@ -212,6 +218,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>法术</t>
@@ -226,6 +233,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>允许合成</t>
@@ -244,6 +252,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>法术</t>
@@ -258,6 +267,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>允许合成</t>
@@ -276,6 +286,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>法术</t>
@@ -1039,9 +1050,6 @@
   </si>
   <si>
     <t>狙击弩</t>
-  </si>
-  <si>
-    <t>势大力沉的重型弩炮。在与野兽的战斗中很少有人使用远程武器，因为一旦被敌人接近将造成不可挽回的后果。但如果能在远处就直接安全地干掉敌人，何乐而不为呢？</t>
   </si>
   <si>
     <t>1511</t>
@@ -1475,6 +1483,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掌握了秘术【灵爆】的标识。这一秘术是灵气大师</t>
@@ -1493,6 +1502,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>尔尼</t>
@@ -1511,6 +1521,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>毕生的研究成果，威力无穷。</t>
@@ -1596,90 +1607,31 @@
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>攻击期望</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度期望</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合实力</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>势大力沉的重型弩炮。在与野兽的战斗中很少有人使用远程武器，因为一旦被敌人接近将造成不可挽回的后果。但这种弩的发明，使得人们可以在远处就可以较为安全地将兽们轰杀至渣。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1694,7 +1646,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1727,7 +1772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1809,6 +1854,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2299,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q176"/>
+  <dimension ref="A1:U176"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2322,10 +2375,10 @@
     <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="17" max="18" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2430,17 @@
       <c r="Q1" s="25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="27">
+      <c r="S1" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="27">
       <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
@@ -2431,7 +2493,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:21">
       <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
@@ -2484,7 +2546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+    <row r="4" spans="1:21" ht="15" customHeight="1">
       <c r="A4" s="19">
         <v>1000</v>
       </c>
@@ -2537,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:21">
       <c r="A5" s="21">
         <v>1100</v>
       </c>
@@ -2583,8 +2645,21 @@
       <c r="Q5" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="24"/>
+      <c r="S5" s="35">
+        <f>(D5+E5)/2 * (1 + G5 /100) * F5 / 100</f>
+        <v>6.9300000000000015</v>
+      </c>
+      <c r="T5" s="35">
+        <f>H5 + I5*5</f>
+        <v>160</v>
+      </c>
+      <c r="U5" s="33">
+        <f>S5*T5 / 100</f>
+        <v>11.088000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="21" t="s">
         <v>68</v>
       </c>
@@ -2630,8 +2705,21 @@
       <c r="Q6" s="24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="24"/>
+      <c r="S6" s="35">
+        <f t="shared" ref="S6:S69" si="0">(D6+E6)/2 * (1 + G6 /100) * F6 / 100</f>
+        <v>20.978999999999999</v>
+      </c>
+      <c r="T6" s="35">
+        <f t="shared" ref="T6:T69" si="1">H6 + I6*5</f>
+        <v>160</v>
+      </c>
+      <c r="U6" s="33">
+        <f t="shared" ref="U6:U69" si="2">S6*T6 / 100</f>
+        <v>33.566400000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="21" t="s">
         <v>75</v>
       </c>
@@ -2677,8 +2765,21 @@
       <c r="Q7" s="24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="24"/>
+      <c r="S7" s="35">
+        <f t="shared" si="0"/>
+        <v>35.28</v>
+      </c>
+      <c r="T7" s="35">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="U7" s="33">
+        <f t="shared" si="2"/>
+        <v>56.448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="21" t="s">
         <v>80</v>
       </c>
@@ -2724,8 +2825,21 @@
       <c r="Q8" s="24" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="24"/>
+      <c r="S8" s="35">
+        <f t="shared" si="0"/>
+        <v>56.951999999999998</v>
+      </c>
+      <c r="T8" s="35">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="U8" s="33">
+        <f t="shared" si="2"/>
+        <v>91.123199999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="21" t="s">
         <v>86</v>
       </c>
@@ -2771,8 +2885,21 @@
       <c r="Q9" s="24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="24"/>
+      <c r="S9" s="35">
+        <f t="shared" si="0"/>
+        <v>79.00200000000001</v>
+      </c>
+      <c r="T9" s="35">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="U9" s="33">
+        <f t="shared" si="2"/>
+        <v>126.40320000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="21" t="s">
         <v>92</v>
       </c>
@@ -2818,8 +2945,21 @@
       <c r="Q10" s="24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="24"/>
+      <c r="S10" s="35">
+        <f t="shared" si="0"/>
+        <v>108.67499999999998</v>
+      </c>
+      <c r="T10" s="35">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="U10" s="33">
+        <f t="shared" si="2"/>
+        <v>173.87999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
@@ -2837,8 +2977,21 @@
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="24"/>
+      <c r="S11" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="21">
         <v>1110</v>
       </c>
@@ -2880,8 +3033,21 @@
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="24"/>
+      <c r="S12" s="35">
+        <f t="shared" si="0"/>
+        <v>11.483999999999998</v>
+      </c>
+      <c r="T12" s="35">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="U12" s="33">
+        <f t="shared" si="2"/>
+        <v>19.522799999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="21" t="s">
         <v>99</v>
       </c>
@@ -2923,8 +3089,21 @@
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="24"/>
+      <c r="S13" s="35">
+        <f t="shared" si="0"/>
+        <v>34.451999999999998</v>
+      </c>
+      <c r="T13" s="35">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="U13" s="33">
+        <f t="shared" si="2"/>
+        <v>60.290999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="21" t="s">
         <v>101</v>
       </c>
@@ -2966,8 +3145,21 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="24"/>
+      <c r="S14" s="35">
+        <f t="shared" si="0"/>
+        <v>57.419999999999987</v>
+      </c>
+      <c r="T14" s="35">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="U14" s="33">
+        <f t="shared" si="2"/>
+        <v>103.35599999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="21" t="s">
         <v>104</v>
       </c>
@@ -3009,8 +3201,21 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="24"/>
+      <c r="S15" s="35">
+        <f t="shared" si="0"/>
+        <v>91.871999999999986</v>
+      </c>
+      <c r="T15" s="35">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="U15" s="33">
+        <f t="shared" si="2"/>
+        <v>169.96319999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="21" t="s">
         <v>107</v>
       </c>
@@ -3052,8 +3257,21 @@
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="24"/>
+      <c r="S16" s="35">
+        <f t="shared" si="0"/>
+        <v>126.324</v>
+      </c>
+      <c r="T16" s="35">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="U16" s="33">
+        <f t="shared" si="2"/>
+        <v>240.01560000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="21" t="s">
         <v>111</v>
       </c>
@@ -3095,8 +3313,21 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="24"/>
+      <c r="S17" s="35">
+        <f t="shared" si="0"/>
+        <v>172.26</v>
+      </c>
+      <c r="T17" s="35">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="U17" s="33">
+        <f t="shared" si="2"/>
+        <v>335.90699999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -3114,8 +3345,21 @@
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="24"/>
+      <c r="S18" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="21">
         <v>1120</v>
       </c>
@@ -3157,8 +3401,21 @@
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" s="24"/>
+      <c r="S19" s="35">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T19" s="35">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="U19" s="33">
+        <f t="shared" si="2"/>
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="21" t="s">
         <v>118</v>
       </c>
@@ -3200,8 +3457,21 @@
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" s="24"/>
+      <c r="S20" s="35">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+      <c r="T20" s="35">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="U20" s="33">
+        <f t="shared" si="2"/>
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="21" t="s">
         <v>123</v>
       </c>
@@ -3243,8 +3513,21 @@
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" s="24"/>
+      <c r="S21" s="35">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="T21" s="35">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="U21" s="33">
+        <f t="shared" si="2"/>
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="21" t="s">
         <v>127</v>
       </c>
@@ -3286,8 +3569,21 @@
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="24"/>
+      <c r="S22" s="35">
+        <f t="shared" si="0"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="T22" s="35">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="U22" s="33">
+        <f t="shared" si="2"/>
+        <v>86.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="21" t="s">
         <v>130</v>
       </c>
@@ -3329,8 +3625,21 @@
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" s="24"/>
+      <c r="S23" s="35">
+        <f t="shared" si="0"/>
+        <v>50.599999999999994</v>
+      </c>
+      <c r="T23" s="35">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="U23" s="33">
+        <f t="shared" si="2"/>
+        <v>123.96999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="21" t="s">
         <v>135</v>
       </c>
@@ -3372,8 +3681,21 @@
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" s="24"/>
+      <c r="S24" s="35">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="T24" s="35">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="U24" s="33">
+        <f t="shared" si="2"/>
+        <v>175.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -3391,8 +3713,21 @@
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" s="24"/>
+      <c r="S25" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="21" t="s">
         <v>140</v>
       </c>
@@ -3440,8 +3775,21 @@
       </c>
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" s="24"/>
+      <c r="S26" s="35">
+        <f t="shared" si="0"/>
+        <v>12.544</v>
+      </c>
+      <c r="T26" s="35">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="U26" s="33">
+        <f t="shared" si="2"/>
+        <v>19.443200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="21" t="s">
         <v>143</v>
       </c>
@@ -3489,8 +3837,21 @@
       </c>
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" s="24"/>
+      <c r="S27" s="35">
+        <f t="shared" si="0"/>
+        <v>25.088000000000001</v>
+      </c>
+      <c r="T27" s="35">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="U27" s="33">
+        <f t="shared" si="2"/>
+        <v>38.886400000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="21" t="s">
         <v>146</v>
       </c>
@@ -3538,8 +3899,21 @@
       </c>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" s="24"/>
+      <c r="S28" s="35">
+        <f t="shared" si="0"/>
+        <v>50.176000000000002</v>
+      </c>
+      <c r="T28" s="35">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="U28" s="33">
+        <f t="shared" si="2"/>
+        <v>77.772800000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="21" t="s">
         <v>148</v>
       </c>
@@ -3587,8 +3961,21 @@
       </c>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" s="24"/>
+      <c r="S29" s="35">
+        <f t="shared" si="0"/>
+        <v>69.888000000000005</v>
+      </c>
+      <c r="T29" s="35">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="U29" s="33">
+        <f t="shared" si="2"/>
+        <v>108.32640000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="21" t="s">
         <v>152</v>
       </c>
@@ -3636,8 +4023,21 @@
       </c>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" s="24"/>
+      <c r="S30" s="35">
+        <f t="shared" si="0"/>
+        <v>100.352</v>
+      </c>
+      <c r="T30" s="35">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="U30" s="33">
+        <f t="shared" si="2"/>
+        <v>155.54560000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="21" t="s">
         <v>155</v>
       </c>
@@ -3685,8 +4085,21 @@
       </c>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" s="24"/>
+      <c r="S31" s="35">
+        <f t="shared" si="0"/>
+        <v>125.44</v>
+      </c>
+      <c r="T31" s="35">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="U31" s="33">
+        <f t="shared" si="2"/>
+        <v>194.43200000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -3704,8 +4117,21 @@
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" s="24"/>
+      <c r="S32" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="21">
         <v>1210</v>
       </c>
@@ -3747,8 +4173,21 @@
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33" s="24"/>
+      <c r="S33" s="35">
+        <f t="shared" si="0"/>
+        <v>15.3</v>
+      </c>
+      <c r="T33" s="35">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="U33" s="33">
+        <f t="shared" si="2"/>
+        <v>9.9450000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="21" t="s">
         <v>161</v>
       </c>
@@ -3790,8 +4229,21 @@
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34" s="24"/>
+      <c r="S34" s="35">
+        <f t="shared" si="0"/>
+        <v>31.9056</v>
+      </c>
+      <c r="T34" s="35">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="U34" s="33">
+        <f t="shared" si="2"/>
+        <v>20.73864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="21" t="s">
         <v>165</v>
       </c>
@@ -3833,8 +4285,21 @@
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35" s="24"/>
+      <c r="S35" s="35">
+        <f t="shared" si="0"/>
+        <v>66.476799999999997</v>
+      </c>
+      <c r="T35" s="35">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="U35" s="33">
+        <f t="shared" si="2"/>
+        <v>43.209920000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="21" t="s">
         <v>169</v>
       </c>
@@ -3876,8 +4341,21 @@
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" s="24"/>
+      <c r="S36" s="35">
+        <f t="shared" si="0"/>
+        <v>103.79520000000001</v>
+      </c>
+      <c r="T36" s="35">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="U36" s="33">
+        <f t="shared" si="2"/>
+        <v>67.466880000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="21" t="s">
         <v>172</v>
       </c>
@@ -3919,8 +4397,21 @@
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="24"/>
+      <c r="S37" s="35">
+        <f t="shared" si="0"/>
+        <v>143.94239999999999</v>
+      </c>
+      <c r="T37" s="35">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="U37" s="33">
+        <f t="shared" si="2"/>
+        <v>93.562559999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="21" t="s">
         <v>176</v>
       </c>
@@ -3962,8 +4453,21 @@
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38" s="24"/>
+      <c r="S38" s="35">
+        <f t="shared" si="0"/>
+        <v>187.00000000000003</v>
+      </c>
+      <c r="T38" s="35">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="U38" s="33">
+        <f t="shared" si="2"/>
+        <v>121.55000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="23"/>
@@ -3981,8 +4485,21 @@
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39" s="24"/>
+      <c r="S39" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="21">
         <v>1220</v>
       </c>
@@ -4024,8 +4541,21 @@
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40" s="24"/>
+      <c r="S40" s="35">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T40" s="35">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="U40" s="33">
+        <f t="shared" si="2"/>
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="21">
         <v>1300</v>
       </c>
@@ -4071,8 +4601,21 @@
       <c r="Q41" s="24">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41" s="24"/>
+      <c r="S41" s="35">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="T41" s="35">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="U41" s="33">
+        <f t="shared" si="2"/>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="23"/>
@@ -4090,8 +4633,21 @@
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42" s="24"/>
+      <c r="S42" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="21">
         <v>1310</v>
       </c>
@@ -4139,8 +4695,21 @@
       </c>
       <c r="P43" s="24"/>
       <c r="Q43" s="24"/>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43" s="24"/>
+      <c r="S43" s="35">
+        <f t="shared" si="0"/>
+        <v>15.84</v>
+      </c>
+      <c r="T43" s="35">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="U43" s="33">
+        <f t="shared" si="2"/>
+        <v>28.511999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="21" t="s">
         <v>186</v>
       </c>
@@ -4188,8 +4757,21 @@
       </c>
       <c r="P44" s="24"/>
       <c r="Q44" s="24"/>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44" s="24"/>
+      <c r="S44" s="35">
+        <f t="shared" si="0"/>
+        <v>31.68</v>
+      </c>
+      <c r="T44" s="35">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="U44" s="33">
+        <f t="shared" si="2"/>
+        <v>57.023999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="21" t="s">
         <v>188</v>
       </c>
@@ -4237,8 +4819,21 @@
       </c>
       <c r="P45" s="24"/>
       <c r="Q45" s="24"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45" s="24"/>
+      <c r="S45" s="35">
+        <f t="shared" si="0"/>
+        <v>63.36</v>
+      </c>
+      <c r="T45" s="35">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="U45" s="33">
+        <f t="shared" si="2"/>
+        <v>114.04799999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="21" t="s">
         <v>190</v>
       </c>
@@ -4286,8 +4881,21 @@
       </c>
       <c r="P46" s="24"/>
       <c r="Q46" s="24"/>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46" s="24"/>
+      <c r="S46" s="35">
+        <f t="shared" si="0"/>
+        <v>95.04</v>
+      </c>
+      <c r="T46" s="35">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="U46" s="33">
+        <f t="shared" si="2"/>
+        <v>171.072</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="21" t="s">
         <v>192</v>
       </c>
@@ -4335,8 +4943,21 @@
       </c>
       <c r="P47" s="24"/>
       <c r="Q47" s="24"/>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47" s="24"/>
+      <c r="S47" s="35">
+        <f t="shared" si="0"/>
+        <v>126.72</v>
+      </c>
+      <c r="T47" s="35">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="U47" s="33">
+        <f t="shared" si="2"/>
+        <v>228.09599999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="21" t="s">
         <v>194</v>
       </c>
@@ -4384,8 +5005,21 @@
       </c>
       <c r="P48" s="24"/>
       <c r="Q48" s="24"/>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48" s="24"/>
+      <c r="S48" s="35">
+        <f t="shared" si="0"/>
+        <v>158.4</v>
+      </c>
+      <c r="T48" s="35">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="U48" s="33">
+        <f t="shared" si="2"/>
+        <v>285.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="23"/>
@@ -4403,8 +5037,21 @@
       <c r="O49" s="24"/>
       <c r="P49" s="24"/>
       <c r="Q49" s="24"/>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49" s="24"/>
+      <c r="S49" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="21">
         <v>1320</v>
       </c>
@@ -4446,8 +5093,21 @@
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
       <c r="Q50" s="24"/>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50" s="24"/>
+      <c r="S50" s="35">
+        <f t="shared" si="0"/>
+        <v>9.7200000000000024</v>
+      </c>
+      <c r="T50" s="35">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="U50" s="33">
+        <f t="shared" si="2"/>
+        <v>11.664000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="21" t="s">
         <v>198</v>
       </c>
@@ -4489,8 +5149,21 @@
       <c r="O51" s="24"/>
       <c r="P51" s="24"/>
       <c r="Q51" s="24"/>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51" s="24"/>
+      <c r="S51" s="35">
+        <f t="shared" si="0"/>
+        <v>34.335000000000008</v>
+      </c>
+      <c r="T51" s="35">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="U51" s="33">
+        <f t="shared" si="2"/>
+        <v>46.352250000000012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="21" t="s">
         <v>201</v>
       </c>
@@ -4532,8 +5205,21 @@
       <c r="O52" s="24"/>
       <c r="P52" s="24"/>
       <c r="Q52" s="24"/>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52" s="24"/>
+      <c r="S52" s="35">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="T52" s="35">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="U52" s="33">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="21" t="s">
         <v>203</v>
       </c>
@@ -4575,8 +5261,21 @@
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53" s="24"/>
+      <c r="S53" s="35">
+        <f t="shared" si="0"/>
+        <v>104.89500000000002</v>
+      </c>
+      <c r="T53" s="35">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="U53" s="33">
+        <f t="shared" si="2"/>
+        <v>692.30700000000013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="21" t="s">
         <v>206</v>
       </c>
@@ -4618,8 +5317,21 @@
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54" s="24"/>
+      <c r="S54" s="35">
+        <f t="shared" si="0"/>
+        <v>151.20000000000002</v>
+      </c>
+      <c r="T54" s="35">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="U54" s="33">
+        <f t="shared" si="2"/>
+        <v>1088.6400000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="21" t="s">
         <v>209</v>
       </c>
@@ -4661,8 +5373,21 @@
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
       <c r="Q55" s="24"/>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55" s="24"/>
+      <c r="S55" s="35">
+        <f t="shared" si="0"/>
+        <v>205.095</v>
+      </c>
+      <c r="T55" s="35">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+      <c r="U55" s="33">
+        <f t="shared" si="2"/>
+        <v>1599.741</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="23"/>
@@ -4680,8 +5405,21 @@
       <c r="O56" s="24"/>
       <c r="P56" s="24"/>
       <c r="Q56" s="24"/>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56" s="24"/>
+      <c r="S56" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="21">
         <v>1400</v>
       </c>
@@ -4723,8 +5461,21 @@
       <c r="O57" s="24"/>
       <c r="P57" s="24"/>
       <c r="Q57" s="24"/>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57" s="24"/>
+      <c r="S57" s="35">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+      <c r="T57" s="35">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="U57" s="33">
+        <f t="shared" si="2"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="21" t="s">
         <v>215</v>
       </c>
@@ -4766,8 +5517,21 @@
       <c r="O58" s="24"/>
       <c r="P58" s="24"/>
       <c r="Q58" s="24"/>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58" s="24"/>
+      <c r="S58" s="35">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+      <c r="T58" s="35">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="U58" s="33">
+        <f t="shared" si="2"/>
+        <v>64.349999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="21" t="s">
         <v>218</v>
       </c>
@@ -4809,8 +5573,21 @@
       <c r="O59" s="24"/>
       <c r="P59" s="24"/>
       <c r="Q59" s="24"/>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59" s="24"/>
+      <c r="S59" s="35">
+        <f t="shared" si="0"/>
+        <v>69.300000000000011</v>
+      </c>
+      <c r="T59" s="35">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="U59" s="33">
+        <f t="shared" si="2"/>
+        <v>103.95000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="21" t="s">
         <v>220</v>
       </c>
@@ -4852,8 +5629,21 @@
       <c r="O60" s="24"/>
       <c r="P60" s="24"/>
       <c r="Q60" s="24"/>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60" s="24"/>
+      <c r="S60" s="35">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="T60" s="35">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="U60" s="33">
+        <f t="shared" si="2"/>
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="21" t="s">
         <v>223</v>
       </c>
@@ -4895,8 +5685,21 @@
       <c r="O61" s="24"/>
       <c r="P61" s="24"/>
       <c r="Q61" s="24"/>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61" s="24"/>
+      <c r="S61" s="35">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="T61" s="35">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="U61" s="33">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="21" t="s">
         <v>227</v>
       </c>
@@ -4938,8 +5741,21 @@
       <c r="O62" s="24"/>
       <c r="P62" s="24"/>
       <c r="Q62" s="24"/>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62" s="24"/>
+      <c r="S62" s="35">
+        <f t="shared" si="0"/>
+        <v>168.30000000000004</v>
+      </c>
+      <c r="T62" s="35">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="U62" s="33">
+        <f t="shared" si="2"/>
+        <v>252.45000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="23"/>
@@ -4957,8 +5773,21 @@
       <c r="O63" s="24"/>
       <c r="P63" s="24"/>
       <c r="Q63" s="24"/>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63" s="24"/>
+      <c r="S63" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="21">
         <v>1410</v>
       </c>
@@ -5000,8 +5829,21 @@
       <c r="O64" s="24"/>
       <c r="P64" s="24"/>
       <c r="Q64" s="24"/>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64" s="24"/>
+      <c r="S64" s="35">
+        <f t="shared" si="0"/>
+        <v>24.975000000000005</v>
+      </c>
+      <c r="T64" s="35">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="U64" s="33">
+        <f t="shared" si="2"/>
+        <v>42.45750000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="21" t="s">
         <v>232</v>
       </c>
@@ -5043,8 +5885,21 @@
       <c r="O65" s="24"/>
       <c r="P65" s="24"/>
       <c r="Q65" s="24"/>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65" s="24"/>
+      <c r="S65" s="35">
+        <f t="shared" si="0"/>
+        <v>49.95000000000001</v>
+      </c>
+      <c r="T65" s="35">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="U65" s="33">
+        <f t="shared" si="2"/>
+        <v>89.910000000000025</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="21" t="s">
         <v>235</v>
       </c>
@@ -5086,8 +5941,21 @@
       <c r="O66" s="24"/>
       <c r="P66" s="24"/>
       <c r="Q66" s="24"/>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66" s="24"/>
+      <c r="S66" s="35">
+        <f t="shared" si="0"/>
+        <v>74.925000000000011</v>
+      </c>
+      <c r="T66" s="35">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="U66" s="33">
+        <f t="shared" si="2"/>
+        <v>142.35750000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="21" t="s">
         <v>239</v>
       </c>
@@ -5129,8 +5997,21 @@
       <c r="O67" s="24"/>
       <c r="P67" s="24"/>
       <c r="Q67" s="24"/>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67" s="24"/>
+      <c r="S67" s="35">
+        <f t="shared" si="0"/>
+        <v>99.90000000000002</v>
+      </c>
+      <c r="T67" s="35">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="U67" s="33">
+        <f t="shared" si="2"/>
+        <v>199.80000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="21" t="s">
         <v>242</v>
       </c>
@@ -5172,8 +6053,21 @@
       <c r="O68" s="24"/>
       <c r="P68" s="24"/>
       <c r="Q68" s="24"/>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68" s="24"/>
+      <c r="S68" s="35">
+        <f t="shared" si="0"/>
+        <v>124.875</v>
+      </c>
+      <c r="T68" s="35">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="U68" s="33">
+        <f t="shared" si="2"/>
+        <v>262.23750000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="21" t="s">
         <v>245</v>
       </c>
@@ -5215,8 +6109,21 @@
       <c r="O69" s="24"/>
       <c r="P69" s="24"/>
       <c r="Q69" s="24"/>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69" s="24"/>
+      <c r="S69" s="35">
+        <f t="shared" si="0"/>
+        <v>149.85000000000002</v>
+      </c>
+      <c r="T69" s="35">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="U69" s="33">
+        <f t="shared" si="2"/>
+        <v>329.67000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="21"/>
       <c r="B70" s="24"/>
       <c r="C70" s="22"/>
@@ -5234,8 +6141,21 @@
       <c r="O70" s="24"/>
       <c r="P70" s="24"/>
       <c r="Q70" s="24"/>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70" s="24"/>
+      <c r="S70" s="35">
+        <f t="shared" ref="S70:S115" si="3">(D70+E70)/2 * (1 + G70 /100) * F70 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="T70" s="35">
+        <f t="shared" ref="T70:T115" si="4">H70 + I70*5</f>
+        <v>0</v>
+      </c>
+      <c r="U70" s="33">
+        <f t="shared" ref="U70:U115" si="5">S70*T70 / 100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="21">
         <v>1420</v>
       </c>
@@ -5277,8 +6197,21 @@
       <c r="O71" s="24"/>
       <c r="P71" s="24"/>
       <c r="Q71" s="24"/>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71" s="24"/>
+      <c r="S71" s="35">
+        <f t="shared" si="3"/>
+        <v>22.440000000000005</v>
+      </c>
+      <c r="T71" s="35">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="U71" s="33">
+        <f t="shared" si="5"/>
+        <v>33.660000000000011</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="21" t="s">
         <v>252</v>
       </c>
@@ -5320,8 +6253,21 @@
       <c r="O72" s="24"/>
       <c r="P72" s="24"/>
       <c r="Q72" s="24"/>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72" s="24"/>
+      <c r="S72" s="35">
+        <f t="shared" si="3"/>
+        <v>44.88000000000001</v>
+      </c>
+      <c r="T72" s="35">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="U72" s="33">
+        <f t="shared" si="5"/>
+        <v>69.564000000000021</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="21" t="s">
         <v>255</v>
       </c>
@@ -5363,8 +6309,21 @@
       <c r="O73" s="24"/>
       <c r="P73" s="24"/>
       <c r="Q73" s="24"/>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73" s="24"/>
+      <c r="S73" s="35">
+        <f t="shared" si="3"/>
+        <v>64.02</v>
+      </c>
+      <c r="T73" s="35">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="U73" s="33">
+        <f t="shared" si="5"/>
+        <v>102.43199999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="21" t="s">
         <v>258</v>
       </c>
@@ -5406,8 +6365,21 @@
       <c r="O74" s="24"/>
       <c r="P74" s="24"/>
       <c r="Q74" s="24"/>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74" s="24"/>
+      <c r="S74" s="35">
+        <f t="shared" si="3"/>
+        <v>89.760000000000019</v>
+      </c>
+      <c r="T74" s="35">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="U74" s="33">
+        <f t="shared" si="5"/>
+        <v>148.10400000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="21" t="s">
         <v>261</v>
       </c>
@@ -5449,8 +6421,21 @@
       <c r="O75" s="24"/>
       <c r="P75" s="24"/>
       <c r="Q75" s="24"/>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75" s="24"/>
+      <c r="S75" s="35">
+        <f t="shared" si="3"/>
+        <v>112.20000000000002</v>
+      </c>
+      <c r="T75" s="35">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="U75" s="33">
+        <f t="shared" si="5"/>
+        <v>190.74000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" s="21" t="s">
         <v>263</v>
       </c>
@@ -5492,8 +6477,21 @@
       <c r="O76" s="24"/>
       <c r="P76" s="24"/>
       <c r="Q76" s="24"/>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76" s="24"/>
+      <c r="S76" s="35">
+        <f t="shared" si="3"/>
+        <v>134.63999999999999</v>
+      </c>
+      <c r="T76" s="35">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="U76" s="33">
+        <f t="shared" si="5"/>
+        <v>235.61999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -5511,8 +6509,21 @@
       <c r="O77" s="24"/>
       <c r="P77" s="24"/>
       <c r="Q77" s="24"/>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77" s="24"/>
+      <c r="S77" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="21">
         <v>1500</v>
       </c>
@@ -5554,8 +6565,21 @@
       <c r="O78" s="24"/>
       <c r="P78" s="24"/>
       <c r="Q78" s="24"/>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78" s="24"/>
+      <c r="S78" s="35">
+        <f t="shared" si="3"/>
+        <v>15.540000000000003</v>
+      </c>
+      <c r="T78" s="35">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="U78" s="33">
+        <f t="shared" si="5"/>
+        <v>17.871000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="21" t="s">
         <v>268</v>
       </c>
@@ -5597,8 +6621,21 @@
       <c r="O79" s="24"/>
       <c r="P79" s="24"/>
       <c r="Q79" s="24"/>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79" s="24"/>
+      <c r="S79" s="35">
+        <f t="shared" si="3"/>
+        <v>40.359600000000007</v>
+      </c>
+      <c r="T79" s="35">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="U79" s="33">
+        <f t="shared" si="5"/>
+        <v>47.220732000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="21" t="s">
         <v>272</v>
       </c>
@@ -5640,8 +6677,21 @@
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
       <c r="Q80" s="24"/>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80" s="24"/>
+      <c r="S80" s="35">
+        <f t="shared" si="3"/>
+        <v>65.712000000000003</v>
+      </c>
+      <c r="T80" s="35">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="U80" s="33">
+        <f t="shared" si="5"/>
+        <v>78.197280000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="21" t="s">
         <v>275</v>
       </c>
@@ -5683,8 +6733,21 @@
       <c r="O81" s="24"/>
       <c r="P81" s="24"/>
       <c r="Q81" s="24"/>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81" s="24"/>
+      <c r="S81" s="35">
+        <f t="shared" si="3"/>
+        <v>87.399999999999977</v>
+      </c>
+      <c r="T81" s="35">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="U81" s="33">
+        <f t="shared" si="5"/>
+        <v>105.75399999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="21" t="s">
         <v>278</v>
       </c>
@@ -5726,8 +6789,21 @@
       <c r="O82" s="24"/>
       <c r="P82" s="24"/>
       <c r="Q82" s="24"/>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82" s="24"/>
+      <c r="S82" s="35">
+        <f t="shared" si="3"/>
+        <v>117.05849999999998</v>
+      </c>
+      <c r="T82" s="35">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="U82" s="33">
+        <f t="shared" si="5"/>
+        <v>143.98195499999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="21" t="s">
         <v>282</v>
       </c>
@@ -5769,8 +6845,21 @@
       <c r="O83" s="24"/>
       <c r="P83" s="24"/>
       <c r="Q83" s="24"/>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83" s="24"/>
+      <c r="S83" s="35">
+        <f t="shared" si="3"/>
+        <v>147.19999999999999</v>
+      </c>
+      <c r="T83" s="35">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="U83" s="33">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="21"/>
       <c r="B84" s="24"/>
       <c r="C84" s="23"/>
@@ -5788,8 +6877,21 @@
       <c r="O84" s="24"/>
       <c r="P84" s="24"/>
       <c r="Q84" s="24"/>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84" s="24"/>
+      <c r="S84" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="21">
         <v>1510</v>
       </c>
@@ -5797,7 +6899,7 @@
         <v>284</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>285</v>
+        <v>452</v>
       </c>
       <c r="D85" s="21">
         <v>20</v>
@@ -5831,16 +6933,29 @@
       <c r="O85" s="24"/>
       <c r="P85" s="24"/>
       <c r="Q85" s="24"/>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85" s="24"/>
+      <c r="S85" s="35">
+        <f t="shared" si="3"/>
+        <v>28.249999999999996</v>
+      </c>
+      <c r="T85" s="35">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="U85" s="33">
+        <f t="shared" si="5"/>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B86" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B86" s="21" t="s">
-        <v>287</v>
-      </c>
       <c r="C86" s="22" t="s">
-        <v>285</v>
+        <v>452</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>103</v>
@@ -5874,16 +6989,29 @@
       <c r="O86" s="24"/>
       <c r="P86" s="24"/>
       <c r="Q86" s="24"/>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86" s="24"/>
+      <c r="S86" s="35">
+        <f t="shared" si="3"/>
+        <v>70.625</v>
+      </c>
+      <c r="T86" s="35">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="U86" s="33">
+        <f t="shared" si="5"/>
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B87" s="21" t="s">
-        <v>289</v>
-      </c>
       <c r="C87" s="22" t="s">
-        <v>285</v>
+        <v>452</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>106</v>
@@ -5917,16 +7045,29 @@
       <c r="O87" s="24"/>
       <c r="P87" s="24"/>
       <c r="Q87" s="24"/>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87" s="24"/>
+      <c r="S87" s="35">
+        <f t="shared" si="3"/>
+        <v>112.99999999999999</v>
+      </c>
+      <c r="T87" s="35">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="U87" s="33">
+        <f t="shared" si="5"/>
+        <v>135.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B88" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="B88" s="21" t="s">
-        <v>291</v>
-      </c>
       <c r="C88" s="22" t="s">
-        <v>285</v>
+        <v>452</v>
       </c>
       <c r="D88" s="21" t="s">
         <v>179</v>
@@ -5960,22 +7101,35 @@
       <c r="O88" s="24"/>
       <c r="P88" s="24"/>
       <c r="Q88" s="24"/>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88" s="24"/>
+      <c r="S88" s="35">
+        <f t="shared" si="3"/>
+        <v>141.25</v>
+      </c>
+      <c r="T88" s="35">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="U88" s="33">
+        <f t="shared" si="5"/>
+        <v>197.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B89" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B89" s="21" t="s">
-        <v>293</v>
-      </c>
       <c r="C89" s="22" t="s">
-        <v>285</v>
+        <v>452</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>212</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F89" s="21">
         <v>100</v>
@@ -6003,16 +7157,29 @@
       <c r="O89" s="24"/>
       <c r="P89" s="24"/>
       <c r="Q89" s="24"/>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89" s="24"/>
+      <c r="S89" s="35">
+        <f t="shared" si="3"/>
+        <v>183.62499999999997</v>
+      </c>
+      <c r="T89" s="35">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="U89" s="33">
+        <f t="shared" si="5"/>
+        <v>257.07499999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B90" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="B90" s="21" t="s">
-        <v>296</v>
-      </c>
       <c r="C90" s="22" t="s">
-        <v>285</v>
+        <v>452</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>157</v>
@@ -6046,8 +7213,21 @@
       <c r="O90" s="24"/>
       <c r="P90" s="24"/>
       <c r="Q90" s="24"/>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90" s="24"/>
+      <c r="S90" s="35">
+        <f t="shared" si="3"/>
+        <v>225.99999999999997</v>
+      </c>
+      <c r="T90" s="35">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="U90" s="33">
+        <f t="shared" si="5"/>
+        <v>316.39999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -6065,16 +7245,29 @@
       <c r="O91" s="24"/>
       <c r="P91" s="24"/>
       <c r="Q91" s="24"/>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91" s="24"/>
+      <c r="S91" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T91" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="21">
         <v>1520</v>
       </c>
       <c r="B92" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" s="23" t="s">
         <v>297</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>298</v>
       </c>
       <c r="D92" s="21" t="s">
         <v>84</v>
@@ -6097,33 +7290,46 @@
       <c r="J92" s="21">
         <v>1501</v>
       </c>
-      <c r="K92" s="21">
-        <v>1502</v>
-      </c>
-      <c r="L92" s="21">
+      <c r="K92" s="36">
         <v>1506</v>
+      </c>
+      <c r="L92" s="36">
+        <v>1507</v>
       </c>
       <c r="M92" s="21"/>
       <c r="N92" s="21"/>
       <c r="O92" s="24"/>
       <c r="P92" s="24"/>
       <c r="Q92" s="24"/>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92" s="24"/>
+      <c r="S92" s="35">
+        <f t="shared" si="3"/>
+        <v>18.63</v>
+      </c>
+      <c r="T92" s="35">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="U92" s="33">
+        <f t="shared" si="5"/>
+        <v>23.287500000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B93" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="C93" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C93" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="D93" s="21" t="s">
+      <c r="E93" s="21" t="s">
         <v>301</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>302</v>
       </c>
       <c r="F93" s="21">
         <v>90</v>
@@ -6140,27 +7346,40 @@
       <c r="J93" s="21">
         <v>1501</v>
       </c>
-      <c r="K93" s="21">
-        <v>1502</v>
-      </c>
-      <c r="L93" s="21">
+      <c r="K93" s="36">
         <v>1506</v>
+      </c>
+      <c r="L93" s="36">
+        <v>1507</v>
       </c>
       <c r="M93" s="21"/>
       <c r="N93" s="21"/>
       <c r="O93" s="24"/>
       <c r="P93" s="24"/>
       <c r="Q93" s="24"/>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93" s="24"/>
+      <c r="S93" s="35">
+        <f t="shared" si="3"/>
+        <v>50.197499999999998</v>
+      </c>
+      <c r="T93" s="35">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="U93" s="33">
+        <f t="shared" si="5"/>
+        <v>62.746875000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B94" s="21" t="s">
-        <v>304</v>
-      </c>
       <c r="C94" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D94" s="21" t="s">
         <v>217</v>
@@ -6183,33 +7402,46 @@
       <c r="J94" s="21">
         <v>1501</v>
       </c>
-      <c r="K94" s="21">
-        <v>1502</v>
-      </c>
-      <c r="L94" s="21">
+      <c r="K94" s="36">
         <v>1506</v>
+      </c>
+      <c r="L94" s="36">
+        <v>1507</v>
       </c>
       <c r="M94" s="21"/>
       <c r="N94" s="21"/>
       <c r="O94" s="24"/>
       <c r="P94" s="24"/>
       <c r="Q94" s="24"/>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94" s="24"/>
+      <c r="S94" s="35">
+        <f t="shared" si="3"/>
+        <v>81.247499999999988</v>
+      </c>
+      <c r="T94" s="35">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="U94" s="33">
+        <f t="shared" si="5"/>
+        <v>101.55937499999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B95" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="C95" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="C95" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="D95" s="21" t="s">
+      <c r="E95" s="21" t="s">
         <v>307</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>308</v>
       </c>
       <c r="F95" s="21" t="s">
         <v>179</v>
@@ -6226,30 +7458,43 @@
       <c r="J95" s="21">
         <v>1501</v>
       </c>
-      <c r="K95" s="21">
-        <v>1502</v>
-      </c>
-      <c r="L95" s="21">
+      <c r="K95" s="36">
         <v>1506</v>
+      </c>
+      <c r="L95" s="36">
+        <v>1507</v>
       </c>
       <c r="M95" s="21"/>
       <c r="N95" s="21"/>
       <c r="O95" s="24"/>
       <c r="P95" s="24"/>
       <c r="Q95" s="24"/>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="R95" s="24"/>
+      <c r="S95" s="35">
+        <f t="shared" si="3"/>
+        <v>118.44999999999999</v>
+      </c>
+      <c r="T95" s="35">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="U95" s="33">
+        <f t="shared" si="5"/>
+        <v>165.83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="C96" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>310</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>311</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>113</v>
@@ -6269,33 +7514,46 @@
       <c r="J96" s="21">
         <v>1501</v>
       </c>
-      <c r="K96" s="21">
-        <v>1502</v>
-      </c>
-      <c r="L96" s="21">
+      <c r="K96" s="36">
         <v>1506</v>
+      </c>
+      <c r="L96" s="36">
+        <v>1507</v>
       </c>
       <c r="M96" s="21"/>
       <c r="N96" s="21"/>
       <c r="O96" s="24"/>
       <c r="P96" s="24"/>
       <c r="Q96" s="24"/>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="R96" s="24"/>
+      <c r="S96" s="35">
+        <f t="shared" si="3"/>
+        <v>153.52499999999998</v>
+      </c>
+      <c r="T96" s="35">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="U96" s="33">
+        <f t="shared" si="5"/>
+        <v>214.93499999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B97" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="C97" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="D97" s="21" t="s">
+      <c r="E97" s="21" t="s">
         <v>314</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>315</v>
       </c>
       <c r="F97" s="21" t="s">
         <v>179</v>
@@ -6312,19 +7570,32 @@
       <c r="J97" s="21">
         <v>1501</v>
       </c>
-      <c r="K97" s="21">
-        <v>1502</v>
-      </c>
-      <c r="L97" s="21">
+      <c r="K97" s="36">
         <v>1506</v>
+      </c>
+      <c r="L97" s="36">
+        <v>1507</v>
       </c>
       <c r="M97" s="21"/>
       <c r="N97" s="21"/>
       <c r="O97" s="24"/>
       <c r="P97" s="24"/>
       <c r="Q97" s="24"/>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="R97" s="24"/>
+      <c r="S97" s="35">
+        <f t="shared" si="3"/>
+        <v>188.02499999999998</v>
+      </c>
+      <c r="T97" s="35">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="U97" s="33">
+        <f t="shared" si="5"/>
+        <v>263.23499999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="23"/>
@@ -6342,16 +7613,29 @@
       <c r="O98" s="24"/>
       <c r="P98" s="24"/>
       <c r="Q98" s="24"/>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98" s="24"/>
+      <c r="S98" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T98" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" s="21">
         <v>1600</v>
       </c>
       <c r="B99" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>317</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>74</v>
@@ -6385,16 +7669,29 @@
       <c r="O99" s="24"/>
       <c r="P99" s="24"/>
       <c r="Q99" s="24"/>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="R99" s="24"/>
+      <c r="S99" s="35">
+        <f t="shared" si="3"/>
+        <v>6.82</v>
+      </c>
+      <c r="T99" s="35">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="U99" s="33">
+        <f t="shared" si="5"/>
+        <v>9.548</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="B100" s="21" t="s">
-        <v>319</v>
-      </c>
       <c r="C100" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D100" s="21" t="s">
         <v>74</v>
@@ -6428,16 +7725,29 @@
       <c r="O100" s="24"/>
       <c r="P100" s="24"/>
       <c r="Q100" s="24"/>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="R100" s="24"/>
+      <c r="S100" s="35">
+        <f t="shared" si="3"/>
+        <v>15.097500000000002</v>
+      </c>
+      <c r="T100" s="35">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="U100" s="33">
+        <f t="shared" si="5"/>
+        <v>22.042350000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B101" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="B101" s="21" t="s">
-        <v>321</v>
-      </c>
       <c r="C101" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D101" s="21" t="s">
         <v>74</v>
@@ -6452,7 +7762,7 @@
         <v>10</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I101" s="21" t="s">
         <v>121</v>
@@ -6471,16 +7781,29 @@
       <c r="O101" s="24"/>
       <c r="P101" s="24"/>
       <c r="Q101" s="24"/>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="R101" s="24"/>
+      <c r="S101" s="35">
+        <f t="shared" si="3"/>
+        <v>25.024999999999999</v>
+      </c>
+      <c r="T101" s="35">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="U101" s="33">
+        <f t="shared" si="5"/>
+        <v>38.037999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="B102" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B102" s="21" t="s">
-        <v>324</v>
-      </c>
       <c r="C102" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D102" s="21" t="s">
         <v>74</v>
@@ -6514,16 +7837,29 @@
       <c r="O102" s="24"/>
       <c r="P102" s="24"/>
       <c r="Q102" s="24"/>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="R102" s="24"/>
+      <c r="S102" s="35">
+        <f t="shared" si="3"/>
+        <v>36.602500000000006</v>
+      </c>
+      <c r="T102" s="35">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="U102" s="33">
+        <f t="shared" si="5"/>
+        <v>57.831950000000006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B103" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="B103" s="21" t="s">
-        <v>326</v>
-      </c>
       <c r="C103" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>74</v>
@@ -6538,10 +7874,10 @@
         <v>10</v>
       </c>
       <c r="H103" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="I103" s="21" t="s">
         <v>327</v>
-      </c>
-      <c r="I103" s="21" t="s">
-        <v>328</v>
       </c>
       <c r="J103" s="21">
         <v>1601</v>
@@ -6557,16 +7893,29 @@
       <c r="O103" s="24"/>
       <c r="P103" s="24"/>
       <c r="Q103" s="24"/>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="R103" s="24"/>
+      <c r="S103" s="35">
+        <f t="shared" si="3"/>
+        <v>49.830000000000013</v>
+      </c>
+      <c r="T103" s="35">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="U103" s="33">
+        <f t="shared" si="5"/>
+        <v>81.72120000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B104" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="B104" s="21" t="s">
-        <v>330</v>
-      </c>
       <c r="C104" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>74</v>
@@ -6584,7 +7933,7 @@
         <v>106</v>
       </c>
       <c r="I104" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J104" s="21">
         <v>1601</v>
@@ -6600,8 +7949,21 @@
       <c r="O104" s="24"/>
       <c r="P104" s="24"/>
       <c r="Q104" s="24"/>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="R104" s="24"/>
+      <c r="S104" s="35">
+        <f t="shared" si="3"/>
+        <v>69.63000000000001</v>
+      </c>
+      <c r="T104" s="35">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="U104" s="33">
+        <f t="shared" si="5"/>
+        <v>114.88950000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="23"/>
@@ -6619,16 +7981,29 @@
       <c r="O105" s="24"/>
       <c r="P105" s="24"/>
       <c r="Q105" s="24"/>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="R105" s="24"/>
+      <c r="S105" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T105" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U105" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" s="21">
         <v>1610</v>
       </c>
       <c r="B106" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C106" s="23" t="s">
         <v>331</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>332</v>
       </c>
       <c r="D106" s="21">
         <v>16</v>
@@ -6662,16 +8037,29 @@
       <c r="O106" s="24"/>
       <c r="P106" s="24"/>
       <c r="Q106" s="24"/>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="R106" s="24"/>
+      <c r="S106" s="35">
+        <f t="shared" si="3"/>
+        <v>11.88</v>
+      </c>
+      <c r="T106" s="35">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="U106" s="33">
+        <f t="shared" si="5"/>
+        <v>18.414000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B107" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="21" t="s">
-        <v>334</v>
-      </c>
       <c r="C107" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D107" s="21" t="s">
         <v>145</v>
@@ -6705,16 +8093,29 @@
       <c r="O107" s="24"/>
       <c r="P107" s="24"/>
       <c r="Q107" s="24"/>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="R107" s="24"/>
+      <c r="S107" s="35">
+        <f t="shared" si="3"/>
+        <v>24.192000000000004</v>
+      </c>
+      <c r="T107" s="35">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="U107" s="33">
+        <f t="shared" si="5"/>
+        <v>43.545600000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B108" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="B108" s="21" t="s">
-        <v>336</v>
-      </c>
       <c r="C108" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D108" s="21" t="s">
         <v>82</v>
@@ -6748,16 +8149,29 @@
       <c r="O108" s="24"/>
       <c r="P108" s="24"/>
       <c r="Q108" s="24"/>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="R108" s="24"/>
+      <c r="S108" s="35">
+        <f t="shared" si="3"/>
+        <v>36.936000000000007</v>
+      </c>
+      <c r="T108" s="35">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="U108" s="33">
+        <f t="shared" si="5"/>
+        <v>75.718800000000016</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B109" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="B109" s="21" t="s">
-        <v>338</v>
-      </c>
       <c r="C109" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D109" s="21" t="s">
         <v>83</v>
@@ -6791,16 +8205,29 @@
       <c r="O109" s="24"/>
       <c r="P109" s="24"/>
       <c r="Q109" s="24"/>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109" s="24"/>
+      <c r="S109" s="35">
+        <f t="shared" si="3"/>
+        <v>50.111999999999995</v>
+      </c>
+      <c r="T109" s="35">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="U109" s="33">
+        <f t="shared" si="5"/>
+        <v>115.25759999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B110" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B110" s="21" t="s">
-        <v>340</v>
-      </c>
       <c r="C110" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>241</v>
@@ -6818,7 +8245,7 @@
         <v>80</v>
       </c>
       <c r="I110" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J110" s="21">
         <v>1604</v>
@@ -6834,16 +8261,29 @@
       <c r="O110" s="24"/>
       <c r="P110" s="24"/>
       <c r="Q110" s="24"/>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="R110" s="24"/>
+      <c r="S110" s="35">
+        <f t="shared" si="3"/>
+        <v>60.887999999999991</v>
+      </c>
+      <c r="T110" s="35">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="U110" s="33">
+        <f t="shared" si="5"/>
+        <v>155.26439999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B111" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="B111" s="21" t="s">
-        <v>343</v>
-      </c>
       <c r="C111" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D111" s="21" t="s">
         <v>247</v>
@@ -6877,8 +8317,21 @@
       <c r="O111" s="24"/>
       <c r="P111" s="24"/>
       <c r="Q111" s="24"/>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="R111" s="24"/>
+      <c r="S111" s="35">
+        <f t="shared" si="3"/>
+        <v>89.279999999999987</v>
+      </c>
+      <c r="T111" s="35">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="U111" s="33">
+        <f t="shared" si="5"/>
+        <v>249.98399999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="23"/>
@@ -6896,16 +8349,29 @@
       <c r="O112" s="24"/>
       <c r="P112" s="24"/>
       <c r="Q112" s="24"/>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="R112" s="24"/>
+      <c r="S112" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T112" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" s="21">
         <v>1620</v>
       </c>
       <c r="B113" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C113" s="23" t="s">
         <v>344</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>345</v>
       </c>
       <c r="D113" s="21">
         <v>0</v>
@@ -6939,8 +8405,21 @@
       <c r="O113" s="24"/>
       <c r="P113" s="24"/>
       <c r="Q113" s="24"/>
-    </row>
-    <row r="114" spans="1:17">
+      <c r="R113" s="24"/>
+      <c r="S113" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T113" s="35">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="U113" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="23"/>
@@ -6958,16 +8437,29 @@
       <c r="O114" s="24"/>
       <c r="P114" s="24"/>
       <c r="Q114" s="24"/>
-    </row>
-    <row r="115" spans="1:17">
+      <c r="R114" s="24"/>
+      <c r="S114" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T114" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U114" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" s="21">
         <v>3001</v>
       </c>
       <c r="B115" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C115" s="23" t="s">
         <v>346</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>347</v>
       </c>
       <c r="D115" s="21">
         <v>1</v>
@@ -7001,16 +8493,29 @@
       <c r="O115" s="24"/>
       <c r="P115" s="24"/>
       <c r="Q115" s="24"/>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="R115" s="24"/>
+      <c r="S115" s="35">
+        <f t="shared" si="3"/>
+        <v>11.44</v>
+      </c>
+      <c r="T115" s="35">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="U115" s="33">
+        <f t="shared" si="5"/>
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" s="21">
         <v>3002</v>
       </c>
       <c r="B116" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C116" s="23" t="s">
         <v>348</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>349</v>
       </c>
       <c r="D116" s="21">
         <v>25</v>
@@ -7044,16 +8549,17 @@
       <c r="O116" s="24"/>
       <c r="P116" s="24"/>
       <c r="Q116" s="24"/>
-    </row>
-    <row r="117" spans="1:17">
+      <c r="R116" s="24"/>
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" s="24">
         <v>3003</v>
       </c>
       <c r="B117" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" s="23" t="s">
         <v>350</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>351</v>
       </c>
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
@@ -7075,16 +8581,17 @@
       <c r="O117" s="24"/>
       <c r="P117" s="24"/>
       <c r="Q117" s="24"/>
-    </row>
-    <row r="118" spans="1:17">
+      <c r="R117" s="24"/>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="24">
         <v>3004</v>
       </c>
       <c r="B118" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C118" s="23" t="s">
         <v>352</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>353</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
@@ -7102,16 +8609,17 @@
       <c r="O118" s="24"/>
       <c r="P118" s="24"/>
       <c r="Q118" s="24"/>
-    </row>
-    <row r="119" spans="1:17">
+      <c r="R118" s="24"/>
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" s="24">
         <v>3005</v>
       </c>
       <c r="B119" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" s="23" t="s">
         <v>354</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>355</v>
       </c>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
@@ -7133,8 +8641,9 @@
       <c r="O119" s="24"/>
       <c r="P119" s="24"/>
       <c r="Q119" s="24"/>
-    </row>
-    <row r="120" spans="1:17">
+      <c r="R119" s="24"/>
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="D120" s="17"/>
@@ -7149,7 +8658,7 @@
       <c r="M120" s="28"/>
       <c r="N120" s="28"/>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:21">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="D121" s="17"/>
@@ -7164,7 +8673,7 @@
       <c r="M121" s="28"/>
       <c r="N121" s="28"/>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:21">
       <c r="A122" s="17"/>
       <c r="B122" s="17"/>
       <c r="D122" s="17"/>
@@ -7179,7 +8688,7 @@
       <c r="M122" s="28"/>
       <c r="N122" s="28"/>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:21">
       <c r="A123" s="17"/>
       <c r="B123" s="26"/>
       <c r="C123" s="27"/>
@@ -7195,7 +8704,7 @@
       <c r="M123" s="28"/>
       <c r="N123" s="28"/>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:21">
       <c r="A124" s="17"/>
       <c r="B124" s="17"/>
       <c r="D124" s="17"/>
@@ -7210,7 +8719,7 @@
       <c r="M124" s="28"/>
       <c r="N124" s="28"/>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:21">
       <c r="A125" s="17"/>
       <c r="B125" s="17"/>
       <c r="D125" s="17"/>
@@ -7225,7 +8734,7 @@
       <c r="M125" s="28"/>
       <c r="N125" s="28"/>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:21">
       <c r="A126" s="17"/>
       <c r="B126" s="17"/>
       <c r="D126" s="17"/>
@@ -7240,7 +8749,7 @@
       <c r="M126" s="28"/>
       <c r="N126" s="28"/>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:21">
       <c r="A127" s="17"/>
       <c r="B127" s="17"/>
       <c r="D127" s="17"/>
@@ -7255,7 +8764,7 @@
       <c r="M127" s="29"/>
       <c r="N127" s="29"/>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:21">
       <c r="A128" s="17"/>
       <c r="B128" s="17"/>
       <c r="D128" s="17"/>
@@ -7553,10 +9062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7571,14 +9080,15 @@
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="9.75" customWidth="1"/>
     <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>34</v>
@@ -7590,25 +9100,34 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="M1" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -7637,13 +9156,13 @@
         <v>54</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -7672,13 +9191,13 @@
         <v>6</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>2000</v>
       </c>
@@ -7686,7 +9205,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -7713,33 +9232,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27">
+    <row r="5" spans="1:15" ht="27">
       <c r="A5">
         <v>2010</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>366</v>
-      </c>
       <c r="D5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>80</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -7747,19 +9266,31 @@
       <c r="K5">
         <v>2001</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="27">
+      <c r="M5">
+        <f>(D5+E5)/2 * (1 + G5 /100) * F5 / 100 - J5</f>
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <f>H5 + I5*5</f>
+        <v>95</v>
+      </c>
+      <c r="O5" s="33">
+        <f t="shared" ref="O5:O43" si="0">M5*N5 / 100</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="27">
       <c r="A6">
         <v>2110</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>368</v>
-      </c>
       <c r="D6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -7768,13 +9299,13 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -7782,16 +9313,28 @@
       <c r="K6">
         <v>2101</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="27">
+      <c r="M6">
+        <f>(D6+E6)/2 * (1 + G6 /100) * F6 / 100 - J6</f>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="N6">
+        <f>H6 + I6*5</f>
+        <v>125</v>
+      </c>
+      <c r="O6" s="33">
+        <f t="shared" si="0"/>
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="27">
       <c r="A7">
         <v>2210</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -7803,13 +9346,13 @@
         <v>90</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>80</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -7817,20 +9360,33 @@
       <c r="K7">
         <v>2201</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7">
+        <f t="shared" ref="M7" si="1">(D7+E7)/2 * (1 + G7 /100) * F7 / 100 - J7</f>
+        <v>10.976000000000001</v>
+      </c>
+      <c r="N7">
+        <f>H7 + I7*5</f>
+        <v>110</v>
+      </c>
+      <c r="O7" s="33">
+        <f t="shared" si="0"/>
+        <v>12.073600000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="27">
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="1:15" ht="27">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="D9">
         <v>75</v>
@@ -7845,10 +9401,10 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" s="32">
         <v>20</v>
@@ -7856,16 +9412,28 @@
       <c r="K9">
         <v>2002</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="27">
+      <c r="M9">
+        <f t="shared" ref="M9" si="2">(D9+E9)/2 * (1 + G9 /100) * F9 / 100 - J9</f>
+        <v>56.56</v>
+      </c>
+      <c r="N9">
+        <f>H9 + I9*5</f>
+        <v>95</v>
+      </c>
+      <c r="O9" s="33">
+        <f t="shared" si="0"/>
+        <v>53.731999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="27">
       <c r="A10">
         <v>2021</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>374</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -7891,16 +9459,28 @@
       <c r="K10">
         <v>2003</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="27">
+      <c r="M10">
+        <f>(D10+E10)/2 * (1 + G10 /100) * F10 / 100 * 2 - J10</f>
+        <v>36.78</v>
+      </c>
+      <c r="N10">
+        <f>H10 + I10*5</f>
+        <v>80</v>
+      </c>
+      <c r="O10" s="33">
+        <f t="shared" si="0"/>
+        <v>29.423999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="27">
       <c r="A11">
         <v>2022</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>376</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -7926,16 +9506,28 @@
       <c r="K11">
         <v>2004</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="27">
+      <c r="M11">
+        <f>(D11+E11)/2 * (1 + G11 /100) * F11 / 100 * 2.5- J11</f>
+        <v>-2.1875</v>
+      </c>
+      <c r="N11">
+        <f>H11 + I11*5</f>
+        <v>170</v>
+      </c>
+      <c r="O11" s="33">
+        <f t="shared" si="0"/>
+        <v>-3.71875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="27">
       <c r="A12">
         <v>2023</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>378</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -7961,16 +9553,17 @@
       <c r="K12">
         <v>2005</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="27">
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:15" ht="27">
       <c r="A13">
         <v>2120</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>380</v>
       </c>
       <c r="D13">
         <v>35</v>
@@ -7996,16 +9589,28 @@
       <c r="K13">
         <v>2102</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="27">
+      <c r="M13">
+        <f t="shared" ref="M13:M15" si="3">(D13+E13)/2 * (1 + G13 /100) * F13 / 100 - J13</f>
+        <v>42.363750000000003</v>
+      </c>
+      <c r="N13">
+        <f>H13 + I13*5</f>
+        <v>135</v>
+      </c>
+      <c r="O13" s="33">
+        <f t="shared" si="0"/>
+        <v>57.191062500000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27">
       <c r="A14">
         <v>2121</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>382</v>
       </c>
       <c r="D14">
         <v>25</v>
@@ -8031,16 +9636,28 @@
       <c r="K14">
         <v>2103</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="27">
+      <c r="M14">
+        <f>(D14+E14)/2 * (1 + G14 /100) * F14 / 100 *2- J14</f>
+        <v>38.25</v>
+      </c>
+      <c r="N14">
+        <f>H14 + I14*5</f>
+        <v>80</v>
+      </c>
+      <c r="O14" s="33">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27">
       <c r="A15">
         <v>2122</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="D15">
         <v>55</v>
@@ -8066,16 +9683,28 @@
       <c r="K15">
         <v>2104</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="27">
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="N15">
+        <f>H15 + I15*5</f>
+        <v>190</v>
+      </c>
+      <c r="O15" s="33">
+        <f t="shared" si="0"/>
+        <v>118.56000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="27">
       <c r="A16">
         <v>2123</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -8101,16 +9730,17 @@
       <c r="K16">
         <v>2105</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="27">
+      <c r="O16" s="33"/>
+    </row>
+    <row r="17" spans="1:15" ht="27">
       <c r="A17">
         <v>2220</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -8136,16 +9766,28 @@
       <c r="K17">
         <v>2202</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="27">
+      <c r="M17">
+        <f t="shared" ref="M17" si="4">(D17+E17)/2 * (1 + G17 /100) * F17 / 100 - J17</f>
+        <v>44.48</v>
+      </c>
+      <c r="N17">
+        <f>H17 + I17*5</f>
+        <v>140</v>
+      </c>
+      <c r="O17" s="33">
+        <f t="shared" si="0"/>
+        <v>62.271999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="27">
       <c r="A18">
         <v>2221</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>389</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>390</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -8171,16 +9813,28 @@
       <c r="K18">
         <v>2203</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="40.5">
+      <c r="M18">
+        <f>(D18+E18)/2 * (1 + G18 /100) * F18 / 100 *2 - J18</f>
+        <v>80.5</v>
+      </c>
+      <c r="N18">
+        <f>H18 + I18*5</f>
+        <v>100</v>
+      </c>
+      <c r="O18" s="33">
+        <f t="shared" si="0"/>
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="40.5">
       <c r="A19">
         <v>2222</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>392</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -8206,16 +9860,17 @@
       <c r="K19">
         <v>2204</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="40.5">
+      <c r="O19" s="33"/>
+    </row>
+    <row r="20" spans="1:15" ht="40.5">
       <c r="A20">
         <v>2223</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>394</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -8241,20 +9896,22 @@
       <c r="K20">
         <v>2205</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="B21" s="8"/>
       <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:11" ht="27">
+      <c r="O21" s="33"/>
+    </row>
+    <row r="22" spans="1:15" ht="27">
       <c r="A22" s="1">
         <v>2030</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>396</v>
       </c>
       <c r="D22">
         <v>120</v>
@@ -8280,16 +9937,28 @@
       <c r="K22">
         <v>2006</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="27">
+      <c r="M22">
+        <f t="shared" ref="M22" si="5">(D22+E22)/2 * (1 + G22 /100) * F22 / 100 - J22</f>
+        <v>49.800000000000011</v>
+      </c>
+      <c r="N22">
+        <f>H22 + I22*5</f>
+        <v>110</v>
+      </c>
+      <c r="O22" s="33">
+        <f t="shared" si="0"/>
+        <v>54.780000000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="27">
       <c r="A23">
         <v>2031</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>397</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>398</v>
       </c>
       <c r="D23">
         <v>90</v>
@@ -8315,16 +9984,28 @@
       <c r="K23">
         <v>2007</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="40.5">
+      <c r="M23">
+        <f>(D23+E23)/2 * (1 + G23 /100) * F23 / 100 *2 - J23</f>
+        <v>70.66</v>
+      </c>
+      <c r="N23">
+        <f>H23 + I23*5</f>
+        <v>80</v>
+      </c>
+      <c r="O23" s="33">
+        <f t="shared" si="0"/>
+        <v>56.527999999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="40.5">
       <c r="A24">
         <v>2032</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>399</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>400</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -8350,16 +10031,17 @@
       <c r="K24">
         <v>2008</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="27">
+      <c r="O24" s="33"/>
+    </row>
+    <row r="25" spans="1:15" ht="27">
       <c r="A25" s="10">
         <v>2033</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>402</v>
       </c>
       <c r="D25" s="10">
         <v>100</v>
@@ -8385,16 +10067,29 @@
       <c r="K25" s="10">
         <v>2009</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="40.5">
+      <c r="L25" s="10"/>
+      <c r="M25">
+        <f>(D25+E25)/2 * (1 + G25 /100) * F25 / 100 * 5 - J25</f>
+        <v>346.875</v>
+      </c>
+      <c r="N25">
+        <f>H25 + I25*5</f>
+        <v>200</v>
+      </c>
+      <c r="O25" s="33">
+        <f t="shared" si="0"/>
+        <v>693.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="40.5">
       <c r="A26" s="10">
         <v>2034</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>403</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>404</v>
       </c>
       <c r="D26" s="10">
         <v>0</v>
@@ -8420,16 +10115,18 @@
       <c r="K26" s="10">
         <v>2010</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="27">
+      <c r="L26" s="10"/>
+      <c r="O26" s="33"/>
+    </row>
+    <row r="27" spans="1:15" ht="27">
       <c r="A27" s="10">
         <v>2130</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>406</v>
       </c>
       <c r="D27" s="10">
         <v>87</v>
@@ -8455,16 +10152,29 @@
       <c r="K27" s="10">
         <v>2106</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="27">
+      <c r="L27" s="10"/>
+      <c r="M27">
+        <f>(D27+E27)/2 * (1 + G27 /100) * F27 / 100 *2 - J27</f>
+        <v>193.48950000000002</v>
+      </c>
+      <c r="N27">
+        <f>H27 + I27*5</f>
+        <v>145</v>
+      </c>
+      <c r="O27" s="33">
+        <f t="shared" si="0"/>
+        <v>280.55977500000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="27">
       <c r="A28" s="10">
         <v>2131</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>407</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>408</v>
       </c>
       <c r="D28" s="10">
         <v>119</v>
@@ -8490,16 +10200,29 @@
       <c r="K28" s="10">
         <v>2107</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="40.5">
+      <c r="L28" s="10"/>
+      <c r="M28">
+        <f>(D28+E28)/2 * (1 + G28 /100) * F28 / 100 - J28</f>
+        <v>62.587500000000006</v>
+      </c>
+      <c r="N28">
+        <f>H28 + I28*5</f>
+        <v>150</v>
+      </c>
+      <c r="O28" s="33">
+        <f t="shared" si="0"/>
+        <v>93.881249999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="40.5">
       <c r="A29" s="10">
         <v>2132</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>410</v>
       </c>
       <c r="D29" s="10">
         <v>0</v>
@@ -8525,16 +10248,18 @@
       <c r="K29" s="10">
         <v>2108</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="27">
+      <c r="L29" s="10"/>
+      <c r="O29" s="33"/>
+    </row>
+    <row r="30" spans="1:15" ht="27">
       <c r="A30" s="10">
         <v>2133</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>411</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>412</v>
       </c>
       <c r="D30" s="10">
         <v>0</v>
@@ -8560,16 +10285,18 @@
       <c r="K30" s="10">
         <v>2109</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="40.5">
+      <c r="L30" s="10"/>
+      <c r="O30" s="33"/>
+    </row>
+    <row r="31" spans="1:15" ht="40.5">
       <c r="A31" s="10">
         <v>2134</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>414</v>
       </c>
       <c r="D31" s="10">
         <v>0</v>
@@ -8595,16 +10322,18 @@
       <c r="K31" s="10">
         <v>2110</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="27">
+      <c r="L31" s="10"/>
+      <c r="O31" s="33"/>
+    </row>
+    <row r="32" spans="1:15" ht="27">
       <c r="A32" s="10">
         <v>2230</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>415</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>416</v>
       </c>
       <c r="D32" s="10">
         <v>99</v>
@@ -8630,16 +10359,29 @@
       <c r="K32" s="10">
         <v>2206</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="27">
+      <c r="L32" s="10"/>
+      <c r="M32">
+        <f>(D32+E32)/2 * (1 + G32 /100) * F32 / 100 *2 - J32</f>
+        <v>188.16800000000001</v>
+      </c>
+      <c r="N32">
+        <f>H32 + I32*5</f>
+        <v>155</v>
+      </c>
+      <c r="O32" s="33">
+        <f t="shared" si="0"/>
+        <v>291.66039999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="27">
       <c r="A33" s="10">
         <v>2231</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>417</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>418</v>
       </c>
       <c r="D33" s="10">
         <v>147</v>
@@ -8665,16 +10407,29 @@
       <c r="K33" s="10">
         <v>2207</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="40.5">
+      <c r="L33" s="10"/>
+      <c r="M33">
+        <f>(D33+E33)/2 * (1 + G33 /100) * F33 / 100 - J33</f>
+        <v>71.680000000000007</v>
+      </c>
+      <c r="N33">
+        <f>H33 + I33*5</f>
+        <v>160</v>
+      </c>
+      <c r="O33" s="33">
+        <f t="shared" si="0"/>
+        <v>114.68800000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="40.5">
       <c r="A34" s="10">
         <v>2232</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>419</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>420</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -8700,16 +10455,18 @@
       <c r="K34" s="10">
         <v>2208</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="27">
+      <c r="L34" s="10"/>
+      <c r="O34" s="33"/>
+    </row>
+    <row r="35" spans="1:15" ht="27">
       <c r="A35" s="10">
         <v>2233</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>422</v>
       </c>
       <c r="D35" s="10">
         <v>255</v>
@@ -8735,16 +10492,29 @@
       <c r="K35" s="10">
         <v>2209</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="40.5">
+      <c r="L35" s="10"/>
+      <c r="M35">
+        <f>(D35+E35)/2 * (1 + G35 /100) * F35 / 100 *2 - J35</f>
+        <v>216.60000000000002</v>
+      </c>
+      <c r="N35">
+        <f>H35 + I35*5</f>
+        <v>260</v>
+      </c>
+      <c r="O35" s="33">
+        <f t="shared" si="0"/>
+        <v>563.16000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="40.5">
       <c r="A36" s="10">
         <v>2234</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>423</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>424</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -8770,8 +10540,10 @@
       <c r="K36" s="10">
         <v>2210</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="10"/>
+      <c r="O36" s="33"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="13"/>
@@ -8783,16 +10555,18 @@
       <c r="I37" s="10"/>
       <c r="J37" s="32"/>
       <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="1:11" ht="27">
+      <c r="L37" s="10"/>
+      <c r="O37" s="33"/>
+    </row>
+    <row r="38" spans="1:15" ht="27">
       <c r="A38" s="10">
         <v>2040</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>426</v>
       </c>
       <c r="D38" s="10">
         <v>200</v>
@@ -8818,16 +10592,29 @@
       <c r="K38" s="10">
         <v>2011</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="30">
+      <c r="L38" s="10"/>
+      <c r="M38">
+        <f>(D38+E38)/2 * (1 + G38 /100) * F38 / 100 - J38</f>
+        <v>75.225000000000023</v>
+      </c>
+      <c r="N38">
+        <f>H38 + I38*5</f>
+        <v>150</v>
+      </c>
+      <c r="O38" s="33">
+        <f t="shared" si="0"/>
+        <v>112.83750000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="30">
       <c r="A39" s="10">
         <v>2041</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>428</v>
       </c>
       <c r="D39" s="10">
         <v>150</v>
@@ -8853,16 +10640,29 @@
       <c r="K39" s="10">
         <v>2012</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="40.5">
+      <c r="L39" s="10"/>
+      <c r="M39">
+        <f>(D39+E39)/2 * (1 + G39 /100) * F39 / 100 *2 - J39</f>
+        <v>120.96000000000004</v>
+      </c>
+      <c r="N39">
+        <f>H39 + I39*5</f>
+        <v>100</v>
+      </c>
+      <c r="O39" s="33">
+        <f t="shared" si="0"/>
+        <v>120.96000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="40.5">
       <c r="A40" s="10">
         <v>2042</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>429</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>430</v>
       </c>
       <c r="D40" s="10">
         <v>0</v>
@@ -8888,16 +10688,18 @@
       <c r="K40" s="10">
         <v>2013</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="27">
+      <c r="L40" s="10"/>
+      <c r="O40" s="33"/>
+    </row>
+    <row r="41" spans="1:15" ht="27">
       <c r="A41" s="10">
         <v>2140</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>431</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>432</v>
       </c>
       <c r="D41" s="10">
         <v>142</v>
@@ -8923,16 +10725,29 @@
       <c r="K41" s="10">
         <v>2111</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="27">
+      <c r="L41" s="10"/>
+      <c r="M41">
+        <f>(D41+E41)/2 * (1 + G41 /100) * F41 / 100 - J41</f>
+        <v>65.179000000000002</v>
+      </c>
+      <c r="N41">
+        <f>H41 + I41*5</f>
+        <v>150</v>
+      </c>
+      <c r="O41" s="33">
+        <f t="shared" si="0"/>
+        <v>97.768500000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="27">
       <c r="A42" s="10">
         <v>2141</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="D42" s="15">
         <v>0</v>
@@ -8958,16 +10773,18 @@
       <c r="K42" s="10">
         <v>2112</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="27">
+      <c r="L42" s="10"/>
+      <c r="O42" s="33"/>
+    </row>
+    <row r="43" spans="1:15" ht="27">
       <c r="A43" s="10">
         <v>2240</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>435</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>436</v>
       </c>
       <c r="D43" s="10">
         <v>176</v>
@@ -8993,16 +10810,29 @@
       <c r="K43" s="10">
         <v>2211</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="27">
+      <c r="L43" s="10"/>
+      <c r="M43">
+        <f>(D43+E43)/2 * (1 + G43 /100) * F43 / 100 - J43</f>
+        <v>40.999999999999972</v>
+      </c>
+      <c r="N43">
+        <f>H43 + I43*5</f>
+        <v>240</v>
+      </c>
+      <c r="O43" s="33">
+        <f t="shared" si="0"/>
+        <v>98.39999999999992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="27">
       <c r="A44" s="10">
         <v>2241</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>437</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>438</v>
       </c>
       <c r="D44" s="15">
         <v>0</v>
@@ -9028,8 +10858,10 @@
       <c r="K44" s="10">
         <v>2212</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="10"/>
+      <c r="O44" s="33"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="13"/>
@@ -9041,16 +10873,17 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>4001</v>
       </c>
       <c r="B46" t="s">
+        <v>438</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>439</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -9077,12 +10910,12 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>4005</v>
       </c>
       <c r="B47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -9090,12 +10923,12 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>4006</v>
       </c>
       <c r="B48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
@@ -9108,10 +10941,10 @@
         <v>4007</v>
       </c>
       <c r="B49" t="s">
+        <v>442</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>443</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>444</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
@@ -9124,10 +10957,10 @@
         <v>4008</v>
       </c>
       <c r="B50" t="s">
+        <v>444</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>445</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>446</v>
       </c>
       <c r="K50">
         <v>4008</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="463">
   <si>
     <t>物品ID</t>
   </si>
@@ -1621,6 +1621,197 @@
   </si>
   <si>
     <t>势大力沉的重型弩炮。在与野兽的战斗中很少有人使用远程武器，因为一旦被敌人接近将造成不可挽回的后果。但这种弩的发明，使得人们可以在远处就可以较为安全地将兽们轰杀至渣。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1772,7 +1963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1861,6 +2052,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2354,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2639,11 +2833,11 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="24"/>
-      <c r="P5" s="24">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>1</v>
+      <c r="P5" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>454</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="35">
@@ -2699,11 +2893,11 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="24"/>
-      <c r="P6" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>74</v>
+      <c r="P6" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>456</v>
       </c>
       <c r="R6" s="24"/>
       <c r="S6" s="35">
@@ -2759,11 +2953,11 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>73</v>
+      <c r="P7" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>457</v>
       </c>
       <c r="R7" s="24"/>
       <c r="S7" s="35">
@@ -2819,11 +3013,11 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="24"/>
-      <c r="P8" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>85</v>
+      <c r="P8" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q8" s="37" t="s">
+        <v>458</v>
       </c>
       <c r="R8" s="24"/>
       <c r="S8" s="35">
@@ -2879,11 +3073,11 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>91</v>
+      <c r="P9" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>459</v>
       </c>
       <c r="R9" s="24"/>
       <c r="S9" s="35">
@@ -2939,11 +3133,11 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="24"/>
-      <c r="P10" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>96</v>
+      <c r="P10" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>460</v>
       </c>
       <c r="R10" s="24"/>
       <c r="S10" s="35">
@@ -3031,8 +3225,12 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
+      <c r="P12" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R12" s="24"/>
       <c r="S12" s="35">
         <f t="shared" si="0"/>
@@ -3087,8 +3285,12 @@
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
+      <c r="P13" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R13" s="24"/>
       <c r="S13" s="35">
         <f t="shared" si="0"/>
@@ -3143,8 +3345,12 @@
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
+      <c r="P14" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R14" s="24"/>
       <c r="S14" s="35">
         <f t="shared" si="0"/>
@@ -3199,8 +3405,12 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
+      <c r="P15" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R15" s="24"/>
       <c r="S15" s="35">
         <f t="shared" si="0"/>
@@ -3255,8 +3465,12 @@
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
+      <c r="P16" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R16" s="24"/>
       <c r="S16" s="35">
         <f t="shared" si="0"/>
@@ -3311,8 +3525,12 @@
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
+      <c r="P17" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q17" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R17" s="24"/>
       <c r="S17" s="35">
         <f t="shared" si="0"/>
@@ -3399,8 +3617,12 @@
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
+      <c r="P19" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q19" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R19" s="24"/>
       <c r="S19" s="35">
         <f t="shared" si="0"/>
@@ -3455,8 +3677,12 @@
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
+      <c r="P20" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q20" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R20" s="24"/>
       <c r="S20" s="35">
         <f t="shared" si="0"/>
@@ -3511,8 +3737,12 @@
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
+      <c r="P21" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q21" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R21" s="24"/>
       <c r="S21" s="35">
         <f t="shared" si="0"/>
@@ -3567,8 +3797,12 @@
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
+      <c r="P22" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q22" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R22" s="24"/>
       <c r="S22" s="35">
         <f t="shared" si="0"/>
@@ -3623,8 +3857,12 @@
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
+      <c r="P23" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R23" s="24"/>
       <c r="S23" s="35">
         <f t="shared" si="0"/>
@@ -3679,8 +3917,12 @@
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
+      <c r="P24" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="R24" s="24"/>
       <c r="S24" s="35">
         <f t="shared" si="0"/>
@@ -9056,7 +9298,7 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:U176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="J19" sqref="J19:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="21">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K19" s="21">
         <v>1105</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="21">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K20" s="21">
         <v>1105</v>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="21">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K21" s="21">
         <v>1105</v>
@@ -3786,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="21">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K22" s="21">
         <v>1105</v>
@@ -3846,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="21">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K23" s="21">
         <v>1105</v>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="21">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K24" s="21">
         <v>1105</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="496">
   <si>
     <t>物品ID</t>
   </si>
@@ -539,9 +539,6 @@
     <t>150</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>冰霜刺剑</t>
   </si>
   <si>
@@ -944,9 +941,6 @@
     <t>192</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>盘古巨斧</t>
   </si>
   <si>
@@ -1178,9 +1172,6 @@
     <t>79</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>1605</t>
   </si>
   <si>
@@ -1217,9 +1208,6 @@
     <t>圣盾之环+4</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>1615</t>
   </si>
   <si>
@@ -1386,9 +1374,6 @@
   </si>
   <si>
     <t>强力灵气弹之书</t>
-  </si>
-  <si>
-    <t>记载着法术【强力灵气弹】的古书。阳炎术是最基础的阳属性法术，利用了世间的阳气之力。</t>
   </si>
   <si>
     <t>灵气共鸣之书</t>
@@ -1813,6 +1798,379 @@
       <t>00</t>
     </r>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>记载着法术【强力灵气弹】的古书。能够制造更大更强的灵气弹。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1963,7 +2321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2055,6 +2413,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2548,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:J24"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2625,13 +2989,13 @@
         <v>48</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="27">
@@ -2818,8 +3182,8 @@
       <c r="H5" s="21">
         <v>150</v>
       </c>
-      <c r="I5" s="21">
-        <v>2</v>
+      <c r="I5" s="38" t="s">
+        <v>462</v>
       </c>
       <c r="J5" s="21">
         <v>1101</v>
@@ -2834,10 +3198,10 @@
       <c r="N5" s="21"/>
       <c r="O5" s="24"/>
       <c r="P5" s="24" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="35">
@@ -2846,11 +3210,11 @@
       </c>
       <c r="T5" s="35">
         <f>H5 + I5*5</f>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="U5" s="33">
         <f>S5*T5 / 100</f>
-        <v>11.088000000000001</v>
+        <v>11.781000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2878,8 +3242,8 @@
       <c r="H6" s="21">
         <v>150</v>
       </c>
-      <c r="I6" s="21">
-        <v>2</v>
+      <c r="I6" s="38" t="s">
+        <v>462</v>
       </c>
       <c r="J6" s="21">
         <v>1101</v>
@@ -2894,10 +3258,10 @@
       <c r="N6" s="21"/>
       <c r="O6" s="24"/>
       <c r="P6" s="37" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="R6" s="24"/>
       <c r="S6" s="35">
@@ -2906,11 +3270,11 @@
       </c>
       <c r="T6" s="35">
         <f t="shared" ref="T6:T69" si="1">H6 + I6*5</f>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="U6" s="33">
         <f t="shared" ref="U6:U69" si="2">S6*T6 / 100</f>
-        <v>33.566400000000002</v>
+        <v>35.664299999999997</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2938,8 +3302,8 @@
       <c r="H7" s="21">
         <v>150</v>
       </c>
-      <c r="I7" s="21">
-        <v>2</v>
+      <c r="I7" s="38" t="s">
+        <v>462</v>
       </c>
       <c r="J7" s="21">
         <v>1101</v>
@@ -2954,10 +3318,10 @@
       <c r="N7" s="21"/>
       <c r="O7" s="24"/>
       <c r="P7" s="37" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q7" s="37" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="R7" s="24"/>
       <c r="S7" s="35">
@@ -2966,11 +3330,11 @@
       </c>
       <c r="T7" s="35">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="U7" s="33">
         <f t="shared" si="2"/>
-        <v>56.448</v>
+        <v>59.976000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2998,8 +3362,8 @@
       <c r="H8" s="21">
         <v>150</v>
       </c>
-      <c r="I8" s="21">
-        <v>2</v>
+      <c r="I8" s="38" t="s">
+        <v>462</v>
       </c>
       <c r="J8" s="21">
         <v>1101</v>
@@ -3014,10 +3378,10 @@
       <c r="N8" s="21"/>
       <c r="O8" s="24"/>
       <c r="P8" s="37" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q8" s="37" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="R8" s="24"/>
       <c r="S8" s="35">
@@ -3026,11 +3390,11 @@
       </c>
       <c r="T8" s="35">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="U8" s="33">
         <f t="shared" si="2"/>
-        <v>91.123199999999997</v>
+        <v>96.818399999999997</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -3058,8 +3422,8 @@
       <c r="H9" s="21">
         <v>150</v>
       </c>
-      <c r="I9" s="21">
-        <v>2</v>
+      <c r="I9" s="38" t="s">
+        <v>462</v>
       </c>
       <c r="J9" s="21">
         <v>1101</v>
@@ -3074,10 +3438,10 @@
       <c r="N9" s="21"/>
       <c r="O9" s="24"/>
       <c r="P9" s="37" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q9" s="37" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="R9" s="24"/>
       <c r="S9" s="35">
@@ -3086,11 +3450,11 @@
       </c>
       <c r="T9" s="35">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="U9" s="33">
         <f t="shared" si="2"/>
-        <v>126.40320000000001</v>
+        <v>134.30340000000001</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -3118,8 +3482,8 @@
       <c r="H10" s="21">
         <v>150</v>
       </c>
-      <c r="I10" s="21">
-        <v>2</v>
+      <c r="I10" s="38" t="s">
+        <v>462</v>
       </c>
       <c r="J10" s="21">
         <v>1101</v>
@@ -3134,10 +3498,10 @@
       <c r="N10" s="21"/>
       <c r="O10" s="24"/>
       <c r="P10" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q10" s="37" t="s">
         <v>455</v>
-      </c>
-      <c r="Q10" s="37" t="s">
-        <v>460</v>
       </c>
       <c r="R10" s="24"/>
       <c r="S10" s="35">
@@ -3146,11 +3510,11 @@
       </c>
       <c r="T10" s="35">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="U10" s="33">
         <f t="shared" si="2"/>
-        <v>173.87999999999997</v>
+        <v>184.74749999999997</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -3210,8 +3574,8 @@
       <c r="H12" s="21">
         <v>160</v>
       </c>
-      <c r="I12" s="21">
-        <v>2</v>
+      <c r="I12" s="38" t="s">
+        <v>463</v>
       </c>
       <c r="J12" s="21">
         <v>1101</v>
@@ -3226,10 +3590,10 @@
       <c r="N12" s="21"/>
       <c r="O12" s="24"/>
       <c r="P12" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R12" s="24"/>
       <c r="S12" s="35">
@@ -3238,11 +3602,11 @@
       </c>
       <c r="T12" s="35">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="U12" s="33">
         <f t="shared" si="2"/>
-        <v>19.522799999999997</v>
+        <v>21.245399999999997</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -3270,8 +3634,8 @@
       <c r="H13" s="21">
         <v>160</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>85</v>
+      <c r="I13" s="38" t="s">
+        <v>463</v>
       </c>
       <c r="J13" s="21">
         <v>1101</v>
@@ -3286,10 +3650,10 @@
       <c r="N13" s="21"/>
       <c r="O13" s="24"/>
       <c r="P13" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R13" s="24"/>
       <c r="S13" s="35">
@@ -3298,11 +3662,11 @@
       </c>
       <c r="T13" s="35">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="U13" s="33">
         <f t="shared" si="2"/>
-        <v>60.290999999999997</v>
+        <v>63.736199999999997</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -3330,8 +3694,8 @@
       <c r="H14" s="21">
         <v>160</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>91</v>
+      <c r="I14" s="38" t="s">
+        <v>463</v>
       </c>
       <c r="J14" s="21">
         <v>1101</v>
@@ -3346,10 +3710,10 @@
       <c r="N14" s="21"/>
       <c r="O14" s="24"/>
       <c r="P14" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="35">
@@ -3358,11 +3722,11 @@
       </c>
       <c r="T14" s="35">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="U14" s="33">
         <f t="shared" si="2"/>
-        <v>103.35599999999998</v>
+        <v>106.22699999999998</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -3390,8 +3754,8 @@
       <c r="H15" s="21">
         <v>160</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>96</v>
+      <c r="I15" s="38" t="s">
+        <v>463</v>
       </c>
       <c r="J15" s="21">
         <v>1101</v>
@@ -3406,10 +3770,10 @@
       <c r="N15" s="21"/>
       <c r="O15" s="24"/>
       <c r="P15" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q15" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R15" s="24"/>
       <c r="S15" s="35">
@@ -3450,8 +3814,8 @@
       <c r="H16" s="21">
         <v>160</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>110</v>
+      <c r="I16" s="38" t="s">
+        <v>464</v>
       </c>
       <c r="J16" s="21">
         <v>1101</v>
@@ -3466,10 +3830,10 @@
       <c r="N16" s="21"/>
       <c r="O16" s="24"/>
       <c r="P16" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R16" s="24"/>
       <c r="S16" s="35">
@@ -3478,11 +3842,11 @@
       </c>
       <c r="T16" s="35">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="U16" s="33">
         <f t="shared" si="2"/>
-        <v>240.01560000000001</v>
+        <v>233.6994</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3510,8 +3874,8 @@
       <c r="H17" s="21">
         <v>160</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>114</v>
+      <c r="I17" s="38" t="s">
+        <v>463</v>
       </c>
       <c r="J17" s="21">
         <v>1101</v>
@@ -3526,10 +3890,10 @@
       <c r="N17" s="21"/>
       <c r="O17" s="24"/>
       <c r="P17" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R17" s="24"/>
       <c r="S17" s="35">
@@ -3538,11 +3902,11 @@
       </c>
       <c r="T17" s="35">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="U17" s="33">
         <f t="shared" si="2"/>
-        <v>335.90699999999998</v>
+        <v>318.68099999999998</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -3582,10 +3946,10 @@
         <v>1120</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>116</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>85</v>
@@ -3600,10 +3964,10 @@
         <v>15</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="21">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>465</v>
       </c>
       <c r="J19" s="21">
         <v>1101</v>
@@ -3618,10 +3982,10 @@
       <c r="N19" s="21"/>
       <c r="O19" s="24"/>
       <c r="P19" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R19" s="24"/>
       <c r="S19" s="35">
@@ -3630,28 +3994,28 @@
       </c>
       <c r="T19" s="35">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="U19" s="33">
         <f t="shared" si="2"/>
-        <v>9.43</v>
+        <v>9.6599999999999984</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="F20" s="21">
         <v>100</v>
@@ -3660,10 +4024,10 @@
         <v>15</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="21">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>465</v>
       </c>
       <c r="J20" s="21">
         <v>1101</v>
@@ -3678,10 +4042,10 @@
       <c r="N20" s="21"/>
       <c r="O20" s="24"/>
       <c r="P20" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R20" s="24"/>
       <c r="S20" s="35">
@@ -3690,28 +4054,28 @@
       </c>
       <c r="T20" s="35">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="U20" s="33">
         <f t="shared" si="2"/>
-        <v>29.67</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="C21" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="F21" s="21">
         <v>100</v>
@@ -3720,10 +4084,10 @@
         <v>15</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="21">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>465</v>
       </c>
       <c r="J21" s="21">
         <v>1101</v>
@@ -3738,10 +4102,10 @@
       <c r="N21" s="21"/>
       <c r="O21" s="24"/>
       <c r="P21" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q21" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R21" s="24"/>
       <c r="S21" s="35">
@@ -3750,22 +4114,22 @@
       </c>
       <c r="T21" s="35">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="U21" s="33">
         <f t="shared" si="2"/>
-        <v>51.75</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>128</v>
-      </c>
       <c r="C22" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>71</v>
@@ -3780,10 +4144,10 @@
         <v>15</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="21">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>465</v>
       </c>
       <c r="J22" s="21">
         <v>1101</v>
@@ -3798,10 +4162,10 @@
       <c r="N22" s="21"/>
       <c r="O22" s="24"/>
       <c r="P22" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R22" s="24"/>
       <c r="S22" s="35">
@@ -3810,28 +4174,28 @@
       </c>
       <c r="T22" s="35">
         <f t="shared" si="1"/>
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="U22" s="33">
         <f t="shared" si="2"/>
-        <v>86.48</v>
+        <v>88.32</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="C23" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="21" t="s">
+      <c r="E23" s="21" t="s">
         <v>132</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>133</v>
       </c>
       <c r="F23" s="21">
         <v>100</v>
@@ -3840,10 +4204,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="21">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>465</v>
       </c>
       <c r="J23" s="21">
         <v>1101</v>
@@ -3858,10 +4222,10 @@
       <c r="N23" s="21"/>
       <c r="O23" s="24"/>
       <c r="P23" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q23" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R23" s="24"/>
       <c r="S23" s="35">
@@ -3870,28 +4234,28 @@
       </c>
       <c r="T23" s="35">
         <f t="shared" si="1"/>
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="U23" s="33">
         <f t="shared" si="2"/>
-        <v>123.96999999999998</v>
+        <v>126.49999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="C24" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="E24" s="21" t="s">
         <v>137</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>138</v>
       </c>
       <c r="F24" s="21">
         <v>100</v>
@@ -3900,10 +4264,10 @@
         <v>15</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I24" s="21">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>465</v>
       </c>
       <c r="J24" s="21">
         <v>1101</v>
@@ -3918,10 +4282,10 @@
       <c r="N24" s="21"/>
       <c r="O24" s="24"/>
       <c r="P24" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q24" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R24" s="24"/>
       <c r="S24" s="35">
@@ -3930,11 +4294,11 @@
       </c>
       <c r="T24" s="35">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="U24" s="33">
         <f t="shared" si="2"/>
-        <v>175.95</v>
+        <v>179.4</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -3971,13 +4335,13 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="C26" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>142</v>
       </c>
       <c r="D26" s="21">
         <v>12</v>
@@ -3994,8 +4358,8 @@
       <c r="H26" s="21">
         <v>120</v>
       </c>
-      <c r="I26" s="21">
-        <v>7</v>
+      <c r="I26" s="38" t="s">
+        <v>468</v>
       </c>
       <c r="J26" s="21">
         <v>1201</v>
@@ -4024,28 +4388,28 @@
       </c>
       <c r="T26" s="35">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="U26" s="33">
         <f t="shared" si="2"/>
-        <v>19.443200000000001</v>
+        <v>20.070399999999999</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="C27" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" s="21">
         <v>80</v>
@@ -4056,8 +4420,8 @@
       <c r="H27" s="21">
         <v>120</v>
       </c>
-      <c r="I27" s="21">
-        <v>7</v>
+      <c r="I27" s="38" t="s">
+        <v>468</v>
       </c>
       <c r="J27" s="21">
         <v>1201</v>
@@ -4086,22 +4450,22 @@
       </c>
       <c r="T27" s="35">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="U27" s="33">
         <f t="shared" si="2"/>
-        <v>38.886400000000002</v>
+        <v>40.140799999999999</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>147</v>
-      </c>
       <c r="C28" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>82</v>
@@ -4118,8 +4482,8 @@
       <c r="H28" s="21">
         <v>120</v>
       </c>
-      <c r="I28" s="21">
-        <v>7</v>
+      <c r="I28" s="38" t="s">
+        <v>468</v>
       </c>
       <c r="J28" s="21">
         <v>1201</v>
@@ -4148,28 +4512,28 @@
       </c>
       <c r="T28" s="35">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="U28" s="33">
         <f t="shared" si="2"/>
-        <v>77.772800000000004</v>
+        <v>80.281599999999997</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="C29" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>151</v>
       </c>
       <c r="F29" s="21">
         <v>80</v>
@@ -4180,8 +4544,8 @@
       <c r="H29" s="21">
         <v>120</v>
       </c>
-      <c r="I29" s="21">
-        <v>7</v>
+      <c r="I29" s="38" t="s">
+        <v>468</v>
       </c>
       <c r="J29" s="21">
         <v>1201</v>
@@ -4210,28 +4574,28 @@
       </c>
       <c r="T29" s="35">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="U29" s="33">
         <f t="shared" si="2"/>
-        <v>108.32640000000001</v>
+        <v>111.82080000000002</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="C30" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>153</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>154</v>
       </c>
       <c r="F30" s="21">
         <v>80</v>
@@ -4242,8 +4606,8 @@
       <c r="H30" s="21">
         <v>120</v>
       </c>
-      <c r="I30" s="21">
-        <v>7</v>
+      <c r="I30" s="38" t="s">
+        <v>468</v>
       </c>
       <c r="J30" s="21">
         <v>1201</v>
@@ -4272,28 +4636,28 @@
       </c>
       <c r="T30" s="35">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="U30" s="33">
         <f t="shared" si="2"/>
-        <v>155.54560000000001</v>
+        <v>160.56319999999999</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>156</v>
-      </c>
       <c r="C31" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>95</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" s="21">
         <v>80</v>
@@ -4304,8 +4668,8 @@
       <c r="H31" s="21">
         <v>120</v>
       </c>
-      <c r="I31" s="21">
-        <v>7</v>
+      <c r="I31" s="38" t="s">
+        <v>468</v>
       </c>
       <c r="J31" s="21">
         <v>1201</v>
@@ -4320,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O31" s="24">
         <v>5</v>
@@ -4334,11 +4698,11 @@
       </c>
       <c r="T31" s="35">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="U31" s="33">
         <f t="shared" si="2"/>
-        <v>194.43200000000002</v>
+        <v>200.70400000000001</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -4378,10 +4742,10 @@
         <v>1210</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>158</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>159</v>
       </c>
       <c r="D33" s="21">
         <v>15</v>
@@ -4393,13 +4757,13 @@
         <v>90</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H33" s="21">
         <v>30</v>
       </c>
-      <c r="I33" s="21">
-        <v>7</v>
+      <c r="I33" s="38" t="s">
+        <v>461</v>
       </c>
       <c r="J33" s="21">
         <v>1201</v>
@@ -4422,31 +4786,31 @@
       </c>
       <c r="T33" s="35">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="U33" s="33">
         <f t="shared" si="2"/>
-        <v>9.9450000000000003</v>
+        <v>14.535</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>162</v>
-      </c>
       <c r="C34" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>164</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>73</v>
@@ -4454,8 +4818,8 @@
       <c r="H34" s="21">
         <v>30</v>
       </c>
-      <c r="I34" s="21">
-        <v>7</v>
+      <c r="I34" s="38" t="s">
+        <v>461</v>
       </c>
       <c r="J34" s="21">
         <v>1201</v>
@@ -4478,31 +4842,31 @@
       </c>
       <c r="T34" s="35">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="U34" s="33">
         <f t="shared" si="2"/>
-        <v>20.73864</v>
+        <v>30.310320000000001</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="C35" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="21" t="s">
+      <c r="F35" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>168</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>91</v>
@@ -4510,8 +4874,8 @@
       <c r="H35" s="21">
         <v>30</v>
       </c>
-      <c r="I35" s="21">
-        <v>7</v>
+      <c r="I35" s="38" t="s">
+        <v>484</v>
       </c>
       <c r="J35" s="21">
         <v>1201</v>
@@ -4534,31 +4898,31 @@
       </c>
       <c r="T35" s="35">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="U35" s="33">
         <f t="shared" si="2"/>
-        <v>43.209920000000004</v>
+        <v>63.152959999999993</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>170</v>
-      </c>
       <c r="C36" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>110</v>
@@ -4566,8 +4930,8 @@
       <c r="H36" s="21">
         <v>30</v>
       </c>
-      <c r="I36" s="21">
-        <v>7</v>
+      <c r="I36" s="38" t="s">
+        <v>461</v>
       </c>
       <c r="J36" s="21">
         <v>1201</v>
@@ -4590,31 +4954,31 @@
       </c>
       <c r="T36" s="35">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="U36" s="33">
         <f t="shared" si="2"/>
-        <v>67.466880000000003</v>
+        <v>98.605440000000016</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>173</v>
-      </c>
       <c r="C37" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>95</v>
       </c>
       <c r="E37" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>174</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>175</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>66</v>
@@ -4622,8 +4986,8 @@
       <c r="H37" s="21">
         <v>30</v>
       </c>
-      <c r="I37" s="21">
-        <v>7</v>
+      <c r="I37" s="38" t="s">
+        <v>461</v>
       </c>
       <c r="J37" s="21">
         <v>1201</v>
@@ -4646,31 +5010,31 @@
       </c>
       <c r="T37" s="35">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="U37" s="33">
         <f t="shared" si="2"/>
-        <v>93.562559999999991</v>
+        <v>136.74527999999998</v>
       </c>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>177</v>
-      </c>
       <c r="C38" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" s="21" t="s">
         <v>113</v>
       </c>
       <c r="E38" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>178</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>179</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>67</v>
@@ -4678,8 +5042,8 @@
       <c r="H38" s="21">
         <v>30</v>
       </c>
-      <c r="I38" s="21">
-        <v>7</v>
+      <c r="I38" s="38" t="s">
+        <v>461</v>
       </c>
       <c r="J38" s="21">
         <v>1201</v>
@@ -4702,11 +5066,11 @@
       </c>
       <c r="T38" s="35">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="U38" s="33">
         <f t="shared" si="2"/>
-        <v>121.55000000000001</v>
+        <v>177.65000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -4746,10 +5110,10 @@
         <v>1220</v>
       </c>
       <c r="B40" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>181</v>
       </c>
       <c r="D40" s="21">
         <v>1</v>
@@ -4766,8 +5130,8 @@
       <c r="H40" s="21">
         <v>110</v>
       </c>
-      <c r="I40" s="21">
-        <v>7</v>
+      <c r="I40" s="38" t="s">
+        <v>469</v>
       </c>
       <c r="J40" s="21">
         <v>1201</v>
@@ -4790,11 +5154,11 @@
       </c>
       <c r="T40" s="35">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="U40" s="33">
         <f t="shared" si="2"/>
-        <v>6.38</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -4802,10 +5166,10 @@
         <v>1300</v>
       </c>
       <c r="B41" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>182</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>183</v>
       </c>
       <c r="D41" s="21">
         <v>18</v>
@@ -4894,10 +5258,10 @@
         <v>1310</v>
       </c>
       <c r="B43" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>185</v>
       </c>
       <c r="D43" s="21">
         <v>16</v>
@@ -4914,8 +5278,8 @@
       <c r="H43" s="21">
         <v>130</v>
       </c>
-      <c r="I43" s="21">
-        <v>10</v>
+      <c r="I43" s="38" t="s">
+        <v>470</v>
       </c>
       <c r="J43" s="21">
         <v>1301</v>
@@ -4944,25 +5308,25 @@
       </c>
       <c r="T43" s="35">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="U43" s="33">
         <f t="shared" si="2"/>
-        <v>28.511999999999997</v>
+        <v>26.135999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>187</v>
-      </c>
       <c r="C44" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>78</v>
@@ -4976,8 +5340,8 @@
       <c r="H44" s="21">
         <v>130</v>
       </c>
-      <c r="I44" s="21">
-        <v>10</v>
+      <c r="I44" s="38" t="s">
+        <v>470</v>
       </c>
       <c r="J44" s="21">
         <v>1301</v>
@@ -5006,22 +5370,22 @@
       </c>
       <c r="T44" s="35">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="U44" s="33">
         <f t="shared" si="2"/>
-        <v>57.023999999999994</v>
+        <v>52.271999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>189</v>
-      </c>
       <c r="C45" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>83</v>
@@ -5038,8 +5402,8 @@
       <c r="H45" s="21">
         <v>130</v>
       </c>
-      <c r="I45" s="21">
-        <v>10</v>
+      <c r="I45" s="38" t="s">
+        <v>470</v>
       </c>
       <c r="J45" s="21">
         <v>1301</v>
@@ -5068,25 +5432,25 @@
       </c>
       <c r="T45" s="35">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="U45" s="33">
         <f t="shared" si="2"/>
-        <v>114.04799999999999</v>
+        <v>104.544</v>
       </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>191</v>
-      </c>
       <c r="C46" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>95</v>
@@ -5100,8 +5464,8 @@
       <c r="H46" s="21">
         <v>130</v>
       </c>
-      <c r="I46" s="21">
-        <v>10</v>
+      <c r="I46" s="38" t="s">
+        <v>470</v>
       </c>
       <c r="J46" s="21">
         <v>1301</v>
@@ -5130,28 +5494,28 @@
       </c>
       <c r="T46" s="35">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="U46" s="33">
         <f t="shared" si="2"/>
-        <v>171.072</v>
+        <v>156.816</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>193</v>
-      </c>
       <c r="C47" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F47" s="21">
         <v>80</v>
@@ -5162,8 +5526,8 @@
       <c r="H47" s="21">
         <v>130</v>
       </c>
-      <c r="I47" s="21">
-        <v>10</v>
+      <c r="I47" s="38" t="s">
+        <v>470</v>
       </c>
       <c r="J47" s="21">
         <v>1301</v>
@@ -5192,28 +5556,28 @@
       </c>
       <c r="T47" s="35">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="U47" s="33">
         <f t="shared" si="2"/>
-        <v>228.09599999999998</v>
+        <v>209.08799999999999</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>195</v>
-      </c>
       <c r="C48" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48" s="21">
         <v>80</v>
@@ -5224,8 +5588,8 @@
       <c r="H48" s="21">
         <v>130</v>
       </c>
-      <c r="I48" s="21">
-        <v>10</v>
+      <c r="I48" s="38" t="s">
+        <v>470</v>
       </c>
       <c r="J48" s="21">
         <v>1301</v>
@@ -5240,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O48" s="24" t="s">
         <v>85</v>
@@ -5254,11 +5618,11 @@
       </c>
       <c r="T48" s="35">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="U48" s="33">
         <f t="shared" si="2"/>
-        <v>285.12</v>
+        <v>261.36</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -5298,10 +5662,10 @@
         <v>1320</v>
       </c>
       <c r="B50" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="23" t="s">
         <v>196</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>197</v>
       </c>
       <c r="D50" s="21">
         <v>15</v>
@@ -5351,31 +5715,31 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>200</v>
-      </c>
       <c r="G51" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H51" s="21" t="s">
         <v>94</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J51" s="21">
         <v>1301</v>
@@ -5407,19 +5771,19 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>202</v>
-      </c>
       <c r="C52" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F52" s="21" t="s">
         <v>106</v>
@@ -5428,10 +5792,10 @@
         <v>67</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>67</v>
+        <v>458</v>
       </c>
       <c r="J52" s="21">
         <v>1301</v>
@@ -5463,19 +5827,19 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="C53" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>205</v>
-      </c>
       <c r="E53" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>94</v>
@@ -5486,8 +5850,8 @@
       <c r="H53" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I53" s="21" t="s">
-        <v>109</v>
+      <c r="I53" s="38" t="s">
+        <v>459</v>
       </c>
       <c r="J53" s="21">
         <v>1301</v>
@@ -5510,31 +5874,31 @@
       </c>
       <c r="T53" s="35">
         <f t="shared" si="1"/>
-        <v>660</v>
+        <v>165</v>
       </c>
       <c r="U53" s="33">
         <f t="shared" si="2"/>
-        <v>692.30700000000013</v>
+        <v>173.07675000000003</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="C54" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>208</v>
-      </c>
       <c r="E54" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>79</v>
@@ -5542,8 +5906,8 @@
       <c r="H54" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I54" s="21" t="s">
-        <v>95</v>
+      <c r="I54" s="38" t="s">
+        <v>460</v>
       </c>
       <c r="J54" s="21">
         <v>1301</v>
@@ -5566,28 +5930,28 @@
       </c>
       <c r="T54" s="35">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>180</v>
       </c>
       <c r="U54" s="33">
         <f t="shared" si="2"/>
-        <v>1088.6400000000001</v>
+        <v>272.16000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="C55" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="E55" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>109</v>
@@ -5596,10 +5960,10 @@
         <v>84</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>461</v>
       </c>
       <c r="J55" s="21">
         <v>1301</v>
@@ -5622,11 +5986,11 @@
       </c>
       <c r="T55" s="35">
         <f t="shared" si="1"/>
-        <v>780</v>
+        <v>195</v>
       </c>
       <c r="U55" s="33">
         <f t="shared" si="2"/>
-        <v>1599.741</v>
+        <v>399.93525</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -5666,10 +6030,10 @@
         <v>1400</v>
       </c>
       <c r="B57" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>213</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>214</v>
       </c>
       <c r="D57" s="21">
         <v>25</v>
@@ -5686,8 +6050,8 @@
       <c r="H57" s="21">
         <v>80</v>
       </c>
-      <c r="I57" s="21">
-        <v>14</v>
+      <c r="I57" s="38" t="s">
+        <v>471</v>
       </c>
       <c r="J57" s="21">
         <v>1401</v>
@@ -5710,31 +6074,31 @@
       </c>
       <c r="T57" s="35">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="U57" s="33">
         <f t="shared" si="2"/>
-        <v>29.7</v>
+        <v>33.659999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B58" s="21" t="s">
-        <v>216</v>
-      </c>
       <c r="C58" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D58" s="21" t="s">
         <v>103</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G58" s="21">
         <v>10</v>
@@ -5742,8 +6106,8 @@
       <c r="H58" s="21">
         <v>80</v>
       </c>
-      <c r="I58" s="21">
-        <v>14</v>
+      <c r="I58" s="38" t="s">
+        <v>472</v>
       </c>
       <c r="J58" s="21">
         <v>1401</v>
@@ -5766,31 +6130,31 @@
       </c>
       <c r="T58" s="35">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="U58" s="33">
         <f t="shared" si="2"/>
-        <v>64.349999999999994</v>
+        <v>72.930000000000007</v>
       </c>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="C59" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G59" s="21">
         <v>10</v>
@@ -5798,8 +6162,8 @@
       <c r="H59" s="21">
         <v>80</v>
       </c>
-      <c r="I59" s="21">
-        <v>14</v>
+      <c r="I59" s="38" t="s">
+        <v>471</v>
       </c>
       <c r="J59" s="21">
         <v>1401</v>
@@ -5822,31 +6186,31 @@
       </c>
       <c r="T59" s="35">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="U59" s="33">
         <f t="shared" si="2"/>
-        <v>103.95000000000002</v>
+        <v>117.81000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="C60" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>222</v>
-      </c>
       <c r="F60" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G60" s="21">
         <v>10</v>
@@ -5854,8 +6218,8 @@
       <c r="H60" s="21">
         <v>80</v>
       </c>
-      <c r="I60" s="21">
-        <v>14</v>
+      <c r="I60" s="38" t="s">
+        <v>471</v>
       </c>
       <c r="J60" s="21">
         <v>1401</v>
@@ -5878,28 +6242,28 @@
       </c>
       <c r="T60" s="35">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="U60" s="33">
         <f t="shared" si="2"/>
-        <v>148.5</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="C61" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="21" t="s">
+      <c r="E61" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>226</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>106</v>
@@ -5910,8 +6274,8 @@
       <c r="H61" s="21">
         <v>80</v>
       </c>
-      <c r="I61" s="21">
-        <v>14</v>
+      <c r="I61" s="38" t="s">
+        <v>471</v>
       </c>
       <c r="J61" s="21">
         <v>1401</v>
@@ -5934,31 +6298,31 @@
       </c>
       <c r="T61" s="35">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="U61" s="33">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>224.4</v>
       </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B62" s="21" t="s">
-        <v>228</v>
-      </c>
       <c r="C62" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>113</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G62" s="21">
         <v>10</v>
@@ -5966,8 +6330,8 @@
       <c r="H62" s="21">
         <v>80</v>
       </c>
-      <c r="I62" s="21">
-        <v>14</v>
+      <c r="I62" s="38" t="s">
+        <v>471</v>
       </c>
       <c r="J62" s="21">
         <v>1401</v>
@@ -5990,11 +6354,11 @@
       </c>
       <c r="T62" s="35">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="U62" s="33">
         <f t="shared" si="2"/>
-        <v>252.45000000000007</v>
+        <v>286.11000000000007</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -6034,10 +6398,10 @@
         <v>1410</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>230</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>231</v>
       </c>
       <c r="D64" s="21">
         <v>18</v>
@@ -6054,8 +6418,8 @@
       <c r="H64" s="21">
         <v>110</v>
       </c>
-      <c r="I64" s="21">
-        <v>12</v>
+      <c r="I64" s="38" t="s">
+        <v>474</v>
       </c>
       <c r="J64" s="21">
         <v>1401</v>
@@ -6078,25 +6442,25 @@
       </c>
       <c r="T64" s="35">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="U64" s="33">
         <f t="shared" si="2"/>
-        <v>42.45750000000001</v>
+        <v>44.955000000000013</v>
       </c>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="C65" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>234</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>83</v>
@@ -6110,8 +6474,8 @@
       <c r="H65" s="21">
         <v>110</v>
       </c>
-      <c r="I65" s="21" t="s">
-        <v>90</v>
+      <c r="I65" s="38" t="s">
+        <v>475</v>
       </c>
       <c r="J65" s="21">
         <v>1401</v>
@@ -6134,28 +6498,28 @@
       </c>
       <c r="T65" s="35">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="U65" s="33">
         <f t="shared" si="2"/>
-        <v>89.910000000000025</v>
+        <v>94.905000000000015</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="C66" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>237</v>
-      </c>
       <c r="E66" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F66" s="21">
         <v>90</v>
@@ -6166,8 +6530,8 @@
       <c r="H66" s="21">
         <v>110</v>
       </c>
-      <c r="I66" s="21" t="s">
-        <v>238</v>
+      <c r="I66" s="38" t="s">
+        <v>476</v>
       </c>
       <c r="J66" s="21">
         <v>1401</v>
@@ -6190,28 +6554,28 @@
       </c>
       <c r="T66" s="35">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="U66" s="33">
         <f t="shared" si="2"/>
-        <v>142.35750000000002</v>
+        <v>149.85000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="C67" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>241</v>
-      </c>
       <c r="E67" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F67" s="21">
         <v>90</v>
@@ -6222,8 +6586,8 @@
       <c r="H67" s="21">
         <v>110</v>
       </c>
-      <c r="I67" s="21" t="s">
-        <v>70</v>
+      <c r="I67" s="38" t="s">
+        <v>477</v>
       </c>
       <c r="J67" s="21">
         <v>1401</v>
@@ -6246,28 +6610,28 @@
       </c>
       <c r="T67" s="35">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="U67" s="33">
         <f t="shared" si="2"/>
-        <v>199.80000000000004</v>
+        <v>209.79000000000005</v>
       </c>
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>243</v>
-      </c>
       <c r="C68" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F68" s="21">
         <v>90</v>
@@ -6278,8 +6642,8 @@
       <c r="H68" s="21">
         <v>110</v>
       </c>
-      <c r="I68" s="21" t="s">
-        <v>244</v>
+      <c r="I68" s="38" t="s">
+        <v>478</v>
       </c>
       <c r="J68" s="21">
         <v>1401</v>
@@ -6302,28 +6666,28 @@
       </c>
       <c r="T68" s="35">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="U68" s="33">
         <f t="shared" si="2"/>
-        <v>262.23750000000001</v>
+        <v>274.72500000000002</v>
       </c>
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="C69" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C69" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D69" s="21" t="s">
+      <c r="E69" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="F69" s="21">
         <v>90</v>
@@ -6334,8 +6698,8 @@
       <c r="H69" s="21">
         <v>110</v>
       </c>
-      <c r="I69" s="21" t="s">
-        <v>249</v>
+      <c r="I69" s="38" t="s">
+        <v>479</v>
       </c>
       <c r="J69" s="21">
         <v>1401</v>
@@ -6358,11 +6722,11 @@
       </c>
       <c r="T69" s="35">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="U69" s="33">
         <f t="shared" si="2"/>
-        <v>329.67000000000007</v>
+        <v>344.65500000000009</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -6402,10 +6766,10 @@
         <v>1420</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D71" s="21">
         <v>28</v>
@@ -6422,8 +6786,8 @@
       <c r="H71" s="21">
         <v>40</v>
       </c>
-      <c r="I71" s="21">
-        <v>22</v>
+      <c r="I71" s="38" t="s">
+        <v>473</v>
       </c>
       <c r="J71" s="21">
         <v>1401</v>
@@ -6446,25 +6810,25 @@
       </c>
       <c r="T71" s="35">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="U71" s="33">
         <f t="shared" si="5"/>
-        <v>33.660000000000011</v>
+        <v>40.39200000000001</v>
       </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>254</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>106</v>
@@ -6476,10 +6840,10 @@
         <v>10</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="I72" s="21">
-        <v>22</v>
+        <v>136</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>473</v>
       </c>
       <c r="J72" s="21">
         <v>1401</v>
@@ -6502,25 +6866,25 @@
       </c>
       <c r="T72" s="35">
         <f t="shared" si="4"/>
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="U72" s="33">
         <f t="shared" si="5"/>
-        <v>69.564000000000021</v>
+        <v>83.028000000000006</v>
       </c>
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>95</v>
@@ -6534,8 +6898,8 @@
       <c r="H73" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I73" s="21">
-        <v>22</v>
+      <c r="I73" s="38" t="s">
+        <v>473</v>
       </c>
       <c r="J73" s="21">
         <v>1401</v>
@@ -6558,28 +6922,28 @@
       </c>
       <c r="T73" s="35">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="U73" s="33">
         <f t="shared" si="5"/>
-        <v>102.43199999999999</v>
+        <v>121.63799999999999</v>
       </c>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>260</v>
-      </c>
       <c r="E74" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F74" s="21">
         <v>60</v>
@@ -6588,10 +6952,10 @@
         <v>10</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I74" s="21">
-        <v>22</v>
+        <v>132</v>
+      </c>
+      <c r="I74" s="38" t="s">
+        <v>473</v>
       </c>
       <c r="J74" s="21">
         <v>1401</v>
@@ -6614,28 +6978,28 @@
       </c>
       <c r="T74" s="35">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="U74" s="33">
         <f t="shared" si="5"/>
-        <v>148.10400000000004</v>
+        <v>175.03200000000004</v>
       </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F75" s="21">
         <v>60</v>
@@ -6644,10 +7008,10 @@
         <v>10</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="I75" s="21">
-        <v>22</v>
+        <v>149</v>
+      </c>
+      <c r="I75" s="38" t="s">
+        <v>473</v>
       </c>
       <c r="J75" s="21">
         <v>1401</v>
@@ -6670,28 +7034,28 @@
       </c>
       <c r="T75" s="35">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="U75" s="33">
         <f t="shared" si="5"/>
-        <v>190.74000000000004</v>
+        <v>224.40000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D76" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B76" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>265</v>
-      </c>
       <c r="E76" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F76" s="21">
         <v>60</v>
@@ -6700,10 +7064,10 @@
         <v>10</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="I76" s="21">
-        <v>22</v>
+        <v>216</v>
+      </c>
+      <c r="I76" s="38" t="s">
+        <v>473</v>
       </c>
       <c r="J76" s="21">
         <v>1401</v>
@@ -6726,11 +7090,11 @@
       </c>
       <c r="T76" s="35">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="U76" s="33">
         <f t="shared" si="5"/>
-        <v>235.61999999999998</v>
+        <v>276.01199999999994</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -6770,10 +7134,10 @@
         <v>1500</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D78" s="21">
         <v>15</v>
@@ -6790,8 +7154,8 @@
       <c r="H78" s="21">
         <v>80</v>
       </c>
-      <c r="I78" s="21">
-        <v>7</v>
+      <c r="I78" s="38" t="s">
+        <v>480</v>
       </c>
       <c r="J78" s="21">
         <v>1501</v>
@@ -6814,40 +7178,40 @@
       </c>
       <c r="T78" s="35">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="U78" s="33">
         <f t="shared" si="5"/>
-        <v>17.871000000000002</v>
+        <v>20.979000000000006</v>
       </c>
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E79" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>270</v>
-      </c>
       <c r="F79" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G79" s="21">
         <v>11</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="I79" s="21">
-        <v>7</v>
+        <v>269</v>
+      </c>
+      <c r="I79" s="38" t="s">
+        <v>459</v>
       </c>
       <c r="J79" s="21">
         <v>1501</v>
@@ -6870,40 +7234,40 @@
       </c>
       <c r="T79" s="35">
         <f t="shared" si="4"/>
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="U79" s="33">
         <f t="shared" si="5"/>
-        <v>47.220732000000005</v>
+        <v>55.292652000000004</v>
       </c>
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G80" s="21">
         <v>11</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="I80" s="21">
-        <v>7</v>
+        <v>272</v>
+      </c>
+      <c r="I80" s="38" t="s">
+        <v>459</v>
       </c>
       <c r="J80" s="21">
         <v>1501</v>
@@ -6926,40 +7290,40 @@
       </c>
       <c r="T80" s="35">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="U80" s="33">
         <f t="shared" si="5"/>
-        <v>78.197280000000006</v>
+        <v>91.339680000000001</v>
       </c>
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H81" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="B81" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H81" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="I81" s="21">
-        <v>7</v>
+      <c r="I81" s="38" t="s">
+        <v>480</v>
       </c>
       <c r="J81" s="21">
         <v>1501</v>
@@ -6982,40 +7346,40 @@
       </c>
       <c r="T81" s="35">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="U81" s="33">
         <f t="shared" si="5"/>
-        <v>105.75399999999998</v>
+        <v>123.23399999999997</v>
       </c>
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="F82" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C82" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>281</v>
-      </c>
       <c r="G82" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I82" s="21">
-        <v>7</v>
+      <c r="I82" s="38" t="s">
+        <v>459</v>
       </c>
       <c r="J82" s="21">
         <v>1501</v>
@@ -7038,40 +7402,40 @@
       </c>
       <c r="T82" s="35">
         <f t="shared" si="4"/>
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="U82" s="33">
         <f t="shared" si="5"/>
-        <v>143.98195499999997</v>
+        <v>167.39365499999997</v>
       </c>
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D83" s="21" t="s">
         <v>95</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>106</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="21">
-        <v>7</v>
+      <c r="I83" s="38" t="s">
+        <v>459</v>
       </c>
       <c r="J83" s="21">
         <v>1501</v>
@@ -7094,11 +7458,11 @@
       </c>
       <c r="T83" s="35">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="U83" s="33">
         <f t="shared" si="5"/>
-        <v>184</v>
+        <v>213.44</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -7138,10 +7502,10 @@
         <v>1510</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D85" s="21">
         <v>20</v>
@@ -7158,8 +7522,8 @@
       <c r="H85" s="21">
         <v>60</v>
       </c>
-      <c r="I85" s="21">
-        <v>12</v>
+      <c r="I85" s="38" t="s">
+        <v>481</v>
       </c>
       <c r="J85" s="21">
         <v>1501</v>
@@ -7182,28 +7546,28 @@
       </c>
       <c r="T85" s="35">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="U85" s="33">
         <f t="shared" si="5"/>
-        <v>33.9</v>
+        <v>40.962499999999991</v>
       </c>
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>103</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F86" s="21">
         <v>100</v>
@@ -7214,8 +7578,8 @@
       <c r="H86" s="21">
         <v>60</v>
       </c>
-      <c r="I86" s="21">
-        <v>12</v>
+      <c r="I86" s="38" t="s">
+        <v>482</v>
       </c>
       <c r="J86" s="21">
         <v>1501</v>
@@ -7238,22 +7602,22 @@
       </c>
       <c r="T86" s="35">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="U86" s="33">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>102.40625</v>
       </c>
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>106</v>
@@ -7270,8 +7634,8 @@
       <c r="H87" s="21">
         <v>60</v>
       </c>
-      <c r="I87" s="21">
-        <v>12</v>
+      <c r="I87" s="38" t="s">
+        <v>481</v>
       </c>
       <c r="J87" s="21">
         <v>1501</v>
@@ -7294,25 +7658,25 @@
       </c>
       <c r="T87" s="35">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="U87" s="33">
         <f t="shared" si="5"/>
-        <v>135.6</v>
+        <v>163.84999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>113</v>
@@ -7326,8 +7690,8 @@
       <c r="H88" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I88" s="21">
-        <v>12</v>
+      <c r="I88" s="38" t="s">
+        <v>481</v>
       </c>
       <c r="J88" s="21">
         <v>1501</v>
@@ -7350,28 +7714,28 @@
       </c>
       <c r="T88" s="35">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="U88" s="33">
         <f t="shared" si="5"/>
-        <v>197.75</v>
+        <v>233.0625</v>
       </c>
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E89" s="21" t="s">
         <v>291</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>293</v>
       </c>
       <c r="F89" s="21">
         <v>100</v>
@@ -7382,8 +7746,8 @@
       <c r="H89" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I89" s="21">
-        <v>12</v>
+      <c r="I89" s="38" t="s">
+        <v>481</v>
       </c>
       <c r="J89" s="21">
         <v>1501</v>
@@ -7406,28 +7770,28 @@
       </c>
       <c r="T89" s="35">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="U89" s="33">
         <f t="shared" si="5"/>
-        <v>257.07499999999999</v>
+        <v>302.98124999999999</v>
       </c>
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F90" s="21">
         <v>100</v>
@@ -7438,8 +7802,8 @@
       <c r="H90" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I90" s="21">
-        <v>12</v>
+      <c r="I90" s="38" t="s">
+        <v>482</v>
       </c>
       <c r="J90" s="21">
         <v>1501</v>
@@ -7462,11 +7826,11 @@
       </c>
       <c r="T90" s="35">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="U90" s="33">
         <f t="shared" si="5"/>
-        <v>316.39999999999998</v>
+        <v>372.89999999999992</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -7506,10 +7870,10 @@
         <v>1520</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D92" s="21" t="s">
         <v>84</v>
@@ -7526,8 +7890,8 @@
       <c r="H92" s="21">
         <v>110</v>
       </c>
-      <c r="I92" s="21">
-        <v>3</v>
+      <c r="I92" s="38" t="s">
+        <v>483</v>
       </c>
       <c r="J92" s="21">
         <v>1501</v>
@@ -7550,28 +7914,28 @@
       </c>
       <c r="T92" s="35">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="U92" s="33">
         <f t="shared" si="5"/>
-        <v>23.287500000000001</v>
+        <v>26.081999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="E93" s="21" t="s">
         <v>299</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>301</v>
       </c>
       <c r="F93" s="21">
         <v>90</v>
@@ -7582,8 +7946,8 @@
       <c r="H93" s="21">
         <v>110</v>
       </c>
-      <c r="I93" s="21">
-        <v>3</v>
+      <c r="I93" s="38" t="s">
+        <v>483</v>
       </c>
       <c r="J93" s="21">
         <v>1501</v>
@@ -7606,28 +7970,28 @@
       </c>
       <c r="T93" s="35">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="U93" s="33">
         <f t="shared" si="5"/>
-        <v>62.746875000000003</v>
+        <v>70.276499999999999</v>
       </c>
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F94" s="21">
         <v>90</v>
@@ -7638,8 +8002,8 @@
       <c r="H94" s="21">
         <v>110</v>
       </c>
-      <c r="I94" s="21">
-        <v>3</v>
+      <c r="I94" s="38" t="s">
+        <v>483</v>
       </c>
       <c r="J94" s="21">
         <v>1501</v>
@@ -7662,31 +8026,31 @@
       </c>
       <c r="T94" s="35">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="U94" s="33">
         <f t="shared" si="5"/>
-        <v>101.55937499999999</v>
+        <v>113.74649999999998</v>
       </c>
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="E95" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C95" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>307</v>
-      </c>
       <c r="F95" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G95" s="21">
         <v>15</v>
@@ -7694,8 +8058,8 @@
       <c r="H95" s="21">
         <v>110</v>
       </c>
-      <c r="I95" s="21" t="s">
-        <v>110</v>
+      <c r="I95" s="38" t="s">
+        <v>467</v>
       </c>
       <c r="J95" s="21">
         <v>1501</v>
@@ -7718,31 +8082,31 @@
       </c>
       <c r="T95" s="35">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="U95" s="33">
         <f t="shared" si="5"/>
-        <v>165.83</v>
+        <v>201.36499999999995</v>
       </c>
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>308</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>310</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>113</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G96" s="21">
         <v>15</v>
@@ -7750,8 +8114,8 @@
       <c r="H96" s="21">
         <v>110</v>
       </c>
-      <c r="I96" s="21" t="s">
-        <v>110</v>
+      <c r="I96" s="38" t="s">
+        <v>466</v>
       </c>
       <c r="J96" s="21">
         <v>1501</v>
@@ -7774,31 +8138,31 @@
       </c>
       <c r="T96" s="35">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="U96" s="33">
         <f t="shared" si="5"/>
-        <v>214.93499999999997</v>
+        <v>260.99249999999995</v>
       </c>
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="E97" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="C97" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>314</v>
-      </c>
       <c r="F97" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G97" s="21">
         <v>15</v>
@@ -7806,8 +8170,8 @@
       <c r="H97" s="21">
         <v>110</v>
       </c>
-      <c r="I97" s="21" t="s">
-        <v>110</v>
+      <c r="I97" s="38" t="s">
+        <v>467</v>
       </c>
       <c r="J97" s="21">
         <v>1501</v>
@@ -7830,11 +8194,11 @@
       </c>
       <c r="T97" s="35">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="U97" s="33">
         <f t="shared" si="5"/>
-        <v>263.23499999999996</v>
+        <v>319.64249999999998</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -7874,10 +8238,10 @@
         <v>1600</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>74</v>
@@ -7894,8 +8258,8 @@
       <c r="H99" s="21">
         <v>75</v>
       </c>
-      <c r="I99" s="21">
-        <v>13</v>
+      <c r="I99" s="38" t="s">
+        <v>485</v>
       </c>
       <c r="J99" s="21">
         <v>1601</v>
@@ -7918,40 +8282,40 @@
       </c>
       <c r="T99" s="35">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="U99" s="33">
         <f t="shared" si="5"/>
-        <v>9.548</v>
+        <v>11.935</v>
       </c>
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D100" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G100" s="21">
         <v>10</v>
       </c>
       <c r="H100" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I100" s="21" t="s">
-        <v>90</v>
+        <v>166</v>
+      </c>
+      <c r="I100" s="38" t="s">
+        <v>486</v>
       </c>
       <c r="J100" s="21">
         <v>1601</v>
@@ -7974,22 +8338,22 @@
       </c>
       <c r="T100" s="35">
         <f t="shared" si="4"/>
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="U100" s="33">
         <f t="shared" si="5"/>
-        <v>22.042350000000003</v>
+        <v>27.326475000000006</v>
       </c>
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D101" s="21" t="s">
         <v>74</v>
@@ -8004,10 +8368,10 @@
         <v>10</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="I101" s="21" t="s">
-        <v>121</v>
+        <v>319</v>
+      </c>
+      <c r="I101" s="38" t="s">
+        <v>487</v>
       </c>
       <c r="J101" s="21">
         <v>1601</v>
@@ -8030,22 +8394,22 @@
       </c>
       <c r="T101" s="35">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="U101" s="33">
         <f t="shared" si="5"/>
-        <v>38.037999999999997</v>
+        <v>46.796750000000003</v>
       </c>
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D102" s="21" t="s">
         <v>74</v>
@@ -8054,16 +8418,16 @@
         <v>95</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G102" s="21">
         <v>10</v>
       </c>
       <c r="H102" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="I102" s="21" t="s">
-        <v>238</v>
+        <v>279</v>
+      </c>
+      <c r="I102" s="38" t="s">
+        <v>488</v>
       </c>
       <c r="J102" s="21">
         <v>1601</v>
@@ -8086,22 +8450,22 @@
       </c>
       <c r="T102" s="35">
         <f t="shared" si="4"/>
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="U102" s="33">
         <f t="shared" si="5"/>
-        <v>57.831950000000006</v>
+        <v>70.642825000000016</v>
       </c>
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>74</v>
@@ -8110,16 +8474,16 @@
         <v>113</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G103" s="21">
         <v>10</v>
       </c>
       <c r="H103" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="I103" s="21" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="I103" s="38" t="s">
+        <v>489</v>
       </c>
       <c r="J103" s="21">
         <v>1601</v>
@@ -8142,31 +8506,31 @@
       </c>
       <c r="T103" s="35">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="U103" s="33">
         <f t="shared" si="5"/>
-        <v>81.72120000000001</v>
+        <v>99.161700000000025</v>
       </c>
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G104" s="21">
         <v>10</v>
@@ -8174,8 +8538,8 @@
       <c r="H104" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I104" s="21" t="s">
-        <v>327</v>
+      <c r="I104" s="38" t="s">
+        <v>490</v>
       </c>
       <c r="J104" s="21">
         <v>1601</v>
@@ -8198,11 +8562,11 @@
       </c>
       <c r="T104" s="35">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="U104" s="33">
         <f t="shared" si="5"/>
-        <v>114.88950000000001</v>
+        <v>142.7415</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -8242,10 +8606,10 @@
         <v>1610</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D106" s="21">
         <v>16</v>
@@ -8262,8 +8626,8 @@
       <c r="H106" s="21">
         <v>80</v>
       </c>
-      <c r="I106" s="21">
-        <v>15</v>
+      <c r="I106" s="38" t="s">
+        <v>463</v>
       </c>
       <c r="J106" s="21">
         <v>1604</v>
@@ -8286,25 +8650,25 @@
       </c>
       <c r="T106" s="35">
         <f t="shared" si="4"/>
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="U106" s="33">
         <f t="shared" si="5"/>
-        <v>18.414000000000001</v>
+        <v>12.474</v>
       </c>
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="21" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>78</v>
@@ -8318,8 +8682,8 @@
       <c r="H107" s="21">
         <v>80</v>
       </c>
-      <c r="I107" s="21" t="s">
-        <v>244</v>
+      <c r="I107" s="38" t="s">
+        <v>491</v>
       </c>
       <c r="J107" s="21">
         <v>1604</v>
@@ -8342,28 +8706,28 @@
       </c>
       <c r="T107" s="35">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="U107" s="33">
         <f t="shared" si="5"/>
-        <v>43.545600000000007</v>
+        <v>31.449600000000004</v>
       </c>
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D108" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F108" s="21">
         <v>60</v>
@@ -8374,8 +8738,8 @@
       <c r="H108" s="21">
         <v>80</v>
       </c>
-      <c r="I108" s="21" t="s">
-        <v>125</v>
+      <c r="I108" s="38" t="s">
+        <v>492</v>
       </c>
       <c r="J108" s="21">
         <v>1604</v>
@@ -8398,22 +8762,22 @@
       </c>
       <c r="T108" s="35">
         <f t="shared" si="4"/>
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="U108" s="33">
         <f t="shared" si="5"/>
-        <v>75.718800000000016</v>
+        <v>57.250800000000005</v>
       </c>
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="21" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D109" s="21" t="s">
         <v>83</v>
@@ -8425,13 +8789,13 @@
         <v>60</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H109" s="21">
         <v>80</v>
       </c>
-      <c r="I109" s="21" t="s">
-        <v>77</v>
+      <c r="I109" s="38" t="s">
+        <v>477</v>
       </c>
       <c r="J109" s="21">
         <v>1604</v>
@@ -8454,28 +8818,28 @@
       </c>
       <c r="T109" s="35">
         <f t="shared" si="4"/>
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="U109" s="33">
         <f t="shared" si="5"/>
-        <v>115.25759999999998</v>
+        <v>90.201599999999999</v>
       </c>
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F110" s="21">
         <v>60</v>
@@ -8486,8 +8850,8 @@
       <c r="H110" s="21">
         <v>80</v>
       </c>
-      <c r="I110" s="21" t="s">
-        <v>340</v>
+      <c r="I110" s="38" t="s">
+        <v>493</v>
       </c>
       <c r="J110" s="21">
         <v>1604</v>
@@ -8510,40 +8874,40 @@
       </c>
       <c r="T110" s="35">
         <f t="shared" si="4"/>
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="U110" s="33">
         <f t="shared" si="5"/>
-        <v>155.26439999999997</v>
+        <v>124.82039999999999</v>
       </c>
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F111" s="21">
         <v>60</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H111" s="21">
         <v>80</v>
       </c>
-      <c r="I111" s="21" t="s">
-        <v>78</v>
+      <c r="I111" s="38" t="s">
+        <v>494</v>
       </c>
       <c r="J111" s="21">
         <v>1604</v>
@@ -8566,11 +8930,11 @@
       </c>
       <c r="T111" s="35">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="U111" s="33">
         <f t="shared" si="5"/>
-        <v>249.98399999999998</v>
+        <v>205.34399999999997</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -8610,10 +8974,10 @@
         <v>1620</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D113" s="21">
         <v>0</v>
@@ -8698,10 +9062,10 @@
         <v>3001</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D115" s="21">
         <v>1</v>
@@ -8754,10 +9118,10 @@
         <v>3002</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D116" s="21">
         <v>25</v>
@@ -8798,10 +9162,10 @@
         <v>3003</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
@@ -8830,10 +9194,10 @@
         <v>3004</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
@@ -8858,10 +9222,10 @@
         <v>3005</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
@@ -9306,8 +9670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9327,10 +9691,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>34</v>
@@ -9342,31 +9706,31 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>446</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>449</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>450</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -9398,10 +9762,10 @@
         <v>54</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -9433,7 +9797,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>6</v>
@@ -9447,7 +9811,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -9479,10 +9843,10 @@
         <v>2010</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -9500,7 +9864,7 @@
         <v>70</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -9514,11 +9878,11 @@
       </c>
       <c r="N5">
         <f>H5 + I5*5</f>
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="O5" s="33">
         <f t="shared" ref="O5:O43" si="0">M5*N5 / 100</f>
-        <v>15.2</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="27">
@@ -9526,10 +9890,10 @@
         <v>2110</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -9547,7 +9911,7 @@
         <v>105</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -9561,11 +9925,11 @@
       </c>
       <c r="N6">
         <f>H6 + I6*5</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="O6" s="33">
         <f t="shared" si="0"/>
-        <v>12.15</v>
+        <v>12.636000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="27">
@@ -9573,10 +9937,10 @@
         <v>2210</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -9594,7 +9958,7 @@
         <v>80</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -9608,11 +9972,11 @@
       </c>
       <c r="N7">
         <f>H7 + I7*5</f>
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="O7" s="33">
         <f t="shared" si="0"/>
-        <v>12.073600000000001</v>
+        <v>14.268800000000001</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -9625,10 +9989,10 @@
         <v>2020</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D9">
         <v>75</v>
@@ -9646,7 +10010,7 @@
         <v>70</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J9" s="32">
         <v>20</v>
@@ -9660,11 +10024,11 @@
       </c>
       <c r="N9">
         <f>H9 + I9*5</f>
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="O9" s="33">
         <f t="shared" si="0"/>
-        <v>53.731999999999999</v>
+        <v>82.012</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27">
@@ -9672,10 +10036,10 @@
         <v>2021</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -9693,7 +10057,7 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="32">
         <v>30</v>
@@ -9707,11 +10071,11 @@
       </c>
       <c r="N10">
         <f>H10 + I10*5</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O10" s="33">
         <f t="shared" si="0"/>
-        <v>29.423999999999999</v>
+        <v>33.102000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="27">
@@ -9719,10 +10083,10 @@
         <v>2022</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -9766,10 +10130,10 @@
         <v>2023</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9802,10 +10166,10 @@
         <v>2120</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D13">
         <v>35</v>
@@ -9823,7 +10187,7 @@
         <v>95</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J13" s="32">
         <v>12</v>
@@ -9837,11 +10201,11 @@
       </c>
       <c r="N13">
         <f>H13 + I13*5</f>
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="O13" s="33">
         <f t="shared" si="0"/>
-        <v>57.191062500000008</v>
+        <v>50.836500000000008</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27">
@@ -9849,10 +10213,10 @@
         <v>2121</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D14">
         <v>25</v>
@@ -9896,10 +10260,10 @@
         <v>2122</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D15">
         <v>55</v>
@@ -9917,7 +10281,7 @@
         <v>90</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" s="32">
         <v>24</v>
@@ -9931,11 +10295,11 @@
       </c>
       <c r="N15">
         <f>H15 + I15*5</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="O15" s="33">
         <f t="shared" si="0"/>
-        <v>118.56000000000002</v>
+        <v>124.80000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27">
@@ -9943,10 +10307,10 @@
         <v>2123</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -9979,10 +10343,10 @@
         <v>2220</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -10000,7 +10364,7 @@
         <v>80</v>
       </c>
       <c r="I17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J17" s="32">
         <v>16</v>
@@ -10014,11 +10378,11 @@
       </c>
       <c r="N17">
         <f>H17 + I17*5</f>
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O17" s="33">
         <f t="shared" si="0"/>
-        <v>62.271999999999998</v>
+        <v>57.823999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="27">
@@ -10026,10 +10390,10 @@
         <v>2221</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -10047,7 +10411,7 @@
         <v>60</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J18" s="32">
         <v>32</v>
@@ -10061,11 +10425,11 @@
       </c>
       <c r="N18">
         <f>H18 + I18*5</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O18" s="33">
         <f t="shared" si="0"/>
-        <v>80.5</v>
+        <v>120.75</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="40.5">
@@ -10073,10 +10437,10 @@
         <v>2222</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -10109,10 +10473,10 @@
         <v>2223</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -10150,10 +10514,10 @@
         <v>2030</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D22">
         <v>120</v>
@@ -10171,7 +10535,7 @@
         <v>60</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J22" s="32">
         <v>80</v>
@@ -10185,11 +10549,11 @@
       </c>
       <c r="N22">
         <f>H22 + I22*5</f>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="O22" s="33">
         <f t="shared" si="0"/>
-        <v>54.780000000000008</v>
+        <v>67.230000000000018</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="27">
@@ -10197,10 +10561,10 @@
         <v>2031</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>495</v>
       </c>
       <c r="D23">
         <v>90</v>
@@ -10218,7 +10582,7 @@
         <v>50</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J23" s="32">
         <v>100</v>
@@ -10232,11 +10596,11 @@
       </c>
       <c r="N23">
         <f>H23 + I23*5</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O23" s="33">
         <f t="shared" si="0"/>
-        <v>56.527999999999992</v>
+        <v>63.593999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="40.5">
@@ -10244,10 +10608,10 @@
         <v>2032</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -10280,10 +10644,10 @@
         <v>2033</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D25" s="10">
         <v>100</v>
@@ -10328,10 +10692,10 @@
         <v>2034</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D26" s="10">
         <v>0</v>
@@ -10365,10 +10729,10 @@
         <v>2130</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D27" s="10">
         <v>87</v>
@@ -10386,7 +10750,7 @@
         <v>105</v>
       </c>
       <c r="I27" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J27" s="32">
         <v>48</v>
@@ -10401,11 +10765,11 @@
       </c>
       <c r="N27">
         <f>H27 + I27*5</f>
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="O27" s="33">
         <f t="shared" si="0"/>
-        <v>280.55977500000006</v>
+        <v>251.53635000000003</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="27">
@@ -10413,10 +10777,10 @@
         <v>2131</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D28" s="10">
         <v>119</v>
@@ -10434,7 +10798,7 @@
         <v>75</v>
       </c>
       <c r="I28" s="10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J28" s="32">
         <v>80</v>
@@ -10449,11 +10813,11 @@
       </c>
       <c r="N28">
         <f>H28 + I28*5</f>
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O28" s="33">
         <f t="shared" si="0"/>
-        <v>93.881249999999994</v>
+        <v>109.52812500000002</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="40.5">
@@ -10461,10 +10825,10 @@
         <v>2132</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D29" s="10">
         <v>0</v>
@@ -10498,10 +10862,10 @@
         <v>2133</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D30" s="10">
         <v>0</v>
@@ -10535,10 +10899,10 @@
         <v>2134</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D31" s="10">
         <v>0</v>
@@ -10556,10 +10920,10 @@
         <v>80</v>
       </c>
       <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="32">
         <v>180</v>
-      </c>
-      <c r="J31" s="32">
-        <v>0</v>
       </c>
       <c r="K31" s="10">
         <v>2110</v>
@@ -10572,10 +10936,10 @@
         <v>2230</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D32" s="10">
         <v>99</v>
@@ -10593,7 +10957,7 @@
         <v>95</v>
       </c>
       <c r="I32" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J32" s="32">
         <v>64</v>
@@ -10608,11 +10972,11 @@
       </c>
       <c r="N32">
         <f>H32 + I32*5</f>
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O32" s="33">
         <f t="shared" si="0"/>
-        <v>291.66039999999998</v>
+        <v>272.84359999999998</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="27">
@@ -10620,10 +10984,10 @@
         <v>2231</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D33" s="10">
         <v>147</v>
@@ -10641,7 +11005,7 @@
         <v>65</v>
       </c>
       <c r="I33" s="10">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J33" s="32">
         <v>80</v>
@@ -10656,11 +11020,11 @@
       </c>
       <c r="N33">
         <f>H33 + I33*5</f>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="O33" s="33">
         <f t="shared" si="0"/>
-        <v>114.68800000000002</v>
+        <v>136.19200000000001</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="40.5">
@@ -10668,10 +11032,10 @@
         <v>2232</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -10705,10 +11069,10 @@
         <v>2233</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D35" s="10">
         <v>255</v>
@@ -10726,7 +11090,7 @@
         <v>200</v>
       </c>
       <c r="I35" s="10">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J35" s="32">
         <v>120</v>
@@ -10741,11 +11105,11 @@
       </c>
       <c r="N35">
         <f>H35 + I35*5</f>
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="O35" s="33">
         <f t="shared" si="0"/>
-        <v>563.16000000000008</v>
+        <v>844.74000000000012</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="40.5">
@@ -10753,10 +11117,10 @@
         <v>2234</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -10805,10 +11169,10 @@
         <v>2040</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D38" s="10">
         <v>200</v>
@@ -10826,7 +11190,7 @@
         <v>50</v>
       </c>
       <c r="I38" s="10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J38" s="32">
         <v>150</v>
@@ -10841,11 +11205,11 @@
       </c>
       <c r="N38">
         <f>H38 + I38*5</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="O38" s="33">
         <f t="shared" si="0"/>
-        <v>112.83750000000003</v>
+        <v>188.06250000000009</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="30">
@@ -10853,10 +11217,10 @@
         <v>2041</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D39" s="10">
         <v>150</v>
@@ -10874,7 +11238,7 @@
         <v>50</v>
       </c>
       <c r="I39" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J39" s="32">
         <v>180</v>
@@ -10889,11 +11253,11 @@
       </c>
       <c r="N39">
         <f>H39 + I39*5</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O39" s="33">
         <f t="shared" si="0"/>
-        <v>120.96000000000004</v>
+        <v>181.44000000000008</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="40.5">
@@ -10901,10 +11265,10 @@
         <v>2042</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D40" s="10">
         <v>0</v>
@@ -10938,10 +11302,10 @@
         <v>2140</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D41" s="10">
         <v>142</v>
@@ -10959,7 +11323,7 @@
         <v>75</v>
       </c>
       <c r="I41" s="10">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J41" s="32">
         <v>125</v>
@@ -10974,11 +11338,11 @@
       </c>
       <c r="N41">
         <f>H41 + I41*5</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O41" s="33">
         <f t="shared" si="0"/>
-        <v>97.768500000000003</v>
+        <v>130.358</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="27">
@@ -10986,10 +11350,10 @@
         <v>2141</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D42" s="15">
         <v>0</v>
@@ -11023,10 +11387,10 @@
         <v>2240</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D43" s="10">
         <v>176</v>
@@ -11044,7 +11408,7 @@
         <v>50</v>
       </c>
       <c r="I43" s="10">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J43" s="32">
         <v>133</v>
@@ -11059,11 +11423,11 @@
       </c>
       <c r="N43">
         <f>H43 + I43*5</f>
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="O43" s="33">
         <f t="shared" si="0"/>
-        <v>98.39999999999992</v>
+        <v>81.999999999999943</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="27">
@@ -11071,10 +11435,10 @@
         <v>2241</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D44" s="15">
         <v>0</v>
@@ -11122,10 +11486,10 @@
         <v>4001</v>
       </c>
       <c r="B46" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -11157,7 +11521,7 @@
         <v>4005</v>
       </c>
       <c r="B47" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -11170,7 +11534,7 @@
         <v>4006</v>
       </c>
       <c r="B48" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
@@ -11183,10 +11547,10 @@
         <v>4007</v>
       </c>
       <c r="B49" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
@@ -11199,10 +11563,10 @@
         <v>4008</v>
       </c>
       <c r="B50" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K50">
         <v>4008</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="523">
   <si>
     <t>物品ID</t>
   </si>
@@ -29,9 +29,6 @@
     <t>物品名称</t>
   </si>
   <si>
-    <t>物品描述</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -51,246 +48,6 @@
   </si>
   <si>
     <t>万物皆空，万事皆允</t>
-  </si>
-  <si>
-    <t>灵气之壶</t>
-  </si>
-  <si>
-    <t>回复生命值至80%</t>
-  </si>
-  <si>
-    <t>火种</t>
-  </si>
-  <si>
-    <t>搭建营火</t>
-  </si>
-  <si>
-    <t>生命之种</t>
-  </si>
-  <si>
-    <t>灵气之壶上限+1</t>
-  </si>
-  <si>
-    <t>初级强化石</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将武器强化至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-  </si>
-  <si>
-    <t>中级强化石</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将武器强化至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+2</t>
-    </r>
-  </si>
-  <si>
-    <t>高级强化石</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将武器强化至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+3</t>
-    </r>
-  </si>
-  <si>
-    <t>特级强化石</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将武器强化至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+4</t>
-    </r>
-  </si>
-  <si>
-    <t>终极强化石</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将武器强化至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+5</t>
-    </r>
-  </si>
-  <si>
-    <t>灵力学教授的笔记</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>允许合成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>LV.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法术</t>
-    </r>
-  </si>
-  <si>
-    <t>灵力学大师的笔记</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>允许合成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>LV.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法术</t>
-    </r>
-  </si>
-  <si>
-    <t>不知何人的笔记</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>允许合成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>LV.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法术</t>
-    </r>
   </si>
   <si>
     <t>武器ID</t>
@@ -2171,6 +1928,371 @@
   <si>
     <t>记载着法术【强力灵气弹】的古书。能够制造更大更强的灵气弹。</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品完整描述</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有作用</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品作用描述</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortDesc</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复全部灵气，并提升灵气上限50%</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复生命值至80%</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建营火，可以休息并且整备</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力瓶</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力瓶/灵气瓶上限+1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级锐石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级锐石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特级锐石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将短剑、刀、长剑类武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将短剑、刀、长剑类武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将短剑、刀、长剑类武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+3</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将短剑、刀、长剑类武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+4</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将短剑、刀、长剑类武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级硬石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级硬石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级兽魂石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级兽魂石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特级兽魂石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将重武、弓弩类武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将重武、弓弩类武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将重武、弓弩类武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+3</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将重武、弓弩类武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+4</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将重武、弓弩类武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将任意武器强化至+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将任意武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+4</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将任意武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+3</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将任意武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将任意武器强化至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集了灵药的红色瓶子，饮下其中的液体可回复生命。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕴含了生命力的种子，投入到活力瓶/灵气瓶中可提升液体浓度，从而增加使用次数。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集了灵气的蓝色瓶子，饮下其中的液体可回复灵气，还能暂时提升灵气的存量。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来生火的火种。火焰不仅给人温暖，在孤独的旅途中更增添信心，是必不可少的物品。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEMTYPE</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵气瓶</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>火种</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之种</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级锐石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极锐石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级硬石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特级硬石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极硬石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级兽魂石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极兽魂石</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2321,7 +2443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2420,6 +2542,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2724,19 +2848,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="2" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="120.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2744,167 +2869,348 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
+      <c r="B7" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14">
         <v>16</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="B14" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="30" t="s">
+      <c r="B15" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16">
         <v>18</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="B16" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="30" t="s">
+      <c r="B17" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18">
         <v>20</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="B18" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="30" t="s">
+      <c r="B19" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20">
         <v>22</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="B20" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="30" t="s">
+      <c r="B21" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22">
         <v>24</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="B22" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="A13">
-        <v>101</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="A14">
-        <v>102</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15">
-      <c r="A15">
-        <v>103</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>31</v>
+      <c r="B23" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2912,7 +3218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U176"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
@@ -2938,170 +3244,170 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="19" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="27">
       <c r="A2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1">
@@ -3109,10 +3415,10 @@
         <v>1000</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -3162,28 +3468,28 @@
         <v>1100</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D5" s="21">
         <v>6</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F5" s="21">
         <v>90</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H5" s="21">
         <v>150</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="J5" s="21">
         <v>1101</v>
@@ -3198,10 +3504,10 @@
       <c r="N5" s="21"/>
       <c r="O5" s="24"/>
       <c r="P5" s="24" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="35">
@@ -3219,31 +3525,31 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="21" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F6" s="21">
         <v>90</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H6" s="21">
         <v>150</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="J6" s="21">
         <v>1101</v>
@@ -3258,10 +3564,10 @@
       <c r="N6" s="21"/>
       <c r="O6" s="24"/>
       <c r="P6" s="37" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="R6" s="24"/>
       <c r="S6" s="35">
@@ -3279,31 +3585,31 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="21" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F7" s="21">
         <v>90</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H7" s="21">
         <v>150</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="J7" s="21">
         <v>1101</v>
@@ -3318,10 +3624,10 @@
       <c r="N7" s="21"/>
       <c r="O7" s="24"/>
       <c r="P7" s="37" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="Q7" s="37" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="R7" s="24"/>
       <c r="S7" s="35">
@@ -3339,31 +3645,31 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="21" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F8" s="21">
         <v>90</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="H8" s="21">
         <v>150</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="J8" s="21">
         <v>1101</v>
@@ -3378,10 +3684,10 @@
       <c r="N8" s="21"/>
       <c r="O8" s="24"/>
       <c r="P8" s="37" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="Q8" s="37" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="R8" s="24"/>
       <c r="S8" s="35">
@@ -3399,31 +3705,31 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="21" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="E9" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F9" s="21">
         <v>90</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H9" s="21">
         <v>150</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="J9" s="21">
         <v>1101</v>
@@ -3438,10 +3744,10 @@
       <c r="N9" s="21"/>
       <c r="O9" s="24"/>
       <c r="P9" s="37" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="Q9" s="37" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="R9" s="24"/>
       <c r="S9" s="35">
@@ -3459,19 +3765,19 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="21" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F10" s="21">
         <v>90</v>
@@ -3483,7 +3789,7 @@
         <v>150</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="J10" s="21">
         <v>1101</v>
@@ -3498,10 +3804,10 @@
       <c r="N10" s="21"/>
       <c r="O10" s="24"/>
       <c r="P10" s="37" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="Q10" s="37" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="R10" s="24"/>
       <c r="S10" s="35">
@@ -3554,13 +3860,13 @@
         <v>1110</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E12" s="21">
         <v>10</v>
@@ -3575,7 +3881,7 @@
         <v>160</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="J12" s="21">
         <v>1101</v>
@@ -3590,10 +3896,10 @@
       <c r="N12" s="21"/>
       <c r="O12" s="24"/>
       <c r="P12" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q12" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R12" s="24"/>
       <c r="S12" s="35">
@@ -3611,19 +3917,19 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="21" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F13" s="21">
         <v>110</v>
@@ -3635,7 +3941,7 @@
         <v>160</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="J13" s="21">
         <v>1101</v>
@@ -3650,10 +3956,10 @@
       <c r="N13" s="21"/>
       <c r="O13" s="24"/>
       <c r="P13" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R13" s="24"/>
       <c r="S13" s="35">
@@ -3671,19 +3977,19 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="21" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F14" s="21">
         <v>110</v>
@@ -3695,7 +4001,7 @@
         <v>160</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="J14" s="21">
         <v>1101</v>
@@ -3710,10 +4016,10 @@
       <c r="N14" s="21"/>
       <c r="O14" s="24"/>
       <c r="P14" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="35">
@@ -3731,19 +4037,19 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="21" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="F15" s="21">
         <v>110</v>
@@ -3755,7 +4061,7 @@
         <v>160</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="J15" s="21">
         <v>1101</v>
@@ -3770,10 +4076,10 @@
       <c r="N15" s="21"/>
       <c r="O15" s="24"/>
       <c r="P15" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q15" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R15" s="24"/>
       <c r="S15" s="35">
@@ -3791,19 +4097,19 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="21" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="F16" s="21">
         <v>110</v>
@@ -3815,7 +4121,7 @@
         <v>160</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="J16" s="21">
         <v>1101</v>
@@ -3830,10 +4136,10 @@
       <c r="N16" s="21"/>
       <c r="O16" s="24"/>
       <c r="P16" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R16" s="24"/>
       <c r="S16" s="35">
@@ -3851,19 +4157,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="21" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F17" s="21">
         <v>110</v>
@@ -3875,7 +4181,7 @@
         <v>160</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="J17" s="21">
         <v>1101</v>
@@ -3890,10 +4196,10 @@
       <c r="N17" s="21"/>
       <c r="O17" s="24"/>
       <c r="P17" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R17" s="24"/>
       <c r="S17" s="35">
@@ -3946,16 +4252,16 @@
         <v>1120</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F19" s="21">
         <v>100</v>
@@ -3964,10 +4270,10 @@
         <v>15</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="J19" s="21">
         <v>1101</v>
@@ -3982,10 +4288,10 @@
       <c r="N19" s="21"/>
       <c r="O19" s="24"/>
       <c r="P19" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R19" s="24"/>
       <c r="S19" s="35">
@@ -4003,19 +4309,19 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="21" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F20" s="21">
         <v>100</v>
@@ -4024,10 +4330,10 @@
         <v>15</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="J20" s="21">
         <v>1101</v>
@@ -4042,10 +4348,10 @@
       <c r="N20" s="21"/>
       <c r="O20" s="24"/>
       <c r="P20" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R20" s="24"/>
       <c r="S20" s="35">
@@ -4063,19 +4369,19 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="21" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F21" s="21">
         <v>100</v>
@@ -4084,10 +4390,10 @@
         <v>15</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="J21" s="21">
         <v>1101</v>
@@ -4102,10 +4408,10 @@
       <c r="N21" s="21"/>
       <c r="O21" s="24"/>
       <c r="P21" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q21" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R21" s="24"/>
       <c r="S21" s="35">
@@ -4123,19 +4429,19 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="21" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F22" s="21">
         <v>100</v>
@@ -4144,10 +4450,10 @@
         <v>15</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="J22" s="21">
         <v>1101</v>
@@ -4162,10 +4468,10 @@
       <c r="N22" s="21"/>
       <c r="O22" s="24"/>
       <c r="P22" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R22" s="24"/>
       <c r="S22" s="35">
@@ -4183,19 +4489,19 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="21" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F23" s="21">
         <v>100</v>
@@ -4204,10 +4510,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="J23" s="21">
         <v>1101</v>
@@ -4222,10 +4528,10 @@
       <c r="N23" s="21"/>
       <c r="O23" s="24"/>
       <c r="P23" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R23" s="24"/>
       <c r="S23" s="35">
@@ -4243,19 +4549,19 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="21" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F24" s="21">
         <v>100</v>
@@ -4264,10 +4570,10 @@
         <v>15</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="J24" s="21">
         <v>1101</v>
@@ -4282,10 +4588,10 @@
       <c r="N24" s="21"/>
       <c r="O24" s="24"/>
       <c r="P24" s="37" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="Q24" s="37" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="R24" s="24"/>
       <c r="S24" s="35">
@@ -4335,13 +4641,13 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="21" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D26" s="21">
         <v>12</v>
@@ -4359,7 +4665,7 @@
         <v>120</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="J26" s="21">
         <v>1201</v>
@@ -4397,19 +4703,19 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="21" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F27" s="21">
         <v>80</v>
@@ -4421,7 +4727,7 @@
         <v>120</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="J27" s="21">
         <v>1201</v>
@@ -4436,7 +4742,7 @@
         <v>2</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="O27" s="24">
         <v>5</v>
@@ -4459,19 +4765,19 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="21" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F28" s="21">
         <v>80</v>
@@ -4483,7 +4789,7 @@
         <v>120</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="J28" s="21">
         <v>1201</v>
@@ -4498,7 +4804,7 @@
         <v>2</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="O28" s="24">
         <v>5</v>
@@ -4521,19 +4827,19 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="21" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F29" s="21">
         <v>80</v>
@@ -4545,7 +4851,7 @@
         <v>120</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="J29" s="21">
         <v>1201</v>
@@ -4560,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="O29" s="24">
         <v>5</v>
@@ -4583,19 +4889,19 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="21" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="F30" s="21">
         <v>80</v>
@@ -4607,7 +4913,7 @@
         <v>120</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="J30" s="21">
         <v>1201</v>
@@ -4622,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="O30" s="24">
         <v>5</v>
@@ -4645,19 +4951,19 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="21" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F31" s="21">
         <v>80</v>
@@ -4669,7 +4975,7 @@
         <v>120</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="J31" s="21">
         <v>1201</v>
@@ -4684,7 +4990,7 @@
         <v>2</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="O31" s="24">
         <v>5</v>
@@ -4742,10 +5048,10 @@
         <v>1210</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D33" s="21">
         <v>15</v>
@@ -4757,13 +5063,13 @@
         <v>90</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="H33" s="21">
         <v>30</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="J33" s="21">
         <v>1201</v>
@@ -4795,31 +5101,31 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="21" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="H34" s="21">
         <v>30</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="J34" s="21">
         <v>1201</v>
@@ -4851,31 +5157,31 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="21" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="H35" s="21">
         <v>30</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="J35" s="21">
         <v>1201</v>
@@ -4907,31 +5213,31 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="21" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H36" s="21">
         <v>30</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="J36" s="21">
         <v>1201</v>
@@ -4963,31 +5269,31 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="21" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H37" s="21">
         <v>30</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="J37" s="21">
         <v>1201</v>
@@ -5019,31 +5325,31 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="21" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H38" s="21">
         <v>30</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="J38" s="21">
         <v>1201</v>
@@ -5110,10 +5416,10 @@
         <v>1220</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D40" s="21">
         <v>1</v>
@@ -5131,7 +5437,7 @@
         <v>110</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="J40" s="21">
         <v>1201</v>
@@ -5166,10 +5472,10 @@
         <v>1300</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D41" s="21">
         <v>18</v>
@@ -5258,10 +5564,10 @@
         <v>1310</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D43" s="21">
         <v>16</v>
@@ -5279,7 +5585,7 @@
         <v>130</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="J43" s="21">
         <v>1301</v>
@@ -5317,19 +5623,19 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="21" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F44" s="21">
         <v>80</v>
@@ -5341,7 +5647,7 @@
         <v>130</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="J44" s="21">
         <v>1301</v>
@@ -5356,10 +5662,10 @@
         <v>3</v>
       </c>
       <c r="N44" s="21" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="P44" s="24"/>
       <c r="Q44" s="24"/>
@@ -5379,19 +5685,19 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="21" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D45" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="F45" s="21">
         <v>80</v>
@@ -5403,7 +5709,7 @@
         <v>130</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="J45" s="21">
         <v>1301</v>
@@ -5418,10 +5724,10 @@
         <v>3</v>
       </c>
       <c r="N45" s="21" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="P45" s="24"/>
       <c r="Q45" s="24"/>
@@ -5441,19 +5747,19 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="21" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F46" s="21">
         <v>80</v>
@@ -5465,7 +5771,7 @@
         <v>130</v>
       </c>
       <c r="I46" s="38" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="J46" s="21">
         <v>1301</v>
@@ -5480,10 +5786,10 @@
         <v>3</v>
       </c>
       <c r="N46" s="21" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="P46" s="24"/>
       <c r="Q46" s="24"/>
@@ -5503,19 +5809,19 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="21" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F47" s="21">
         <v>80</v>
@@ -5527,7 +5833,7 @@
         <v>130</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="J47" s="21">
         <v>1301</v>
@@ -5542,10 +5848,10 @@
         <v>3</v>
       </c>
       <c r="N47" s="21" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="O47" s="24" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="P47" s="24"/>
       <c r="Q47" s="24"/>
@@ -5565,19 +5871,19 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="21" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F48" s="21">
         <v>80</v>
@@ -5589,7 +5895,7 @@
         <v>130</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="J48" s="21">
         <v>1301</v>
@@ -5604,10 +5910,10 @@
         <v>3</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="P48" s="24"/>
       <c r="Q48" s="24"/>
@@ -5662,10 +5968,10 @@
         <v>1320</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D50" s="21">
         <v>15</v>
@@ -5715,31 +6021,31 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="21" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="J51" s="21">
         <v>1301</v>
@@ -5771,31 +6077,31 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="21" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="J52" s="21">
         <v>1301</v>
@@ -5827,31 +6133,31 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="21" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="J53" s="21">
         <v>1301</v>
@@ -5883,31 +6189,31 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="21" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="J54" s="21">
         <v>1301</v>
@@ -5939,31 +6245,31 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="21" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="J55" s="21">
         <v>1301</v>
@@ -6030,10 +6336,10 @@
         <v>1400</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D57" s="21">
         <v>25</v>
@@ -6051,7 +6357,7 @@
         <v>80</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="J57" s="21">
         <v>1401</v>
@@ -6083,22 +6389,22 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="21" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="G58" s="21">
         <v>10</v>
@@ -6107,7 +6413,7 @@
         <v>80</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="J58" s="21">
         <v>1401</v>
@@ -6139,22 +6445,22 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="21" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="G59" s="21">
         <v>10</v>
@@ -6163,7 +6469,7 @@
         <v>80</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="J59" s="21">
         <v>1401</v>
@@ -6195,22 +6501,22 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="21" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="G60" s="21">
         <v>10</v>
@@ -6219,7 +6525,7 @@
         <v>80</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="J60" s="21">
         <v>1401</v>
@@ -6251,22 +6557,22 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="21" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G61" s="21">
         <v>10</v>
@@ -6275,7 +6581,7 @@
         <v>80</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="J61" s="21">
         <v>1401</v>
@@ -6307,22 +6613,22 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="21" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="G62" s="21">
         <v>10</v>
@@ -6331,7 +6637,7 @@
         <v>80</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="J62" s="21">
         <v>1401</v>
@@ -6398,10 +6704,10 @@
         <v>1410</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D64" s="21">
         <v>18</v>
@@ -6419,7 +6725,7 @@
         <v>110</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="J64" s="21">
         <v>1401</v>
@@ -6451,19 +6757,19 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="21" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F65" s="21">
         <v>90</v>
@@ -6475,7 +6781,7 @@
         <v>110</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="J65" s="21">
         <v>1401</v>
@@ -6507,19 +6813,19 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="21" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F66" s="21">
         <v>90</v>
@@ -6531,7 +6837,7 @@
         <v>110</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="J66" s="21">
         <v>1401</v>
@@ -6563,19 +6869,19 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="21" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="F67" s="21">
         <v>90</v>
@@ -6587,7 +6893,7 @@
         <v>110</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="J67" s="21">
         <v>1401</v>
@@ -6619,19 +6925,19 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="21" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F68" s="21">
         <v>90</v>
@@ -6643,7 +6949,7 @@
         <v>110</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="J68" s="21">
         <v>1401</v>
@@ -6675,19 +6981,19 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="21" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="F69" s="21">
         <v>90</v>
@@ -6699,7 +7005,7 @@
         <v>110</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="J69" s="21">
         <v>1401</v>
@@ -6766,16 +7072,16 @@
         <v>1420</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D71" s="21">
         <v>28</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F71" s="21">
         <v>60</v>
@@ -6787,7 +7093,7 @@
         <v>40</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="J71" s="21">
         <v>1401</v>
@@ -6819,19 +7125,19 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="21" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F72" s="21">
         <v>60</v>
@@ -6840,10 +7146,10 @@
         <v>10</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="J72" s="21">
         <v>1401</v>
@@ -6875,19 +7181,19 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="21" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F73" s="21">
         <v>60</v>
@@ -6896,10 +7202,10 @@
         <v>10</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="J73" s="21">
         <v>1401</v>
@@ -6931,19 +7237,19 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="21" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F74" s="21">
         <v>60</v>
@@ -6952,10 +7258,10 @@
         <v>10</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="J74" s="21">
         <v>1401</v>
@@ -6987,19 +7293,19 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="21" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F75" s="21">
         <v>60</v>
@@ -7008,10 +7314,10 @@
         <v>10</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="J75" s="21">
         <v>1401</v>
@@ -7043,19 +7349,19 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="21" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F76" s="21">
         <v>60</v>
@@ -7064,10 +7370,10 @@
         <v>10</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="J76" s="21">
         <v>1401</v>
@@ -7134,10 +7440,10 @@
         <v>1500</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D78" s="21">
         <v>15</v>
@@ -7155,7 +7461,7 @@
         <v>80</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="J78" s="21">
         <v>1501</v>
@@ -7187,31 +7493,31 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="21" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="G79" s="21">
         <v>11</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="J79" s="21">
         <v>1501</v>
@@ -7243,31 +7549,31 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="21" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="G80" s="21">
         <v>11</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="J80" s="21">
         <v>1501</v>
@@ -7299,31 +7605,31 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="21" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="J81" s="21">
         <v>1501</v>
@@ -7355,31 +7661,31 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="21" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="H82" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="J82" s="21">
         <v>1501</v>
@@ -7411,31 +7717,31 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="21" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="H83" s="21" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="J83" s="21">
         <v>1501</v>
@@ -7502,10 +7808,10 @@
         <v>1510</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="D85" s="21">
         <v>20</v>
@@ -7523,7 +7829,7 @@
         <v>60</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="J85" s="21">
         <v>1501</v>
@@ -7555,19 +7861,19 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="21" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F86" s="21">
         <v>100</v>
@@ -7579,7 +7885,7 @@
         <v>60</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="J86" s="21">
         <v>1501</v>
@@ -7611,19 +7917,19 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="21" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F87" s="21">
         <v>100</v>
@@ -7635,7 +7941,7 @@
         <v>60</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="J87" s="21">
         <v>1501</v>
@@ -7667,19 +7973,19 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="21" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F88" s="21">
         <v>100</v>
@@ -7688,10 +7994,10 @@
         <v>13</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="J88" s="21">
         <v>1501</v>
@@ -7723,19 +8029,19 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="21" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="F89" s="21">
         <v>100</v>
@@ -7744,10 +8050,10 @@
         <v>13</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="J89" s="21">
         <v>1501</v>
@@ -7779,19 +8085,19 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="21" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F90" s="21">
         <v>100</v>
@@ -7800,10 +8106,10 @@
         <v>13</v>
       </c>
       <c r="H90" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="J90" s="21">
         <v>1501</v>
@@ -7870,13 +8176,13 @@
         <v>1520</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E92" s="21">
         <v>23</v>
@@ -7891,7 +8197,7 @@
         <v>110</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="J92" s="21">
         <v>1501</v>
@@ -7923,19 +8229,19 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="21" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="F93" s="21">
         <v>90</v>
@@ -7947,7 +8253,7 @@
         <v>110</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="J93" s="21">
         <v>1501</v>
@@ -7979,19 +8285,19 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="21" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F94" s="21">
         <v>90</v>
@@ -8003,7 +8309,7 @@
         <v>110</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="J94" s="21">
         <v>1501</v>
@@ -8035,22 +8341,22 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="21" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G95" s="21">
         <v>15</v>
@@ -8059,7 +8365,7 @@
         <v>110</v>
       </c>
       <c r="I95" s="38" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="J95" s="21">
         <v>1501</v>
@@ -8091,22 +8397,22 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="21" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G96" s="21">
         <v>15</v>
@@ -8115,7 +8421,7 @@
         <v>110</v>
       </c>
       <c r="I96" s="38" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="J96" s="21">
         <v>1501</v>
@@ -8147,22 +8453,22 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="21" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G97" s="21">
         <v>15</v>
@@ -8171,7 +8477,7 @@
         <v>110</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="J97" s="21">
         <v>1501</v>
@@ -8238,13 +8544,13 @@
         <v>1600</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E99" s="21">
         <v>30</v>
@@ -8259,7 +8565,7 @@
         <v>75</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="J99" s="21">
         <v>1601</v>
@@ -8291,31 +8597,31 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="21" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G100" s="21">
         <v>10</v>
       </c>
       <c r="H100" s="21" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="J100" s="21">
         <v>1601</v>
@@ -8347,31 +8653,31 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="21" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="G101" s="21">
         <v>10</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="J101" s="21">
         <v>1601</v>
@@ -8403,31 +8709,31 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="21" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G102" s="21">
         <v>10</v>
       </c>
       <c r="H102" s="21" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="J102" s="21">
         <v>1601</v>
@@ -8459,31 +8765,31 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="21" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="G103" s="21">
         <v>10</v>
       </c>
       <c r="H103" s="21" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="J103" s="21">
         <v>1601</v>
@@ -8515,31 +8821,31 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="21" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="G104" s="21">
         <v>10</v>
       </c>
       <c r="H104" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="J104" s="21">
         <v>1601</v>
@@ -8606,10 +8912,10 @@
         <v>1610</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D106" s="21">
         <v>16</v>
@@ -8627,7 +8933,7 @@
         <v>80</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="J106" s="21">
         <v>1604</v>
@@ -8659,31 +8965,31 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="21" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F107" s="21">
         <v>60</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H107" s="21">
         <v>80</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="J107" s="21">
         <v>1604</v>
@@ -8715,31 +9021,31 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="21" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F108" s="21">
         <v>60</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H108" s="21">
         <v>80</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="J108" s="21">
         <v>1604</v>
@@ -8771,31 +9077,31 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="21" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D109" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E109" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="F109" s="21">
         <v>60</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="H109" s="21">
         <v>80</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="J109" s="21">
         <v>1604</v>
@@ -8827,31 +9133,31 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="21" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F110" s="21">
         <v>60</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H110" s="21">
         <v>80</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="J110" s="21">
         <v>1604</v>
@@ -8883,31 +9189,31 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="21" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="F111" s="21">
         <v>60</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="H111" s="21">
         <v>80</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="J111" s="21">
         <v>1604</v>
@@ -8974,10 +9280,10 @@
         <v>1620</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D113" s="21">
         <v>0</v>
@@ -9062,10 +9368,10 @@
         <v>3001</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D115" s="21">
         <v>1</v>
@@ -9118,10 +9424,10 @@
         <v>3002</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="D116" s="21">
         <v>25</v>
@@ -9162,10 +9468,10 @@
         <v>3003</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
@@ -9194,10 +9500,10 @@
         <v>3004</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
@@ -9222,10 +9528,10 @@
         <v>3005</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
@@ -9670,7 +9976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -9691,116 +9997,116 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -9808,10 +10114,10 @@
         <v>2000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -9843,10 +10149,10 @@
         <v>2010</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -9890,10 +10196,10 @@
         <v>2110</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -9937,10 +10243,10 @@
         <v>2210</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -9989,10 +10295,10 @@
         <v>2020</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D9">
         <v>75</v>
@@ -10036,10 +10342,10 @@
         <v>2021</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -10083,10 +10389,10 @@
         <v>2022</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -10130,10 +10436,10 @@
         <v>2023</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -10166,10 +10472,10 @@
         <v>2120</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="D13">
         <v>35</v>
@@ -10213,10 +10519,10 @@
         <v>2121</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="D14">
         <v>25</v>
@@ -10260,10 +10566,10 @@
         <v>2122</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="D15">
         <v>55</v>
@@ -10307,10 +10613,10 @@
         <v>2123</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -10343,10 +10649,10 @@
         <v>2220</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -10390,10 +10696,10 @@
         <v>2221</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -10437,10 +10743,10 @@
         <v>2222</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -10473,10 +10779,10 @@
         <v>2223</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -10514,10 +10820,10 @@
         <v>2030</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="D22">
         <v>120</v>
@@ -10561,10 +10867,10 @@
         <v>2031</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="D23">
         <v>90</v>
@@ -10608,10 +10914,10 @@
         <v>2032</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -10644,10 +10950,10 @@
         <v>2033</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="D25" s="10">
         <v>100</v>
@@ -10692,10 +10998,10 @@
         <v>2034</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="D26" s="10">
         <v>0</v>
@@ -10729,10 +11035,10 @@
         <v>2130</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="D27" s="10">
         <v>87</v>
@@ -10777,10 +11083,10 @@
         <v>2131</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="D28" s="10">
         <v>119</v>
@@ -10825,10 +11131,10 @@
         <v>2132</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="D29" s="10">
         <v>0</v>
@@ -10862,10 +11168,10 @@
         <v>2133</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D30" s="10">
         <v>0</v>
@@ -10899,10 +11205,10 @@
         <v>2134</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="D31" s="10">
         <v>0</v>
@@ -10936,10 +11242,10 @@
         <v>2230</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="D32" s="10">
         <v>99</v>
@@ -10984,10 +11290,10 @@
         <v>2231</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="D33" s="10">
         <v>147</v>
@@ -11032,10 +11338,10 @@
         <v>2232</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -11069,10 +11375,10 @@
         <v>2233</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="D35" s="10">
         <v>255</v>
@@ -11117,10 +11423,10 @@
         <v>2234</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -11169,10 +11475,10 @@
         <v>2040</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="D38" s="10">
         <v>200</v>
@@ -11217,10 +11523,10 @@
         <v>2041</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="D39" s="10">
         <v>150</v>
@@ -11265,10 +11571,10 @@
         <v>2042</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="D40" s="10">
         <v>0</v>
@@ -11302,10 +11608,10 @@
         <v>2140</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="D41" s="10">
         <v>142</v>
@@ -11350,10 +11656,10 @@
         <v>2141</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="D42" s="15">
         <v>0</v>
@@ -11387,10 +11693,10 @@
         <v>2240</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="D43" s="10">
         <v>176</v>
@@ -11435,10 +11741,10 @@
         <v>2241</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="D44" s="15">
         <v>0</v>
@@ -11486,10 +11792,10 @@
         <v>4001</v>
       </c>
       <c r="B46" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -11521,7 +11827,7 @@
         <v>4005</v>
       </c>
       <c r="B47" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -11534,7 +11840,7 @@
         <v>4006</v>
       </c>
       <c r="B48" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
@@ -11547,10 +11853,10 @@
         <v>4007</v>
       </c>
       <c r="B49" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
@@ -11563,10 +11869,10 @@
         <v>4008</v>
       </c>
       <c r="B50" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="K50">
         <v>4008</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="535">
   <si>
     <t>物品ID</t>
   </si>
@@ -2294,12 +2294,54 @@
     <t>Consumable</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>usedInBattle</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗中使用</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+  </si>
+  <si>
+    <t>targetType</t>
+  </si>
+  <si>
+    <t>TARGETTYPE</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果函数</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectString</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealingMagic</t>
+  </si>
+  <si>
+    <t>ItemEffectHealingPhysic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2416,6 +2458,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2443,7 +2491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2544,6 +2592,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2848,20 +2902,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="120.125" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="40.5" customWidth="1"/>
+    <col min="8" max="8" width="120.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2872,13 +2929,22 @@
         <v>509</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8" ht="27">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2888,14 +2954,23 @@
       <c r="C2" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2905,14 +2980,23 @@
       <c r="C3" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -2922,14 +3006,21 @@
       <c r="C4" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2939,14 +3030,23 @@
       <c r="C5" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="H5" s="40" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2956,14 +3056,23 @@
       <c r="C6" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="G6" t="s">
         <v>477</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="H6" s="40" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2973,14 +3082,21 @@
       <c r="C7" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="H7" s="40" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2990,14 +3106,21 @@
       <c r="C8" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="H8" s="40" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9">
         <v>11</v>
       </c>
@@ -3007,11 +3130,18 @@
       <c r="C9" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10">
         <v>12</v>
       </c>
@@ -3021,11 +3151,18 @@
       <c r="C10" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11">
         <v>13</v>
       </c>
@@ -3035,11 +3172,18 @@
       <c r="C11" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12">
         <v>14</v>
       </c>
@@ -3049,11 +3193,18 @@
       <c r="C12" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13">
         <v>15</v>
       </c>
@@ -3063,11 +3214,18 @@
       <c r="C13" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14">
         <v>16</v>
       </c>
@@ -3077,11 +3235,18 @@
       <c r="C14" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:8" ht="15">
       <c r="A15">
         <v>17</v>
       </c>
@@ -3091,11 +3256,18 @@
       <c r="C15" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16">
         <v>18</v>
       </c>
@@ -3105,11 +3277,18 @@
       <c r="C16" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17">
         <v>19</v>
       </c>
@@ -3119,11 +3298,18 @@
       <c r="C17" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:7" ht="15">
       <c r="A18">
         <v>20</v>
       </c>
@@ -3133,11 +3319,18 @@
       <c r="C18" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19">
         <v>21</v>
       </c>
@@ -3147,11 +3340,18 @@
       <c r="C19" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20">
         <v>22</v>
       </c>
@@ -3161,11 +3361,18 @@
       <c r="C20" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21">
         <v>23</v>
       </c>
@@ -3175,11 +3382,18 @@
       <c r="C21" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:7" ht="15">
       <c r="A22">
         <v>24</v>
       </c>
@@ -3189,11 +3403,18 @@
       <c r="C22" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23">
         <v>25</v>
       </c>
@@ -3203,7 +3424,14 @@
       <c r="C23" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41" t="s">
         <v>500</v>
       </c>
     </row>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="539">
   <si>
     <t>物品ID</t>
   </si>
@@ -1393,6 +1393,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1420,6 +1421,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1447,6 +1449,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1474,6 +1477,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1501,6 +1505,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1528,6 +1533,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2335,6 +2341,74 @@
   </si>
   <si>
     <t>ItemEffectHealingPhysic</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2462,6 +2536,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2904,7 +2979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2944,7 +3019,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3446,8 +3521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4120,7 +4195,7 @@
       <c r="L12" s="21">
         <v>1104</v>
       </c>
-      <c r="M12" s="21"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="24"/>
       <c r="P12" s="37" t="s">
@@ -4422,7 +4497,6 @@
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
-      <c r="O17" s="24"/>
       <c r="P17" s="37" t="s">
         <v>433</v>
       </c>
@@ -4904,8 +4978,8 @@
       <c r="L26" s="21">
         <v>1203</v>
       </c>
-      <c r="M26" s="21">
-        <v>2</v>
+      <c r="M26" s="38" t="s">
+        <v>535</v>
       </c>
       <c r="N26" s="21">
         <v>10</v>
@@ -4966,8 +5040,8 @@
       <c r="L27" s="21">
         <v>1203</v>
       </c>
-      <c r="M27" s="21">
-        <v>2</v>
+      <c r="M27" s="38" t="s">
+        <v>536</v>
       </c>
       <c r="N27" s="21" t="s">
         <v>49</v>
@@ -5028,8 +5102,8 @@
       <c r="L28" s="21">
         <v>1203</v>
       </c>
-      <c r="M28" s="21">
-        <v>2</v>
+      <c r="M28" s="38" t="s">
+        <v>535</v>
       </c>
       <c r="N28" s="21" t="s">
         <v>56</v>
@@ -5090,8 +5164,8 @@
       <c r="L29" s="21">
         <v>1203</v>
       </c>
-      <c r="M29" s="21">
-        <v>2</v>
+      <c r="M29" s="38" t="s">
+        <v>535</v>
       </c>
       <c r="N29" s="21" t="s">
         <v>61</v>
@@ -5152,8 +5226,8 @@
       <c r="L30" s="21">
         <v>1203</v>
       </c>
-      <c r="M30" s="21">
-        <v>2</v>
+      <c r="M30" s="38" t="s">
+        <v>535</v>
       </c>
       <c r="N30" s="21" t="s">
         <v>67</v>
@@ -5214,8 +5288,8 @@
       <c r="L31" s="21">
         <v>1203</v>
       </c>
-      <c r="M31" s="21">
-        <v>2</v>
+      <c r="M31" s="38" t="s">
+        <v>535</v>
       </c>
       <c r="N31" s="21" t="s">
         <v>97</v>
@@ -5824,8 +5898,8 @@
       <c r="L43" s="21">
         <v>1304</v>
       </c>
-      <c r="M43" s="21">
-        <v>3</v>
+      <c r="M43" s="38" t="s">
+        <v>537</v>
       </c>
       <c r="N43" s="21">
         <v>10</v>
@@ -5886,8 +5960,8 @@
       <c r="L44" s="21">
         <v>1304</v>
       </c>
-      <c r="M44" s="21">
-        <v>3</v>
+      <c r="M44" s="38" t="s">
+        <v>537</v>
       </c>
       <c r="N44" s="21" t="s">
         <v>49</v>
@@ -5948,8 +6022,8 @@
       <c r="L45" s="21">
         <v>1304</v>
       </c>
-      <c r="M45" s="21">
-        <v>3</v>
+      <c r="M45" s="38" t="s">
+        <v>538</v>
       </c>
       <c r="N45" s="21" t="s">
         <v>56</v>
@@ -6010,8 +6084,8 @@
       <c r="L46" s="21">
         <v>1304</v>
       </c>
-      <c r="M46" s="21">
-        <v>3</v>
+      <c r="M46" s="38" t="s">
+        <v>537</v>
       </c>
       <c r="N46" s="21" t="s">
         <v>61</v>
@@ -6072,8 +6146,8 @@
       <c r="L47" s="21">
         <v>1304</v>
       </c>
-      <c r="M47" s="21">
-        <v>3</v>
+      <c r="M47" s="38" t="s">
+        <v>537</v>
       </c>
       <c r="N47" s="21" t="s">
         <v>67</v>
@@ -6134,8 +6208,8 @@
       <c r="L48" s="21">
         <v>1304</v>
       </c>
-      <c r="M48" s="21">
-        <v>3</v>
+      <c r="M48" s="38" t="s">
+        <v>537</v>
       </c>
       <c r="N48" s="21" t="s">
         <v>97</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -2340,9 +2340,6 @@
     <t>HealingMagic</t>
   </si>
   <si>
-    <t>ItemEffectHealingPhysic</t>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -2408,6 +2405,10 @@
       </rPr>
       <t>02</t>
     </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealingPhysic</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2979,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3112,7 +3113,7 @@
         <v>530</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>478</v>
@@ -3521,7 +3522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -4979,7 +4980,7 @@
         <v>1203</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N26" s="21">
         <v>10</v>
@@ -5041,7 +5042,7 @@
         <v>1203</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N27" s="21" t="s">
         <v>49</v>
@@ -5103,7 +5104,7 @@
         <v>1203</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N28" s="21" t="s">
         <v>56</v>
@@ -5165,7 +5166,7 @@
         <v>1203</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N29" s="21" t="s">
         <v>61</v>
@@ -5227,7 +5228,7 @@
         <v>1203</v>
       </c>
       <c r="M30" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N30" s="21" t="s">
         <v>67</v>
@@ -5289,7 +5290,7 @@
         <v>1203</v>
       </c>
       <c r="M31" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N31" s="21" t="s">
         <v>97</v>
@@ -5899,7 +5900,7 @@
         <v>1304</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N43" s="21">
         <v>10</v>
@@ -5961,7 +5962,7 @@
         <v>1304</v>
       </c>
       <c r="M44" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N44" s="21" t="s">
         <v>49</v>
@@ -6023,7 +6024,7 @@
         <v>1304</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N45" s="21" t="s">
         <v>56</v>
@@ -6085,7 +6086,7 @@
         <v>1304</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N46" s="21" t="s">
         <v>61</v>
@@ -6147,7 +6148,7 @@
         <v>1304</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N47" s="21" t="s">
         <v>67</v>
@@ -6209,7 +6210,7 @@
         <v>1304</v>
       </c>
       <c r="M48" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N48" s="21" t="s">
         <v>97</v>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="546">
   <si>
     <t>物品ID</t>
   </si>
@@ -2409,6 +2409,34 @@
   </si>
   <si>
     <t>HealingPhysic</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff添加时机</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffAddTriggers</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2980,7 +3008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3520,10 +3548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U176"/>
+  <dimension ref="A1:V176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3542,11 +3570,12 @@
     <col min="13" max="13" width="9.375" customWidth="1"/>
     <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="18" width="16.875" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="19" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -3593,22 +3622,25 @@
         <v>23</v>
       </c>
       <c r="P1" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="27">
+    <row r="2" spans="1:22" ht="27">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -3655,13 +3687,16 @@
         <v>37</v>
       </c>
       <c r="P2" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -3708,13 +3743,16 @@
         <v>40</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>40</v>
+        <v>541</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1">
+      <c r="R3" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1">
       <c r="A4" s="19">
         <v>1000</v>
       </c>
@@ -3751,23 +3789,14 @@
       <c r="L4" s="19">
         <v>0</v>
       </c>
-      <c r="M4" s="25">
-        <v>0</v>
-      </c>
-      <c r="N4" s="25">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="21">
         <v>1100</v>
       </c>
@@ -3807,27 +3836,28 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="24"/>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="R5" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="35">
+      <c r="S5" s="24"/>
+      <c r="T5" s="35">
         <f>(D5+E5)/2 * (1 + G5 /100) * F5 / 100</f>
         <v>6.9300000000000015</v>
       </c>
-      <c r="T5" s="35">
+      <c r="U5" s="35">
         <f>H5 + I5*5</f>
         <v>170</v>
       </c>
-      <c r="U5" s="33">
-        <f>S5*T5 / 100</f>
+      <c r="V5" s="33">
+        <f>T5*U5 / 100</f>
         <v>11.781000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="21" t="s">
         <v>45</v>
       </c>
@@ -3867,27 +3897,28 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="24"/>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="24"/>
+      <c r="Q6" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="R6" s="37" t="s">
         <v>428</v>
       </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="35">
-        <f t="shared" ref="S6:S69" si="0">(D6+E6)/2 * (1 + G6 /100) * F6 / 100</f>
+      <c r="S6" s="24"/>
+      <c r="T6" s="35">
+        <f t="shared" ref="T6:T69" si="0">(D6+E6)/2 * (1 + G6 /100) * F6 / 100</f>
         <v>20.978999999999999</v>
       </c>
-      <c r="T6" s="35">
-        <f t="shared" ref="T6:T69" si="1">H6 + I6*5</f>
+      <c r="U6" s="35">
+        <f t="shared" ref="U6:U69" si="1">H6 + I6*5</f>
         <v>170</v>
       </c>
-      <c r="U6" s="33">
-        <f t="shared" ref="U6:U69" si="2">S6*T6 / 100</f>
+      <c r="V6" s="33">
+        <f t="shared" ref="V6:V69" si="2">T6*U6 / 100</f>
         <v>35.664299999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="21" t="s">
         <v>52</v>
       </c>
@@ -3927,27 +3958,28 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="24"/>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="24"/>
+      <c r="Q7" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="R7" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="35">
+      <c r="S7" s="24"/>
+      <c r="T7" s="35">
         <f t="shared" si="0"/>
         <v>35.28</v>
       </c>
-      <c r="T7" s="35">
+      <c r="U7" s="35">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="U7" s="33">
+      <c r="V7" s="33">
         <f t="shared" si="2"/>
         <v>59.976000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" s="21" t="s">
         <v>57</v>
       </c>
@@ -3987,27 +4019,28 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="24"/>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="24"/>
+      <c r="Q8" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="Q8" s="37" t="s">
+      <c r="R8" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="R8" s="24"/>
-      <c r="S8" s="35">
+      <c r="S8" s="24"/>
+      <c r="T8" s="35">
         <f t="shared" si="0"/>
         <v>56.951999999999998</v>
       </c>
-      <c r="T8" s="35">
+      <c r="U8" s="35">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="U8" s="33">
+      <c r="V8" s="33">
         <f t="shared" si="2"/>
         <v>96.818399999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="21" t="s">
         <v>63</v>
       </c>
@@ -4047,27 +4080,28 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="24"/>
+      <c r="Q9" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="Q9" s="37" t="s">
+      <c r="R9" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="35">
+      <c r="S9" s="24"/>
+      <c r="T9" s="35">
         <f t="shared" si="0"/>
         <v>79.00200000000001</v>
       </c>
-      <c r="T9" s="35">
+      <c r="U9" s="35">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="U9" s="33">
+      <c r="V9" s="33">
         <f t="shared" si="2"/>
         <v>134.30340000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:22">
       <c r="A10" s="21" t="s">
         <v>69</v>
       </c>
@@ -4107,27 +4141,28 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="24"/>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="Q10" s="37" t="s">
+      <c r="R10" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="R10" s="24"/>
-      <c r="S10" s="35">
+      <c r="S10" s="24"/>
+      <c r="T10" s="35">
         <f t="shared" si="0"/>
         <v>108.67499999999998</v>
       </c>
-      <c r="T10" s="35">
+      <c r="U10" s="35">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="U10" s="33">
+      <c r="V10" s="33">
         <f t="shared" si="2"/>
         <v>184.74749999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
@@ -4146,20 +4181,21 @@
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
-      <c r="S11" s="35">
+      <c r="S11" s="24"/>
+      <c r="T11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="35">
+      <c r="U11" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U11" s="33">
+      <c r="V11" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" s="21">
         <v>1110</v>
       </c>
@@ -4199,27 +4235,28 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="24"/>
-      <c r="P12" s="37" t="s">
+      <c r="P12" s="24"/>
+      <c r="Q12" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q12" s="37" t="s">
+      <c r="R12" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R12" s="24"/>
-      <c r="S12" s="35">
+      <c r="S12" s="24"/>
+      <c r="T12" s="35">
         <f t="shared" si="0"/>
         <v>11.483999999999998</v>
       </c>
-      <c r="T12" s="35">
+      <c r="U12" s="35">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="U12" s="33">
+      <c r="V12" s="33">
         <f t="shared" si="2"/>
         <v>21.245399999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="A13" s="21" t="s">
         <v>76</v>
       </c>
@@ -4259,27 +4296,28 @@
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="24"/>
-      <c r="P13" s="37" t="s">
+      <c r="P13" s="24"/>
+      <c r="Q13" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q13" s="37" t="s">
+      <c r="R13" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R13" s="24"/>
-      <c r="S13" s="35">
+      <c r="S13" s="24"/>
+      <c r="T13" s="35">
         <f t="shared" si="0"/>
         <v>34.451999999999998</v>
       </c>
-      <c r="T13" s="35">
+      <c r="U13" s="35">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="U13" s="33">
+      <c r="V13" s="33">
         <f t="shared" si="2"/>
         <v>63.736199999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="A14" s="21" t="s">
         <v>78</v>
       </c>
@@ -4319,27 +4357,28 @@
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="24"/>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="24"/>
+      <c r="Q14" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="R14" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R14" s="24"/>
-      <c r="S14" s="35">
+      <c r="S14" s="24"/>
+      <c r="T14" s="35">
         <f t="shared" si="0"/>
         <v>57.419999999999987</v>
       </c>
-      <c r="T14" s="35">
+      <c r="U14" s="35">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="U14" s="33">
+      <c r="V14" s="33">
         <f t="shared" si="2"/>
         <v>106.22699999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="A15" s="21" t="s">
         <v>81</v>
       </c>
@@ -4379,27 +4418,28 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="37" t="s">
+      <c r="P15" s="24"/>
+      <c r="Q15" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q15" s="37" t="s">
+      <c r="R15" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R15" s="24"/>
-      <c r="S15" s="35">
+      <c r="S15" s="24"/>
+      <c r="T15" s="35">
         <f t="shared" si="0"/>
         <v>91.871999999999986</v>
       </c>
-      <c r="T15" s="35">
+      <c r="U15" s="35">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="U15" s="33">
+      <c r="V15" s="33">
         <f t="shared" si="2"/>
         <v>169.96319999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" s="21" t="s">
         <v>84</v>
       </c>
@@ -4439,27 +4479,28 @@
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="24"/>
-      <c r="P16" s="37" t="s">
+      <c r="P16" s="24"/>
+      <c r="Q16" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q16" s="37" t="s">
+      <c r="R16" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R16" s="24"/>
-      <c r="S16" s="35">
+      <c r="S16" s="24"/>
+      <c r="T16" s="35">
         <f t="shared" si="0"/>
         <v>126.324</v>
       </c>
-      <c r="T16" s="35">
+      <c r="U16" s="35">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="U16" s="33">
+      <c r="V16" s="33">
         <f t="shared" si="2"/>
         <v>233.6994</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17" s="21" t="s">
         <v>88</v>
       </c>
@@ -4498,27 +4539,27 @@
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
-      <c r="P17" s="37" t="s">
+      <c r="Q17" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q17" s="37" t="s">
+      <c r="R17" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R17" s="24"/>
-      <c r="S17" s="35">
+      <c r="S17" s="24"/>
+      <c r="T17" s="35">
         <f t="shared" si="0"/>
         <v>172.26</v>
       </c>
-      <c r="T17" s="35">
+      <c r="U17" s="35">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="U17" s="33">
+      <c r="V17" s="33">
         <f t="shared" si="2"/>
         <v>318.68099999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -4537,20 +4578,21 @@
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
-      <c r="S18" s="35">
+      <c r="S18" s="24"/>
+      <c r="T18" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T18" s="35">
+      <c r="U18" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U18" s="33">
+      <c r="V18" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:22">
       <c r="A19" s="21">
         <v>1120</v>
       </c>
@@ -4590,27 +4632,28 @@
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="37" t="s">
+      <c r="P19" s="24"/>
+      <c r="Q19" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q19" s="37" t="s">
+      <c r="R19" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R19" s="24"/>
-      <c r="S19" s="35">
+      <c r="S19" s="24"/>
+      <c r="T19" s="35">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="T19" s="35">
+      <c r="U19" s="35">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="U19" s="33">
+      <c r="V19" s="33">
         <f t="shared" si="2"/>
         <v>9.6599999999999984</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" s="21" t="s">
         <v>94</v>
       </c>
@@ -4650,27 +4693,28 @@
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="24"/>
-      <c r="P20" s="37" t="s">
+      <c r="P20" s="24"/>
+      <c r="Q20" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q20" s="37" t="s">
+      <c r="R20" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R20" s="24"/>
-      <c r="S20" s="35">
+      <c r="S20" s="24"/>
+      <c r="T20" s="35">
         <f t="shared" si="0"/>
         <v>13.8</v>
       </c>
-      <c r="T20" s="35">
+      <c r="U20" s="35">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="U20" s="33">
+      <c r="V20" s="33">
         <f t="shared" si="2"/>
         <v>30.36</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:22">
       <c r="A21" s="21" t="s">
         <v>99</v>
       </c>
@@ -4710,27 +4754,28 @@
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="37" t="s">
+      <c r="P21" s="24"/>
+      <c r="Q21" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q21" s="37" t="s">
+      <c r="R21" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R21" s="24"/>
-      <c r="S21" s="35">
+      <c r="S21" s="24"/>
+      <c r="T21" s="35">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="T21" s="35">
+      <c r="U21" s="35">
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="U21" s="33">
+      <c r="V21" s="33">
         <f t="shared" si="2"/>
         <v>52.9</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:22">
       <c r="A22" s="21" t="s">
         <v>103</v>
       </c>
@@ -4770,27 +4815,28 @@
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="37" t="s">
+      <c r="P22" s="24"/>
+      <c r="Q22" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q22" s="37" t="s">
+      <c r="R22" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R22" s="24"/>
-      <c r="S22" s="35">
+      <c r="S22" s="24"/>
+      <c r="T22" s="35">
         <f t="shared" si="0"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="T22" s="35">
+      <c r="U22" s="35">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="U22" s="33">
+      <c r="V22" s="33">
         <f t="shared" si="2"/>
         <v>88.32</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:22">
       <c r="A23" s="21" t="s">
         <v>106</v>
       </c>
@@ -4830,27 +4876,28 @@
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="24"/>
-      <c r="P23" s="37" t="s">
+      <c r="P23" s="24"/>
+      <c r="Q23" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q23" s="37" t="s">
+      <c r="R23" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R23" s="24"/>
-      <c r="S23" s="35">
+      <c r="S23" s="24"/>
+      <c r="T23" s="35">
         <f t="shared" si="0"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="T23" s="35">
+      <c r="U23" s="35">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="U23" s="33">
+      <c r="V23" s="33">
         <f t="shared" si="2"/>
         <v>126.49999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22">
       <c r="A24" s="21" t="s">
         <v>111</v>
       </c>
@@ -4890,27 +4937,28 @@
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="24"/>
-      <c r="P24" s="37" t="s">
+      <c r="P24" s="24"/>
+      <c r="Q24" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="Q24" s="37" t="s">
+      <c r="R24" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="R24" s="24"/>
-      <c r="S24" s="35">
+      <c r="S24" s="24"/>
+      <c r="T24" s="35">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="T24" s="35">
+      <c r="U24" s="35">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="U24" s="33">
+      <c r="V24" s="33">
         <f t="shared" si="2"/>
         <v>179.4</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -4929,20 +4977,21 @@
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
-      <c r="S25" s="35">
+      <c r="S25" s="24"/>
+      <c r="T25" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T25" s="35">
+      <c r="U25" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="33">
+      <c r="V25" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22">
       <c r="A26" s="21" t="s">
         <v>116</v>
       </c>
@@ -4988,23 +5037,26 @@
       <c r="O26" s="24">
         <v>5</v>
       </c>
-      <c r="P26" s="24"/>
+      <c r="P26" s="37" t="s">
+        <v>542</v>
+      </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
-      <c r="S26" s="35">
+      <c r="S26" s="24"/>
+      <c r="T26" s="35">
         <f t="shared" si="0"/>
         <v>12.544</v>
       </c>
-      <c r="T26" s="35">
+      <c r="U26" s="35">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="U26" s="33">
+      <c r="V26" s="33">
         <f t="shared" si="2"/>
         <v>20.070399999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22">
       <c r="A27" s="21" t="s">
         <v>119</v>
       </c>
@@ -5050,23 +5102,26 @@
       <c r="O27" s="24">
         <v>5</v>
       </c>
-      <c r="P27" s="24"/>
+      <c r="P27" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
-      <c r="S27" s="35">
+      <c r="S27" s="24"/>
+      <c r="T27" s="35">
         <f t="shared" si="0"/>
         <v>25.088000000000001</v>
       </c>
-      <c r="T27" s="35">
+      <c r="U27" s="35">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="U27" s="33">
+      <c r="V27" s="33">
         <f t="shared" si="2"/>
         <v>40.140799999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22">
       <c r="A28" s="21" t="s">
         <v>122</v>
       </c>
@@ -5112,23 +5167,26 @@
       <c r="O28" s="24">
         <v>5</v>
       </c>
-      <c r="P28" s="24"/>
+      <c r="P28" s="37" t="s">
+        <v>544</v>
+      </c>
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
-      <c r="S28" s="35">
+      <c r="S28" s="24"/>
+      <c r="T28" s="35">
         <f t="shared" si="0"/>
         <v>50.176000000000002</v>
       </c>
-      <c r="T28" s="35">
+      <c r="U28" s="35">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="U28" s="33">
+      <c r="V28" s="33">
         <f t="shared" si="2"/>
         <v>80.281599999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22">
       <c r="A29" s="21" t="s">
         <v>124</v>
       </c>
@@ -5174,23 +5232,26 @@
       <c r="O29" s="24">
         <v>5</v>
       </c>
-      <c r="P29" s="24"/>
+      <c r="P29" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
-      <c r="S29" s="35">
+      <c r="S29" s="24"/>
+      <c r="T29" s="35">
         <f t="shared" si="0"/>
         <v>69.888000000000005</v>
       </c>
-      <c r="T29" s="35">
+      <c r="U29" s="35">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="U29" s="33">
+      <c r="V29" s="33">
         <f t="shared" si="2"/>
         <v>111.82080000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:22">
       <c r="A30" s="21" t="s">
         <v>128</v>
       </c>
@@ -5236,23 +5297,26 @@
       <c r="O30" s="24">
         <v>5</v>
       </c>
-      <c r="P30" s="24"/>
+      <c r="P30" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
-      <c r="S30" s="35">
+      <c r="S30" s="24"/>
+      <c r="T30" s="35">
         <f t="shared" si="0"/>
         <v>100.352</v>
       </c>
-      <c r="T30" s="35">
+      <c r="U30" s="35">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="U30" s="33">
+      <c r="V30" s="33">
         <f t="shared" si="2"/>
         <v>160.56319999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:22">
       <c r="A31" s="21" t="s">
         <v>131</v>
       </c>
@@ -5298,23 +5362,26 @@
       <c r="O31" s="24">
         <v>5</v>
       </c>
-      <c r="P31" s="24"/>
+      <c r="P31" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="Q31" s="24"/>
       <c r="R31" s="24"/>
-      <c r="S31" s="35">
+      <c r="S31" s="24"/>
+      <c r="T31" s="35">
         <f t="shared" si="0"/>
         <v>125.44</v>
       </c>
-      <c r="T31" s="35">
+      <c r="U31" s="35">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="U31" s="33">
+      <c r="V31" s="33">
         <f t="shared" si="2"/>
         <v>200.70400000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:22">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -5333,20 +5400,21 @@
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
       <c r="R32" s="24"/>
-      <c r="S32" s="35">
+      <c r="S32" s="24"/>
+      <c r="T32" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T32" s="35">
+      <c r="U32" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="33">
+      <c r="V32" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:22">
       <c r="A33" s="21">
         <v>1210</v>
       </c>
@@ -5389,20 +5457,21 @@
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
-      <c r="S33" s="35">
+      <c r="S33" s="24"/>
+      <c r="T33" s="35">
         <f t="shared" si="0"/>
         <v>15.3</v>
       </c>
-      <c r="T33" s="35">
+      <c r="U33" s="35">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="U33" s="33">
+      <c r="V33" s="33">
         <f t="shared" si="2"/>
         <v>14.535</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:22">
       <c r="A34" s="21" t="s">
         <v>137</v>
       </c>
@@ -5445,20 +5514,21 @@
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
-      <c r="S34" s="35">
+      <c r="S34" s="24"/>
+      <c r="T34" s="35">
         <f t="shared" si="0"/>
         <v>31.9056</v>
       </c>
-      <c r="T34" s="35">
+      <c r="U34" s="35">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="U34" s="33">
+      <c r="V34" s="33">
         <f t="shared" si="2"/>
         <v>30.310320000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:22">
       <c r="A35" s="21" t="s">
         <v>141</v>
       </c>
@@ -5501,20 +5571,21 @@
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
-      <c r="S35" s="35">
+      <c r="S35" s="24"/>
+      <c r="T35" s="35">
         <f t="shared" si="0"/>
         <v>66.476799999999997</v>
       </c>
-      <c r="T35" s="35">
+      <c r="U35" s="35">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="U35" s="33">
+      <c r="V35" s="33">
         <f t="shared" si="2"/>
         <v>63.152959999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:22">
       <c r="A36" s="21" t="s">
         <v>145</v>
       </c>
@@ -5557,20 +5628,21 @@
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
-      <c r="S36" s="35">
+      <c r="S36" s="24"/>
+      <c r="T36" s="35">
         <f t="shared" si="0"/>
         <v>103.79520000000001</v>
       </c>
-      <c r="T36" s="35">
+      <c r="U36" s="35">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="U36" s="33">
+      <c r="V36" s="33">
         <f t="shared" si="2"/>
         <v>98.605440000000016</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:22">
       <c r="A37" s="21" t="s">
         <v>148</v>
       </c>
@@ -5613,20 +5685,21 @@
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
-      <c r="S37" s="35">
+      <c r="S37" s="24"/>
+      <c r="T37" s="35">
         <f t="shared" si="0"/>
         <v>143.94239999999999</v>
       </c>
-      <c r="T37" s="35">
+      <c r="U37" s="35">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="U37" s="33">
+      <c r="V37" s="33">
         <f t="shared" si="2"/>
         <v>136.74527999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:22">
       <c r="A38" s="21" t="s">
         <v>152</v>
       </c>
@@ -5669,20 +5742,21 @@
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
-      <c r="S38" s="35">
+      <c r="S38" s="24"/>
+      <c r="T38" s="35">
         <f t="shared" si="0"/>
         <v>187.00000000000003</v>
       </c>
-      <c r="T38" s="35">
+      <c r="U38" s="35">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="U38" s="33">
+      <c r="V38" s="33">
         <f t="shared" si="2"/>
         <v>177.65000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:22">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="23"/>
@@ -5701,20 +5775,21 @@
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
-      <c r="S39" s="35">
+      <c r="S39" s="24"/>
+      <c r="T39" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T39" s="35">
+      <c r="U39" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U39" s="33">
+      <c r="V39" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:22">
       <c r="A40" s="21">
         <v>1220</v>
       </c>
@@ -5757,20 +5832,21 @@
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
-      <c r="S40" s="35">
+      <c r="S40" s="24"/>
+      <c r="T40" s="35">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="T40" s="35">
+      <c r="U40" s="35">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="U40" s="33">
+      <c r="V40" s="33">
         <f t="shared" si="2"/>
         <v>6.82</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:22">
       <c r="A41" s="21">
         <v>1300</v>
       </c>
@@ -5810,27 +5886,28 @@
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
       <c r="O41" s="24"/>
-      <c r="P41" s="24">
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24">
         <v>7</v>
       </c>
-      <c r="Q41" s="24">
+      <c r="R41" s="24">
         <v>100</v>
       </c>
-      <c r="R41" s="24"/>
-      <c r="S41" s="35">
+      <c r="S41" s="24"/>
+      <c r="T41" s="35">
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="T41" s="35">
+      <c r="U41" s="35">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="U41" s="33">
+      <c r="V41" s="33">
         <f t="shared" si="2"/>
         <v>26.4</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:22">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="23"/>
@@ -5849,20 +5926,21 @@
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
-      <c r="S42" s="35">
+      <c r="S42" s="24"/>
+      <c r="T42" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T42" s="35">
+      <c r="U42" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U42" s="33">
+      <c r="V42" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:22">
       <c r="A43" s="21">
         <v>1310</v>
       </c>
@@ -5908,23 +5986,26 @@
       <c r="O43" s="24">
         <v>3</v>
       </c>
-      <c r="P43" s="24"/>
+      <c r="P43" s="37" t="s">
+        <v>545</v>
+      </c>
       <c r="Q43" s="24"/>
       <c r="R43" s="24"/>
-      <c r="S43" s="35">
+      <c r="S43" s="24"/>
+      <c r="T43" s="35">
         <f t="shared" si="0"/>
         <v>15.84</v>
       </c>
-      <c r="T43" s="35">
+      <c r="U43" s="35">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="U43" s="33">
+      <c r="V43" s="33">
         <f t="shared" si="2"/>
         <v>26.135999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:22">
       <c r="A44" s="21" t="s">
         <v>162</v>
       </c>
@@ -5970,23 +6051,26 @@
       <c r="O44" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P44" s="24"/>
+      <c r="P44" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="Q44" s="24"/>
       <c r="R44" s="24"/>
-      <c r="S44" s="35">
+      <c r="S44" s="24"/>
+      <c r="T44" s="35">
         <f t="shared" si="0"/>
         <v>31.68</v>
       </c>
-      <c r="T44" s="35">
+      <c r="U44" s="35">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="U44" s="33">
+      <c r="V44" s="33">
         <f t="shared" si="2"/>
         <v>52.271999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:22">
       <c r="A45" s="21" t="s">
         <v>164</v>
       </c>
@@ -6032,23 +6116,26 @@
       <c r="O45" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P45" s="24"/>
+      <c r="P45" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="Q45" s="24"/>
       <c r="R45" s="24"/>
-      <c r="S45" s="35">
+      <c r="S45" s="24"/>
+      <c r="T45" s="35">
         <f t="shared" si="0"/>
         <v>63.36</v>
       </c>
-      <c r="T45" s="35">
+      <c r="U45" s="35">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="U45" s="33">
+      <c r="V45" s="33">
         <f t="shared" si="2"/>
         <v>104.544</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:22">
       <c r="A46" s="21" t="s">
         <v>166</v>
       </c>
@@ -6094,23 +6181,26 @@
       <c r="O46" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P46" s="24"/>
+      <c r="P46" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
-      <c r="S46" s="35">
+      <c r="S46" s="24"/>
+      <c r="T46" s="35">
         <f t="shared" si="0"/>
         <v>95.04</v>
       </c>
-      <c r="T46" s="35">
+      <c r="U46" s="35">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="U46" s="33">
+      <c r="V46" s="33">
         <f t="shared" si="2"/>
         <v>156.816</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:22">
       <c r="A47" s="21" t="s">
         <v>168</v>
       </c>
@@ -6156,23 +6246,26 @@
       <c r="O47" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P47" s="24"/>
+      <c r="P47" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="Q47" s="24"/>
       <c r="R47" s="24"/>
-      <c r="S47" s="35">
+      <c r="S47" s="24"/>
+      <c r="T47" s="35">
         <f t="shared" si="0"/>
         <v>126.72</v>
       </c>
-      <c r="T47" s="35">
+      <c r="U47" s="35">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="U47" s="33">
+      <c r="V47" s="33">
         <f t="shared" si="2"/>
         <v>209.08799999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:22">
       <c r="A48" s="21" t="s">
         <v>170</v>
       </c>
@@ -6218,23 +6311,26 @@
       <c r="O48" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P48" s="24"/>
+      <c r="P48" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
-      <c r="S48" s="35">
+      <c r="S48" s="24"/>
+      <c r="T48" s="35">
         <f t="shared" si="0"/>
         <v>158.4</v>
       </c>
-      <c r="T48" s="35">
+      <c r="U48" s="35">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="U48" s="33">
+      <c r="V48" s="33">
         <f t="shared" si="2"/>
         <v>261.36</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:22">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="23"/>
@@ -6253,20 +6349,21 @@
       <c r="P49" s="24"/>
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
-      <c r="S49" s="35">
+      <c r="S49" s="24"/>
+      <c r="T49" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T49" s="35">
+      <c r="U49" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U49" s="33">
+      <c r="V49" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:22">
       <c r="A50" s="21">
         <v>1320</v>
       </c>
@@ -6309,20 +6406,21 @@
       <c r="P50" s="24"/>
       <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
-      <c r="S50" s="35">
+      <c r="S50" s="24"/>
+      <c r="T50" s="35">
         <f t="shared" si="0"/>
         <v>9.7200000000000024</v>
       </c>
-      <c r="T50" s="35">
+      <c r="U50" s="35">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="U50" s="33">
+      <c r="V50" s="33">
         <f t="shared" si="2"/>
         <v>11.664000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:22">
       <c r="A51" s="21" t="s">
         <v>174</v>
       </c>
@@ -6365,20 +6463,21 @@
       <c r="P51" s="24"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
-      <c r="S51" s="35">
+      <c r="S51" s="24"/>
+      <c r="T51" s="35">
         <f t="shared" si="0"/>
         <v>34.335000000000008</v>
       </c>
-      <c r="T51" s="35">
+      <c r="U51" s="35">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="U51" s="33">
+      <c r="V51" s="33">
         <f t="shared" si="2"/>
         <v>46.352250000000012</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:22">
       <c r="A52" s="21" t="s">
         <v>177</v>
       </c>
@@ -6421,20 +6520,21 @@
       <c r="P52" s="24"/>
       <c r="Q52" s="24"/>
       <c r="R52" s="24"/>
-      <c r="S52" s="35">
+      <c r="S52" s="24"/>
+      <c r="T52" s="35">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="T52" s="35">
+      <c r="U52" s="35">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="U52" s="33">
+      <c r="V52" s="33">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:22">
       <c r="A53" s="21" t="s">
         <v>179</v>
       </c>
@@ -6477,20 +6577,21 @@
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
       <c r="R53" s="24"/>
-      <c r="S53" s="35">
+      <c r="S53" s="24"/>
+      <c r="T53" s="35">
         <f t="shared" si="0"/>
         <v>104.89500000000002</v>
       </c>
-      <c r="T53" s="35">
+      <c r="U53" s="35">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="U53" s="33">
+      <c r="V53" s="33">
         <f t="shared" si="2"/>
         <v>173.07675000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:22">
       <c r="A54" s="21" t="s">
         <v>182</v>
       </c>
@@ -6533,20 +6634,21 @@
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
       <c r="R54" s="24"/>
-      <c r="S54" s="35">
+      <c r="S54" s="24"/>
+      <c r="T54" s="35">
         <f t="shared" si="0"/>
         <v>151.20000000000002</v>
       </c>
-      <c r="T54" s="35">
+      <c r="U54" s="35">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="U54" s="33">
+      <c r="V54" s="33">
         <f t="shared" si="2"/>
         <v>272.16000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:22">
       <c r="A55" s="21" t="s">
         <v>185</v>
       </c>
@@ -6589,20 +6691,21 @@
       <c r="P55" s="24"/>
       <c r="Q55" s="24"/>
       <c r="R55" s="24"/>
-      <c r="S55" s="35">
+      <c r="S55" s="24"/>
+      <c r="T55" s="35">
         <f t="shared" si="0"/>
         <v>205.095</v>
       </c>
-      <c r="T55" s="35">
+      <c r="U55" s="35">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="U55" s="33">
+      <c r="V55" s="33">
         <f t="shared" si="2"/>
         <v>399.93525</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:22">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="23"/>
@@ -6621,20 +6724,21 @@
       <c r="P56" s="24"/>
       <c r="Q56" s="24"/>
       <c r="R56" s="24"/>
-      <c r="S56" s="35">
+      <c r="S56" s="24"/>
+      <c r="T56" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T56" s="35">
+      <c r="U56" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U56" s="33">
+      <c r="V56" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:22">
       <c r="A57" s="21">
         <v>1400</v>
       </c>
@@ -6677,20 +6781,21 @@
       <c r="P57" s="24"/>
       <c r="Q57" s="24"/>
       <c r="R57" s="24"/>
-      <c r="S57" s="35">
+      <c r="S57" s="24"/>
+      <c r="T57" s="35">
         <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
-      <c r="T57" s="35">
+      <c r="U57" s="35">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="U57" s="33">
+      <c r="V57" s="33">
         <f t="shared" si="2"/>
         <v>33.659999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:22">
       <c r="A58" s="21" t="s">
         <v>191</v>
       </c>
@@ -6733,20 +6838,21 @@
       <c r="P58" s="24"/>
       <c r="Q58" s="24"/>
       <c r="R58" s="24"/>
-      <c r="S58" s="35">
+      <c r="S58" s="24"/>
+      <c r="T58" s="35">
         <f t="shared" si="0"/>
         <v>42.9</v>
       </c>
-      <c r="T58" s="35">
+      <c r="U58" s="35">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="U58" s="33">
+      <c r="V58" s="33">
         <f t="shared" si="2"/>
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:22">
       <c r="A59" s="21" t="s">
         <v>194</v>
       </c>
@@ -6789,20 +6895,21 @@
       <c r="P59" s="24"/>
       <c r="Q59" s="24"/>
       <c r="R59" s="24"/>
-      <c r="S59" s="35">
+      <c r="S59" s="24"/>
+      <c r="T59" s="35">
         <f t="shared" si="0"/>
         <v>69.300000000000011</v>
       </c>
-      <c r="T59" s="35">
+      <c r="U59" s="35">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="U59" s="33">
+      <c r="V59" s="33">
         <f t="shared" si="2"/>
         <v>117.81000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:22">
       <c r="A60" s="21" t="s">
         <v>196</v>
       </c>
@@ -6845,20 +6952,21 @@
       <c r="P60" s="24"/>
       <c r="Q60" s="24"/>
       <c r="R60" s="24"/>
-      <c r="S60" s="35">
+      <c r="S60" s="24"/>
+      <c r="T60" s="35">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="T60" s="35">
+      <c r="U60" s="35">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="U60" s="33">
+      <c r="V60" s="33">
         <f t="shared" si="2"/>
         <v>168.3</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:22">
       <c r="A61" s="21" t="s">
         <v>199</v>
       </c>
@@ -6901,20 +7009,21 @@
       <c r="P61" s="24"/>
       <c r="Q61" s="24"/>
       <c r="R61" s="24"/>
-      <c r="S61" s="35">
+      <c r="S61" s="24"/>
+      <c r="T61" s="35">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="T61" s="35">
+      <c r="U61" s="35">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="U61" s="33">
+      <c r="V61" s="33">
         <f t="shared" si="2"/>
         <v>224.4</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:22">
       <c r="A62" s="21" t="s">
         <v>203</v>
       </c>
@@ -6957,20 +7066,21 @@
       <c r="P62" s="24"/>
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
-      <c r="S62" s="35">
+      <c r="S62" s="24"/>
+      <c r="T62" s="35">
         <f t="shared" si="0"/>
         <v>168.30000000000004</v>
       </c>
-      <c r="T62" s="35">
+      <c r="U62" s="35">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="U62" s="33">
+      <c r="V62" s="33">
         <f t="shared" si="2"/>
         <v>286.11000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:22">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="23"/>
@@ -6989,20 +7099,21 @@
       <c r="P63" s="24"/>
       <c r="Q63" s="24"/>
       <c r="R63" s="24"/>
-      <c r="S63" s="35">
+      <c r="S63" s="24"/>
+      <c r="T63" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T63" s="35">
+      <c r="U63" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U63" s="33">
+      <c r="V63" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:22">
       <c r="A64" s="21">
         <v>1410</v>
       </c>
@@ -7045,20 +7156,21 @@
       <c r="P64" s="24"/>
       <c r="Q64" s="24"/>
       <c r="R64" s="24"/>
-      <c r="S64" s="35">
+      <c r="S64" s="24"/>
+      <c r="T64" s="35">
         <f t="shared" si="0"/>
         <v>24.975000000000005</v>
       </c>
-      <c r="T64" s="35">
+      <c r="U64" s="35">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="U64" s="33">
+      <c r="V64" s="33">
         <f t="shared" si="2"/>
         <v>44.955000000000013</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:22">
       <c r="A65" s="21" t="s">
         <v>208</v>
       </c>
@@ -7101,20 +7213,21 @@
       <c r="P65" s="24"/>
       <c r="Q65" s="24"/>
       <c r="R65" s="24"/>
-      <c r="S65" s="35">
+      <c r="S65" s="24"/>
+      <c r="T65" s="35">
         <f t="shared" si="0"/>
         <v>49.95000000000001</v>
       </c>
-      <c r="T65" s="35">
+      <c r="U65" s="35">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="U65" s="33">
+      <c r="V65" s="33">
         <f t="shared" si="2"/>
         <v>94.905000000000015</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:22">
       <c r="A66" s="21" t="s">
         <v>211</v>
       </c>
@@ -7157,20 +7270,21 @@
       <c r="P66" s="24"/>
       <c r="Q66" s="24"/>
       <c r="R66" s="24"/>
-      <c r="S66" s="35">
+      <c r="S66" s="24"/>
+      <c r="T66" s="35">
         <f t="shared" si="0"/>
         <v>74.925000000000011</v>
       </c>
-      <c r="T66" s="35">
+      <c r="U66" s="35">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="U66" s="33">
+      <c r="V66" s="33">
         <f t="shared" si="2"/>
         <v>149.85000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:22">
       <c r="A67" s="21" t="s">
         <v>215</v>
       </c>
@@ -7213,20 +7327,21 @@
       <c r="P67" s="24"/>
       <c r="Q67" s="24"/>
       <c r="R67" s="24"/>
-      <c r="S67" s="35">
+      <c r="S67" s="24"/>
+      <c r="T67" s="35">
         <f t="shared" si="0"/>
         <v>99.90000000000002</v>
       </c>
-      <c r="T67" s="35">
+      <c r="U67" s="35">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="U67" s="33">
+      <c r="V67" s="33">
         <f t="shared" si="2"/>
         <v>209.79000000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:22">
       <c r="A68" s="21" t="s">
         <v>218</v>
       </c>
@@ -7269,20 +7384,21 @@
       <c r="P68" s="24"/>
       <c r="Q68" s="24"/>
       <c r="R68" s="24"/>
-      <c r="S68" s="35">
+      <c r="S68" s="24"/>
+      <c r="T68" s="35">
         <f t="shared" si="0"/>
         <v>124.875</v>
       </c>
-      <c r="T68" s="35">
+      <c r="U68" s="35">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="U68" s="33">
+      <c r="V68" s="33">
         <f t="shared" si="2"/>
         <v>274.72500000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:22">
       <c r="A69" s="21" t="s">
         <v>221</v>
       </c>
@@ -7325,20 +7441,21 @@
       <c r="P69" s="24"/>
       <c r="Q69" s="24"/>
       <c r="R69" s="24"/>
-      <c r="S69" s="35">
+      <c r="S69" s="24"/>
+      <c r="T69" s="35">
         <f t="shared" si="0"/>
         <v>149.85000000000002</v>
       </c>
-      <c r="T69" s="35">
+      <c r="U69" s="35">
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="U69" s="33">
+      <c r="V69" s="33">
         <f t="shared" si="2"/>
         <v>344.65500000000009</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:22">
       <c r="A70" s="21"/>
       <c r="B70" s="24"/>
       <c r="C70" s="22"/>
@@ -7357,20 +7474,21 @@
       <c r="P70" s="24"/>
       <c r="Q70" s="24"/>
       <c r="R70" s="24"/>
-      <c r="S70" s="35">
-        <f t="shared" ref="S70:S115" si="3">(D70+E70)/2 * (1 + G70 /100) * F70 / 100</f>
-        <v>0</v>
-      </c>
+      <c r="S70" s="24"/>
       <c r="T70" s="35">
-        <f t="shared" ref="T70:T115" si="4">H70 + I70*5</f>
-        <v>0</v>
-      </c>
-      <c r="U70" s="33">
-        <f t="shared" ref="U70:U115" si="5">S70*T70 / 100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+        <f t="shared" ref="T70:T115" si="3">(D70+E70)/2 * (1 + G70 /100) * F70 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="U70" s="35">
+        <f t="shared" ref="U70:U115" si="4">H70 + I70*5</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="33">
+        <f t="shared" ref="V70:V115" si="5">T70*U70 / 100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="21">
         <v>1420</v>
       </c>
@@ -7413,20 +7531,21 @@
       <c r="P71" s="24"/>
       <c r="Q71" s="24"/>
       <c r="R71" s="24"/>
-      <c r="S71" s="35">
+      <c r="S71" s="24"/>
+      <c r="T71" s="35">
         <f t="shared" si="3"/>
         <v>22.440000000000005</v>
       </c>
-      <c r="T71" s="35">
+      <c r="U71" s="35">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="U71" s="33">
+      <c r="V71" s="33">
         <f t="shared" si="5"/>
         <v>40.39200000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:22">
       <c r="A72" s="21" t="s">
         <v>227</v>
       </c>
@@ -7469,20 +7588,21 @@
       <c r="P72" s="24"/>
       <c r="Q72" s="24"/>
       <c r="R72" s="24"/>
-      <c r="S72" s="35">
+      <c r="S72" s="24"/>
+      <c r="T72" s="35">
         <f t="shared" si="3"/>
         <v>44.88000000000001</v>
       </c>
-      <c r="T72" s="35">
+      <c r="U72" s="35">
         <f t="shared" si="4"/>
         <v>185</v>
       </c>
-      <c r="U72" s="33">
+      <c r="V72" s="33">
         <f t="shared" si="5"/>
         <v>83.028000000000006</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:22">
       <c r="A73" s="21" t="s">
         <v>230</v>
       </c>
@@ -7525,20 +7645,21 @@
       <c r="P73" s="24"/>
       <c r="Q73" s="24"/>
       <c r="R73" s="24"/>
-      <c r="S73" s="35">
+      <c r="S73" s="24"/>
+      <c r="T73" s="35">
         <f t="shared" si="3"/>
         <v>64.02</v>
       </c>
-      <c r="T73" s="35">
+      <c r="U73" s="35">
         <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="U73" s="33">
+      <c r="V73" s="33">
         <f t="shared" si="5"/>
         <v>121.63799999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:22">
       <c r="A74" s="21" t="s">
         <v>233</v>
       </c>
@@ -7581,20 +7702,21 @@
       <c r="P74" s="24"/>
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
-      <c r="S74" s="35">
+      <c r="S74" s="24"/>
+      <c r="T74" s="35">
         <f t="shared" si="3"/>
         <v>89.760000000000019</v>
       </c>
-      <c r="T74" s="35">
+      <c r="U74" s="35">
         <f t="shared" si="4"/>
         <v>195</v>
       </c>
-      <c r="U74" s="33">
+      <c r="V74" s="33">
         <f t="shared" si="5"/>
         <v>175.03200000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:22">
       <c r="A75" s="21" t="s">
         <v>236</v>
       </c>
@@ -7637,20 +7759,21 @@
       <c r="P75" s="24"/>
       <c r="Q75" s="24"/>
       <c r="R75" s="24"/>
-      <c r="S75" s="35">
+      <c r="S75" s="24"/>
+      <c r="T75" s="35">
         <f t="shared" si="3"/>
         <v>112.20000000000002</v>
       </c>
-      <c r="T75" s="35">
+      <c r="U75" s="35">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="U75" s="33">
+      <c r="V75" s="33">
         <f t="shared" si="5"/>
         <v>224.40000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:22">
       <c r="A76" s="21" t="s">
         <v>238</v>
       </c>
@@ -7693,20 +7816,21 @@
       <c r="P76" s="24"/>
       <c r="Q76" s="24"/>
       <c r="R76" s="24"/>
-      <c r="S76" s="35">
+      <c r="S76" s="24"/>
+      <c r="T76" s="35">
         <f t="shared" si="3"/>
         <v>134.63999999999999</v>
       </c>
-      <c r="T76" s="35">
+      <c r="U76" s="35">
         <f t="shared" si="4"/>
         <v>205</v>
       </c>
-      <c r="U76" s="33">
+      <c r="V76" s="33">
         <f t="shared" si="5"/>
         <v>276.01199999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:22">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -7725,20 +7849,21 @@
       <c r="P77" s="24"/>
       <c r="Q77" s="24"/>
       <c r="R77" s="24"/>
-      <c r="S77" s="35">
+      <c r="S77" s="24"/>
+      <c r="T77" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T77" s="35">
+      <c r="U77" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U77" s="33">
+      <c r="V77" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:22">
       <c r="A78" s="21">
         <v>1500</v>
       </c>
@@ -7781,20 +7906,21 @@
       <c r="P78" s="24"/>
       <c r="Q78" s="24"/>
       <c r="R78" s="24"/>
-      <c r="S78" s="35">
+      <c r="S78" s="24"/>
+      <c r="T78" s="35">
         <f t="shared" si="3"/>
         <v>15.540000000000003</v>
       </c>
-      <c r="T78" s="35">
+      <c r="U78" s="35">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="U78" s="33">
+      <c r="V78" s="33">
         <f t="shared" si="5"/>
         <v>20.979000000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:22">
       <c r="A79" s="21" t="s">
         <v>243</v>
       </c>
@@ -7837,20 +7963,21 @@
       <c r="P79" s="24"/>
       <c r="Q79" s="24"/>
       <c r="R79" s="24"/>
-      <c r="S79" s="35">
+      <c r="S79" s="24"/>
+      <c r="T79" s="35">
         <f t="shared" si="3"/>
         <v>40.359600000000007</v>
       </c>
-      <c r="T79" s="35">
+      <c r="U79" s="35">
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
-      <c r="U79" s="33">
+      <c r="V79" s="33">
         <f t="shared" si="5"/>
         <v>55.292652000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:22">
       <c r="A80" s="21" t="s">
         <v>247</v>
       </c>
@@ -7893,20 +8020,21 @@
       <c r="P80" s="24"/>
       <c r="Q80" s="24"/>
       <c r="R80" s="24"/>
-      <c r="S80" s="35">
+      <c r="S80" s="24"/>
+      <c r="T80" s="35">
         <f t="shared" si="3"/>
         <v>65.712000000000003</v>
       </c>
-      <c r="T80" s="35">
+      <c r="U80" s="35">
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
-      <c r="U80" s="33">
+      <c r="V80" s="33">
         <f t="shared" si="5"/>
         <v>91.339680000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:22">
       <c r="A81" s="21" t="s">
         <v>250</v>
       </c>
@@ -7949,20 +8077,21 @@
       <c r="P81" s="24"/>
       <c r="Q81" s="24"/>
       <c r="R81" s="24"/>
-      <c r="S81" s="35">
+      <c r="S81" s="24"/>
+      <c r="T81" s="35">
         <f t="shared" si="3"/>
         <v>87.399999999999977</v>
       </c>
-      <c r="T81" s="35">
+      <c r="U81" s="35">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
-      <c r="U81" s="33">
+      <c r="V81" s="33">
         <f t="shared" si="5"/>
         <v>123.23399999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:22">
       <c r="A82" s="21" t="s">
         <v>253</v>
       </c>
@@ -8005,20 +8134,21 @@
       <c r="P82" s="24"/>
       <c r="Q82" s="24"/>
       <c r="R82" s="24"/>
-      <c r="S82" s="35">
+      <c r="S82" s="24"/>
+      <c r="T82" s="35">
         <f t="shared" si="3"/>
         <v>117.05849999999998</v>
       </c>
-      <c r="T82" s="35">
+      <c r="U82" s="35">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="U82" s="33">
+      <c r="V82" s="33">
         <f t="shared" si="5"/>
         <v>167.39365499999997</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:22">
       <c r="A83" s="21" t="s">
         <v>257</v>
       </c>
@@ -8061,20 +8191,21 @@
       <c r="P83" s="24"/>
       <c r="Q83" s="24"/>
       <c r="R83" s="24"/>
-      <c r="S83" s="35">
+      <c r="S83" s="24"/>
+      <c r="T83" s="35">
         <f t="shared" si="3"/>
         <v>147.19999999999999</v>
       </c>
-      <c r="T83" s="35">
+      <c r="U83" s="35">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-      <c r="U83" s="33">
+      <c r="V83" s="33">
         <f t="shared" si="5"/>
         <v>213.44</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:22">
       <c r="A84" s="21"/>
       <c r="B84" s="24"/>
       <c r="C84" s="23"/>
@@ -8093,20 +8224,21 @@
       <c r="P84" s="24"/>
       <c r="Q84" s="24"/>
       <c r="R84" s="24"/>
-      <c r="S84" s="35">
+      <c r="S84" s="24"/>
+      <c r="T84" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T84" s="35">
+      <c r="U84" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U84" s="33">
+      <c r="V84" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:22">
       <c r="A85" s="21">
         <v>1510</v>
       </c>
@@ -8149,20 +8281,21 @@
       <c r="P85" s="24"/>
       <c r="Q85" s="24"/>
       <c r="R85" s="24"/>
-      <c r="S85" s="35">
+      <c r="S85" s="24"/>
+      <c r="T85" s="35">
         <f t="shared" si="3"/>
         <v>28.249999999999996</v>
       </c>
-      <c r="T85" s="35">
+      <c r="U85" s="35">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-      <c r="U85" s="33">
+      <c r="V85" s="33">
         <f t="shared" si="5"/>
         <v>40.962499999999991</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:22">
       <c r="A86" s="21" t="s">
         <v>260</v>
       </c>
@@ -8205,20 +8338,21 @@
       <c r="P86" s="24"/>
       <c r="Q86" s="24"/>
       <c r="R86" s="24"/>
-      <c r="S86" s="35">
+      <c r="S86" s="24"/>
+      <c r="T86" s="35">
         <f t="shared" si="3"/>
         <v>70.625</v>
       </c>
-      <c r="T86" s="35">
+      <c r="U86" s="35">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-      <c r="U86" s="33">
+      <c r="V86" s="33">
         <f t="shared" si="5"/>
         <v>102.40625</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:22">
       <c r="A87" s="21" t="s">
         <v>262</v>
       </c>
@@ -8261,20 +8395,21 @@
       <c r="P87" s="24"/>
       <c r="Q87" s="24"/>
       <c r="R87" s="24"/>
-      <c r="S87" s="35">
+      <c r="S87" s="24"/>
+      <c r="T87" s="35">
         <f t="shared" si="3"/>
         <v>112.99999999999999</v>
       </c>
-      <c r="T87" s="35">
+      <c r="U87" s="35">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-      <c r="U87" s="33">
+      <c r="V87" s="33">
         <f t="shared" si="5"/>
         <v>163.84999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:22">
       <c r="A88" s="21" t="s">
         <v>264</v>
       </c>
@@ -8317,20 +8452,21 @@
       <c r="P88" s="24"/>
       <c r="Q88" s="24"/>
       <c r="R88" s="24"/>
-      <c r="S88" s="35">
+      <c r="S88" s="24"/>
+      <c r="T88" s="35">
         <f t="shared" si="3"/>
         <v>141.25</v>
       </c>
-      <c r="T88" s="35">
+      <c r="U88" s="35">
         <f t="shared" si="4"/>
         <v>165</v>
       </c>
-      <c r="U88" s="33">
+      <c r="V88" s="33">
         <f t="shared" si="5"/>
         <v>233.0625</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:22">
       <c r="A89" s="21" t="s">
         <v>266</v>
       </c>
@@ -8373,20 +8509,21 @@
       <c r="P89" s="24"/>
       <c r="Q89" s="24"/>
       <c r="R89" s="24"/>
-      <c r="S89" s="35">
+      <c r="S89" s="24"/>
+      <c r="T89" s="35">
         <f t="shared" si="3"/>
         <v>183.62499999999997</v>
       </c>
-      <c r="T89" s="35">
+      <c r="U89" s="35">
         <f t="shared" si="4"/>
         <v>165</v>
       </c>
-      <c r="U89" s="33">
+      <c r="V89" s="33">
         <f t="shared" si="5"/>
         <v>302.98124999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:22">
       <c r="A90" s="21" t="s">
         <v>269</v>
       </c>
@@ -8429,20 +8566,21 @@
       <c r="P90" s="24"/>
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
-      <c r="S90" s="35">
+      <c r="S90" s="24"/>
+      <c r="T90" s="35">
         <f t="shared" si="3"/>
         <v>225.99999999999997</v>
       </c>
-      <c r="T90" s="35">
+      <c r="U90" s="35">
         <f t="shared" si="4"/>
         <v>165</v>
       </c>
-      <c r="U90" s="33">
+      <c r="V90" s="33">
         <f t="shared" si="5"/>
         <v>372.89999999999992</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:22">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -8461,20 +8599,21 @@
       <c r="P91" s="24"/>
       <c r="Q91" s="24"/>
       <c r="R91" s="24"/>
-      <c r="S91" s="35">
+      <c r="S91" s="24"/>
+      <c r="T91" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T91" s="35">
+      <c r="U91" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U91" s="33">
+      <c r="V91" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:22">
       <c r="A92" s="21">
         <v>1520</v>
       </c>
@@ -8517,20 +8656,21 @@
       <c r="P92" s="24"/>
       <c r="Q92" s="24"/>
       <c r="R92" s="24"/>
-      <c r="S92" s="35">
+      <c r="S92" s="24"/>
+      <c r="T92" s="35">
         <f t="shared" si="3"/>
         <v>18.63</v>
       </c>
-      <c r="T92" s="35">
+      <c r="U92" s="35">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="U92" s="33">
+      <c r="V92" s="33">
         <f t="shared" si="5"/>
         <v>26.081999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:22">
       <c r="A93" s="21" t="s">
         <v>273</v>
       </c>
@@ -8573,20 +8713,21 @@
       <c r="P93" s="24"/>
       <c r="Q93" s="24"/>
       <c r="R93" s="24"/>
-      <c r="S93" s="35">
+      <c r="S93" s="24"/>
+      <c r="T93" s="35">
         <f t="shared" si="3"/>
         <v>50.197499999999998</v>
       </c>
-      <c r="T93" s="35">
+      <c r="U93" s="35">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="U93" s="33">
+      <c r="V93" s="33">
         <f t="shared" si="5"/>
         <v>70.276499999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:22">
       <c r="A94" s="21" t="s">
         <v>277</v>
       </c>
@@ -8629,20 +8770,21 @@
       <c r="P94" s="24"/>
       <c r="Q94" s="24"/>
       <c r="R94" s="24"/>
-      <c r="S94" s="35">
+      <c r="S94" s="24"/>
+      <c r="T94" s="35">
         <f t="shared" si="3"/>
         <v>81.247499999999988</v>
       </c>
-      <c r="T94" s="35">
+      <c r="U94" s="35">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="U94" s="33">
+      <c r="V94" s="33">
         <f t="shared" si="5"/>
         <v>113.74649999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:22">
       <c r="A95" s="21" t="s">
         <v>279</v>
       </c>
@@ -8685,20 +8827,21 @@
       <c r="P95" s="24"/>
       <c r="Q95" s="24"/>
       <c r="R95" s="24"/>
-      <c r="S95" s="35">
+      <c r="S95" s="24"/>
+      <c r="T95" s="35">
         <f t="shared" si="3"/>
         <v>118.44999999999999</v>
       </c>
-      <c r="T95" s="35">
+      <c r="U95" s="35">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="U95" s="33">
+      <c r="V95" s="33">
         <f t="shared" si="5"/>
         <v>201.36499999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:22">
       <c r="A96" s="21" t="s">
         <v>283</v>
       </c>
@@ -8741,20 +8884,21 @@
       <c r="P96" s="24"/>
       <c r="Q96" s="24"/>
       <c r="R96" s="24"/>
-      <c r="S96" s="35">
+      <c r="S96" s="24"/>
+      <c r="T96" s="35">
         <f t="shared" si="3"/>
         <v>153.52499999999998</v>
       </c>
-      <c r="T96" s="35">
+      <c r="U96" s="35">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="U96" s="33">
+      <c r="V96" s="33">
         <f t="shared" si="5"/>
         <v>260.99249999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:22">
       <c r="A97" s="21" t="s">
         <v>286</v>
       </c>
@@ -8797,20 +8941,21 @@
       <c r="P97" s="24"/>
       <c r="Q97" s="24"/>
       <c r="R97" s="24"/>
-      <c r="S97" s="35">
+      <c r="S97" s="24"/>
+      <c r="T97" s="35">
         <f t="shared" si="3"/>
         <v>188.02499999999998</v>
       </c>
-      <c r="T97" s="35">
+      <c r="U97" s="35">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="U97" s="33">
+      <c r="V97" s="33">
         <f t="shared" si="5"/>
         <v>319.64249999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:22">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="23"/>
@@ -8829,20 +8974,21 @@
       <c r="P98" s="24"/>
       <c r="Q98" s="24"/>
       <c r="R98" s="24"/>
-      <c r="S98" s="35">
+      <c r="S98" s="24"/>
+      <c r="T98" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T98" s="35">
+      <c r="U98" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U98" s="33">
+      <c r="V98" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:22">
       <c r="A99" s="21">
         <v>1600</v>
       </c>
@@ -8885,20 +9031,21 @@
       <c r="P99" s="24"/>
       <c r="Q99" s="24"/>
       <c r="R99" s="24"/>
-      <c r="S99" s="35">
+      <c r="S99" s="24"/>
+      <c r="T99" s="35">
         <f t="shared" si="3"/>
         <v>6.82</v>
       </c>
-      <c r="T99" s="35">
+      <c r="U99" s="35">
         <f t="shared" si="4"/>
         <v>175</v>
       </c>
-      <c r="U99" s="33">
+      <c r="V99" s="33">
         <f t="shared" si="5"/>
         <v>11.935</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:22">
       <c r="A100" s="21" t="s">
         <v>292</v>
       </c>
@@ -8941,20 +9088,21 @@
       <c r="P100" s="24"/>
       <c r="Q100" s="24"/>
       <c r="R100" s="24"/>
-      <c r="S100" s="35">
+      <c r="S100" s="24"/>
+      <c r="T100" s="35">
         <f t="shared" si="3"/>
         <v>15.097500000000002</v>
       </c>
-      <c r="T100" s="35">
+      <c r="U100" s="35">
         <f t="shared" si="4"/>
         <v>181</v>
       </c>
-      <c r="U100" s="33">
+      <c r="V100" s="33">
         <f t="shared" si="5"/>
         <v>27.326475000000006</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:22">
       <c r="A101" s="21" t="s">
         <v>294</v>
       </c>
@@ -8997,20 +9145,21 @@
       <c r="P101" s="24"/>
       <c r="Q101" s="24"/>
       <c r="R101" s="24"/>
-      <c r="S101" s="35">
+      <c r="S101" s="24"/>
+      <c r="T101" s="35">
         <f t="shared" si="3"/>
         <v>25.024999999999999</v>
       </c>
-      <c r="T101" s="35">
+      <c r="U101" s="35">
         <f t="shared" si="4"/>
         <v>187</v>
       </c>
-      <c r="U101" s="33">
+      <c r="V101" s="33">
         <f t="shared" si="5"/>
         <v>46.796750000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:22">
       <c r="A102" s="21" t="s">
         <v>297</v>
       </c>
@@ -9053,20 +9202,21 @@
       <c r="P102" s="24"/>
       <c r="Q102" s="24"/>
       <c r="R102" s="24"/>
-      <c r="S102" s="35">
+      <c r="S102" s="24"/>
+      <c r="T102" s="35">
         <f t="shared" si="3"/>
         <v>36.602500000000006</v>
       </c>
-      <c r="T102" s="35">
+      <c r="U102" s="35">
         <f t="shared" si="4"/>
         <v>193</v>
       </c>
-      <c r="U102" s="33">
+      <c r="V102" s="33">
         <f t="shared" si="5"/>
         <v>70.642825000000016</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:22">
       <c r="A103" s="21" t="s">
         <v>299</v>
       </c>
@@ -9109,20 +9259,21 @@
       <c r="P103" s="24"/>
       <c r="Q103" s="24"/>
       <c r="R103" s="24"/>
-      <c r="S103" s="35">
+      <c r="S103" s="24"/>
+      <c r="T103" s="35">
         <f t="shared" si="3"/>
         <v>49.830000000000013</v>
       </c>
-      <c r="T103" s="35">
+      <c r="U103" s="35">
         <f t="shared" si="4"/>
         <v>199</v>
       </c>
-      <c r="U103" s="33">
+      <c r="V103" s="33">
         <f t="shared" si="5"/>
         <v>99.161700000000025</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:22">
       <c r="A104" s="21" t="s">
         <v>302</v>
       </c>
@@ -9165,20 +9316,21 @@
       <c r="P104" s="24"/>
       <c r="Q104" s="24"/>
       <c r="R104" s="24"/>
-      <c r="S104" s="35">
+      <c r="S104" s="24"/>
+      <c r="T104" s="35">
         <f t="shared" si="3"/>
         <v>69.63000000000001</v>
       </c>
-      <c r="T104" s="35">
+      <c r="U104" s="35">
         <f t="shared" si="4"/>
         <v>205</v>
       </c>
-      <c r="U104" s="33">
+      <c r="V104" s="33">
         <f t="shared" si="5"/>
         <v>142.7415</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:22">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="23"/>
@@ -9197,20 +9349,21 @@
       <c r="P105" s="24"/>
       <c r="Q105" s="24"/>
       <c r="R105" s="24"/>
-      <c r="S105" s="35">
+      <c r="S105" s="24"/>
+      <c r="T105" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T105" s="35">
+      <c r="U105" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U105" s="33">
+      <c r="V105" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:22">
       <c r="A106" s="21">
         <v>1610</v>
       </c>
@@ -9253,20 +9406,21 @@
       <c r="P106" s="24"/>
       <c r="Q106" s="24"/>
       <c r="R106" s="24"/>
-      <c r="S106" s="35">
+      <c r="S106" s="24"/>
+      <c r="T106" s="35">
         <f t="shared" si="3"/>
         <v>11.88</v>
       </c>
-      <c r="T106" s="35">
+      <c r="U106" s="35">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="U106" s="33">
+      <c r="V106" s="33">
         <f t="shared" si="5"/>
         <v>12.474</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:22">
       <c r="A107" s="21" t="s">
         <v>306</v>
       </c>
@@ -9309,20 +9463,21 @@
       <c r="P107" s="24"/>
       <c r="Q107" s="24"/>
       <c r="R107" s="24"/>
-      <c r="S107" s="35">
+      <c r="S107" s="24"/>
+      <c r="T107" s="35">
         <f t="shared" si="3"/>
         <v>24.192000000000004</v>
       </c>
-      <c r="T107" s="35">
+      <c r="U107" s="35">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="U107" s="33">
+      <c r="V107" s="33">
         <f t="shared" si="5"/>
         <v>31.449600000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:22">
       <c r="A108" s="21" t="s">
         <v>308</v>
       </c>
@@ -9365,20 +9520,21 @@
       <c r="P108" s="24"/>
       <c r="Q108" s="24"/>
       <c r="R108" s="24"/>
-      <c r="S108" s="35">
+      <c r="S108" s="24"/>
+      <c r="T108" s="35">
         <f t="shared" si="3"/>
         <v>36.936000000000007</v>
       </c>
-      <c r="T108" s="35">
+      <c r="U108" s="35">
         <f t="shared" si="4"/>
         <v>155</v>
       </c>
-      <c r="U108" s="33">
+      <c r="V108" s="33">
         <f t="shared" si="5"/>
         <v>57.250800000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:22">
       <c r="A109" s="21" t="s">
         <v>310</v>
       </c>
@@ -9421,20 +9577,21 @@
       <c r="P109" s="24"/>
       <c r="Q109" s="24"/>
       <c r="R109" s="24"/>
-      <c r="S109" s="35">
+      <c r="S109" s="24"/>
+      <c r="T109" s="35">
         <f t="shared" si="3"/>
         <v>50.111999999999995</v>
       </c>
-      <c r="T109" s="35">
+      <c r="U109" s="35">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="U109" s="33">
+      <c r="V109" s="33">
         <f t="shared" si="5"/>
         <v>90.201599999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:22">
       <c r="A110" s="21" t="s">
         <v>312</v>
       </c>
@@ -9477,20 +9634,21 @@
       <c r="P110" s="24"/>
       <c r="Q110" s="24"/>
       <c r="R110" s="24"/>
-      <c r="S110" s="35">
+      <c r="S110" s="24"/>
+      <c r="T110" s="35">
         <f t="shared" si="3"/>
         <v>60.887999999999991</v>
       </c>
-      <c r="T110" s="35">
+      <c r="U110" s="35">
         <f t="shared" si="4"/>
         <v>205</v>
       </c>
-      <c r="U110" s="33">
+      <c r="V110" s="33">
         <f t="shared" si="5"/>
         <v>124.82039999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:22">
       <c r="A111" s="21" t="s">
         <v>314</v>
       </c>
@@ -9533,20 +9691,21 @@
       <c r="P111" s="24"/>
       <c r="Q111" s="24"/>
       <c r="R111" s="24"/>
-      <c r="S111" s="35">
+      <c r="S111" s="24"/>
+      <c r="T111" s="35">
         <f t="shared" si="3"/>
         <v>89.279999999999987</v>
       </c>
-      <c r="T111" s="35">
+      <c r="U111" s="35">
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="U111" s="33">
+      <c r="V111" s="33">
         <f t="shared" si="5"/>
         <v>205.34399999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:22">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="23"/>
@@ -9565,20 +9724,21 @@
       <c r="P112" s="24"/>
       <c r="Q112" s="24"/>
       <c r="R112" s="24"/>
-      <c r="S112" s="35">
+      <c r="S112" s="24"/>
+      <c r="T112" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T112" s="35">
+      <c r="U112" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U112" s="33">
+      <c r="V112" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:22">
       <c r="A113" s="21">
         <v>1620</v>
       </c>
@@ -9621,20 +9781,21 @@
       <c r="P113" s="24"/>
       <c r="Q113" s="24"/>
       <c r="R113" s="24"/>
-      <c r="S113" s="35">
+      <c r="S113" s="24"/>
+      <c r="T113" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T113" s="35">
+      <c r="U113" s="35">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="U113" s="33">
+      <c r="V113" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:22">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="23"/>
@@ -9653,20 +9814,21 @@
       <c r="P114" s="24"/>
       <c r="Q114" s="24"/>
       <c r="R114" s="24"/>
-      <c r="S114" s="35">
+      <c r="S114" s="24"/>
+      <c r="T114" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T114" s="35">
+      <c r="U114" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U114" s="33">
+      <c r="V114" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:22">
       <c r="A115" s="21">
         <v>3001</v>
       </c>
@@ -9709,20 +9871,21 @@
       <c r="P115" s="24"/>
       <c r="Q115" s="24"/>
       <c r="R115" s="24"/>
-      <c r="S115" s="35">
+      <c r="S115" s="24"/>
+      <c r="T115" s="35">
         <f t="shared" si="3"/>
         <v>11.44</v>
       </c>
-      <c r="T115" s="35">
+      <c r="U115" s="35">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="U115" s="33">
+      <c r="V115" s="33">
         <f t="shared" si="5"/>
         <v>17.16</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:22">
       <c r="A116" s="21">
         <v>3002</v>
       </c>
@@ -9765,8 +9928,9 @@
       <c r="P116" s="24"/>
       <c r="Q116" s="24"/>
       <c r="R116" s="24"/>
-    </row>
-    <row r="117" spans="1:21">
+      <c r="S116" s="24"/>
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117" s="24">
         <v>3003</v>
       </c>
@@ -9797,8 +9961,9 @@
       <c r="P117" s="24"/>
       <c r="Q117" s="24"/>
       <c r="R117" s="24"/>
-    </row>
-    <row r="118" spans="1:21">
+      <c r="S117" s="24"/>
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118" s="24">
         <v>3004</v>
       </c>
@@ -9825,8 +9990,9 @@
       <c r="P118" s="24"/>
       <c r="Q118" s="24"/>
       <c r="R118" s="24"/>
-    </row>
-    <row r="119" spans="1:21">
+      <c r="S118" s="24"/>
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119" s="24">
         <v>3005</v>
       </c>
@@ -9857,8 +10023,9 @@
       <c r="P119" s="24"/>
       <c r="Q119" s="24"/>
       <c r="R119" s="24"/>
-    </row>
-    <row r="120" spans="1:21">
+      <c r="S119" s="24"/>
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="D120" s="17"/>
@@ -9873,7 +10040,7 @@
       <c r="M120" s="28"/>
       <c r="N120" s="28"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:22">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="D121" s="17"/>
@@ -9888,7 +10055,7 @@
       <c r="M121" s="28"/>
       <c r="N121" s="28"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:22">
       <c r="A122" s="17"/>
       <c r="B122" s="17"/>
       <c r="D122" s="17"/>
@@ -9903,7 +10070,7 @@
       <c r="M122" s="28"/>
       <c r="N122" s="28"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:22">
       <c r="A123" s="17"/>
       <c r="B123" s="26"/>
       <c r="C123" s="27"/>
@@ -9919,7 +10086,7 @@
       <c r="M123" s="28"/>
       <c r="N123" s="28"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:22">
       <c r="A124" s="17"/>
       <c r="B124" s="17"/>
       <c r="D124" s="17"/>
@@ -9934,7 +10101,7 @@
       <c r="M124" s="28"/>
       <c r="N124" s="28"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:22">
       <c r="A125" s="17"/>
       <c r="B125" s="17"/>
       <c r="D125" s="17"/>
@@ -9949,7 +10116,7 @@
       <c r="M125" s="28"/>
       <c r="N125" s="28"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:22">
       <c r="A126" s="17"/>
       <c r="B126" s="17"/>
       <c r="D126" s="17"/>
@@ -9964,7 +10131,7 @@
       <c r="M126" s="28"/>
       <c r="N126" s="28"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:22">
       <c r="A127" s="17"/>
       <c r="B127" s="17"/>
       <c r="D127" s="17"/>
@@ -9979,7 +10146,7 @@
       <c r="M127" s="29"/>
       <c r="N127" s="29"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:22">
       <c r="A128" s="17"/>
       <c r="B128" s="17"/>
       <c r="D128" s="17"/>
@@ -10280,7 +10447,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="550">
   <si>
     <t>物品ID</t>
   </si>
@@ -2437,6 +2437,22 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -3550,8 +3566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7150,10 +7166,18 @@
       <c r="L64" s="21">
         <v>1404</v>
       </c>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
+      <c r="M64" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="N64" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="O64" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="P64" s="24" t="s">
+        <v>546</v>
+      </c>
       <c r="Q64" s="24"/>
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
@@ -7207,10 +7231,18 @@
       <c r="L65" s="21">
         <v>1404</v>
       </c>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
+      <c r="M65" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="N65" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="O65" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="P65" s="24" t="s">
+        <v>549</v>
+      </c>
       <c r="Q65" s="24"/>
       <c r="R65" s="24"/>
       <c r="S65" s="24"/>
@@ -7264,10 +7296,18 @@
       <c r="L66" s="21">
         <v>1404</v>
       </c>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
+      <c r="M66" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="N66" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="O66" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="P66" s="24" t="s">
+        <v>546</v>
+      </c>
       <c r="Q66" s="24"/>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -7321,10 +7361,18 @@
       <c r="L67" s="21">
         <v>1404</v>
       </c>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
+      <c r="M67" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="N67" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="O67" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="P67" s="37" t="s">
+        <v>546</v>
+      </c>
       <c r="Q67" s="24"/>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
@@ -7378,10 +7426,18 @@
       <c r="L68" s="21">
         <v>1404</v>
       </c>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
+      <c r="M68" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="N68" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="O68" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="P68" s="37" t="s">
+        <v>546</v>
+      </c>
       <c r="Q68" s="24"/>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
@@ -7435,10 +7491,18 @@
       <c r="L69" s="21">
         <v>1404</v>
       </c>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
+      <c r="M69" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="N69" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="O69" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="P69" s="37" t="s">
+        <v>546</v>
+      </c>
       <c r="Q69" s="24"/>
       <c r="R69" s="24"/>
       <c r="S69" s="24"/>

--- a/Documents/ExcelData/ItemData.xlsx
+++ b/Documents/ExcelData/ItemData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="576">
   <si>
     <t>物品ID</t>
   </si>
@@ -2453,6 +2453,331 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>75</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -3566,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="P69" sqref="P69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4233,8 +4558,8 @@
       <c r="G12" s="21">
         <v>16</v>
       </c>
-      <c r="H12" s="21">
-        <v>160</v>
+      <c r="H12" s="38" t="s">
+        <v>560</v>
       </c>
       <c r="I12" s="38" t="s">
         <v>440</v>
@@ -4265,11 +4590,11 @@
       </c>
       <c r="U12" s="35">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="V12" s="33">
         <f t="shared" si="2"/>
-        <v>21.245399999999997</v>
+        <v>22.967999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -4294,8 +4619,8 @@
       <c r="G13" s="21">
         <v>16</v>
       </c>
-      <c r="H13" s="21">
-        <v>160</v>
+      <c r="H13" s="38" t="s">
+        <v>560</v>
       </c>
       <c r="I13" s="38" t="s">
         <v>440</v>
@@ -4326,11 +4651,11 @@
       </c>
       <c r="U13" s="35">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="V13" s="33">
         <f t="shared" si="2"/>
-        <v>63.736199999999997</v>
+        <v>68.903999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -4355,8 +4680,8 @@
       <c r="G14" s="21">
         <v>16</v>
       </c>
-      <c r="H14" s="21">
-        <v>160</v>
+      <c r="H14" s="38" t="s">
+        <v>560</v>
       </c>
       <c r="I14" s="38" t="s">
         <v>440</v>
@@ -4387,11 +4712,11 @@
       </c>
       <c r="U14" s="35">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="V14" s="33">
         <f t="shared" si="2"/>
-        <v>106.22699999999998</v>
+        <v>114.83999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -4416,8 +4741,8 @@
       <c r="G15" s="21">
         <v>16</v>
       </c>
-      <c r="H15" s="21">
-        <v>160</v>
+      <c r="H15" s="38" t="s">
+        <v>560</v>
       </c>
       <c r="I15" s="38" t="s">
         <v>440</v>
@@ -4448,11 +4773,11 @@
       </c>
       <c r="U15" s="35">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="V15" s="33">
         <f t="shared" si="2"/>
-        <v>169.96319999999997</v>
+        <v>183.74399999999997</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -4477,8 +4802,8 @@
       <c r="G16" s="21">
         <v>16</v>
       </c>
-      <c r="H16" s="21">
-        <v>160</v>
+      <c r="H16" s="38" t="s">
+        <v>560</v>
       </c>
       <c r="I16" s="38" t="s">
         <v>441</v>
@@ -4509,11 +4834,11 @@
       </c>
       <c r="U16" s="35">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="V16" s="33">
         <f t="shared" si="2"/>
-        <v>233.6994</v>
+        <v>252.648</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -4538,8 +4863,8 @@
       <c r="G17" s="21">
         <v>16</v>
       </c>
-      <c r="H17" s="21">
-        <v>160</v>
+      <c r="H17" s="38" t="s">
+        <v>560</v>
       </c>
       <c r="I17" s="38" t="s">
         <v>440</v>
@@ -4568,11 +4893,11 @@
       </c>
       <c r="U17" s="35">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="V17" s="33">
         <f t="shared" si="2"/>
-        <v>318.68099999999998</v>
+        <v>344.52</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -5452,8 +5777,8 @@
       <c r="G33" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H33" s="21">
-        <v>30</v>
+      <c r="H33" s="21" t="s">
+        <v>556</v>
       </c>
       <c r="I33" s="38" t="s">
         <v>438</v>
@@ -5480,11 +5805,11 @@
       </c>
       <c r="U33" s="35">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V33" s="33">
         <f t="shared" si="2"/>
-        <v>14.535</v>
+        <v>14.994000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -5509,8 +5834,8 @@
       <c r="G34" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="21">
-        <v>30</v>
+      <c r="H34" s="38" t="s">
+        <v>557</v>
       </c>
       <c r="I34" s="38" t="s">
         <v>438</v>
@@ -5537,11 +5862,11 @@
       </c>
       <c r="U34" s="35">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V34" s="33">
         <f t="shared" si="2"/>
-        <v>30.310320000000001</v>
+        <v>31.267488</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -5566,8 +5891,8 @@
       <c r="G35" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="21">
-        <v>30</v>
+      <c r="H35" s="38" t="s">
+        <v>558</v>
       </c>
       <c r="I35" s="38" t="s">
         <v>461</v>
@@ -5594,11 +5919,11 @@
       </c>
       <c r="U35" s="35">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V35" s="33">
         <f t="shared" si="2"/>
-        <v>63.152959999999993</v>
+        <v>65.147263999999993</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -5623,8 +5948,8 @@
       <c r="G36" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="21">
-        <v>30</v>
+      <c r="H36" s="38" t="s">
+        <v>557</v>
       </c>
       <c r="I36" s="38" t="s">
         <v>438</v>
@@ -5651,11 +5976,11 @@
       </c>
       <c r="U36" s="35">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V36" s="33">
         <f t="shared" si="2"/>
-        <v>98.605440000000016</v>
+        <v>101.71929600000001</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -5680,8 +6005,8 @@
       <c r="G37" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="21">
-        <v>30</v>
+      <c r="H37" s="38" t="s">
+        <v>557</v>
       </c>
       <c r="I37" s="38" t="s">
         <v>438</v>
@@ -5708,11 +6033,11 @@
       </c>
       <c r="U37" s="35">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V37" s="33">
         <f t="shared" si="2"/>
-        <v>136.74527999999998</v>
+        <v>141.06355199999999</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -5737,8 +6062,8 @@
       <c r="G38" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="21">
-        <v>30</v>
+      <c r="H38" s="38" t="s">
+        <v>557</v>
       </c>
       <c r="I38" s="38" t="s">
         <v>438</v>
@@ -5765,11 +6090,11 @@
       </c>
       <c r="U38" s="35">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V38" s="33">
         <f t="shared" si="2"/>
-        <v>177.65000000000003</v>
+        <v>183.26000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -5827,8 +6152,8 @@
       <c r="G40" s="21">
         <v>0</v>
       </c>
-      <c r="H40" s="21">
-        <v>110</v>
+      <c r="H40" s="38" t="s">
+        <v>559</v>
       </c>
       <c r="I40" s="38" t="s">
         <v>446</v>
@@ -5855,11 +6180,11 @@
       </c>
       <c r="U40" s="35">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="V40" s="33">
         <f t="shared" si="2"/>
-        <v>6.82</v>
+        <v>7.4800000000000013</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -6395,8 +6720,8 @@
       <c r="E50" s="21">
         <v>15</v>
       </c>
-      <c r="F50" s="21">
-        <v>60</v>
+      <c r="F50" s="38" t="s">
+        <v>551</v>
       </c>
       <c r="G50" s="21">
         <v>8</v>
@@ -6425,7 +6750,7 @@
       <c r="S50" s="24"/>
       <c r="T50" s="35">
         <f t="shared" si="0"/>
-        <v>9.7200000000000024</v>
+        <v>12.150000000000002</v>
       </c>
       <c r="U50" s="35">
         <f t="shared" si="1"/>
@@ -6433,7 +6758,7 @@
       </c>
       <c r="V50" s="33">
         <f t="shared" si="2"/>
-        <v>11.664000000000003</v>
+        <v>14.580000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -6452,8 +6777,8 @@
       <c r="E51" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="21" t="s">
-        <v>176</v>
+      <c r="F51" s="38" t="s">
+        <v>552</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>96</v>
@@ -6482,7 +6807,7 @@
       <c r="S51" s="24"/>
       <c r="T51" s="35">
         <f t="shared" si="0"/>
-        <v>34.335000000000008</v>
+        <v>39.24</v>
       </c>
       <c r="U51" s="35">
         <f t="shared" si="1"/>
@@ -6490,7 +6815,7 @@
       </c>
       <c r="V51" s="33">
         <f t="shared" si="2"/>
-        <v>46.352250000000012</v>
+        <v>52.974000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -6509,8 +6834,8 @@
       <c r="E52" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>83</v>
+      <c r="F52" s="38" t="s">
+        <v>550</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>44</v>
@@ -6539,7 +6864,7 @@
       <c r="S52" s="24"/>
       <c r="T52" s="35">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>70.125</v>
       </c>
       <c r="U52" s="35">
         <f t="shared" si="1"/>
@@ -6547,7 +6872,7 @@
       </c>
       <c r="V52" s="33">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>105.1875</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -6566,8 +6891,8 @@
       <c r="E53" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="F53" s="21" t="s">
-        <v>71</v>
+      <c r="F53" s="38" t="s">
+        <v>553</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>49</v>
@@ -6623,8 +6948,8 @@
       <c r="E54" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F54" s="21" t="s">
-        <v>155</v>
+      <c r="F54" s="38" t="s">
+        <v>554</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>56</v>
@@ -6653,7 +6978,7 @@
       <c r="S54" s="24"/>
       <c r="T54" s="35">
         <f t="shared" si="0"/>
-        <v>151.20000000000002</v>
+        <v>143.64000000000001</v>
       </c>
       <c r="U54" s="35">
         <f t="shared" si="1"/>
@@ -6661,7 +6986,7 @@
       </c>
       <c r="V54" s="33">
         <f t="shared" si="2"/>
-        <v>272.16000000000003</v>
+        <v>258.55200000000002</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -6680,8 +7005,8 @@
       <c r="E55" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="F55" s="21" t="s">
-        <v>86</v>
+      <c r="F55" s="38" t="s">
+        <v>555</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>61</v>
@@ -6710,7 +7035,7 @@
       <c r="S55" s="24"/>
       <c r="T55" s="35">
         <f t="shared" si="0"/>
-        <v>205.095</v>
+        <v>186.45</v>
       </c>
       <c r="U55" s="35">
         <f t="shared" si="1"/>
@@ -6718,7 +7043,7 @@
       </c>
       <c r="V55" s="33">
         <f t="shared" si="2"/>
-        <v>399.93525</v>
+        <v>363.57749999999999</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -6776,8 +7101,8 @@
       <c r="G57" s="21">
         <v>10</v>
       </c>
-      <c r="H57" s="21">
-        <v>80</v>
+      <c r="H57" s="38" t="s">
+        <v>569</v>
       </c>
       <c r="I57" s="38" t="s">
         <v>448</v>
@@ -6804,11 +7129,11 @@
       </c>
       <c r="U57" s="35">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="V57" s="33">
         <f t="shared" si="2"/>
-        <v>33.659999999999997</v>
+        <v>28.71</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -6833,8 +7158,8 @@
       <c r="G58" s="21">
         <v>10</v>
       </c>
-      <c r="H58" s="21">
-        <v>80</v>
+      <c r="H58" s="38" t="s">
+        <v>569</v>
       </c>
       <c r="I58" s="38" t="s">
         <v>449</v>
@@ -6861,11 +7186,11 @@
       </c>
       <c r="U58" s="35">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="V58" s="33">
         <f t="shared" si="2"/>
-        <v>72.930000000000007</v>
+        <v>62.204999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -6890,8 +7215,8 @@
       <c r="G59" s="21">
         <v>10</v>
       </c>
-      <c r="H59" s="21">
-        <v>80</v>
+      <c r="H59" s="38" t="s">
+        <v>569</v>
       </c>
       <c r="I59" s="38" t="s">
         <v>448</v>
@@ -6918,11 +7243,11 @@
       </c>
       <c r="U59" s="35">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="V59" s="33">
         <f t="shared" si="2"/>
-        <v>117.81000000000002</v>
+        <v>100.48500000000001</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -6947,8 +7272,8 @@
       <c r="G60" s="21">
         <v>10</v>
       </c>
-      <c r="H60" s="21">
-        <v>80</v>
+      <c r="H60" s="38" t="s">
+        <v>570</v>
       </c>
       <c r="I60" s="38" t="s">
         <v>448</v>
@@ -6975,11 +7300,11 @@
       </c>
       <c r="U60" s="35">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="V60" s="33">
         <f t="shared" si="2"/>
-        <v>168.3</v>
+        <v>143.55000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -7004,8 +7329,8 @@
       <c r="G61" s="21">
         <v>10</v>
       </c>
-      <c r="H61" s="21">
-        <v>80</v>
+      <c r="H61" s="38" t="s">
+        <v>569</v>
       </c>
       <c r="I61" s="38" t="s">
         <v>448</v>
@@ -7032,11 +7357,11 @@
       </c>
       <c r="U61" s="35">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="V61" s="33">
         <f t="shared" si="2"/>
-        <v>224.4</v>
+        <v>191.4</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -7061,8 +7386,8 @@
       <c r="G62" s="21">
         <v>10</v>
       </c>
-      <c r="H62" s="21">
-        <v>80</v>
+      <c r="H62" s="38" t="s">
+        <v>571</v>
       </c>
       <c r="I62" s="38" t="s">
         <v>448</v>
@@ -7089,11 +7414,11 @@
       </c>
       <c r="U62" s="35">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="V62" s="33">
         <f t="shared" si="2"/>
-        <v>286.11000000000007</v>
+        <v>244.03500000000008</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -7151,8 +7476,8 @@
       <c r="G64" s="21">
         <v>11</v>
       </c>
-      <c r="H64" s="21">
-        <v>110</v>
+      <c r="H64" s="38" t="s">
+        <v>567</v>
       </c>
       <c r="I64" s="38" t="s">
         <v>451</v>
@@ -7187,11 +7512,11 @@
       </c>
       <c r="U64" s="35">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="V64" s="33">
         <f t="shared" si="2"/>
-        <v>44.955000000000013</v>
+        <v>36.213750000000012</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -7216,8 +7541,8 @@
       <c r="G65" s="21">
         <v>11</v>
       </c>
-      <c r="H65" s="21">
-        <v>110</v>
+      <c r="H65" s="38" t="s">
+        <v>568</v>
       </c>
       <c r="I65" s="38" t="s">
         <v>452</v>
@@ -7252,11 +7577,11 @@
       </c>
       <c r="U65" s="35">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="V65" s="33">
         <f t="shared" si="2"/>
-        <v>94.905000000000015</v>
+        <v>77.422500000000014</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -7281,8 +7606,8 @@
       <c r="G66" s="21">
         <v>11</v>
       </c>
-      <c r="H66" s="21">
-        <v>110</v>
+      <c r="H66" s="38" t="s">
+        <v>568</v>
       </c>
       <c r="I66" s="38" t="s">
         <v>453</v>
@@ -7317,11 +7642,11 @@
       </c>
       <c r="U66" s="35">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="V66" s="33">
         <f t="shared" si="2"/>
-        <v>149.85000000000002</v>
+        <v>123.62625000000001</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -7346,8 +7671,8 @@
       <c r="G67" s="21">
         <v>11</v>
       </c>
-      <c r="H67" s="21">
-        <v>110</v>
+      <c r="H67" s="38" t="s">
+        <v>568</v>
       </c>
       <c r="I67" s="38" t="s">
         <v>454</v>
@@ -7382,11 +7707,11 @@
       </c>
       <c r="U67" s="35">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="V67" s="33">
         <f t="shared" si="2"/>
-        <v>209.79000000000005</v>
+        <v>174.82500000000005</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -7411,8 +7736,8 @@
       <c r="G68" s="21">
         <v>11</v>
       </c>
-      <c r="H68" s="21">
-        <v>110</v>
+      <c r="H68" s="38" t="s">
+        <v>568</v>
       </c>
       <c r="I68" s="38" t="s">
         <v>455</v>
@@ -7447,11 +7772,11 @@
       </c>
       <c r="U68" s="35">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="V68" s="33">
         <f t="shared" si="2"/>
-        <v>274.72500000000002</v>
+        <v>231.01875000000001</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -7476,8 +7801,8 @@
       <c r="G69" s="21">
         <v>11</v>
       </c>
-      <c r="H69" s="21">
-        <v>110</v>
+      <c r="H69" s="38" t="s">
+        <v>568</v>
       </c>
       <c r="I69" s="38" t="s">
         <v>456</v>
@@ -7512,11 +7837,11 @@
       </c>
       <c r="U69" s="35">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="V69" s="33">
         <f t="shared" si="2"/>
-        <v>344.65500000000009</v>
+        <v>292.20750000000004</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -7571,11 +7896,11 @@
       <c r="F71" s="21">
         <v>60</v>
       </c>
-      <c r="G71" s="21">
-        <v>10</v>
-      </c>
-      <c r="H71" s="21">
-        <v>40</v>
+      <c r="G71" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>561</v>
       </c>
       <c r="I71" s="38" t="s">
         <v>450</v>
@@ -7598,15 +7923,15 @@
       <c r="S71" s="24"/>
       <c r="T71" s="35">
         <f t="shared" si="3"/>
-        <v>22.440000000000005</v>
+        <v>24.48</v>
       </c>
       <c r="U71" s="35">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="V71" s="33">
         <f t="shared" si="5"/>
-        <v>40.39200000000001</v>
+        <v>39.167999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -7628,11 +7953,11 @@
       <c r="F72" s="21">
         <v>60</v>
       </c>
-      <c r="G72" s="21">
-        <v>10</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>113</v>
+      <c r="G72" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>562</v>
       </c>
       <c r="I72" s="38" t="s">
         <v>450</v>
@@ -7655,15 +7980,15 @@
       <c r="S72" s="24"/>
       <c r="T72" s="35">
         <f t="shared" si="3"/>
-        <v>44.88000000000001</v>
+        <v>48.96</v>
       </c>
       <c r="U72" s="35">
         <f t="shared" si="4"/>
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="V72" s="33">
         <f t="shared" si="5"/>
-        <v>83.028000000000006</v>
+        <v>80.784000000000006</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -7685,11 +8010,11 @@
       <c r="F73" s="21">
         <v>60</v>
       </c>
-      <c r="G73" s="21">
-        <v>10</v>
-      </c>
-      <c r="H73" s="21" t="s">
-        <v>80</v>
+      <c r="G73" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>563</v>
       </c>
       <c r="I73" s="38" t="s">
         <v>450</v>
@@ -7712,15 +8037,15 @@
       <c r="S73" s="24"/>
       <c r="T73" s="35">
         <f t="shared" si="3"/>
-        <v>64.02</v>
+        <v>69.839999999999989</v>
       </c>
       <c r="U73" s="35">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="V73" s="33">
         <f t="shared" si="5"/>
-        <v>121.63799999999999</v>
+        <v>118.72799999999998</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -7742,11 +8067,11 @@
       <c r="F74" s="21">
         <v>60</v>
       </c>
-      <c r="G74" s="21">
-        <v>10</v>
-      </c>
-      <c r="H74" s="21" t="s">
-        <v>109</v>
+      <c r="G74" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>564</v>
       </c>
       <c r="I74" s="38" t="s">
         <v>450</v>
@@ -7769,15 +8094,15 @@
       <c r="S74" s="24"/>
       <c r="T74" s="35">
         <f t="shared" si="3"/>
-        <v>89.760000000000019</v>
+        <v>97.92</v>
       </c>
       <c r="U74" s="35">
         <f t="shared" si="4"/>
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="V74" s="33">
         <f t="shared" si="5"/>
-        <v>175.03200000000004</v>
+        <v>171.36</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -7799,11 +8124,11 @@
       <c r="F75" s="21">
         <v>60</v>
       </c>
-      <c r="G75" s="21">
-        <v>10</v>
-      </c>
-      <c r="H75" s="21" t="s">
-        <v>126</v>
+      <c r="G75" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>565</v>
       </c>
       <c r="I75" s="38" t="s">
         <v>450</v>
@@ -7826,15 +8151,15 @@
       <c r="S75" s="24"/>
       <c r="T75" s="35">
         <f t="shared" si="3"/>
-        <v>112.20000000000002</v>
+        <v>122.4</v>
       </c>
       <c r="U75" s="35">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="V75" s="33">
         <f t="shared" si="5"/>
-        <v>224.40000000000003</v>
+        <v>220.32</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -7856,11 +8181,11 @@
       <c r="F76" s="21">
         <v>60</v>
       </c>
-      <c r="G76" s="21">
-        <v>10</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>193</v>
+      <c r="G76" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>566</v>
       </c>
       <c r="I76" s="38" t="s">
         <v>450</v>
@@ -7883,15 +8208,15 @@
       <c r="S76" s="24"/>
       <c r="T76" s="35">
         <f t="shared" si="3"/>
-        <v>134.63999999999999</v>
+        <v>146.88</v>
       </c>
       <c r="U76" s="35">
         <f t="shared" si="4"/>
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="V76" s="33">
         <f t="shared" si="5"/>
-        <v>276.01199999999994</v>
+        <v>271.72800000000001</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -8324,8 +8649,8 @@
       <c r="G85" s="21">
         <v>13</v>
       </c>
-      <c r="H85" s="21">
-        <v>60</v>
+      <c r="H85" s="38" t="s">
+        <v>572</v>
       </c>
       <c r="I85" s="38" t="s">
         <v>458</v>
@@ -8352,11 +8677,11 @@
       </c>
       <c r="U85" s="35">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="V85" s="33">
         <f t="shared" si="5"/>
-        <v>40.962499999999991</v>
+        <v>38.137499999999996</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -8381,8 +8706,8 @@
       <c r="G86" s="21">
         <v>13</v>
       </c>
-      <c r="H86" s="21">
-        <v>60</v>
+      <c r="H86" s="38" t="s">
+        <v>573</v>
       </c>
       <c r="I86" s="38" t="s">
         <v>459</v>
@@ -8409,11 +8734,11 @@
       </c>
       <c r="U86" s="35">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="V86" s="33">
         <f t="shared" si="5"/>
-        <v>102.40625</v>
+        <v>95.34375</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -8438,8 +8763,8 @@
       <c r="G87" s="21">
         <v>13</v>
       </c>
-      <c r="H87" s="21">
-        <v>60</v>
+      <c r="H87" s="38" t="s">
+        <v>574</v>
       </c>
       <c r="I87" s="38" t="s">
         <v>458</v>
@@ -8466,11 +8791,11 @@
       </c>
       <c r="U87" s="35">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="V87" s="33">
         <f t="shared" si="5"/>
-        <v>163.84999999999997</v>
+        <v>152.54999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -8495,8 +8820,8 @@
       <c r="G88" s="21">
         <v>13</v>
       </c>
-      <c r="H88" s="21" t="s">
-        <v>83</v>
+      <c r="H88" s="38" t="s">
+        <v>575</v>
       </c>
       <c r="I88" s="38" t="s">
         <v>458</v>
@@ -8523,11 +8848,11 @@
       </c>
       <c r="U88" s="35">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="V88" s="33">
         <f t="shared" si="5"/>
-        <v>233.0625</v>
+        <v>204.8125</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -8552,8 +8877,8 @@
       <c r="G89" s="21">
         <v>13</v>
       </c>
-      <c r="H89" s="21" t="s">
-        <v>83</v>
+      <c r="H89" s="38" t="s">
+        <v>575</v>
       </c>
       <c r="I89" s="38" t="s">
         <v>458</v>
@@ -8580,11 +8905,11 @@
       </c>
       <c r="U89" s="35">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="V89" s="33">
         <f t="shared" si="5"/>
-        <v>302.98124999999999</v>
+        <v>266.25624999999997</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -8609,8 +8934,8 @@
       <c r="G90" s="21">
         <v>13</v>
       </c>
-      <c r="H90" s="21" t="s">
-        <v>83</v>
+      <c r="H90" s="38" t="s">
+        <v>575</v>
       </c>
       <c r="I90" s="38" t="s">
         <v>459</v>
@@ -8637,11 +8962,11 @@
       </c>
       <c r="U90" s="35">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="V90" s="33">
         <f t="shared" si="5"/>
-        <v>372.89999999999992</v>
+        <v>327.69999999999993</v>
       </c>
     </row>
     <row r="91" spans="1:22">
